--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="778">
   <si>
     <t>Movie</t>
   </si>
@@ -2276,9 +2276,6 @@
     <t>World Is Not Enough, The</t>
   </si>
   <si>
-    <t>2019-06-28</t>
-  </si>
-  <si>
     <t>WorldIsNotEnough</t>
   </si>
   <si>
@@ -2343,6 +2340,15 @@
   </si>
   <si>
     <t>DespicableMe3</t>
+  </si>
+  <si>
+    <t>The mastermind (David Niven) of Britain's great train robbery plans to rob a French train of NATO money bound for Brussels.</t>
+  </si>
+  <si>
+    <t>The Brain</t>
+  </si>
+  <si>
+    <t>TheBrain</t>
   </si>
 </sst>
 </file>
@@ -2710,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2735,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2761,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2770,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2787,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2813,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2839,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -2865,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -2874,7 +2880,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2891,7 +2897,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2917,7 +2923,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -2943,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2969,7 +2975,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -2995,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -3021,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -3047,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -3073,7 +3079,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D14">
         <v>35</v>
@@ -3099,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -3125,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -3151,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D17">
         <v>35</v>
@@ -3177,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -3203,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -3229,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -3255,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -3281,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -3307,7 +3313,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -3333,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3359,7 +3365,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -3385,7 +3391,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -3411,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D27">
         <v>35</v>
@@ -3437,7 +3443,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D28">
         <v>35</v>
@@ -3463,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D29">
         <v>35</v>
@@ -3489,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D30">
         <v>35</v>
@@ -3515,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -3541,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D32">
         <v>35</v>
@@ -3567,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -3593,7 +3599,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -3619,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3645,7 +3651,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -3671,7 +3677,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -3697,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -3723,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D39">
         <v>35</v>
@@ -3749,7 +3755,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -3775,7 +3781,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D41">
         <v>35</v>
@@ -3784,7 +3790,7 @@
         <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G41" t="s">
         <v>158</v>
@@ -3801,7 +3807,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -3827,7 +3833,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D43">
         <v>35</v>
@@ -3853,7 +3859,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D44">
         <v>35</v>
@@ -3879,7 +3885,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D45">
         <v>35</v>
@@ -3905,7 +3911,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D46">
         <v>35</v>
@@ -3931,7 +3937,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D47">
         <v>35</v>
@@ -3957,7 +3963,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D48">
         <v>35</v>
@@ -3966,7 +3972,7 @@
         <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G48" t="s">
         <v>186</v>
@@ -3983,7 +3989,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D49">
         <v>35</v>
@@ -4009,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D50">
         <v>35</v>
@@ -4035,7 +4041,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D51">
         <v>35</v>
@@ -4061,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D52">
         <v>35</v>
@@ -4081,13 +4087,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D53">
         <v>35</v>
@@ -4113,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D54">
         <v>35</v>
@@ -4133,13 +4139,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D55">
         <v>35</v>
@@ -4151,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4165,7 +4171,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D56">
         <v>35</v>
@@ -4191,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D57">
         <v>35</v>
@@ -4217,7 +4223,7 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D58">
         <v>35</v>
@@ -4243,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4269,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D60">
         <v>35</v>
@@ -4295,7 +4301,7 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D61">
         <v>35</v>
@@ -4321,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D62">
         <v>35</v>
@@ -4347,7 +4353,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D63">
         <v>35</v>
@@ -4373,7 +4379,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D64">
         <v>35</v>
@@ -4399,7 +4405,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D65">
         <v>35</v>
@@ -4425,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D66">
         <v>35</v>
@@ -4451,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D67">
         <v>35</v>
@@ -4477,7 +4483,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D68">
         <v>35</v>
@@ -4503,7 +4509,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -4529,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D70">
         <v>35</v>
@@ -4555,7 +4561,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D71">
         <v>35</v>
@@ -4581,7 +4587,7 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D72">
         <v>35</v>
@@ -4607,7 +4613,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D73">
         <v>35</v>
@@ -4633,7 +4639,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D74">
         <v>45</v>
@@ -4659,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -4685,7 +4691,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -4711,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D77">
         <v>35</v>
@@ -4737,7 +4743,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -4763,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D79">
         <v>35</v>
@@ -4789,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -4815,7 +4821,7 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -4835,13 +4841,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -4867,7 +4873,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D83">
         <v>50</v>
@@ -4893,7 +4899,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4919,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D85">
         <v>35</v>
@@ -4945,7 +4951,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D86">
         <v>35</v>
@@ -4971,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D87">
         <v>35</v>
@@ -4997,7 +5003,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D88">
         <v>35</v>
@@ -5023,7 +5029,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -5049,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -5075,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -5101,7 +5107,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -5127,7 +5133,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -5153,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D94">
         <v>35</v>
@@ -5179,7 +5185,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D95">
         <v>35</v>
@@ -5205,7 +5211,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D96">
         <v>35</v>
@@ -5231,7 +5237,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D97">
         <v>35</v>
@@ -5257,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D98">
         <v>35</v>
@@ -5283,7 +5289,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5309,7 +5315,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D100">
         <v>35</v>
@@ -5329,13 +5335,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D101">
         <v>35</v>
@@ -5361,7 +5367,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D102">
         <v>35</v>
@@ -5387,7 +5393,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D103">
         <v>35</v>
@@ -5413,7 +5419,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D104">
         <v>35</v>
@@ -5439,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D105">
         <v>35</v>
@@ -5465,7 +5471,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D106">
         <v>35</v>
@@ -5491,7 +5497,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D107">
         <v>35</v>
@@ -5517,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D108">
         <v>35</v>
@@ -5526,7 +5532,7 @@
         <v>408</v>
       </c>
       <c r="F108" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G108" t="s">
         <v>409</v>
@@ -5543,7 +5549,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -5569,7 +5575,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -5595,7 +5601,7 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D111">
         <v>35</v>
@@ -5621,7 +5627,7 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D112">
         <v>35</v>
@@ -5647,7 +5653,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D113">
         <v>35</v>
@@ -5673,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D114">
         <v>35</v>
@@ -5699,7 +5705,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D115">
         <v>35</v>
@@ -5725,7 +5731,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D116">
         <v>35</v>
@@ -5751,7 +5757,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D117">
         <v>35</v>
@@ -5777,7 +5783,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D118">
         <v>35</v>
@@ -5803,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D119">
         <v>35</v>
@@ -5829,7 +5835,7 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D120">
         <v>35</v>
@@ -5855,7 +5861,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D121">
         <v>35</v>
@@ -5881,7 +5887,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D122">
         <v>35</v>
@@ -5907,7 +5913,7 @@
         <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -5933,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -5959,7 +5965,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -5985,7 +5991,7 @@
         <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -6011,7 +6017,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D127">
         <v>35</v>
@@ -6037,7 +6043,7 @@
         <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D128">
         <v>30</v>
@@ -6063,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -6089,7 +6095,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -6115,7 +6121,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -6141,7 +6147,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -6167,7 +6173,7 @@
         <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -6176,7 +6182,7 @@
         <v>504</v>
       </c>
       <c r="F133" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G133" t="s">
         <v>505</v>
@@ -6193,7 +6199,7 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D134">
         <v>35</v>
@@ -6219,7 +6225,7 @@
         <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -6245,7 +6251,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -6271,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D137">
         <v>35</v>
@@ -6297,7 +6303,7 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -6323,7 +6329,7 @@
         <v>39</v>
       </c>
       <c r="C139" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -6349,7 +6355,7 @@
         <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D140">
         <v>35</v>
@@ -6375,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D141">
         <v>40</v>
@@ -6401,7 +6407,7 @@
         <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D142">
         <v>35</v>
@@ -6427,7 +6433,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D143">
         <v>35</v>
@@ -6453,7 +6459,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D144">
         <v>35</v>
@@ -6479,7 +6485,7 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D145">
         <v>35</v>
@@ -6505,7 +6511,7 @@
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D146">
         <v>35</v>
@@ -6531,7 +6537,7 @@
         <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D147">
         <v>25</v>
@@ -6557,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -6583,7 +6589,7 @@
         <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D149">
         <v>35</v>
@@ -6609,7 +6615,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D150">
         <v>35</v>
@@ -6635,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D151">
         <v>30</v>
@@ -6661,7 +6667,7 @@
         <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D152">
         <v>35</v>
@@ -6687,7 +6693,7 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D153">
         <v>35</v>
@@ -6713,7 +6719,7 @@
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D154">
         <v>35</v>
@@ -6739,7 +6745,7 @@
         <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D155">
         <v>35</v>
@@ -6765,7 +6771,7 @@
         <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D156">
         <v>35</v>
@@ -6791,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D157">
         <v>35</v>
@@ -6817,7 +6823,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D158">
         <v>35</v>
@@ -6843,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D159">
         <v>35</v>
@@ -6869,7 +6875,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D160">
         <v>35</v>
@@ -6895,7 +6901,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D161">
         <v>35</v>
@@ -6921,7 +6927,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D162">
         <v>35</v>
@@ -6947,7 +6953,7 @@
         <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D163">
         <v>45</v>
@@ -6973,7 +6979,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D164">
         <v>35</v>
@@ -6999,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D165">
         <v>35</v>
@@ -7025,7 +7031,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D166">
         <v>40</v>
@@ -7051,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D167">
         <v>35</v>
@@ -7060,7 +7066,7 @@
         <v>629</v>
       </c>
       <c r="F167" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G167" t="s">
         <v>630</v>
@@ -7077,7 +7083,7 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D168">
         <v>35</v>
@@ -7103,7 +7109,7 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -7129,7 +7135,7 @@
         <v>39</v>
       </c>
       <c r="C170" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D170">
         <v>35</v>
@@ -7155,7 +7161,7 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D171">
         <v>35</v>
@@ -7181,7 +7187,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -7207,7 +7213,7 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D173">
         <v>35</v>
@@ -7233,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D174">
         <v>35</v>
@@ -7259,7 +7265,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D175">
         <v>35</v>
@@ -7285,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D176">
         <v>35</v>
@@ -7311,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D177">
         <v>35</v>
@@ -7337,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="C178" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D178">
         <v>35</v>
@@ -7363,7 +7369,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D179">
         <v>35</v>
@@ -7389,7 +7395,7 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D180">
         <v>35</v>
@@ -7415,7 +7421,7 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D181">
         <v>35</v>
@@ -7441,7 +7447,7 @@
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D182">
         <v>35</v>
@@ -7467,7 +7473,7 @@
         <v>33</v>
       </c>
       <c r="C183" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D183">
         <v>35</v>
@@ -7493,7 +7499,7 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D184">
         <v>35</v>
@@ -7519,7 +7525,7 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D185">
         <v>35</v>
@@ -7539,13 +7545,13 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D186">
         <v>35</v>
@@ -7571,7 +7577,7 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D187">
         <v>35</v>
@@ -7597,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D188">
         <v>35</v>
@@ -7623,7 +7629,7 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D189">
         <v>35</v>
@@ -7649,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D190">
         <v>35</v>
@@ -7675,7 +7681,7 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D191">
         <v>35</v>
@@ -7701,7 +7707,7 @@
         <v>33</v>
       </c>
       <c r="C192" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D192">
         <v>35</v>
@@ -7727,7 +7733,7 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -7753,7 +7759,7 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D194">
         <v>35</v>
@@ -7779,7 +7785,7 @@
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D195">
         <v>35</v>
@@ -7805,7 +7811,7 @@
         <v>39</v>
       </c>
       <c r="C196" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D196">
         <v>35</v>
@@ -7831,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D197">
         <v>35</v>
@@ -7857,7 +7863,7 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D198">
         <v>35</v>
@@ -7883,7 +7889,7 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D199">
         <v>35</v>
@@ -7909,59 +7915,59 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D200">
         <v>35</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="1">
+        <v>36472</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
         <v>753</v>
       </c>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>754</v>
-      </c>
-      <c r="H200" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
+        <v>755</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>768</v>
+      </c>
+      <c r="D201">
+        <v>35</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
-        <v>769</v>
-      </c>
-      <c r="D201">
-        <v>35</v>
-      </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" t="s">
         <v>757</v>
       </c>
-      <c r="F201" t="s">
-        <v>4</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>758</v>
-      </c>
-      <c r="H201" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D202">
         <v>30</v>
@@ -7973,10 +7979,36 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
+        <v>759</v>
+      </c>
+      <c r="H202" t="s">
         <v>760</v>
       </c>
-      <c r="H202" t="s">
-        <v>761</v>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>776</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>767</v>
+      </c>
+      <c r="D203">
+        <v>25</v>
+      </c>
+      <c r="E203" s="1">
+        <v>25269</v>
+      </c>
+      <c r="F203" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203" t="s">
+        <v>777</v>
+      </c>
+      <c r="H203" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="779">
   <si>
     <t>Movie</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>When loser Marvin Mange is involved in a horrible car accident, he's brought back to life by a deranged scientist as half man and half animal. His newfound powers are awesome -- but their adverse side effects could take over his life. Now, Marvin must fight to control his crazy primal urges around his new squeeze, Rianna, and his rival, Sgt. Sisk, who both think he's one cool cat.</t>
-  </si>
-  <si>
-    <t>Asterix and Obelix - Mansion of the Gods</t>
   </si>
   <si>
     <t>2014-11-26</t>
@@ -1295,18 +1292,6 @@
     <t>A depressed wealthy businessman and a spunky and care-free young woman embark on an unexpected journey that changes their lives.</t>
   </si>
   <si>
-    <t>Jackal, The</t>
-  </si>
-  <si>
-    <t>1997-11-14</t>
-  </si>
-  <si>
-    <t>JackalThe</t>
-  </si>
-  <si>
-    <t>Hired by a powerful member of the Russian mafia to avenge an FBI sting that left his brother dead, a psychopathic hitman known only as The Jackal proves an elusive target for the people charged with the task of bringing him down: a deputy FBI director, a Russian MVK Major, and a jailed IRA terrorist who can recognize him.</t>
-  </si>
-  <si>
     <t>Jason Bourne</t>
   </si>
   <si>
@@ -2349,6 +2334,24 @@
   </si>
   <si>
     <t>TheBrain</t>
+  </si>
+  <si>
+    <t>Chalti Ka Naam Gaadi</t>
+  </si>
+  <si>
+    <t>Brijmohan believes that his love, Kamini, left him for another man and resents women. When his two brothers, who had planned for lifelong bachelorhood, fall in love, they fear his wrath.</t>
+  </si>
+  <si>
+    <t>ChaltiKaNaamGaadi</t>
+  </si>
+  <si>
+    <t>Padosan</t>
+  </si>
+  <si>
+    <t>Bhola falls in love with his neighbour Bindu, a fashionable college girl. In order to woo her, he seeks help from his musical friend but loses all hope when she shows interest in someone else.</t>
+  </si>
+  <si>
+    <t>Asterix - Mansion of the Gods</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2716,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2741,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2767,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2776,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2793,7 +2796,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2819,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2845,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -2871,7 +2874,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -2880,7 +2883,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2897,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2923,7 +2926,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -2949,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2975,7 +2978,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -3001,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -3021,2775 +3024,2775 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>766</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>771</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>764</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>769</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>765</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>770</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D17">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>769</v>
-      </c>
-      <c r="D18">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>769</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>75</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>764</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>765</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>770</v>
-      </c>
-      <c r="D21">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>765</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>770</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>86</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D23">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>90</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>765</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D24">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D25">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
         <v>97</v>
       </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>102</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D27">
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>106</v>
-      </c>
-      <c r="H27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>770</v>
-      </c>
-      <c r="D28">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>770</v>
-      </c>
-      <c r="D29">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>114</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>765</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>770</v>
-      </c>
-      <c r="D30">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>766</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>771</v>
-      </c>
-      <c r="D31">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
         <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>764</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>769</v>
-      </c>
-      <c r="D32">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>125</v>
-      </c>
-      <c r="H32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>764</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>769</v>
-      </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
         <v>128</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>129</v>
-      </c>
-      <c r="H33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>764</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>769</v>
-      </c>
-      <c r="D34">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
         <v>132</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>133</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>765</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>770</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
         <v>136</v>
       </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>137</v>
-      </c>
-      <c r="H35" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>765</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>770</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>141</v>
-      </c>
-      <c r="H36" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
         <v>144</v>
       </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>145</v>
-      </c>
-      <c r="H37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
         <v>148</v>
       </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>149</v>
-      </c>
-      <c r="H38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>766</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>771</v>
-      </c>
-      <c r="D39">
-        <v>35</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
         <v>152</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D40">
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>156</v>
-      </c>
-      <c r="H40" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D41">
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
+        <v>757</v>
+      </c>
+      <c r="G41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" t="s">
         <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>762</v>
-      </c>
-      <c r="G41" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>771</v>
-      </c>
-      <c r="D42">
-        <v>35</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
         <v>162</v>
       </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>163</v>
-      </c>
-      <c r="H42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>766</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>771</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
         <v>166</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>165</v>
-      </c>
-      <c r="H43" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>763</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>768</v>
-      </c>
-      <c r="D44">
-        <v>35</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
         <v>169</v>
       </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>170</v>
-      </c>
-      <c r="H44" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>770</v>
-      </c>
-      <c r="D45">
-        <v>35</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
         <v>173</v>
       </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>174</v>
-      </c>
-      <c r="H45" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>764</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>769</v>
-      </c>
-      <c r="D46">
-        <v>35</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
         <v>177</v>
       </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>178</v>
-      </c>
-      <c r="H46" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D47">
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
         <v>181</v>
       </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>182</v>
-      </c>
-      <c r="H47" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>764</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>769</v>
-      </c>
-      <c r="D48">
-        <v>35</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>757</v>
+      </c>
+      <c r="G48" t="s">
         <v>185</v>
       </c>
-      <c r="F48" t="s">
-        <v>762</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>186</v>
-      </c>
-      <c r="H48" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>764</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>769</v>
-      </c>
-      <c r="D49">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>190</v>
-      </c>
-      <c r="H49" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D50">
         <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
         <v>193</v>
       </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>194</v>
-      </c>
-      <c r="H50" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>762</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>767</v>
-      </c>
-      <c r="D51">
-        <v>35</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
         <v>197</v>
       </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>198</v>
-      </c>
-      <c r="H51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D52">
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
         <v>201</v>
       </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>202</v>
-      </c>
-      <c r="H52" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D53">
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
         <v>204</v>
       </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>205</v>
-      </c>
-      <c r="H53" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>766</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>771</v>
-      </c>
-      <c r="D54">
-        <v>35</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
         <v>208</v>
       </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>209</v>
-      </c>
-      <c r="H54" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D55">
         <v>35</v>
       </c>
       <c r="E55" s="1">
-        <v>41460</v>
+        <v>42916</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H55" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>765</v>
+      </c>
+      <c r="D56">
+        <v>35</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>770</v>
-      </c>
-      <c r="D56">
-        <v>35</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
         <v>212</v>
       </c>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>213</v>
-      </c>
-      <c r="H56" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D57">
         <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
         <v>216</v>
       </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>217</v>
-      </c>
-      <c r="H57" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D58">
         <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
         <v>220</v>
       </c>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>221</v>
-      </c>
-      <c r="H58" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D59">
         <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
         <v>224</v>
       </c>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>225</v>
-      </c>
-      <c r="H59" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>764</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>769</v>
-      </c>
-      <c r="D60">
-        <v>35</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
         <v>228</v>
       </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>229</v>
-      </c>
-      <c r="H60" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D61">
         <v>35</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61" t="s">
         <v>232</v>
-      </c>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" t="s">
-        <v>231</v>
-      </c>
-      <c r="H61" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>765</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>770</v>
-      </c>
-      <c r="D62">
-        <v>35</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
         <v>235</v>
       </c>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>236</v>
-      </c>
-      <c r="H62" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>764</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>769</v>
-      </c>
-      <c r="D63">
-        <v>35</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
         <v>239</v>
       </c>
-      <c r="F63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>240</v>
-      </c>
-      <c r="H63" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>764</v>
+      </c>
+      <c r="D64">
+        <v>35</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>769</v>
-      </c>
-      <c r="D64">
-        <v>35</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" t="s">
         <v>243</v>
-      </c>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" t="s">
-        <v>242</v>
-      </c>
-      <c r="H64" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>764</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>769</v>
-      </c>
-      <c r="D65">
-        <v>35</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
         <v>246</v>
       </c>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>247</v>
-      </c>
-      <c r="H65" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>764</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>769</v>
-      </c>
-      <c r="D66">
-        <v>35</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
         <v>250</v>
       </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>251</v>
-      </c>
-      <c r="H66" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>764</v>
+      </c>
+      <c r="D67">
+        <v>35</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>769</v>
-      </c>
-      <c r="D67">
-        <v>35</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" t="s">
         <v>254</v>
-      </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" t="s">
-        <v>253</v>
-      </c>
-      <c r="H67" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>765</v>
+      </c>
+      <c r="D68">
+        <v>35</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>770</v>
-      </c>
-      <c r="D68">
-        <v>35</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" t="s">
         <v>257</v>
-      </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" t="s">
-        <v>256</v>
-      </c>
-      <c r="H68" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>765</v>
+      </c>
+      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>770</v>
-      </c>
-      <c r="D69">
-        <v>35</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
         <v>260</v>
       </c>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>261</v>
-      </c>
-      <c r="H69" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>766</v>
+      </c>
+      <c r="D70">
+        <v>35</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>771</v>
-      </c>
-      <c r="D70">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" t="s">
         <v>264</v>
-      </c>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>263</v>
-      </c>
-      <c r="H70" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>765</v>
+      </c>
+      <c r="D71">
+        <v>35</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>770</v>
-      </c>
-      <c r="D71">
-        <v>35</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
         <v>267</v>
       </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>268</v>
-      </c>
-      <c r="H71" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>765</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>770</v>
-      </c>
-      <c r="D72">
-        <v>35</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
         <v>271</v>
       </c>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>272</v>
-      </c>
-      <c r="H72" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>763</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>768</v>
-      </c>
-      <c r="D73">
-        <v>35</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
         <v>275</v>
       </c>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>276</v>
-      </c>
-      <c r="H73" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D74">
         <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>277</v>
+      </c>
+      <c r="H74" t="s">
         <v>279</v>
-      </c>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>278</v>
-      </c>
-      <c r="H74" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>764</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>769</v>
-      </c>
-      <c r="D75">
-        <v>35</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
         <v>282</v>
       </c>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>283</v>
-      </c>
-      <c r="H75" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>762</v>
+      </c>
+      <c r="D76">
+        <v>35</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>767</v>
-      </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>284</v>
+      </c>
+      <c r="H76" t="s">
         <v>286</v>
-      </c>
-      <c r="F76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" t="s">
-        <v>285</v>
-      </c>
-      <c r="H76" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>762</v>
+      </c>
+      <c r="D77">
+        <v>35</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>767</v>
-      </c>
-      <c r="D77">
-        <v>35</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>287</v>
+      </c>
+      <c r="H77" t="s">
         <v>289</v>
-      </c>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>288</v>
-      </c>
-      <c r="H77" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>762</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>767</v>
-      </c>
-      <c r="D78">
-        <v>35</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="F78" t="s">
-        <v>4</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>293</v>
-      </c>
-      <c r="H78" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>765</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>770</v>
-      </c>
-      <c r="D79">
-        <v>35</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
         <v>296</v>
       </c>
-      <c r="F79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>297</v>
-      </c>
-      <c r="H79" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>765</v>
+      </c>
+      <c r="D80">
+        <v>35</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>770</v>
-      </c>
-      <c r="D80">
-        <v>35</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
         <v>300</v>
       </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>301</v>
-      </c>
-      <c r="H80" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D81">
         <v>35</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
         <v>304</v>
       </c>
-      <c r="F81" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>305</v>
-      </c>
-      <c r="H81" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D82">
         <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>306</v>
+      </c>
+      <c r="H82" t="s">
         <v>308</v>
-      </c>
-      <c r="F82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" t="s">
-        <v>307</v>
-      </c>
-      <c r="H82" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D83">
         <v>50</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>309</v>
+      </c>
+      <c r="H83" t="s">
         <v>311</v>
-      </c>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>310</v>
-      </c>
-      <c r="H83" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>764</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>769</v>
-      </c>
-      <c r="D84">
-        <v>35</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
         <v>314</v>
       </c>
-      <c r="F84" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>315</v>
-      </c>
-      <c r="H84" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>765</v>
+      </c>
+      <c r="D85">
+        <v>35</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>770</v>
-      </c>
-      <c r="D85">
-        <v>35</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
         <v>318</v>
       </c>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>319</v>
-      </c>
-      <c r="H85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>765</v>
+      </c>
+      <c r="D86">
+        <v>35</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>770</v>
-      </c>
-      <c r="D86">
-        <v>35</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
         <v>322</v>
       </c>
-      <c r="F86" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>323</v>
-      </c>
-      <c r="H86" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>765</v>
+      </c>
+      <c r="D87">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>770</v>
-      </c>
-      <c r="D87">
-        <v>35</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
         <v>326</v>
       </c>
-      <c r="F87" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>327</v>
-      </c>
-      <c r="H87" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>765</v>
+      </c>
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>770</v>
-      </c>
-      <c r="D88">
-        <v>35</v>
-      </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
         <v>330</v>
       </c>
-      <c r="F88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>331</v>
-      </c>
-      <c r="H88" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D89">
         <v>35</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
         <v>334</v>
       </c>
-      <c r="F89" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>335</v>
-      </c>
-      <c r="H89" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s">
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D90">
         <v>35</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
         <v>338</v>
       </c>
-      <c r="F90" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>339</v>
-      </c>
-      <c r="H90" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>763</v>
+      </c>
+      <c r="D91">
+        <v>35</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>768</v>
-      </c>
-      <c r="D91">
-        <v>35</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>340</v>
+      </c>
+      <c r="H91" t="s">
         <v>342</v>
-      </c>
-      <c r="F91" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" t="s">
-        <v>341</v>
-      </c>
-      <c r="H91" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
+        <v>343</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>763</v>
+      </c>
+      <c r="D92">
+        <v>35</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>768</v>
-      </c>
-      <c r="D92">
-        <v>35</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
         <v>345</v>
       </c>
-      <c r="F92" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>346</v>
-      </c>
-      <c r="H92" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>765</v>
+      </c>
+      <c r="D93">
+        <v>35</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>770</v>
-      </c>
-      <c r="D93">
-        <v>35</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
         <v>349</v>
       </c>
-      <c r="F93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>350</v>
-      </c>
-      <c r="H93" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>765</v>
+      </c>
+      <c r="D94">
+        <v>35</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="s">
-        <v>770</v>
-      </c>
-      <c r="D94">
-        <v>35</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
         <v>353</v>
       </c>
-      <c r="F94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>354</v>
-      </c>
-      <c r="H94" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>355</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>765</v>
+      </c>
+      <c r="D95">
+        <v>35</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" t="s">
-        <v>770</v>
-      </c>
-      <c r="D95">
-        <v>35</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
         <v>357</v>
       </c>
-      <c r="F95" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>358</v>
-      </c>
-      <c r="H95" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>765</v>
+      </c>
+      <c r="D96">
+        <v>35</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>770</v>
-      </c>
-      <c r="D96">
-        <v>35</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
         <v>361</v>
       </c>
-      <c r="F96" t="s">
-        <v>4</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>362</v>
-      </c>
-      <c r="H96" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>765</v>
+      </c>
+      <c r="D97">
+        <v>35</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>770</v>
-      </c>
-      <c r="D97">
-        <v>35</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
         <v>365</v>
       </c>
-      <c r="F97" t="s">
-        <v>4</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>366</v>
-      </c>
-      <c r="H97" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>765</v>
+      </c>
+      <c r="D98">
+        <v>35</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>770</v>
-      </c>
-      <c r="D98">
-        <v>35</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
         <v>369</v>
       </c>
-      <c r="F98" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>370</v>
-      </c>
-      <c r="H98" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>763</v>
+      </c>
+      <c r="D99">
+        <v>35</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>768</v>
-      </c>
-      <c r="D99">
-        <v>35</v>
-      </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
         <v>373</v>
       </c>
-      <c r="F99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>374</v>
-      </c>
-      <c r="H99" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>766</v>
+      </c>
+      <c r="D100">
+        <v>35</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>771</v>
-      </c>
-      <c r="D100">
-        <v>35</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
         <v>377</v>
       </c>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>378</v>
-      </c>
-      <c r="H100" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D101">
         <v>35</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
         <v>380</v>
       </c>
-      <c r="F101" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>381</v>
-      </c>
-      <c r="H101" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>764</v>
+      </c>
+      <c r="D102">
+        <v>35</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>769</v>
-      </c>
-      <c r="D102">
-        <v>35</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
         <v>384</v>
       </c>
-      <c r="F102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>385</v>
-      </c>
-      <c r="H102" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>764</v>
+      </c>
+      <c r="D103">
+        <v>35</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>769</v>
-      </c>
-      <c r="D103">
-        <v>35</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
         <v>388</v>
       </c>
-      <c r="F103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>389</v>
-      </c>
-      <c r="H103" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>764</v>
+      </c>
+      <c r="D104">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>769</v>
-      </c>
-      <c r="D104">
-        <v>35</v>
-      </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
         <v>392</v>
       </c>
-      <c r="F104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>393</v>
-      </c>
-      <c r="H104" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>764</v>
+      </c>
+      <c r="D105">
+        <v>35</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>769</v>
-      </c>
-      <c r="D105">
-        <v>35</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
         <v>396</v>
       </c>
-      <c r="F105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>397</v>
-      </c>
-      <c r="H105" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
+        <v>398</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>762</v>
+      </c>
+      <c r="D106">
+        <v>35</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>767</v>
-      </c>
-      <c r="D106">
-        <v>35</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
         <v>400</v>
       </c>
-      <c r="F106" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>401</v>
-      </c>
-      <c r="H106" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
+        <v>402</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>765</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>770</v>
-      </c>
-      <c r="D107">
-        <v>35</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
         <v>404</v>
       </c>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>405</v>
-      </c>
-      <c r="H107" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>763</v>
+      </c>
+      <c r="D108">
+        <v>35</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>768</v>
-      </c>
-      <c r="D108">
-        <v>35</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" t="s">
+        <v>757</v>
+      </c>
+      <c r="G108" t="s">
         <v>408</v>
       </c>
-      <c r="F108" t="s">
-        <v>762</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>409</v>
-      </c>
-      <c r="H108" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
+        <v>410</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>764</v>
+      </c>
+      <c r="D109">
+        <v>35</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>769</v>
-      </c>
-      <c r="D109">
-        <v>35</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
         <v>412</v>
       </c>
-      <c r="F109" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>413</v>
-      </c>
-      <c r="H109" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D110">
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
         <v>416</v>
       </c>
-      <c r="F110" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>417</v>
-      </c>
-      <c r="H110" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B111" t="s">
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D111">
         <v>35</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
         <v>420</v>
       </c>
-      <c r="F111" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>421</v>
-      </c>
       <c r="H111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D112">
         <v>35</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
         <v>423</v>
       </c>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>424</v>
-      </c>
-      <c r="H112" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
+        <v>425</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>764</v>
+      </c>
+      <c r="D113">
+        <v>35</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>769</v>
-      </c>
-      <c r="D113">
-        <v>35</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
         <v>427</v>
       </c>
-      <c r="F113" t="s">
-        <v>4</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>428</v>
-      </c>
-      <c r="H113" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
+        <v>429</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>764</v>
+      </c>
+      <c r="D114">
+        <v>35</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>769</v>
-      </c>
-      <c r="D114">
-        <v>35</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
         <v>431</v>
       </c>
-      <c r="F114" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>432</v>
-      </c>
-      <c r="H114" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
+        <v>433</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>764</v>
+      </c>
+      <c r="D115">
+        <v>35</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>769</v>
-      </c>
-      <c r="D115">
-        <v>35</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
         <v>435</v>
       </c>
-      <c r="F115" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>436</v>
-      </c>
-      <c r="H115" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
+        <v>437</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>766</v>
+      </c>
+      <c r="D116">
+        <v>35</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>769</v>
-      </c>
-      <c r="D116">
-        <v>35</v>
-      </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
         <v>439</v>
       </c>
-      <c r="F116" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>440</v>
-      </c>
-      <c r="H116" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
+        <v>441</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>765</v>
+      </c>
+      <c r="D117">
+        <v>35</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>771</v>
-      </c>
-      <c r="D117">
-        <v>35</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>441</v>
+      </c>
+      <c r="H117" t="s">
         <v>443</v>
-      </c>
-      <c r="F117" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117" t="s">
-        <v>444</v>
-      </c>
-      <c r="H117" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D118">
         <v>35</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
@@ -5798,206 +5801,206 @@
         <v>446</v>
       </c>
       <c r="H118" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
+        <v>448</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>765</v>
+      </c>
+      <c r="D119">
+        <v>35</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B119" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" t="s">
-        <v>768</v>
-      </c>
-      <c r="D119">
-        <v>35</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
         <v>450</v>
       </c>
-      <c r="F119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>451</v>
-      </c>
-      <c r="H119" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
+        <v>452</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>765</v>
+      </c>
+      <c r="D120">
+        <v>35</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B120" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" t="s">
-        <v>770</v>
-      </c>
-      <c r="D120">
-        <v>35</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
         <v>454</v>
       </c>
-      <c r="F120" t="s">
-        <v>4</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>455</v>
-      </c>
-      <c r="H120" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>764</v>
+      </c>
+      <c r="D121">
+        <v>35</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>770</v>
-      </c>
-      <c r="D121">
-        <v>35</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
         <v>458</v>
       </c>
-      <c r="F121" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>459</v>
-      </c>
-      <c r="H121" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
+        <v>460</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" t="s">
+        <v>763</v>
+      </c>
+      <c r="D122">
+        <v>35</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>769</v>
-      </c>
-      <c r="D122">
-        <v>35</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
         <v>462</v>
       </c>
-      <c r="F122" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>463</v>
-      </c>
-      <c r="H122" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
+        <v>464</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>766</v>
+      </c>
+      <c r="D123">
+        <v>35</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B123" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" t="s">
-        <v>768</v>
-      </c>
-      <c r="D123">
-        <v>35</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
         <v>466</v>
       </c>
-      <c r="F123" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>467</v>
-      </c>
-      <c r="H123" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
+        <v>468</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>766</v>
+      </c>
+      <c r="D124">
+        <v>35</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" t="s">
-        <v>771</v>
-      </c>
-      <c r="D124">
-        <v>35</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
         <v>470</v>
       </c>
-      <c r="F124" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>471</v>
-      </c>
-      <c r="H124" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
+        <v>472</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>762</v>
+      </c>
+      <c r="D125">
+        <v>35</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>771</v>
-      </c>
-      <c r="D125">
-        <v>35</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>472</v>
+      </c>
+      <c r="H125" t="s">
         <v>474</v>
-      </c>
-      <c r="F125" t="s">
-        <v>4</v>
-      </c>
-      <c r="G125" t="s">
-        <v>475</v>
-      </c>
-      <c r="H125" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D126">
         <v>35</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
@@ -6006,50 +6009,50 @@
         <v>477</v>
       </c>
       <c r="H126" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
+        <v>479</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>765</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
-        <v>770</v>
-      </c>
-      <c r="D127">
-        <v>35</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>479</v>
+      </c>
+      <c r="H127" t="s">
         <v>481</v>
-      </c>
-      <c r="F127" t="s">
-        <v>4</v>
-      </c>
-      <c r="G127" t="s">
-        <v>482</v>
-      </c>
-      <c r="H127" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
@@ -6058,258 +6061,258 @@
         <v>484</v>
       </c>
       <c r="H128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
+        <v>486</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>766</v>
+      </c>
+      <c r="D129">
+        <v>35</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" t="s">
-        <v>770</v>
-      </c>
-      <c r="D129">
-        <v>35</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
         <v>488</v>
       </c>
-      <c r="F129" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>489</v>
-      </c>
-      <c r="H129" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
+        <v>490</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>766</v>
+      </c>
+      <c r="D130">
+        <v>35</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" t="s">
-        <v>771</v>
-      </c>
-      <c r="D130">
-        <v>35</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
         <v>492</v>
       </c>
-      <c r="F130" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>493</v>
-      </c>
-      <c r="H130" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>766</v>
+      </c>
+      <c r="D131">
+        <v>35</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>771</v>
-      </c>
-      <c r="D131">
-        <v>35</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
         <v>496</v>
       </c>
-      <c r="F131" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>497</v>
-      </c>
-      <c r="H131" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
+        <v>498</v>
+      </c>
+      <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" t="s">
+        <v>762</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>771</v>
-      </c>
-      <c r="D132">
-        <v>35</v>
-      </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" t="s">
+        <v>757</v>
+      </c>
+      <c r="G132" t="s">
         <v>500</v>
       </c>
-      <c r="F132" t="s">
-        <v>4</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>501</v>
-      </c>
-      <c r="H132" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
+        <v>502</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>763</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B133" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" t="s">
-        <v>767</v>
-      </c>
-      <c r="D133">
-        <v>35</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
         <v>504</v>
       </c>
-      <c r="F133" t="s">
-        <v>762</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>505</v>
-      </c>
-      <c r="H133" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
+        <v>506</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
+        <v>765</v>
+      </c>
+      <c r="D134">
+        <v>35</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B134" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" t="s">
-        <v>768</v>
-      </c>
-      <c r="D134">
-        <v>35</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
         <v>508</v>
       </c>
-      <c r="F134" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>509</v>
-      </c>
-      <c r="H134" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
+        <v>510</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>762</v>
+      </c>
+      <c r="D135">
+        <v>35</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B135" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" t="s">
-        <v>770</v>
-      </c>
-      <c r="D135">
-        <v>35</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
         <v>512</v>
       </c>
-      <c r="F135" t="s">
-        <v>4</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>513</v>
-      </c>
-      <c r="H135" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
+        <v>514</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>762</v>
+      </c>
+      <c r="D136">
+        <v>35</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>767</v>
-      </c>
-      <c r="D136">
-        <v>35</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s">
         <v>516</v>
       </c>
-      <c r="F136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>517</v>
-      </c>
-      <c r="H136" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
+        <v>518</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>765</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>767</v>
-      </c>
-      <c r="D137">
-        <v>35</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>518</v>
+      </c>
+      <c r="H137" t="s">
         <v>520</v>
-      </c>
-      <c r="F137" t="s">
-        <v>4</v>
-      </c>
-      <c r="G137" t="s">
-        <v>521</v>
-      </c>
-      <c r="H137" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D138">
         <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
@@ -6318,102 +6321,102 @@
         <v>523</v>
       </c>
       <c r="H138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
+        <v>525</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s">
+        <v>765</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B139" t="s">
-        <v>39</v>
-      </c>
-      <c r="C139" t="s">
-        <v>770</v>
-      </c>
-      <c r="D139">
-        <v>35</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
         <v>527</v>
       </c>
-      <c r="F139" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>528</v>
-      </c>
-      <c r="H139" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>766</v>
+      </c>
+      <c r="D140">
+        <v>40</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B140" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" t="s">
-        <v>770</v>
-      </c>
-      <c r="D140">
-        <v>35</v>
-      </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>529</v>
+      </c>
+      <c r="H140" t="s">
         <v>531</v>
-      </c>
-      <c r="F140" t="s">
-        <v>4</v>
-      </c>
-      <c r="G140" t="s">
-        <v>532</v>
-      </c>
-      <c r="H140" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
+        <v>532</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" t="s">
+        <v>763</v>
+      </c>
+      <c r="D141">
+        <v>35</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>532</v>
+      </c>
+      <c r="H141" t="s">
         <v>534</v>
-      </c>
-      <c r="B141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s">
-        <v>771</v>
-      </c>
-      <c r="D141">
-        <v>40</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F141" t="s">
-        <v>4</v>
-      </c>
-      <c r="G141" t="s">
-        <v>534</v>
-      </c>
-      <c r="H141" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D142">
         <v>35</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
@@ -6422,50 +6425,50 @@
         <v>537</v>
       </c>
       <c r="H142" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>766</v>
+      </c>
+      <c r="D143">
+        <v>35</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>771</v>
-      </c>
-      <c r="D143">
-        <v>35</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>539</v>
+      </c>
+      <c r="H143" t="s">
         <v>541</v>
-      </c>
-      <c r="F143" t="s">
-        <v>4</v>
-      </c>
-      <c r="G143" t="s">
-        <v>542</v>
-      </c>
-      <c r="H143" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D144">
         <v>35</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
@@ -6474,128 +6477,128 @@
         <v>544</v>
       </c>
       <c r="H144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
+        <v>546</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>765</v>
+      </c>
+      <c r="D145">
+        <v>35</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B145" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" t="s">
-        <v>770</v>
-      </c>
-      <c r="D145">
-        <v>35</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
         <v>548</v>
       </c>
-      <c r="F145" t="s">
-        <v>4</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>549</v>
-      </c>
-      <c r="H145" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B146" t="s">
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D146">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
         <v>552</v>
       </c>
-      <c r="F146" t="s">
-        <v>4</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>553</v>
-      </c>
-      <c r="H146" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
+        <v>554</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>762</v>
+      </c>
+      <c r="D147">
+        <v>35</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B147" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" t="s">
-        <v>768</v>
-      </c>
-      <c r="D147">
-        <v>25</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
         <v>556</v>
       </c>
-      <c r="F147" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>557</v>
-      </c>
-      <c r="H147" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
+        <v>558</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" t="s">
+        <v>765</v>
+      </c>
+      <c r="D148">
+        <v>35</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>767</v>
-      </c>
-      <c r="D148">
-        <v>35</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>558</v>
+      </c>
+      <c r="H148" t="s">
         <v>560</v>
-      </c>
-      <c r="F148" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148" t="s">
-        <v>561</v>
-      </c>
-      <c r="H148" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D149">
         <v>35</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
@@ -6604,50 +6607,50 @@
         <v>563</v>
       </c>
       <c r="H149" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
+        <v>565</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>764</v>
+      </c>
+      <c r="D150">
+        <v>30</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>768</v>
-      </c>
-      <c r="D150">
-        <v>35</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>565</v>
+      </c>
+      <c r="H150" t="s">
         <v>567</v>
-      </c>
-      <c r="F150" t="s">
-        <v>4</v>
-      </c>
-      <c r="G150" t="s">
-        <v>568</v>
-      </c>
-      <c r="H150" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D151">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
@@ -6656,50 +6659,50 @@
         <v>570</v>
       </c>
       <c r="H151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
+        <v>572</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>766</v>
+      </c>
+      <c r="D152">
+        <v>35</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B152" t="s">
-        <v>39</v>
-      </c>
-      <c r="C152" t="s">
-        <v>767</v>
-      </c>
-      <c r="D152">
-        <v>35</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>572</v>
+      </c>
+      <c r="H152" t="s">
         <v>574</v>
-      </c>
-      <c r="F152" t="s">
-        <v>4</v>
-      </c>
-      <c r="G152" t="s">
-        <v>575</v>
-      </c>
-      <c r="H152" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D153">
         <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
@@ -6708,76 +6711,76 @@
         <v>577</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D154">
         <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>579</v>
+      </c>
+      <c r="H154" t="s">
         <v>581</v>
-      </c>
-      <c r="F154" t="s">
-        <v>4</v>
-      </c>
-      <c r="G154" t="s">
-        <v>582</v>
-      </c>
-      <c r="H154" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
+        <v>582</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" t="s">
+        <v>762</v>
+      </c>
+      <c r="D155">
+        <v>35</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>582</v>
+      </c>
+      <c r="H155" t="s">
         <v>584</v>
-      </c>
-      <c r="B155" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155" t="s">
-        <v>770</v>
-      </c>
-      <c r="D155">
-        <v>35</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="F155" t="s">
-        <v>4</v>
-      </c>
-      <c r="G155" t="s">
-        <v>584</v>
-      </c>
-      <c r="H155" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D156">
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
@@ -6786,206 +6789,206 @@
         <v>587</v>
       </c>
       <c r="H156" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
+        <v>589</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>766</v>
+      </c>
+      <c r="D157">
+        <v>35</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B157" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" t="s">
-        <v>770</v>
-      </c>
-      <c r="D157">
-        <v>35</v>
-      </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
         <v>591</v>
       </c>
-      <c r="F157" t="s">
-        <v>4</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>592</v>
-      </c>
-      <c r="H157" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
+        <v>593</v>
+      </c>
+      <c r="B158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" t="s">
+        <v>765</v>
+      </c>
+      <c r="D158">
+        <v>35</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" t="s">
-        <v>771</v>
-      </c>
-      <c r="D158">
-        <v>35</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
         <v>595</v>
       </c>
-      <c r="F158" t="s">
-        <v>4</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>596</v>
-      </c>
-      <c r="H158" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
+        <v>597</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>765</v>
+      </c>
+      <c r="D159">
+        <v>35</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B159" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159" t="s">
-        <v>770</v>
-      </c>
-      <c r="D159">
-        <v>35</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
         <v>599</v>
       </c>
-      <c r="F159" t="s">
-        <v>4</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>600</v>
-      </c>
-      <c r="H159" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
+        <v>601</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>765</v>
+      </c>
+      <c r="D160">
+        <v>35</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" t="s">
-        <v>770</v>
-      </c>
-      <c r="D160">
-        <v>35</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
         <v>603</v>
       </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>604</v>
-      </c>
-      <c r="H160" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
+        <v>605</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>763</v>
+      </c>
+      <c r="D161">
+        <v>35</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>770</v>
-      </c>
-      <c r="D161">
-        <v>35</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="F161" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" t="s">
         <v>607</v>
       </c>
-      <c r="F161" t="s">
-        <v>4</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>608</v>
-      </c>
-      <c r="H161" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
+        <v>609</v>
+      </c>
+      <c r="B162" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" t="s">
+        <v>763</v>
+      </c>
+      <c r="D162">
+        <v>45</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" t="s">
-        <v>768</v>
-      </c>
-      <c r="D162">
-        <v>35</v>
-      </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
         <v>611</v>
       </c>
-      <c r="F162" t="s">
-        <v>4</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>612</v>
-      </c>
-      <c r="H162" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
+        <v>613</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>766</v>
+      </c>
+      <c r="D163">
+        <v>35</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B163" t="s">
-        <v>39</v>
-      </c>
-      <c r="C163" t="s">
-        <v>768</v>
-      </c>
-      <c r="D163">
-        <v>45</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>613</v>
+      </c>
+      <c r="H163" t="s">
         <v>615</v>
-      </c>
-      <c r="F163" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" t="s">
-        <v>616</v>
-      </c>
-      <c r="H163" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D164">
         <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
@@ -6994,154 +6997,154 @@
         <v>618</v>
       </c>
       <c r="H164" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
+        <v>620</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>766</v>
+      </c>
+      <c r="D165">
+        <v>40</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" t="s">
-        <v>770</v>
-      </c>
-      <c r="D165">
-        <v>35</v>
-      </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>620</v>
+      </c>
+      <c r="H165" t="s">
         <v>622</v>
-      </c>
-      <c r="F165" t="s">
-        <v>4</v>
-      </c>
-      <c r="G165" t="s">
-        <v>623</v>
-      </c>
-      <c r="H165" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D166">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F166" t="s">
-        <v>4</v>
+        <v>757</v>
       </c>
       <c r="G166" t="s">
         <v>625</v>
       </c>
       <c r="H166" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
+        <v>627</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>763</v>
+      </c>
+      <c r="D167">
+        <v>35</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" t="s">
-        <v>768</v>
-      </c>
-      <c r="D167">
-        <v>35</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
         <v>629</v>
       </c>
-      <c r="F167" t="s">
-        <v>762</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>630</v>
-      </c>
-      <c r="H167" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>763</v>
+      </c>
+      <c r="D168">
+        <v>35</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B168" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" t="s">
-        <v>768</v>
-      </c>
-      <c r="D168">
-        <v>35</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
         <v>633</v>
       </c>
-      <c r="F168" t="s">
-        <v>4</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>634</v>
-      </c>
-      <c r="H168" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
+        <v>635</v>
+      </c>
+      <c r="B169" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" t="s">
+        <v>764</v>
+      </c>
+      <c r="D169">
+        <v>35</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>768</v>
-      </c>
-      <c r="D169">
-        <v>35</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>635</v>
+      </c>
+      <c r="H169" t="s">
         <v>637</v>
-      </c>
-      <c r="F169" t="s">
-        <v>4</v>
-      </c>
-      <c r="G169" t="s">
-        <v>638</v>
-      </c>
-      <c r="H169" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D170">
         <v>35</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
@@ -7150,206 +7153,206 @@
         <v>640</v>
       </c>
       <c r="H170" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
+        <v>642</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>765</v>
+      </c>
+      <c r="D171">
+        <v>35</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>770</v>
-      </c>
-      <c r="D171">
-        <v>35</v>
-      </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
         <v>644</v>
       </c>
-      <c r="F171" t="s">
-        <v>4</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>645</v>
-      </c>
-      <c r="H171" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
+        <v>646</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>764</v>
+      </c>
+      <c r="D172">
+        <v>35</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>770</v>
-      </c>
-      <c r="D172">
-        <v>35</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
         <v>648</v>
       </c>
-      <c r="F172" t="s">
-        <v>4</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>649</v>
-      </c>
-      <c r="H172" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
+        <v>650</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>762</v>
+      </c>
+      <c r="D173">
+        <v>35</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>769</v>
-      </c>
-      <c r="D173">
-        <v>35</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
         <v>652</v>
       </c>
-      <c r="F173" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>653</v>
-      </c>
-      <c r="H173" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
+        <v>654</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>764</v>
+      </c>
+      <c r="D174">
+        <v>35</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s">
         <v>655</v>
       </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>767</v>
-      </c>
-      <c r="D174">
-        <v>35</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="H174" t="s">
         <v>656</v>
-      </c>
-      <c r="F174" t="s">
-        <v>4</v>
-      </c>
-      <c r="G174" t="s">
-        <v>657</v>
-      </c>
-      <c r="H174" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
+        <v>657</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>764</v>
+      </c>
+      <c r="D175">
+        <v>35</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
         <v>659</v>
       </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>769</v>
-      </c>
-      <c r="D175">
-        <v>35</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F175" t="s">
-        <v>4</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>660</v>
-      </c>
-      <c r="H175" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
+        <v>661</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>764</v>
+      </c>
+      <c r="D176">
+        <v>35</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>769</v>
-      </c>
-      <c r="D176">
-        <v>35</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
         <v>663</v>
       </c>
-      <c r="F176" t="s">
-        <v>4</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>664</v>
-      </c>
-      <c r="H176" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
+        <v>665</v>
+      </c>
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" t="s">
+        <v>762</v>
+      </c>
+      <c r="D177">
+        <v>35</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>769</v>
-      </c>
-      <c r="D177">
-        <v>35</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>665</v>
+      </c>
+      <c r="H177" t="s">
         <v>667</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4</v>
-      </c>
-      <c r="G177" t="s">
-        <v>668</v>
-      </c>
-      <c r="H177" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D178">
         <v>35</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
@@ -7358,388 +7361,388 @@
         <v>670</v>
       </c>
       <c r="H178" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
+        <v>672</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>764</v>
+      </c>
+      <c r="D179">
+        <v>35</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>769</v>
-      </c>
-      <c r="D179">
-        <v>35</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
         <v>674</v>
       </c>
-      <c r="F179" t="s">
-        <v>4</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>675</v>
-      </c>
-      <c r="H179" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
+        <v>676</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>764</v>
+      </c>
+      <c r="D180">
+        <v>35</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>769</v>
-      </c>
-      <c r="D180">
-        <v>35</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
         <v>678</v>
       </c>
-      <c r="F180" t="s">
-        <v>4</v>
-      </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>679</v>
-      </c>
-      <c r="H180" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
+        <v>680</v>
+      </c>
+      <c r="B181" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" t="s">
+        <v>765</v>
+      </c>
+      <c r="D181">
+        <v>35</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F181" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>680</v>
+      </c>
+      <c r="H181" t="s">
         <v>681</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>769</v>
-      </c>
-      <c r="D181">
-        <v>35</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F181" t="s">
-        <v>4</v>
-      </c>
-      <c r="G181" t="s">
-        <v>683</v>
-      </c>
-      <c r="H181" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B182" t="s">
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D182">
         <v>35</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>538</v>
+        <v>683</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
       </c>
       <c r="G182" t="s">
+        <v>684</v>
+      </c>
+      <c r="H182" t="s">
         <v>685</v>
-      </c>
-      <c r="H182" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
+        <v>686</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>763</v>
+      </c>
+      <c r="D183">
+        <v>35</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B183" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" t="s">
-        <v>770</v>
-      </c>
-      <c r="D183">
-        <v>35</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
         <v>688</v>
       </c>
-      <c r="F183" t="s">
-        <v>4</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>689</v>
-      </c>
-      <c r="H183" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
+        <v>690</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>762</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>768</v>
-      </c>
-      <c r="D184">
-        <v>35</v>
-      </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
         <v>692</v>
       </c>
-      <c r="F184" t="s">
-        <v>4</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>693</v>
-      </c>
-      <c r="H184" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
+        <v>768</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>765</v>
+      </c>
+      <c r="D185">
+        <v>35</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
         <v>695</v>
       </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>767</v>
-      </c>
-      <c r="D185">
-        <v>35</v>
-      </c>
-      <c r="E185" s="1" t="s">
+      <c r="H185" t="s">
         <v>696</v>
-      </c>
-      <c r="F185" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185" t="s">
-        <v>697</v>
-      </c>
-      <c r="H185" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D186">
         <v>35</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
         <v>699</v>
       </c>
-      <c r="F186" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>700</v>
-      </c>
-      <c r="H186" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
+        <v>701</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>764</v>
+      </c>
+      <c r="D187">
+        <v>35</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B187" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>769</v>
-      </c>
-      <c r="D187">
-        <v>35</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
         <v>703</v>
       </c>
-      <c r="F187" t="s">
-        <v>4</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>704</v>
-      </c>
-      <c r="H187" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
+        <v>705</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>765</v>
+      </c>
+      <c r="D188">
+        <v>35</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B188" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" t="s">
-        <v>769</v>
-      </c>
-      <c r="D188">
-        <v>35</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
         <v>707</v>
       </c>
-      <c r="F188" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>708</v>
-      </c>
-      <c r="H188" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
+        <v>709</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>765</v>
+      </c>
+      <c r="D189">
+        <v>35</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B189" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" t="s">
-        <v>770</v>
-      </c>
-      <c r="D189">
-        <v>35</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
         <v>711</v>
       </c>
-      <c r="F189" t="s">
-        <v>4</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>712</v>
-      </c>
-      <c r="H189" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
+        <v>713</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>762</v>
+      </c>
+      <c r="D190">
+        <v>35</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" t="s">
-        <v>770</v>
-      </c>
-      <c r="D190">
-        <v>35</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
         <v>715</v>
       </c>
-      <c r="F190" t="s">
-        <v>4</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>716</v>
-      </c>
-      <c r="H190" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
+        <v>717</v>
+      </c>
+      <c r="B191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" t="s">
+        <v>762</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B191" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" t="s">
-        <v>767</v>
-      </c>
-      <c r="D191">
-        <v>35</v>
-      </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
         <v>719</v>
       </c>
-      <c r="F191" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>720</v>
-      </c>
-      <c r="H191" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
+        <v>721</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>766</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B192" t="s">
-        <v>33</v>
-      </c>
-      <c r="C192" t="s">
-        <v>767</v>
-      </c>
-      <c r="D192">
-        <v>35</v>
-      </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>721</v>
+      </c>
+      <c r="H192" t="s">
         <v>723</v>
-      </c>
-      <c r="F192" t="s">
-        <v>4</v>
-      </c>
-      <c r="G192" t="s">
-        <v>724</v>
-      </c>
-      <c r="H192" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
@@ -7748,76 +7751,76 @@
         <v>726</v>
       </c>
       <c r="H193" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
+        <v>728</v>
+      </c>
+      <c r="B194" t="s">
+        <v>39</v>
+      </c>
+      <c r="C194" t="s">
+        <v>762</v>
+      </c>
+      <c r="D194">
+        <v>35</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B194" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" t="s">
-        <v>770</v>
-      </c>
-      <c r="D194">
-        <v>35</v>
-      </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
         <v>730</v>
       </c>
-      <c r="F194" t="s">
-        <v>4</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>731</v>
-      </c>
-      <c r="H194" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D195">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F195" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>732</v>
+      </c>
+      <c r="H195" t="s">
         <v>734</v>
-      </c>
-      <c r="F195" t="s">
-        <v>4</v>
-      </c>
-      <c r="G195" t="s">
-        <v>735</v>
-      </c>
-      <c r="H195" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D196">
         <v>35</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F196" t="s">
         <v>4</v>
@@ -7826,189 +7829,215 @@
         <v>737</v>
       </c>
       <c r="H196" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
+        <v>739</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>765</v>
+      </c>
+      <c r="D197">
+        <v>35</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B197" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" t="s">
-        <v>770</v>
-      </c>
-      <c r="D197">
-        <v>35</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
         <v>741</v>
       </c>
-      <c r="F197" t="s">
-        <v>4</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>742</v>
-      </c>
-      <c r="H197" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
+        <v>743</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>765</v>
+      </c>
+      <c r="D198">
+        <v>35</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B198" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>770</v>
-      </c>
-      <c r="D198">
-        <v>35</v>
-      </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" t="s">
         <v>745</v>
       </c>
-      <c r="F198" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>746</v>
-      </c>
-      <c r="H198" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
+        <v>747</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>764</v>
+      </c>
+      <c r="D199">
+        <v>35</v>
+      </c>
+      <c r="E199" s="1">
+        <v>36472</v>
+      </c>
+      <c r="F199" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
         <v>748</v>
       </c>
-      <c r="B199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" t="s">
-        <v>770</v>
-      </c>
-      <c r="D199">
-        <v>35</v>
-      </c>
-      <c r="E199" s="1" t="s">
+      <c r="H199" t="s">
         <v>749</v>
-      </c>
-      <c r="F199" t="s">
-        <v>4</v>
-      </c>
-      <c r="G199" t="s">
-        <v>750</v>
-      </c>
-      <c r="H199" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
+        <v>750</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>763</v>
+      </c>
+      <c r="D200">
+        <v>35</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
         <v>752</v>
       </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
-        <v>769</v>
-      </c>
-      <c r="D200">
-        <v>35</v>
-      </c>
-      <c r="E200" s="1">
-        <v>36472</v>
-      </c>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>753</v>
-      </c>
-      <c r="H200" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
+        <v>754</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>766</v>
+      </c>
+      <c r="D201">
+        <v>30</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F201" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" t="s">
+        <v>754</v>
+      </c>
+      <c r="H201" t="s">
         <v>755</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
-        <v>768</v>
-      </c>
-      <c r="D201">
-        <v>35</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F201" t="s">
-        <v>4</v>
-      </c>
-      <c r="G201" t="s">
-        <v>757</v>
-      </c>
-      <c r="H201" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D202">
-        <v>30</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>162</v>
+        <v>25</v>
+      </c>
+      <c r="E202" s="1">
+        <v>25269</v>
       </c>
       <c r="F202" t="s">
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="H202" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D203">
         <v>25</v>
       </c>
       <c r="E203" s="1">
-        <v>25269</v>
+        <v>21186</v>
       </c>
       <c r="F203" t="s">
-        <v>4</v>
+        <v>757</v>
       </c>
       <c r="G203" t="s">
+        <v>775</v>
+      </c>
+      <c r="H203" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>776</v>
+      </c>
+      <c r="B204" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" t="s">
+        <v>765</v>
+      </c>
+      <c r="D204">
+        <v>25</v>
+      </c>
+      <c r="E204" s="1">
+        <v>25171</v>
+      </c>
+      <c r="F204" t="s">
+        <v>757</v>
+      </c>
+      <c r="G204" t="s">
+        <v>776</v>
+      </c>
+      <c r="H204" t="s">
         <v>777</v>
-      </c>
-      <c r="H203" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="778">
   <si>
     <t>Movie</t>
   </si>
@@ -2268,9 +2268,6 @@
   </si>
   <si>
     <t>You've Got Mail</t>
-  </si>
-  <si>
-    <t>2016-03-04</t>
   </si>
   <si>
     <t>YouveGotMail</t>
@@ -2401,10 +2398,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2711,7 +2709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2719,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2744,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2770,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2779,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2796,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2822,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2848,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -2874,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -2883,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2900,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2926,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -2952,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2978,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -3004,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -3024,13 +3022,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -3056,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -3082,7 +3080,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D14">
         <v>35</v>
@@ -3108,7 +3106,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -3134,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -3160,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D17">
         <v>35</v>
@@ -3186,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -3212,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -3238,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -3264,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -3290,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -3316,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -3342,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3368,7 +3366,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -3394,7 +3392,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -3420,7 +3418,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D27">
         <v>35</v>
@@ -3446,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D28">
         <v>35</v>
@@ -3472,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D29">
         <v>35</v>
@@ -3498,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D30">
         <v>35</v>
@@ -3524,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -3550,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D32">
         <v>35</v>
@@ -3576,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -3602,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -3628,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3654,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -3680,7 +3678,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -3706,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -3732,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D39">
         <v>35</v>
@@ -3758,7 +3756,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -3784,7 +3782,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D41">
         <v>35</v>
@@ -3793,7 +3791,7 @@
         <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G41" t="s">
         <v>157</v>
@@ -3810,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -3836,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D43">
         <v>35</v>
@@ -3862,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D44">
         <v>35</v>
@@ -3888,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D45">
         <v>35</v>
@@ -3914,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D46">
         <v>35</v>
@@ -3940,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D47">
         <v>35</v>
@@ -3966,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D48">
         <v>35</v>
@@ -3975,7 +3973,7 @@
         <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3992,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D49">
         <v>35</v>
@@ -4018,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D50">
         <v>35</v>
@@ -4044,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D51">
         <v>35</v>
@@ -4070,7 +4068,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D52">
         <v>35</v>
@@ -4090,13 +4088,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D53">
         <v>35</v>
@@ -4122,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D54">
         <v>35</v>
@@ -4142,13 +4140,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D55">
         <v>35</v>
@@ -4160,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H55" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4174,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D56">
         <v>35</v>
@@ -4200,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D57">
         <v>35</v>
@@ -4226,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D58">
         <v>35</v>
@@ -4252,7 +4250,7 @@
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4278,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D60">
         <v>35</v>
@@ -4304,7 +4302,7 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D61">
         <v>35</v>
@@ -4330,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D62">
         <v>35</v>
@@ -4356,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D63">
         <v>35</v>
@@ -4382,7 +4380,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D64">
         <v>35</v>
@@ -4408,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D65">
         <v>35</v>
@@ -4434,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D66">
         <v>35</v>
@@ -4460,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D67">
         <v>35</v>
@@ -4486,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D68">
         <v>35</v>
@@ -4512,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -4538,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D70">
         <v>35</v>
@@ -4564,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D71">
         <v>35</v>
@@ -4590,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D72">
         <v>35</v>
@@ -4616,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D73">
         <v>35</v>
@@ -4642,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D74">
         <v>45</v>
@@ -4668,7 +4666,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -4694,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -4720,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D77">
         <v>35</v>
@@ -4746,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -4772,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D79">
         <v>35</v>
@@ -4798,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -4824,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -4844,13 +4842,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -4876,7 +4874,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D83">
         <v>50</v>
@@ -4902,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4928,7 +4926,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D85">
         <v>35</v>
@@ -4954,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D86">
         <v>35</v>
@@ -4980,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D87">
         <v>35</v>
@@ -5006,7 +5004,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D88">
         <v>35</v>
@@ -5032,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -5058,7 +5056,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -5084,7 +5082,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -5110,7 +5108,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -5136,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -5162,7 +5160,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D94">
         <v>35</v>
@@ -5188,7 +5186,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D95">
         <v>35</v>
@@ -5214,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D96">
         <v>35</v>
@@ -5240,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D97">
         <v>35</v>
@@ -5266,7 +5264,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D98">
         <v>35</v>
@@ -5292,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5318,7 +5316,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D100">
         <v>35</v>
@@ -5338,13 +5336,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D101">
         <v>35</v>
@@ -5370,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D102">
         <v>35</v>
@@ -5396,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D103">
         <v>35</v>
@@ -5422,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D104">
         <v>35</v>
@@ -5448,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D105">
         <v>35</v>
@@ -5474,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D106">
         <v>35</v>
@@ -5500,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D107">
         <v>35</v>
@@ -5526,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D108">
         <v>35</v>
@@ -5535,7 +5533,7 @@
         <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G108" t="s">
         <v>408</v>
@@ -5552,7 +5550,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -5578,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -5604,7 +5602,7 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D111">
         <v>35</v>
@@ -5630,7 +5628,7 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D112">
         <v>35</v>
@@ -5656,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D113">
         <v>35</v>
@@ -5682,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D114">
         <v>35</v>
@@ -5708,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D115">
         <v>35</v>
@@ -5734,7 +5732,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D116">
         <v>35</v>
@@ -5760,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D117">
         <v>35</v>
@@ -5786,7 +5784,7 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D118">
         <v>35</v>
@@ -5812,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D119">
         <v>35</v>
@@ -5838,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D120">
         <v>35</v>
@@ -5864,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D121">
         <v>35</v>
@@ -5890,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D122">
         <v>35</v>
@@ -5916,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -5942,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -5968,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -5994,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -6020,7 +6018,7 @@
         <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -6046,7 +6044,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -6072,7 +6070,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -6098,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -6124,7 +6122,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -6150,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -6159,7 +6157,7 @@
         <v>499</v>
       </c>
       <c r="F132" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G132" t="s">
         <v>500</v>
@@ -6176,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -6202,7 +6200,7 @@
         <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D134">
         <v>35</v>
@@ -6228,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -6254,7 +6252,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -6280,7 +6278,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D137">
         <v>35</v>
@@ -6306,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -6332,7 +6330,7 @@
         <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -6358,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D140">
         <v>40</v>
@@ -6384,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D141">
         <v>35</v>
@@ -6410,7 +6408,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D142">
         <v>35</v>
@@ -6436,7 +6434,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D143">
         <v>35</v>
@@ -6462,7 +6460,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D144">
         <v>35</v>
@@ -6488,7 +6486,7 @@
         <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D145">
         <v>35</v>
@@ -6514,7 +6512,7 @@
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -6540,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D147">
         <v>35</v>
@@ -6566,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="C148" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -6592,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D149">
         <v>35</v>
@@ -6618,7 +6616,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D150">
         <v>30</v>
@@ -6644,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D151">
         <v>35</v>
@@ -6670,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D152">
         <v>35</v>
@@ -6696,7 +6694,7 @@
         <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D153">
         <v>35</v>
@@ -6722,7 +6720,7 @@
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D154">
         <v>35</v>
@@ -6748,7 +6746,7 @@
         <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D155">
         <v>35</v>
@@ -6774,7 +6772,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D156">
         <v>35</v>
@@ -6800,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D157">
         <v>35</v>
@@ -6826,7 +6824,7 @@
         <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D158">
         <v>35</v>
@@ -6852,7 +6850,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D159">
         <v>35</v>
@@ -6878,7 +6876,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D160">
         <v>35</v>
@@ -6904,7 +6902,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D161">
         <v>35</v>
@@ -6930,7 +6928,7 @@
         <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D162">
         <v>45</v>
@@ -6956,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D163">
         <v>35</v>
@@ -6982,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D164">
         <v>35</v>
@@ -7008,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D165">
         <v>40</v>
@@ -7034,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D166">
         <v>35</v>
@@ -7043,7 +7041,7 @@
         <v>624</v>
       </c>
       <c r="F166" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G166" t="s">
         <v>625</v>
@@ -7060,7 +7058,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D167">
         <v>35</v>
@@ -7086,7 +7084,7 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D168">
         <v>35</v>
@@ -7112,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -7138,7 +7136,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D170">
         <v>35</v>
@@ -7164,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D171">
         <v>35</v>
@@ -7190,7 +7188,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -7216,7 +7214,7 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D173">
         <v>35</v>
@@ -7242,7 +7240,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D174">
         <v>35</v>
@@ -7268,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D175">
         <v>35</v>
@@ -7294,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D176">
         <v>35</v>
@@ -7320,7 +7318,7 @@
         <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D177">
         <v>35</v>
@@ -7346,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D178">
         <v>35</v>
@@ -7372,7 +7370,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D179">
         <v>35</v>
@@ -7398,7 +7396,7 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D180">
         <v>35</v>
@@ -7424,7 +7422,7 @@
         <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D181">
         <v>35</v>
@@ -7450,7 +7448,7 @@
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D182">
         <v>35</v>
@@ -7476,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D183">
         <v>35</v>
@@ -7502,7 +7500,7 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D184">
         <v>35</v>
@@ -7522,13 +7520,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D185">
         <v>35</v>
@@ -7554,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D186">
         <v>35</v>
@@ -7580,7 +7578,7 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D187">
         <v>35</v>
@@ -7606,7 +7604,7 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D188">
         <v>35</v>
@@ -7632,7 +7630,7 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D189">
         <v>35</v>
@@ -7658,7 +7656,7 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D190">
         <v>35</v>
@@ -7684,7 +7682,7 @@
         <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D191">
         <v>35</v>
@@ -7710,7 +7708,7 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -7736,7 +7734,7 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D193">
         <v>35</v>
@@ -7762,7 +7760,7 @@
         <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D194">
         <v>35</v>
@@ -7788,7 +7786,7 @@
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D195">
         <v>35</v>
@@ -7814,7 +7812,7 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D196">
         <v>35</v>
@@ -7840,7 +7838,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D197">
         <v>35</v>
@@ -7866,7 +7864,7 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D198">
         <v>35</v>
@@ -7892,7 +7890,7 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D199">
         <v>35</v>
@@ -7918,33 +7916,33 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D200">
         <v>35</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="1">
+        <v>32192</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
         <v>751</v>
       </c>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>752</v>
-      </c>
-      <c r="H200" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D201">
         <v>30</v>
@@ -7956,21 +7954,21 @@
         <v>4</v>
       </c>
       <c r="G201" t="s">
+        <v>753</v>
+      </c>
+      <c r="H201" t="s">
         <v>754</v>
-      </c>
-      <c r="H201" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D202">
         <v>25</v>
@@ -7982,21 +7980,21 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H202" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B203" t="s">
         <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D203">
         <v>25</v>
@@ -8005,24 +8003,24 @@
         <v>21186</v>
       </c>
       <c r="F203" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G203" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H203" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D204">
         <v>25</v>
@@ -8031,14 +8029,17 @@
         <v>25171</v>
       </c>
       <c r="F204" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G204" t="s">
+        <v>775</v>
+      </c>
+      <c r="H204" t="s">
         <v>776</v>
       </c>
-      <c r="H204" t="s">
-        <v>777</v>
-      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="E206" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -1472,9 +1472,6 @@
     <t>LoveBug</t>
   </si>
   <si>
-    <t>The inimitable VW Beetle is losing all his races and destined for the scrap heap until mechanic Hank takes him over and gives him a new lease of life. Soon, Herbie is winning again, to the fury of his previous owner, who builds a menacing black bug to challenge Herbie to the ultimate race.</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -2349,6 +2346,9 @@
   </si>
   <si>
     <t>Asterix - Mansion of the Gods</t>
+  </si>
+  <si>
+    <t>Race car driver Jim Douglas (Dean Jones) and his philosophical mechanic, Tennessee Steinmetz (Buddy Hackett), find themselves in possession of a white Volkswagen Beetle that seems to have a mind and spirit of its own. Calling the car Herbie, Jim and Tennessee become the talk of the California racing circuit -- much to the displeasure of sports-car dealer Peter Thorndyke (David Tomlinson), who tries to use his assistant (Michele Lee) to come between the friends and their car.</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="H93" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2768,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2794,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2846,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -2881,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2898,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2924,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -2950,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -3002,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -3080,7 +3080,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D14">
         <v>35</v>
@@ -3106,7 +3106,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D17">
         <v>35</v>
@@ -3184,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -3210,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -3262,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -3288,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -3314,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -3340,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3366,7 +3366,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -3392,7 +3392,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -3418,7 +3418,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D27">
         <v>35</v>
@@ -3444,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D28">
         <v>35</v>
@@ -3470,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D29">
         <v>35</v>
@@ -3496,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D30">
         <v>35</v>
@@ -3522,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -3548,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D32">
         <v>35</v>
@@ -3574,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -3600,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -3626,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -3678,7 +3678,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -3704,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D39">
         <v>35</v>
@@ -3756,7 +3756,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -3782,7 +3782,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D41">
         <v>35</v>
@@ -3791,7 +3791,7 @@
         <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G41" t="s">
         <v>157</v>
@@ -3808,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -3834,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D43">
         <v>35</v>
@@ -3860,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D44">
         <v>35</v>
@@ -3886,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D45">
         <v>35</v>
@@ -3912,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D46">
         <v>35</v>
@@ -3938,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D47">
         <v>35</v>
@@ -3964,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D48">
         <v>35</v>
@@ -3973,7 +3973,7 @@
         <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3990,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D49">
         <v>35</v>
@@ -4016,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D50">
         <v>35</v>
@@ -4042,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D51">
         <v>35</v>
@@ -4068,7 +4068,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D52">
         <v>35</v>
@@ -4088,13 +4088,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D53">
         <v>35</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D54">
         <v>35</v>
@@ -4140,13 +4140,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D55">
         <v>35</v>
@@ -4158,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H55" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4172,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D56">
         <v>35</v>
@@ -4198,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D57">
         <v>35</v>
@@ -4224,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D58">
         <v>35</v>
@@ -4250,7 +4250,7 @@
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D60">
         <v>35</v>
@@ -4302,7 +4302,7 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D61">
         <v>35</v>
@@ -4328,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D62">
         <v>35</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D63">
         <v>35</v>
@@ -4380,7 +4380,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D64">
         <v>35</v>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D65">
         <v>35</v>
@@ -4432,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D66">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D67">
         <v>35</v>
@@ -4484,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D68">
         <v>35</v>
@@ -4510,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -4536,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D70">
         <v>35</v>
@@ -4562,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D71">
         <v>35</v>
@@ -4588,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D72">
         <v>35</v>
@@ -4614,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D73">
         <v>35</v>
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D74">
         <v>45</v>
@@ -4666,7 +4666,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -4692,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -4718,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D77">
         <v>35</v>
@@ -4744,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -4770,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D79">
         <v>35</v>
@@ -4796,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -4822,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -4842,13 +4842,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -4874,7 +4874,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D83">
         <v>50</v>
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4926,7 +4926,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D85">
         <v>35</v>
@@ -4952,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D86">
         <v>35</v>
@@ -4978,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D87">
         <v>35</v>
@@ -5004,7 +5004,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D88">
         <v>35</v>
@@ -5030,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -5056,7 +5056,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -5082,7 +5082,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -5108,7 +5108,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -5134,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -5160,7 +5160,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D94">
         <v>35</v>
@@ -5186,7 +5186,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D95">
         <v>35</v>
@@ -5212,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D96">
         <v>35</v>
@@ -5238,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D97">
         <v>35</v>
@@ -5264,7 +5264,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D98">
         <v>35</v>
@@ -5290,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5316,7 +5316,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D100">
         <v>35</v>
@@ -5336,13 +5336,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D101">
         <v>35</v>
@@ -5368,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D102">
         <v>35</v>
@@ -5394,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D103">
         <v>35</v>
@@ -5420,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D104">
         <v>35</v>
@@ -5446,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D105">
         <v>35</v>
@@ -5472,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D106">
         <v>35</v>
@@ -5498,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D107">
         <v>35</v>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D108">
         <v>35</v>
@@ -5533,7 +5533,7 @@
         <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G108" t="s">
         <v>408</v>
@@ -5550,7 +5550,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -5576,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -5602,7 +5602,7 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D111">
         <v>35</v>
@@ -5628,7 +5628,7 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D112">
         <v>35</v>
@@ -5654,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D113">
         <v>35</v>
@@ -5732,7 +5732,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D116">
         <v>35</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D117">
         <v>35</v>
@@ -5784,7 +5784,7 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D118">
         <v>35</v>
@@ -5810,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D119">
         <v>35</v>
@@ -5836,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D120">
         <v>35</v>
@@ -5862,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D121">
         <v>35</v>
@@ -5888,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D122">
         <v>35</v>
@@ -5914,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -5940,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -5966,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -5992,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -6018,7 +6018,7 @@
         <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -6044,7 +6044,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -6059,1188 +6059,1188 @@
         <v>484</v>
       </c>
       <c r="H128" t="s">
-        <v>485</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
+        <v>485</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>764</v>
+      </c>
+      <c r="D129">
+        <v>35</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" t="s">
-        <v>765</v>
-      </c>
-      <c r="D129">
-        <v>35</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
         <v>487</v>
       </c>
-      <c r="F129" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>488</v>
-      </c>
-      <c r="H129" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>764</v>
+      </c>
+      <c r="D130">
+        <v>35</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" t="s">
-        <v>765</v>
-      </c>
-      <c r="D130">
-        <v>35</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
         <v>491</v>
       </c>
-      <c r="F130" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>492</v>
-      </c>
-      <c r="H130" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>764</v>
+      </c>
+      <c r="D131">
+        <v>35</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>765</v>
-      </c>
-      <c r="D131">
-        <v>35</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
         <v>495</v>
       </c>
-      <c r="F131" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>496</v>
-      </c>
-      <c r="H131" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D132">
         <v>35</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F132" t="s">
+        <v>755</v>
+      </c>
+      <c r="G132" t="s">
         <v>499</v>
       </c>
-      <c r="F132" t="s">
-        <v>756</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>500</v>
-      </c>
-      <c r="H132" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
+        <v>501</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>761</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>762</v>
-      </c>
-      <c r="D133">
-        <v>35</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
         <v>503</v>
       </c>
-      <c r="F133" t="s">
-        <v>4</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>504</v>
-      </c>
-      <c r="H133" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D134">
         <v>35</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
         <v>507</v>
       </c>
-      <c r="F134" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>508</v>
-      </c>
-      <c r="H134" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
+        <v>509</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>760</v>
+      </c>
+      <c r="D135">
+        <v>35</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" t="s">
-        <v>761</v>
-      </c>
-      <c r="D135">
-        <v>35</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
         <v>511</v>
       </c>
-      <c r="F135" t="s">
-        <v>4</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>512</v>
-      </c>
-      <c r="H135" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
+        <v>513</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>760</v>
+      </c>
+      <c r="D136">
+        <v>35</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>761</v>
-      </c>
-      <c r="D136">
-        <v>35</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s">
         <v>515</v>
       </c>
-      <c r="F136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>516</v>
-      </c>
-      <c r="H136" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
+        <v>517</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>763</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>764</v>
-      </c>
-      <c r="D137">
-        <v>35</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>517</v>
+      </c>
+      <c r="H137" t="s">
         <v>519</v>
-      </c>
-      <c r="F137" t="s">
-        <v>4</v>
-      </c>
-      <c r="G137" t="s">
-        <v>518</v>
-      </c>
-      <c r="H137" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B138" t="s">
         <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D138">
         <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
         <v>522</v>
       </c>
-      <c r="F138" t="s">
-        <v>4</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>523</v>
-      </c>
-      <c r="H138" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D139">
         <v>35</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
         <v>526</v>
       </c>
-      <c r="F139" t="s">
-        <v>4</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>527</v>
-      </c>
-      <c r="H139" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D140">
         <v>40</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>528</v>
+      </c>
+      <c r="H140" t="s">
         <v>530</v>
-      </c>
-      <c r="F140" t="s">
-        <v>4</v>
-      </c>
-      <c r="G140" t="s">
-        <v>529</v>
-      </c>
-      <c r="H140" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D141">
         <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>531</v>
+      </c>
+      <c r="H141" t="s">
         <v>533</v>
-      </c>
-      <c r="F141" t="s">
-        <v>4</v>
-      </c>
-      <c r="G141" t="s">
-        <v>532</v>
-      </c>
-      <c r="H141" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
+        <v>534</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>764</v>
+      </c>
+      <c r="D142">
+        <v>35</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" t="s">
-        <v>765</v>
-      </c>
-      <c r="D142">
-        <v>35</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
         <v>536</v>
       </c>
-      <c r="F142" t="s">
-        <v>4</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>537</v>
-      </c>
-      <c r="H142" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
+        <v>538</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>764</v>
+      </c>
+      <c r="D143">
+        <v>35</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>765</v>
-      </c>
-      <c r="D143">
-        <v>35</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>538</v>
+      </c>
+      <c r="H143" t="s">
         <v>540</v>
-      </c>
-      <c r="F143" t="s">
-        <v>4</v>
-      </c>
-      <c r="G143" t="s">
-        <v>539</v>
-      </c>
-      <c r="H143" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
+        <v>541</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>763</v>
+      </c>
+      <c r="D144">
+        <v>35</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>764</v>
-      </c>
-      <c r="D144">
-        <v>35</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
         <v>543</v>
       </c>
-      <c r="F144" t="s">
-        <v>4</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>544</v>
-      </c>
-      <c r="H144" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B145" t="s">
         <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D145">
         <v>35</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
         <v>547</v>
       </c>
-      <c r="F145" t="s">
-        <v>4</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>548</v>
-      </c>
-      <c r="H145" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B146" t="s">
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D146">
         <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
         <v>551</v>
       </c>
-      <c r="F146" t="s">
-        <v>4</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>552</v>
-      </c>
-      <c r="H146" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
+        <v>553</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>760</v>
+      </c>
+      <c r="D147">
+        <v>35</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" t="s">
-        <v>761</v>
-      </c>
-      <c r="D147">
-        <v>35</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
         <v>555</v>
       </c>
-      <c r="F147" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>556</v>
-      </c>
-      <c r="H147" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B148" t="s">
         <v>33</v>
       </c>
       <c r="C148" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D148">
         <v>35</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>557</v>
+      </c>
+      <c r="H148" t="s">
         <v>559</v>
-      </c>
-      <c r="F148" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148" t="s">
-        <v>558</v>
-      </c>
-      <c r="H148" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
+        <v>560</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>761</v>
+      </c>
+      <c r="D149">
+        <v>35</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>762</v>
-      </c>
-      <c r="D149">
-        <v>35</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
         <v>562</v>
       </c>
-      <c r="F149" t="s">
-        <v>4</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>563</v>
-      </c>
-      <c r="H149" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D150">
         <v>30</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>564</v>
+      </c>
+      <c r="H150" t="s">
         <v>566</v>
-      </c>
-      <c r="F150" t="s">
-        <v>4</v>
-      </c>
-      <c r="G150" t="s">
-        <v>565</v>
-      </c>
-      <c r="H150" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D151">
         <v>35</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
         <v>569</v>
       </c>
-      <c r="F151" t="s">
-        <v>4</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>570</v>
-      </c>
-      <c r="H151" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
+        <v>571</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>764</v>
+      </c>
+      <c r="D152">
+        <v>35</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>765</v>
-      </c>
-      <c r="D152">
-        <v>35</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>571</v>
+      </c>
+      <c r="H152" t="s">
         <v>573</v>
-      </c>
-      <c r="F152" t="s">
-        <v>4</v>
-      </c>
-      <c r="G152" t="s">
-        <v>572</v>
-      </c>
-      <c r="H152" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D153">
         <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
         <v>576</v>
       </c>
-      <c r="F153" t="s">
-        <v>4</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>577</v>
-      </c>
-      <c r="H153" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D154">
         <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>578</v>
+      </c>
+      <c r="H154" t="s">
         <v>580</v>
-      </c>
-      <c r="F154" t="s">
-        <v>4</v>
-      </c>
-      <c r="G154" t="s">
-        <v>579</v>
-      </c>
-      <c r="H154" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B155" t="s">
         <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D155">
         <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>581</v>
+      </c>
+      <c r="H155" t="s">
         <v>583</v>
-      </c>
-      <c r="F155" t="s">
-        <v>4</v>
-      </c>
-      <c r="G155" t="s">
-        <v>582</v>
-      </c>
-      <c r="H155" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
+        <v>584</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>763</v>
+      </c>
+      <c r="D156">
+        <v>35</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B156" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>764</v>
-      </c>
-      <c r="D156">
-        <v>35</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
         <v>586</v>
       </c>
-      <c r="F156" t="s">
-        <v>4</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>587</v>
-      </c>
-      <c r="H156" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
+        <v>588</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>764</v>
+      </c>
+      <c r="D157">
+        <v>35</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B157" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" t="s">
-        <v>765</v>
-      </c>
-      <c r="D157">
-        <v>35</v>
-      </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
         <v>590</v>
       </c>
-      <c r="F157" t="s">
-        <v>4</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>591</v>
-      </c>
-      <c r="H157" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B158" t="s">
         <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D158">
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
         <v>594</v>
       </c>
-      <c r="F158" t="s">
-        <v>4</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>595</v>
-      </c>
-      <c r="H158" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
+        <v>596</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>763</v>
+      </c>
+      <c r="D159">
+        <v>35</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B159" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" t="s">
-        <v>764</v>
-      </c>
-      <c r="D159">
-        <v>35</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
         <v>598</v>
       </c>
-      <c r="F159" t="s">
-        <v>4</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>599</v>
-      </c>
-      <c r="H159" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
+        <v>600</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>763</v>
+      </c>
+      <c r="D160">
+        <v>35</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" t="s">
-        <v>764</v>
-      </c>
-      <c r="D160">
-        <v>35</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
         <v>602</v>
       </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>603</v>
-      </c>
-      <c r="H160" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
+        <v>604</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>761</v>
+      </c>
+      <c r="D161">
+        <v>35</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>762</v>
-      </c>
-      <c r="D161">
-        <v>35</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="F161" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" t="s">
         <v>606</v>
       </c>
-      <c r="F161" t="s">
-        <v>4</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>607</v>
-      </c>
-      <c r="H161" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B162" t="s">
         <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D162">
         <v>45</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
         <v>610</v>
       </c>
-      <c r="F162" t="s">
-        <v>4</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>611</v>
-      </c>
-      <c r="H162" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
+        <v>612</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>764</v>
+      </c>
+      <c r="D163">
+        <v>35</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" t="s">
-        <v>765</v>
-      </c>
-      <c r="D163">
-        <v>35</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>612</v>
+      </c>
+      <c r="H163" t="s">
         <v>614</v>
-      </c>
-      <c r="F163" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" t="s">
-        <v>613</v>
-      </c>
-      <c r="H163" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
+        <v>615</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>763</v>
+      </c>
+      <c r="D164">
+        <v>35</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" t="s">
-        <v>764</v>
-      </c>
-      <c r="D164">
-        <v>35</v>
-      </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s">
         <v>617</v>
       </c>
-      <c r="F164" t="s">
-        <v>4</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>618</v>
-      </c>
-      <c r="H164" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D165">
         <v>40</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F165" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>619</v>
+      </c>
+      <c r="H165" t="s">
         <v>621</v>
-      </c>
-      <c r="F165" t="s">
-        <v>4</v>
-      </c>
-      <c r="G165" t="s">
-        <v>620</v>
-      </c>
-      <c r="H165" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
+        <v>622</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>761</v>
+      </c>
+      <c r="D166">
+        <v>35</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>762</v>
-      </c>
-      <c r="D166">
-        <v>35</v>
-      </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" t="s">
+        <v>755</v>
+      </c>
+      <c r="G166" t="s">
         <v>624</v>
       </c>
-      <c r="F166" t="s">
-        <v>756</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>625</v>
-      </c>
-      <c r="H166" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
+        <v>626</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>761</v>
+      </c>
+      <c r="D167">
+        <v>35</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" t="s">
-        <v>762</v>
-      </c>
-      <c r="D167">
-        <v>35</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
         <v>628</v>
       </c>
-      <c r="F167" t="s">
-        <v>4</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>629</v>
-      </c>
-      <c r="H167" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
+        <v>630</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>761</v>
+      </c>
+      <c r="D168">
+        <v>35</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B168" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" t="s">
-        <v>762</v>
-      </c>
-      <c r="D168">
-        <v>35</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
         <v>632</v>
       </c>
-      <c r="F168" t="s">
-        <v>4</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>633</v>
-      </c>
-      <c r="H168" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D169">
         <v>35</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>634</v>
+      </c>
+      <c r="H169" t="s">
         <v>636</v>
-      </c>
-      <c r="F169" t="s">
-        <v>4</v>
-      </c>
-      <c r="G169" t="s">
-        <v>635</v>
-      </c>
-      <c r="H169" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
+        <v>637</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>763</v>
+      </c>
+      <c r="D170">
+        <v>35</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>764</v>
-      </c>
-      <c r="D170">
-        <v>35</v>
-      </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s">
         <v>639</v>
       </c>
-      <c r="F170" t="s">
-        <v>4</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>640</v>
-      </c>
-      <c r="H170" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
+        <v>641</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>763</v>
+      </c>
+      <c r="D171">
+        <v>35</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>764</v>
-      </c>
-      <c r="D171">
-        <v>35</v>
-      </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
         <v>643</v>
       </c>
-      <c r="F171" t="s">
-        <v>4</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>644</v>
-      </c>
-      <c r="H171" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
+        <v>645</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>762</v>
+      </c>
+      <c r="D172">
+        <v>35</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>763</v>
-      </c>
-      <c r="D172">
-        <v>35</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
         <v>647</v>
       </c>
-      <c r="F172" t="s">
-        <v>4</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>648</v>
-      </c>
-      <c r="H172" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
+        <v>649</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>760</v>
+      </c>
+      <c r="D173">
+        <v>35</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>761</v>
-      </c>
-      <c r="D173">
-        <v>35</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
         <v>651</v>
       </c>
-      <c r="F173" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>652</v>
-      </c>
-      <c r="H173" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D174">
         <v>35</v>
@@ -7252,645 +7252,645 @@
         <v>4</v>
       </c>
       <c r="G174" t="s">
+        <v>654</v>
+      </c>
+      <c r="H174" t="s">
         <v>655</v>
-      </c>
-      <c r="H174" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
+        <v>656</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>762</v>
+      </c>
+      <c r="D175">
+        <v>35</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>763</v>
-      </c>
-      <c r="D175">
-        <v>35</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
         <v>658</v>
       </c>
-      <c r="F175" t="s">
-        <v>4</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>659</v>
-      </c>
-      <c r="H175" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
+        <v>660</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>762</v>
+      </c>
+      <c r="D176">
+        <v>35</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>763</v>
-      </c>
-      <c r="D176">
-        <v>35</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
         <v>662</v>
       </c>
-      <c r="F176" t="s">
-        <v>4</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>663</v>
-      </c>
-      <c r="H176" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B177" t="s">
         <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D177">
         <v>35</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>664</v>
+      </c>
+      <c r="H177" t="s">
         <v>666</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4</v>
-      </c>
-      <c r="G177" t="s">
-        <v>665</v>
-      </c>
-      <c r="H177" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
+        <v>667</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>762</v>
+      </c>
+      <c r="D178">
+        <v>35</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>763</v>
-      </c>
-      <c r="D178">
-        <v>35</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
         <v>669</v>
       </c>
-      <c r="F178" t="s">
-        <v>4</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>670</v>
-      </c>
-      <c r="H178" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
+        <v>671</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>762</v>
+      </c>
+      <c r="D179">
+        <v>35</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>763</v>
-      </c>
-      <c r="D179">
-        <v>35</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
         <v>673</v>
       </c>
-      <c r="F179" t="s">
-        <v>4</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>674</v>
-      </c>
-      <c r="H179" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
+        <v>675</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>762</v>
+      </c>
+      <c r="D180">
+        <v>35</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>763</v>
-      </c>
-      <c r="D180">
-        <v>35</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
         <v>677</v>
       </c>
-      <c r="F180" t="s">
-        <v>4</v>
-      </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>678</v>
-      </c>
-      <c r="H180" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B181" t="s">
         <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D181">
         <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
       <c r="G181" t="s">
+        <v>679</v>
+      </c>
+      <c r="H181" t="s">
         <v>680</v>
-      </c>
-      <c r="H181" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B182" t="s">
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D182">
         <v>35</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" t="s">
         <v>683</v>
       </c>
-      <c r="F182" t="s">
-        <v>4</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>684</v>
-      </c>
-      <c r="H182" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
+        <v>685</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>761</v>
+      </c>
+      <c r="D183">
+        <v>35</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" t="s">
-        <v>762</v>
-      </c>
-      <c r="D183">
-        <v>35</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
         <v>687</v>
       </c>
-      <c r="F183" t="s">
-        <v>4</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>688</v>
-      </c>
-      <c r="H183" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
+        <v>689</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>760</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>761</v>
-      </c>
-      <c r="D184">
-        <v>35</v>
-      </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
         <v>691</v>
       </c>
-      <c r="F184" t="s">
-        <v>4</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>692</v>
-      </c>
-      <c r="H184" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D185">
         <v>35</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
         <v>694</v>
       </c>
-      <c r="F185" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>695</v>
-      </c>
-      <c r="H185" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
+        <v>696</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>762</v>
+      </c>
+      <c r="D186">
+        <v>35</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B186" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" t="s">
-        <v>763</v>
-      </c>
-      <c r="D186">
-        <v>35</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
         <v>698</v>
       </c>
-      <c r="F186" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>699</v>
-      </c>
-      <c r="H186" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
+        <v>700</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>762</v>
+      </c>
+      <c r="D187">
+        <v>35</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B187" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>763</v>
-      </c>
-      <c r="D187">
-        <v>35</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
         <v>702</v>
       </c>
-      <c r="F187" t="s">
-        <v>4</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>703</v>
-      </c>
-      <c r="H187" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
+        <v>704</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>763</v>
+      </c>
+      <c r="D188">
+        <v>35</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B188" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" t="s">
-        <v>764</v>
-      </c>
-      <c r="D188">
-        <v>35</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
         <v>706</v>
       </c>
-      <c r="F188" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>707</v>
-      </c>
-      <c r="H188" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
+        <v>708</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>763</v>
+      </c>
+      <c r="D189">
+        <v>35</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B189" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" t="s">
-        <v>764</v>
-      </c>
-      <c r="D189">
-        <v>35</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
         <v>710</v>
       </c>
-      <c r="F189" t="s">
-        <v>4</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>711</v>
-      </c>
-      <c r="H189" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
+        <v>712</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>760</v>
+      </c>
+      <c r="D190">
+        <v>35</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" t="s">
-        <v>761</v>
-      </c>
-      <c r="D190">
-        <v>35</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
         <v>714</v>
       </c>
-      <c r="F190" t="s">
-        <v>4</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>715</v>
-      </c>
-      <c r="H190" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B191" t="s">
         <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D191">
         <v>35</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F191" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
         <v>718</v>
       </c>
-      <c r="F191" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>719</v>
-      </c>
-      <c r="H191" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D192">
         <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F192" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>720</v>
+      </c>
+      <c r="H192" t="s">
         <v>722</v>
-      </c>
-      <c r="F192" t="s">
-        <v>4</v>
-      </c>
-      <c r="G192" t="s">
-        <v>721</v>
-      </c>
-      <c r="H192" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
+        <v>723</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>763</v>
+      </c>
+      <c r="D193">
+        <v>35</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B193" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" t="s">
-        <v>764</v>
-      </c>
-      <c r="D193">
-        <v>35</v>
-      </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" t="s">
         <v>725</v>
       </c>
-      <c r="F193" t="s">
-        <v>4</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>726</v>
-      </c>
-      <c r="H193" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D194">
         <v>35</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F194" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
         <v>729</v>
       </c>
-      <c r="F194" t="s">
-        <v>4</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>730</v>
-      </c>
-      <c r="H194" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D195">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F195" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>731</v>
+      </c>
+      <c r="H195" t="s">
         <v>733</v>
-      </c>
-      <c r="F195" t="s">
-        <v>4</v>
-      </c>
-      <c r="G195" t="s">
-        <v>732</v>
-      </c>
-      <c r="H195" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
+        <v>734</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>763</v>
+      </c>
+      <c r="D196">
+        <v>35</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" t="s">
-        <v>764</v>
-      </c>
-      <c r="D196">
-        <v>35</v>
-      </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" t="s">
+        <v>4</v>
+      </c>
+      <c r="G196" t="s">
         <v>736</v>
       </c>
-      <c r="F196" t="s">
-        <v>4</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>737</v>
-      </c>
-      <c r="H196" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
+        <v>738</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>763</v>
+      </c>
+      <c r="D197">
+        <v>35</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B197" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" t="s">
-        <v>764</v>
-      </c>
-      <c r="D197">
-        <v>35</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
         <v>740</v>
       </c>
-      <c r="F197" t="s">
-        <v>4</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>741</v>
-      </c>
-      <c r="H197" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
+        <v>742</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>763</v>
+      </c>
+      <c r="D198">
+        <v>35</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B198" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>764</v>
-      </c>
-      <c r="D198">
-        <v>35</v>
-      </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" t="s">
         <v>744</v>
       </c>
-      <c r="F198" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>745</v>
-      </c>
-      <c r="H198" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D199">
         <v>35</v>
@@ -7902,21 +7902,21 @@
         <v>4</v>
       </c>
       <c r="G199" t="s">
+        <v>747</v>
+      </c>
+      <c r="H199" t="s">
         <v>748</v>
-      </c>
-      <c r="H199" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D200">
         <v>35</v>
@@ -7928,21 +7928,21 @@
         <v>4</v>
       </c>
       <c r="G200" t="s">
+        <v>750</v>
+      </c>
+      <c r="H200" t="s">
         <v>751</v>
-      </c>
-      <c r="H200" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D201">
         <v>30</v>
@@ -7954,21 +7954,21 @@
         <v>4</v>
       </c>
       <c r="G201" t="s">
+        <v>752</v>
+      </c>
+      <c r="H201" t="s">
         <v>753</v>
-      </c>
-      <c r="H201" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D202">
         <v>25</v>
@@ -7980,21 +7980,21 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H202" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B203" t="s">
         <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D203">
         <v>25</v>
@@ -8003,24 +8003,24 @@
         <v>21186</v>
       </c>
       <c r="F203" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G203" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H203" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D204">
         <v>25</v>
@@ -8029,13 +8029,13 @@
         <v>25171</v>
       </c>
       <c r="F204" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G204" t="s">
+        <v>774</v>
+      </c>
+      <c r="H204" t="s">
         <v>775</v>
-      </c>
-      <c r="H204" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="206" spans="1:8">

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -2099,9 +2099,6 @@
     <t>2021-02-26</t>
   </si>
   <si>
-    <t>Tom&amp;amp;Jerry</t>
-  </si>
-  <si>
     <t>Tom the cat and Jerry the mouse get kicked out of their home and relocate to a fancy New York hotel, where a scrappy employee named Kayla will lose her job if she can’t evict Jerry before a high-class wedding at the hotel. Her solution? Hiring Tom to get rid of the pesky mouse.</t>
   </si>
   <si>
@@ -2349,6 +2346,9 @@
   </si>
   <si>
     <t>Race car driver Jim Douglas (Dean Jones) and his philosophical mechanic, Tennessee Steinmetz (Buddy Hackett), find themselves in possession of a white Volkswagen Beetle that seems to have a mind and spirit of its own. Calling the car Herbie, Jim and Tennessee become the talk of the California racing circuit -- much to the displeasure of sports-car dealer Peter Thorndyke (David Tomlinson), who tries to use his assistant (Michele Lee) to come between the friends and their car.</t>
+  </si>
+  <si>
+    <t>TomJerry</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H93" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2768,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2794,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2846,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -2881,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2898,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2924,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -2950,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -3002,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -3080,7 +3080,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D14">
         <v>35</v>
@@ -3106,7 +3106,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -3158,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D17">
         <v>35</v>
@@ -3184,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -3210,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -3262,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -3288,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -3314,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -3340,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3366,7 +3366,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -3392,7 +3392,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -3418,7 +3418,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D27">
         <v>35</v>
@@ -3444,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D28">
         <v>35</v>
@@ -3470,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D29">
         <v>35</v>
@@ -3496,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D30">
         <v>35</v>
@@ -3522,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -3548,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D32">
         <v>35</v>
@@ -3574,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -3600,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -3626,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -3678,7 +3678,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -3704,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D39">
         <v>35</v>
@@ -3756,7 +3756,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -3782,7 +3782,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D41">
         <v>35</v>
@@ -3791,7 +3791,7 @@
         <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G41" t="s">
         <v>157</v>
@@ -3808,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -3834,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D43">
         <v>35</v>
@@ -3860,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D44">
         <v>35</v>
@@ -3886,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D45">
         <v>35</v>
@@ -3912,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D46">
         <v>35</v>
@@ -3938,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D47">
         <v>35</v>
@@ -3964,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D48">
         <v>35</v>
@@ -3973,7 +3973,7 @@
         <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3990,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D49">
         <v>35</v>
@@ -4016,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D50">
         <v>35</v>
@@ -4042,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D51">
         <v>35</v>
@@ -4068,7 +4068,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D52">
         <v>35</v>
@@ -4088,13 +4088,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D53">
         <v>35</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D54">
         <v>35</v>
@@ -4140,13 +4140,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D55">
         <v>35</v>
@@ -4158,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4172,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D56">
         <v>35</v>
@@ -4198,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D57">
         <v>35</v>
@@ -4224,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D58">
         <v>35</v>
@@ -4250,7 +4250,7 @@
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D60">
         <v>35</v>
@@ -4302,7 +4302,7 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D61">
         <v>35</v>
@@ -4328,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D62">
         <v>35</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D63">
         <v>35</v>
@@ -4380,7 +4380,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D64">
         <v>35</v>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D65">
         <v>35</v>
@@ -4432,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D66">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D67">
         <v>35</v>
@@ -4484,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D68">
         <v>35</v>
@@ -4510,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -4536,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D70">
         <v>35</v>
@@ -4562,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D71">
         <v>35</v>
@@ -4588,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D72">
         <v>35</v>
@@ -4614,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D73">
         <v>35</v>
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D74">
         <v>45</v>
@@ -4666,7 +4666,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -4692,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D76">
         <v>35</v>
@@ -4718,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D77">
         <v>35</v>
@@ -4744,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -4770,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D79">
         <v>35</v>
@@ -4796,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D80">
         <v>35</v>
@@ -4822,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -4842,13 +4842,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D82">
         <v>30</v>
@@ -4874,7 +4874,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D83">
         <v>50</v>
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -4926,7 +4926,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D85">
         <v>35</v>
@@ -4952,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D86">
         <v>35</v>
@@ -4978,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D87">
         <v>35</v>
@@ -5004,7 +5004,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D88">
         <v>35</v>
@@ -5030,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -5056,7 +5056,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -5082,7 +5082,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D91">
         <v>35</v>
@@ -5108,7 +5108,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -5134,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D93">
         <v>35</v>
@@ -5160,7 +5160,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D94">
         <v>35</v>
@@ -5186,7 +5186,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D95">
         <v>35</v>
@@ -5212,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D96">
         <v>35</v>
@@ -5238,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D97">
         <v>35</v>
@@ -5264,7 +5264,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D98">
         <v>35</v>
@@ -5290,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D99">
         <v>35</v>
@@ -5316,7 +5316,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D100">
         <v>35</v>
@@ -5336,13 +5336,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D101">
         <v>35</v>
@@ -5368,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D102">
         <v>35</v>
@@ -5394,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D103">
         <v>35</v>
@@ -5420,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D104">
         <v>35</v>
@@ -5446,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D105">
         <v>35</v>
@@ -5472,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D106">
         <v>35</v>
@@ -5498,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D107">
         <v>35</v>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D108">
         <v>35</v>
@@ -5533,7 +5533,7 @@
         <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G108" t="s">
         <v>408</v>
@@ -5550,7 +5550,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D109">
         <v>35</v>
@@ -5576,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D110">
         <v>30</v>
@@ -5602,7 +5602,7 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D111">
         <v>35</v>
@@ -5628,7 +5628,7 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D112">
         <v>35</v>
@@ -5654,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D113">
         <v>35</v>
@@ -5680,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D114">
         <v>35</v>
@@ -5706,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D115">
         <v>35</v>
@@ -5732,7 +5732,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D116">
         <v>35</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D117">
         <v>35</v>
@@ -5784,7 +5784,7 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D118">
         <v>35</v>
@@ -5810,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D119">
         <v>35</v>
@@ -5836,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D120">
         <v>35</v>
@@ -5862,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D121">
         <v>35</v>
@@ -5888,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D122">
         <v>35</v>
@@ -5914,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -5940,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -5966,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -5992,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -6018,7 +6018,7 @@
         <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D127">
         <v>30</v>
@@ -6044,7 +6044,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -6059,7 +6059,7 @@
         <v>484</v>
       </c>
       <c r="H128" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6070,7 +6070,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -6096,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -6122,7 +6122,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -6148,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -6157,7 +6157,7 @@
         <v>498</v>
       </c>
       <c r="F132" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G132" t="s">
         <v>499</v>
@@ -6174,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -6200,7 +6200,7 @@
         <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D134">
         <v>35</v>
@@ -6226,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -6252,7 +6252,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -6278,7 +6278,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D137">
         <v>35</v>
@@ -6304,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -6330,7 +6330,7 @@
         <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -6356,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D140">
         <v>40</v>
@@ -6382,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D141">
         <v>35</v>
@@ -6408,7 +6408,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D142">
         <v>35</v>
@@ -6434,7 +6434,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D143">
         <v>35</v>
@@ -6460,7 +6460,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D144">
         <v>35</v>
@@ -6486,7 +6486,7 @@
         <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D145">
         <v>35</v>
@@ -6512,7 +6512,7 @@
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -6538,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D147">
         <v>35</v>
@@ -6564,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="C148" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -6590,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D149">
         <v>35</v>
@@ -6616,7 +6616,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D150">
         <v>30</v>
@@ -6642,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D151">
         <v>35</v>
@@ -6668,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D152">
         <v>35</v>
@@ -6694,7 +6694,7 @@
         <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D153">
         <v>35</v>
@@ -6720,7 +6720,7 @@
         <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D154">
         <v>35</v>
@@ -6746,7 +6746,7 @@
         <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D155">
         <v>35</v>
@@ -6772,7 +6772,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D156">
         <v>35</v>
@@ -6798,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D157">
         <v>35</v>
@@ -6824,7 +6824,7 @@
         <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D158">
         <v>35</v>
@@ -6850,7 +6850,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D159">
         <v>35</v>
@@ -6876,7 +6876,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D160">
         <v>35</v>
@@ -6902,7 +6902,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D161">
         <v>35</v>
@@ -6928,7 +6928,7 @@
         <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D162">
         <v>45</v>
@@ -6954,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D163">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D164">
         <v>35</v>
@@ -7006,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D165">
         <v>40</v>
@@ -7032,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D166">
         <v>35</v>
@@ -7041,7 +7041,7 @@
         <v>623</v>
       </c>
       <c r="F166" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G166" t="s">
         <v>624</v>
@@ -7058,7 +7058,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D167">
         <v>35</v>
@@ -7084,7 +7084,7 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D168">
         <v>35</v>
@@ -7110,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -7136,7 +7136,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D170">
         <v>35</v>
@@ -7162,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D171">
         <v>35</v>
@@ -7188,7 +7188,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -7214,7 +7214,7 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D173">
         <v>35</v>
@@ -7240,7 +7240,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D174">
         <v>35</v>
@@ -7266,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D175">
         <v>35</v>
@@ -7292,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D176">
         <v>35</v>
@@ -7318,7 +7318,7 @@
         <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D177">
         <v>35</v>
@@ -7344,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D178">
         <v>35</v>
@@ -7370,7 +7370,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D179">
         <v>35</v>
@@ -7396,7 +7396,7 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D180">
         <v>35</v>
@@ -7422,7 +7422,7 @@
         <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D181">
         <v>35</v>
@@ -7448,7 +7448,7 @@
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D182">
         <v>35</v>
@@ -7474,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D183">
         <v>35</v>
@@ -7500,7 +7500,7 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D184">
         <v>35</v>
@@ -7520,13 +7520,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D185">
         <v>35</v>
@@ -7538,359 +7538,359 @@
         <v>4</v>
       </c>
       <c r="G185" t="s">
+        <v>777</v>
+      </c>
+      <c r="H185" t="s">
         <v>694</v>
-      </c>
-      <c r="H185" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
+        <v>695</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>761</v>
+      </c>
+      <c r="D186">
+        <v>35</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B186" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" t="s">
-        <v>762</v>
-      </c>
-      <c r="D186">
-        <v>35</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
         <v>697</v>
       </c>
-      <c r="F186" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>698</v>
-      </c>
-      <c r="H186" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
+        <v>699</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>761</v>
+      </c>
+      <c r="D187">
+        <v>35</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B187" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>762</v>
-      </c>
-      <c r="D187">
-        <v>35</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
         <v>701</v>
       </c>
-      <c r="F187" t="s">
-        <v>4</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>702</v>
-      </c>
-      <c r="H187" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
+        <v>703</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>762</v>
+      </c>
+      <c r="D188">
+        <v>35</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B188" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" t="s">
-        <v>763</v>
-      </c>
-      <c r="D188">
-        <v>35</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
         <v>705</v>
       </c>
-      <c r="F188" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>706</v>
-      </c>
-      <c r="H188" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
+        <v>707</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>762</v>
+      </c>
+      <c r="D189">
+        <v>35</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B189" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" t="s">
-        <v>763</v>
-      </c>
-      <c r="D189">
-        <v>35</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
         <v>709</v>
       </c>
-      <c r="F189" t="s">
-        <v>4</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>710</v>
-      </c>
-      <c r="H189" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
+        <v>711</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>759</v>
+      </c>
+      <c r="D190">
+        <v>35</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" t="s">
-        <v>760</v>
-      </c>
-      <c r="D190">
-        <v>35</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
         <v>713</v>
       </c>
-      <c r="F190" t="s">
-        <v>4</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>714</v>
-      </c>
-      <c r="H190" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B191" t="s">
         <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D191">
         <v>35</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F191" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
         <v>717</v>
       </c>
-      <c r="F191" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>718</v>
-      </c>
-      <c r="H191" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D192">
         <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F192" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>719</v>
+      </c>
+      <c r="H192" t="s">
         <v>721</v>
-      </c>
-      <c r="F192" t="s">
-        <v>4</v>
-      </c>
-      <c r="G192" t="s">
-        <v>720</v>
-      </c>
-      <c r="H192" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
+        <v>722</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>762</v>
+      </c>
+      <c r="D193">
+        <v>35</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B193" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" t="s">
-        <v>763</v>
-      </c>
-      <c r="D193">
-        <v>35</v>
-      </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" t="s">
         <v>724</v>
       </c>
-      <c r="F193" t="s">
-        <v>4</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>725</v>
-      </c>
-      <c r="H193" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D194">
         <v>35</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F194" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
         <v>728</v>
       </c>
-      <c r="F194" t="s">
-        <v>4</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>729</v>
-      </c>
-      <c r="H194" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D195">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F195" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>730</v>
+      </c>
+      <c r="H195" t="s">
         <v>732</v>
-      </c>
-      <c r="F195" t="s">
-        <v>4</v>
-      </c>
-      <c r="G195" t="s">
-        <v>731</v>
-      </c>
-      <c r="H195" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
+        <v>733</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>762</v>
+      </c>
+      <c r="D196">
+        <v>35</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" t="s">
-        <v>763</v>
-      </c>
-      <c r="D196">
-        <v>35</v>
-      </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" t="s">
+        <v>4</v>
+      </c>
+      <c r="G196" t="s">
         <v>735</v>
       </c>
-      <c r="F196" t="s">
-        <v>4</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>736</v>
-      </c>
-      <c r="H196" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
+        <v>737</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>762</v>
+      </c>
+      <c r="D197">
+        <v>35</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B197" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" t="s">
-        <v>763</v>
-      </c>
-      <c r="D197">
-        <v>35</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
         <v>739</v>
       </c>
-      <c r="F197" t="s">
-        <v>4</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>740</v>
-      </c>
-      <c r="H197" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
+        <v>741</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>762</v>
+      </c>
+      <c r="D198">
+        <v>35</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B198" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>763</v>
-      </c>
-      <c r="D198">
-        <v>35</v>
-      </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" t="s">
         <v>743</v>
       </c>
-      <c r="F198" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>744</v>
-      </c>
-      <c r="H198" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D199">
         <v>35</v>
@@ -7902,21 +7902,21 @@
         <v>4</v>
       </c>
       <c r="G199" t="s">
+        <v>746</v>
+      </c>
+      <c r="H199" t="s">
         <v>747</v>
-      </c>
-      <c r="H199" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D200">
         <v>35</v>
@@ -7928,21 +7928,21 @@
         <v>4</v>
       </c>
       <c r="G200" t="s">
+        <v>749</v>
+      </c>
+      <c r="H200" t="s">
         <v>750</v>
-      </c>
-      <c r="H200" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D201">
         <v>30</v>
@@ -7954,21 +7954,21 @@
         <v>4</v>
       </c>
       <c r="G201" t="s">
+        <v>751</v>
+      </c>
+      <c r="H201" t="s">
         <v>752</v>
-      </c>
-      <c r="H201" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D202">
         <v>25</v>
@@ -7980,21 +7980,21 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H202" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B203" t="s">
         <v>39</v>
       </c>
       <c r="C203" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D203">
         <v>25</v>
@@ -8003,24 +8003,24 @@
         <v>21186</v>
       </c>
       <c r="F203" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G203" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H203" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B204" t="s">
         <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D204">
         <v>25</v>
@@ -8029,13 +8029,13 @@
         <v>25171</v>
       </c>
       <c r="F204" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G204" t="s">
+        <v>773</v>
+      </c>
+      <c r="H204" t="s">
         <v>774</v>
-      </c>
-      <c r="H204" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="206" spans="1:8">

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="781">
   <si>
     <t>Movie</t>
   </si>
@@ -2349,6 +2349,16 @@
   </si>
   <si>
     <t>TomJerry</t>
+  </si>
+  <si>
+    <t>Just Like Heaven</t>
+  </si>
+  <si>
+    <t>JustLikeHeaven</t>
+  </si>
+  <si>
+    <t>Elizabeth Masterson, an emergency room physician in San Francisco whose work is everything, is in a car crash while on her way to a blind date at her sister's. Three months later, landscape architect David Abbott, needing a fresh start after his wife's death, takes a sublet on Elizabeth's apartment.
+&lt;br&gt; &lt;br&gt;Elizabeth begins to appear in the apartment, and both are confused. She thinks he is a squatter, and he thinks she broke in. They soon realize she moves through walls and objects. Elizabeth does not know who she is, and insists she is not dead. David unsuccessfully tries to have her spirit exorcised. As only David can see and hear her, others think he is hallucinating and talking to himself. Elizabeth asks him to help her discover who she really is.</t>
   </si>
 </sst>
 </file>
@@ -2398,11 +2408,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,7 +2722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2719,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="H172" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8038,6 +8051,32 @@
         <v>774</v>
       </c>
     </row>
+    <row r="205" spans="1:8" ht="38.25">
+      <c r="A205" t="s">
+        <v>778</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>760</v>
+      </c>
+      <c r="D205">
+        <v>40</v>
+      </c>
+      <c r="E205" s="1">
+        <v>38611</v>
+      </c>
+      <c r="F205" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>779</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
     <row r="206" spans="1:8">
       <c r="E206" s="3"/>
     </row>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -49,9 +49,6 @@
     <t>12AngryMen</t>
   </si>
   <si>
-    <t>The defense and the prosecution have rested and the jury is filing into the jury room to decide if a young Spanish-American is guilty or innocent of murdering his father. What begins as an open and shut case soon becomes a mini-drama of each of the jurors' prejudices and preconceptions about the trial, the accused, and each other.</t>
-  </si>
-  <si>
     <t>13 Going On 30</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>13GoingOn30</t>
   </si>
   <si>
-    <t>After total humiliation at her thirteenth birthday party, Jenna Rink wants to just hide until she's thirty. With a little magic, her wish is granted, but it turns out that being thirty isn't as always as awesome as she thought it would be!</t>
-  </si>
-  <si>
     <t>6th Day, The</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>6thDay</t>
   </si>
   <si>
-    <t>A world of the very near future in which cattle, fish, and even the family pet can be cloned. But cloning humans is illegal - that is until family man Adam Gibson (Arnold Schwarzenegger) comes home from work one day to find a clone has replaced him. Taken from his family and plunged into a sinister world he doesn't understand, Gibson must not only save himself from the assassins who must destroy him to protect their secret, but uncover who and what is behind the horrible things happening to him.</t>
-  </si>
-  <si>
     <t>8 Heads In A Duffel Bag</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
   </si>
   <si>
     <t>BachnaAeHaseeno</t>
-  </si>
-  <si>
-    <t>Raj is a heartbreaker. His love stories with Mahi, Radhika and Gayatri finally teach him about love and life in their own sweet, sexy and sassy way.</t>
   </si>
   <si>
     <t>Back to the Future 1</t>
@@ -854,9 +842,6 @@
     <t>2013-11-29</t>
   </si>
   <si>
-    <t>Anna sets out on a journey with an iceman, Kristoff, and his reindeer, Sven, in order to find her sister, Elsa, who has the power to convert any object or person into ice.</t>
-  </si>
-  <si>
     <t>Fugitive, The</t>
   </si>
   <si>
@@ -1346,9 +1331,6 @@
     <t>1994-11-23</t>
   </si>
   <si>
-    <t>As part of a fertility research project, a male scientist agrees to carry a pregnancy in his own body.</t>
-  </si>
-  <si>
     <t>Kal Ho Naa Ho</t>
   </si>
   <si>
@@ -1848,9 +1830,6 @@
   </si>
   <si>
     <t>RabNeBanaDiJodi</t>
-  </si>
-  <si>
-    <t>A lonely 40-ish man, likely to remain a bachelor, has a chance to find the love of his life when he falls for a vivacious young woman. Have you ever stopped to think if the most ordinary, uninteresting, unobtrusive man you might see on the road or around you might have a love story to tell? Maybe not. How can an ordinary man have a breathtaking, goose flesh igniting, awe inspiring love story of all things to tell? This is what happened to Surinder Sahni (Shahrukh Khan) - a simple, clean hearted, honest man, leading a humdrum life, when he meets his total opposite and finds love in the flamboyant, fun-loving, vivacious - Taani (Anushka Sharma) for whom the whole world is her canvas and she paints her own life with the colours of rainbow all until unforeseen circumstances changes it all and brings them together. What follows is a journey filled with laughter, tears, joy, pain, music, dance and a lot of love. A journey that makes us believe that there is an extraordinary love story in every ordinary jodi (couple).</t>
   </si>
   <si>
     <t>Ratatouille</t>
@@ -2359,6 +2338,27 @@
   <si>
     <t>Elizabeth Masterson, an emergency room physician in San Francisco whose work is everything, is in a car crash while on her way to a blind date at her sister's. Three months later, landscape architect David Abbott, needing a fresh start after his wife's death, takes a sublet on Elizabeth's apartment.
 &lt;br&gt; &lt;br&gt;Elizabeth begins to appear in the apartment, and both are confused. She thinks he is a squatter, and he thinks she broke in. They soon realize she moves through walls and objects. Elizabeth does not know who she is, and insists she is not dead. David unsuccessfully tries to have her spirit exorcised. As only David can see and hear her, others think he is hallucinating and talking to himself. Elizabeth asks him to help her discover who she really is.</t>
+  </si>
+  <si>
+    <t>Handsome world traveler Raj (Ranbir Kapoor) recounts a decade of casual romance, inlcuding a tryst with the beautiful Mahi (Minissha Lamba) in Switzerland and with model Radhika (Bipasha Basu) in Mumbai. Now living in Sydney, Australia, the historically commitment-phobic Raj finds himself wanting to settle down for real with his latest love, gorgeous taxi driver Gayatri (Deepika Padukone). But, as the two grow closer, Raj worries that his promiscuous past will come back to haunt him.</t>
+  </si>
+  <si>
+    <t>A lonely 40-ish man, likely to remain a bachelor, has a chance to find the love of his life when he falls for a vivacious young woman. Have you ever stopped to think if the most ordinary, uninteresting, unobtrusive man you might see on the road or around you might have a love story to tell? Maybe not. How can an ordinary man have a breathtaking, goose flesh igniting, awe inspiring love story of all things to tell? &lt;br&gt;This is what happened to Surinder Sahni (Shahrukh Khan) - a simple, clean hearted, honest man, leading a humdrum life, when he meets his total opposite and finds love in the flamboyant, fun-loving, vivacious - Taani (Anushka Sharma) for whom the whole world is her canvas and she paints her own life with the colours of rainbow all until unforeseen circumstances changes it all and brings them together. What follows is a journey filled with laughter, tears, joy, pain, music, dance and a lot of love. A journey that makes us believe that there is an extraordinary love story in every ordinary jodi (couple).</t>
+  </si>
+  <si>
+    <t>When their kingdom becomes trapped in perpetual winter, fearless Anna (Kristen Bell) joins forces with mountaineer Kristoff (Jonathan Groff) and his reindeer sidekick to find Anna's sister, Snow Queen Elsa (Idina Menzel), and break her icy spell. Although their epic journey leads them to encounters with mystical trolls, a comedic snowman (Josh Gad), harsh conditions, and magic at every turn, Anna and Kristoff bravely push onward in a race to save their kingdom from winter's cold grip.</t>
+  </si>
+  <si>
+    <t>Following the closing arguments in a murder trial, the 12 members of the jury must deliberate, with a guilty verdict meaning death for the accused, an inner-city teen. As the dozen men try to reach a unanimous decision while sequestered in a room, one juror (Henry Fonda) casts considerable doubt on elements of the case. Personal issues soon rise to the surface, and conflict threatens to derail the delicate process that will decide one boy's fate.</t>
+  </si>
+  <si>
+    <t>A girl who's sick of the social strictures of junior high is transformed into a grownup overnight. In this feel-good fairy tale, teenager Jenna (Christa B. Allen) wants a boyfriend, and when she's unable to find one, she fantasizes about being a well-adjusted adult. Suddenly, her secret desire becomes a reality, and she is transformed into a 30-year-old (Jennifer Garner). But adulthood, with its own set of male-female challenges, isn't as easy as it looks.</t>
+  </si>
+  <si>
+    <t>A world of the very near future in which cattle, fish and even family pet can be cloned. But cloning humans is illegal -- that is until family man Adam Gibson comes home from work one day to find a clone has replaced him. Taken from his family and plunged into a sinister world he doesn't understand, Gibson must not only save himself from the assassins who must now destroy him to protect their secret, but uncover who and what is behind the horrible things happening to him.</t>
+  </si>
+  <si>
+    <t>A research scientist becomes the world's first pregnant man in order to test a drug he and a colleague have designed for expectant women. To carry out the trial, he has an embryo implant, believing that he will only carry the baby for three months - hardly expecting to face the prospect of giving birth.</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2732,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H172" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+    <sheetView tabSelected="1" topLeftCell="H94" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2781,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -2790,1376 +2790,1376 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>762</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>754</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>763</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D8">
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>762</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>755</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>762</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D12">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>755</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>762</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>762</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>755</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>762</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D17">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D18">
         <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D19">
         <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D20">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D21">
         <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D22">
         <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D23">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D24">
         <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D25">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D27">
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D28">
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D29">
         <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D31">
         <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D32">
         <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D33">
         <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D34">
         <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D35">
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D39">
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D40">
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D41">
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D42">
         <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D43">
         <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D45">
         <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D46">
         <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D47">
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D48">
         <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D49">
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D50">
         <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D51">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D52">
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>749</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>756</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>763</v>
-      </c>
       <c r="D53">
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D54">
         <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D55">
         <v>35</v>
@@ -4171,3739 +4171,3739 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="H55" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D56">
         <v>35</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D57">
         <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D58">
         <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D59">
         <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D60">
         <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D61">
         <v>35</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H61" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D62">
         <v>35</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D63">
         <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D64">
         <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D65">
         <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D66">
         <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D67">
         <v>35</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D68">
         <v>35</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D69">
         <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D70">
         <v>35</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D71">
         <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D72">
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H72" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D74">
         <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D75">
         <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H75" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D76">
         <v>35</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H76" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D77">
         <v>35</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H77" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D78">
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H78" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D79">
         <v>35</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H79" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D80">
         <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H80" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D81">
         <v>35</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H81" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D82">
         <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H82" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D83">
         <v>50</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D84">
         <v>35</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H84" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D85">
         <v>35</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D86">
         <v>35</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H86" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D87">
         <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H87" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D88">
         <v>35</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D89">
         <v>35</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D90">
         <v>35</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H90" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D91">
         <v>35</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D92">
         <v>35</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H92" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D93">
         <v>35</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H93" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D94">
         <v>35</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H94" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D95">
         <v>35</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H95" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D96">
         <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H96" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D97">
         <v>35</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H97" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D98">
         <v>35</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H98" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D99">
         <v>35</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H99" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D100">
         <v>35</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H100" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D101">
         <v>35</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H101" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D102">
         <v>35</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H102" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D103">
         <v>35</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H103" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D104">
         <v>35</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H104" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D105">
         <v>35</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H105" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D106">
         <v>35</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H106" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D107">
         <v>35</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H107" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D108">
         <v>35</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F108" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G108" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H108" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D109">
         <v>35</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H109" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D110">
         <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H110" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D111">
         <v>35</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H111" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D112">
         <v>35</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H112" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D113">
         <v>35</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H113" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D114">
         <v>35</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H114" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D115">
         <v>35</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H115" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D116">
         <v>35</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H116" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D117">
         <v>35</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H117" t="s">
-        <v>443</v>
+        <v>780</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D118">
         <v>35</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H118" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D119">
         <v>35</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H119" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D120">
         <v>35</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H120" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D121">
         <v>35</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H121" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D122">
         <v>35</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H122" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D123">
         <v>35</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H123" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D124">
         <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H124" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D125">
         <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H125" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D126">
         <v>35</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H126" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H127" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D128">
         <v>35</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H128" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D129">
         <v>35</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H129" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D130">
         <v>35</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H130" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D131">
         <v>35</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H131" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D132">
         <v>35</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F132" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G132" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H132" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D133">
         <v>35</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H133" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D134">
         <v>35</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H134" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D135">
         <v>35</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H135" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D136">
         <v>35</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H136" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D137">
         <v>35</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H137" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D138">
         <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H138" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D139">
         <v>35</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
       <c r="G139" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H139" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D140">
         <v>40</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H140" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D141">
         <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
       <c r="G141" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H141" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D142">
         <v>35</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H142" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D143">
         <v>35</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H143" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D144">
         <v>35</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H144" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D145">
         <v>35</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
       <c r="G145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H145" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D146">
         <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H146" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D147">
         <v>35</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H147" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D148">
         <v>35</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H148" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D149">
         <v>35</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H149" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D150">
         <v>30</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H150" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D151">
         <v>35</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H151" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D152">
         <v>35</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D153">
         <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H153" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D154">
         <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H154" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D155">
         <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H155" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D156">
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H156" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D157">
         <v>35</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H157" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D158">
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H158" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D159">
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H159" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D160">
         <v>35</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F160" t="s">
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H160" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D161">
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H161" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D162">
         <v>45</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H162" t="s">
-        <v>611</v>
+        <v>775</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D163">
         <v>35</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H163" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D164">
         <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
       <c r="G164" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H164" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D165">
         <v>40</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H165" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D166">
         <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F166" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G166" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H166" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D167">
         <v>35</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H167" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D168">
         <v>35</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H168" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D169">
         <v>35</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H169" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D170">
         <v>35</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H170" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D171">
         <v>35</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H171" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D172">
         <v>35</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H172" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D173">
         <v>35</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H173" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D174">
         <v>35</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
       </c>
       <c r="G174" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H174" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D175">
         <v>35</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="H175" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D176">
         <v>35</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F176" t="s">
         <v>4</v>
       </c>
       <c r="G176" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="H176" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D177">
         <v>35</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
       <c r="G177" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="H177" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D178">
         <v>35</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
       </c>
       <c r="G178" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="H178" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D179">
         <v>35</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="H179" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D180">
         <v>35</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
       </c>
       <c r="G180" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="H180" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D181">
         <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H181" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D182">
         <v>35</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
       </c>
       <c r="G182" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="H182" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D183">
         <v>35</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
       </c>
       <c r="G183" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H183" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D184">
         <v>35</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
         <v>4</v>
       </c>
       <c r="G184" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="H184" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D185">
         <v>35</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F185" t="s">
         <v>4</v>
       </c>
       <c r="G185" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H185" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D186">
         <v>35</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
       </c>
       <c r="G186" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H186" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D187">
         <v>35</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F187" t="s">
         <v>4</v>
       </c>
       <c r="G187" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H187" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D188">
         <v>35</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F188" t="s">
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="H188" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D189">
         <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F189" t="s">
         <v>4</v>
       </c>
       <c r="G189" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H189" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D190">
         <v>35</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F190" t="s">
         <v>4</v>
       </c>
       <c r="G190" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H190" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D191">
         <v>35</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F191" t="s">
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H191" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D192">
         <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F192" t="s">
         <v>4</v>
       </c>
       <c r="G192" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="H192" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D193">
         <v>35</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
       </c>
       <c r="G193" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="H193" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C194" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D194">
         <v>35</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F194" t="s">
         <v>4</v>
       </c>
       <c r="G194" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H194" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D195">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F195" t="s">
         <v>4</v>
       </c>
       <c r="G195" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="H195" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D196">
         <v>35</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="F196" t="s">
         <v>4</v>
       </c>
       <c r="G196" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H196" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D197">
         <v>35</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F197" t="s">
         <v>4</v>
       </c>
       <c r="G197" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="H197" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D198">
         <v>35</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F198" t="s">
         <v>4</v>
       </c>
       <c r="G198" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="H198" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D199">
         <v>35</v>
@@ -7915,21 +7915,21 @@
         <v>4</v>
       </c>
       <c r="G199" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="H199" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D200">
         <v>35</v>
@@ -7941,47 +7941,47 @@
         <v>4</v>
       </c>
       <c r="G200" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="H200" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D201">
         <v>30</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F201" t="s">
         <v>4</v>
       </c>
       <c r="G201" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="H201" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D202">
         <v>25</v>
@@ -7993,21 +7993,21 @@
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="H202" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C203" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D203">
         <v>25</v>
@@ -8016,24 +8016,24 @@
         <v>21186</v>
       </c>
       <c r="F203" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G203" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="H203" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C204" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D204">
         <v>25</v>
@@ -8042,24 +8042,24 @@
         <v>25171</v>
       </c>
       <c r="F204" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G204" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="H204" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="38.25">
       <c r="A205" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D205">
         <v>40</v>
@@ -8071,10 +8071,10 @@
         <v>4</v>
       </c>
       <c r="G205" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="206" spans="1:8">

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="782">
   <si>
     <t>Movie</t>
   </si>
@@ -2359,6 +2359,9 @@
   </si>
   <si>
     <t>A research scientist becomes the world's first pregnant man in order to test a drug he and a colleague have designed for expectant women. To carry out the trial, he has an embryo implant, believing that he will only carry the baby for three months - hardly expecting to face the prospect of giving birth.</t>
+  </si>
+  <si>
+    <t>Two photographers, who are employed by a newspaper editor to expose the scandalous activities of the rich, come across corruption by a builder and accidentally photograph a murder.</t>
   </si>
 </sst>
 </file>
@@ -2732,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H94" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3789,59 +3792,59 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>763</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D41">
-        <v>35</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>25</v>
+      </c>
+      <c r="E41" s="1">
+        <v>21186</v>
       </c>
       <c r="F41" t="s">
         <v>747</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>765</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D42">
         <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -3853,151 +3856,151 @@
         <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D45">
         <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D46">
         <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D47">
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D48">
         <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -4009,125 +4012,125 @@
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D50">
         <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D51">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D52">
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>749</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D53">
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>749</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -4139,21 +4142,21 @@
         <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>746</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -4164,74 +4167,74 @@
       <c r="D55">
         <v>35</v>
       </c>
-      <c r="E55" s="1">
-        <v>42916</v>
+      <c r="E55" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>759</v>
+        <v>204</v>
       </c>
       <c r="H55" t="s">
-        <v>748</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>746</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D56">
         <v>35</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>207</v>
+      <c r="E56" s="1">
+        <v>42916</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>759</v>
       </c>
       <c r="H56" t="s">
-        <v>209</v>
+        <v>748</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D57">
         <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -4243,21 +4246,21 @@
         <v>35</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
@@ -4269,50 +4272,50 @@
         <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D60">
         <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>754</v>
@@ -4321,73 +4324,73 @@
         <v>35</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D62">
         <v>35</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D63">
         <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -4399,21 +4402,21 @@
         <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -4425,21 +4428,21 @@
         <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -4451,21 +4454,21 @@
         <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -4477,47 +4480,47 @@
         <v>35</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D68">
         <v>35</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -4529,73 +4532,73 @@
         <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H69" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D70">
         <v>35</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D71">
         <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4607,125 +4610,125 @@
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H73" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H74" t="s">
-        <v>776</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D75">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H75" t="s">
-        <v>278</v>
+        <v>776</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D76">
         <v>35</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -4737,21 +4740,21 @@
         <v>35</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4763,47 +4766,47 @@
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H78" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D79">
         <v>35</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4815,24 +4818,24 @@
         <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H80" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>755</v>
@@ -4841,125 +4844,125 @@
         <v>35</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H81" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>757</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H82" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>757</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D85">
         <v>35</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H85" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4971,21 +4974,21 @@
         <v>35</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -4997,21 +5000,21 @@
         <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H87" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -5023,99 +5026,99 @@
         <v>35</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D89">
         <v>35</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H89" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D90">
         <v>35</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H90" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D91">
         <v>35</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -5127,47 +5130,47 @@
         <v>35</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H92" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D93">
         <v>35</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H93" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -5179,21 +5182,21 @@
         <v>35</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -5205,21 +5208,21 @@
         <v>35</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -5231,21 +5234,21 @@
         <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H96" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -5257,21 +5260,21 @@
         <v>35</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H97" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -5283,73 +5286,73 @@
         <v>35</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H98" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D99">
         <v>35</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H99" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D100">
         <v>35</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>750</v>
+        <v>370</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -5361,47 +5364,47 @@
         <v>35</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H101" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>750</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D102">
         <v>35</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H102" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -5413,21 +5416,21 @@
         <v>35</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H103" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -5439,21 +5442,21 @@
         <v>35</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H104" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -5465,125 +5468,125 @@
         <v>35</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H105" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D106">
         <v>35</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H106" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D107">
         <v>35</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H107" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D108">
         <v>35</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F108" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H108" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D109">
         <v>35</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F109" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G109" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H109" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -5592,128 +5595,128 @@
         <v>754</v>
       </c>
       <c r="D110">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H110" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D111">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H111" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D112">
         <v>35</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H112" t="s">
-        <v>419</v>
+        <v>781</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D113">
         <v>35</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H113" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D114">
         <v>35</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H114" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -5725,333 +5728,333 @@
         <v>35</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H115" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D116">
         <v>35</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H116" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D117">
         <v>35</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H117" t="s">
-        <v>780</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
+        <v>755</v>
+      </c>
+      <c r="D118">
+        <v>35</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>436</v>
+      </c>
+      <c r="H118" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="38.25">
+      <c r="A119" t="s">
+        <v>771</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
         <v>753</v>
       </c>
-      <c r="D118">
-        <v>35</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F118" t="s">
-        <v>4</v>
-      </c>
-      <c r="G118" t="s">
-        <v>440</v>
-      </c>
-      <c r="H118" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>442</v>
-      </c>
-      <c r="B119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" t="s">
-        <v>755</v>
-      </c>
       <c r="D119">
-        <v>35</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>443</v>
+        <v>40</v>
+      </c>
+      <c r="E119" s="1">
+        <v>38611</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>444</v>
-      </c>
-      <c r="H119" t="s">
-        <v>445</v>
+        <v>772</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D120">
         <v>35</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H120" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D121">
         <v>35</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H121" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D122">
         <v>35</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H122" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D123">
         <v>35</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H123" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D124">
         <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H124" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D125">
         <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H125" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D126">
         <v>35</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H126" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D127">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H127" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -6063,73 +6066,73 @@
         <v>35</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H128" t="s">
-        <v>769</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D129">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H129" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D130">
         <v>35</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H130" t="s">
-        <v>486</v>
+        <v>769</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -6141,206 +6144,206 @@
         <v>35</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H131" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D132">
         <v>35</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F132" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H132" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D133">
         <v>35</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H133" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
         <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D134">
         <v>35</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F134" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G134" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H134" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D135">
         <v>35</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H135" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D136">
         <v>35</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H136" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D137">
         <v>35</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H137" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D138">
         <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H138" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>755</v>
@@ -6349,73 +6352,73 @@
         <v>35</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
       <c r="G139" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H139" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D140">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H140" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C141" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D141">
         <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
       <c r="G141" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H141" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -6424,365 +6427,365 @@
         <v>756</v>
       </c>
       <c r="D142">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H142" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D143">
         <v>35</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H143" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D144">
         <v>35</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H144" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D145">
         <v>35</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
       <c r="G145" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H145" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H146" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D147">
         <v>35</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H147" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B148" t="s">
         <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D148">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H148" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D149">
         <v>35</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H149" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D150">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H150" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D151">
         <v>35</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H151" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D152">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H152" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D153">
         <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D154">
         <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H154" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>575</v>
+        <v>766</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D155">
-        <v>35</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>576</v>
+        <v>25</v>
+      </c>
+      <c r="E155" s="1">
+        <v>25171</v>
       </c>
       <c r="F155" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G155" t="s">
-        <v>575</v>
+        <v>766</v>
       </c>
       <c r="H155" t="s">
-        <v>577</v>
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
         <v>755</v>
@@ -6791,73 +6794,73 @@
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H156" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D157">
         <v>35</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H157" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B158" t="s">
         <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D158">
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H158" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -6869,336 +6872,336 @@
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H159" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D160">
         <v>35</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F160" t="s">
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H160" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C161" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D161">
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="H161" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D162">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="H162" t="s">
-        <v>775</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D163">
         <v>35</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H163" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D164">
         <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
       <c r="G164" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H164" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D165">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H165" t="s">
-        <v>614</v>
+        <v>775</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D166">
         <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F166" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H166" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D167">
         <v>35</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H167" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D168">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="H168" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D169">
         <v>35</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="F169" t="s">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="G169" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H169" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D170">
         <v>35</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="H170" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D171">
         <v>35</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="H171" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
         <v>754</v>
@@ -7207,73 +7210,73 @@
         <v>35</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="H172" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D173">
         <v>35</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="H173" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D174">
         <v>35</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>374</v>
+        <v>635</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
       </c>
       <c r="G174" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="H174" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -7285,73 +7288,73 @@
         <v>35</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="H175" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D176">
         <v>35</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F176" t="s">
         <v>4</v>
       </c>
       <c r="G176" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="H176" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D177">
         <v>35</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>658</v>
+        <v>374</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
       <c r="G177" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H177" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -7363,21 +7366,21 @@
         <v>35</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
       </c>
       <c r="G178" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="H178" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -7389,125 +7392,125 @@
         <v>35</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="H179" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D180">
         <v>35</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
       </c>
       <c r="G180" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H180" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D181">
         <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>526</v>
+        <v>661</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
       <c r="G181" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="H181" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D182">
         <v>35</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
       </c>
       <c r="G182" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H182" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D183">
         <v>35</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
       </c>
       <c r="G183" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H183" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -7516,27 +7519,27 @@
         <v>752</v>
       </c>
       <c r="D184">
-        <v>35</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>683</v>
+        <v>25</v>
+      </c>
+      <c r="E184" s="1">
+        <v>25269</v>
       </c>
       <c r="F184" t="s">
         <v>4</v>
       </c>
       <c r="G184" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
       <c r="H184" t="s">
-        <v>685</v>
+        <v>760</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C185" t="s">
         <v>755</v>
@@ -7545,99 +7548,99 @@
         <v>35</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>686</v>
+        <v>526</v>
       </c>
       <c r="F185" t="s">
         <v>4</v>
       </c>
       <c r="G185" t="s">
-        <v>770</v>
+        <v>672</v>
       </c>
       <c r="H185" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D186">
         <v>35</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
       </c>
       <c r="G186" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="H186" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D187">
         <v>35</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F187" t="s">
         <v>4</v>
       </c>
       <c r="G187" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="H187" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D188">
         <v>35</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F188" t="s">
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="H188" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -7649,99 +7652,99 @@
         <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F189" t="s">
         <v>4</v>
       </c>
       <c r="G189" t="s">
-        <v>702</v>
+        <v>770</v>
       </c>
       <c r="H189" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D190">
         <v>35</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F190" t="s">
         <v>4</v>
       </c>
       <c r="G190" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="H190" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D191">
         <v>35</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F191" t="s">
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="H191" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F192" t="s">
         <v>4</v>
       </c>
       <c r="G192" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="H192" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -7753,24 +7756,24 @@
         <v>35</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
       </c>
       <c r="G193" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="H193" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="B194" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>752</v>
@@ -7779,73 +7782,73 @@
         <v>35</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="F194" t="s">
         <v>4</v>
       </c>
       <c r="G194" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="H194" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D195">
         <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="F195" t="s">
         <v>4</v>
       </c>
       <c r="G195" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="H195" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D196">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F196" t="s">
         <v>4</v>
       </c>
       <c r="G196" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="H196" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -7857,230 +7860,233 @@
         <v>35</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F197" t="s">
         <v>4</v>
       </c>
       <c r="G197" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="H197" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D198">
         <v>35</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F198" t="s">
         <v>4</v>
       </c>
       <c r="G198" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="H198" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D199">
         <v>35</v>
       </c>
-      <c r="E199" s="1">
-        <v>36472</v>
+      <c r="E199" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="F199" t="s">
         <v>4</v>
       </c>
       <c r="G199" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="H199" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D200">
         <v>35</v>
       </c>
-      <c r="E200" s="1">
-        <v>32192</v>
+      <c r="E200" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="F200" t="s">
         <v>4</v>
       </c>
       <c r="G200" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="H200" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D201">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>157</v>
+        <v>731</v>
       </c>
       <c r="F201" t="s">
         <v>4</v>
       </c>
       <c r="G201" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="H201" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D202">
-        <v>25</v>
-      </c>
-      <c r="E202" s="1">
-        <v>25269</v>
+        <v>35</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="F202" t="s">
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="H202" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="B203" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D203">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E203" s="1">
-        <v>21186</v>
+        <v>36472</v>
       </c>
       <c r="F203" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G203" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="H203" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="B204" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D204">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E204" s="1">
-        <v>25171</v>
+        <v>32192</v>
       </c>
       <c r="F204" t="s">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="G204" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="H204" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="38.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D205">
-        <v>40</v>
-      </c>
-      <c r="E205" s="1">
-        <v>38611</v>
+        <v>30</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F205" t="s">
         <v>4</v>
       </c>
       <c r="G205" t="s">
-        <v>772</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>773</v>
+        <v>744</v>
+      </c>
+      <c r="H205" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="E206" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H206">
+    <sortCondition ref="A112"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="875">
   <si>
     <t>Movie</t>
   </si>
   <si>
     <t>Language</t>
-  </si>
-  <si>
-    <t>Stars</t>
   </si>
   <si>
     <t>ReleaseDate</t>
@@ -542,9 +539,6 @@
     <t>A man obsessed with conspiracy theories becomes a target after one of his theories turns out to be true. Unfortunately, in order to save himself, he has to figure out which theory it is.</t>
   </si>
   <si>
-    <t>Daddy Cool Join the Fun</t>
-  </si>
-  <si>
     <t>2009-08-28</t>
   </si>
   <si>
@@ -2362,6 +2356,291 @@
   </si>
   <si>
     <t>Two photographers, who are employed by a newspaper editor to expose the scandalous activities of the rich, come across corruption by a builder and accidentally photograph a murder.</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Henry Fonda, Lee J. Cobb, Joseph Sweeney, Martin Balsam, Ed Begley, John Savoca, Jack Klugman</t>
+  </si>
+  <si>
+    <t>Jennifer Garner, Mark Ruffalo, Christa B. Allen, Judy Greer</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger, Tony Goldwyn, Sarah Wynter, Taylor Anne Reid, Terry Crews, Michael Rooker</t>
+  </si>
+  <si>
+    <t>Joe Pesci, David Spade, Kristy Swanson, Andy Comeau, George Hamilton, Dyan Cannon</t>
+  </si>
+  <si>
+    <t>Fred MacMurray, Nancy Olson, Tommy Kirk, Ed Wynn, Keenan Wynn, Elliott Reid</t>
+  </si>
+  <si>
+    <t>Andy Serkis, Jamie Bell, Simon Pegg, Daniel Craig, Nick Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Madhavan, Kaniha, Sadha, Vivek, </t>
+  </si>
+  <si>
+    <t>Will Smith, Mena Massoud, Naomi Scott, Marwan Kenzari, Nasim Pedrad, Billy Magnussen</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar, Moushumi Chatterjee, Deven Verma, Deepti Naval, Aruna Irani, Utpal Dutt, Padma Chavan</t>
+  </si>
+  <si>
+    <t>Rob Schneider, Colleen Haskell, John C. McGinley</t>
+  </si>
+  <si>
+    <t>Gregory Peck, Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Rajpal Yadav, Vijay Raaz, Sanjay Mishra, Satyajeet Dubey, Tia Bajpai, Rakesh Bedi</t>
+  </si>
+  <si>
+    <t>Jacob Joseph Worton, Adam Robert Worton, Joe Mantegna, Joe Pantoliano, Brian Haley, Lara Flynn Boyle, Cynthia Nixon</t>
+  </si>
+  <si>
+    <t>Ranbir Kapoor, Bipasha Basu, Minissha Lamba, Deepika Padukone, Kunal Kapoor</t>
+  </si>
+  <si>
+    <t>Michael J. Fox, Christopher Lloyd, Lea Thompson, Crispin Glover, Thomas F. Wilson</t>
+  </si>
+  <si>
+    <t>Michael J. Fox, Christopher Lloyd, Lea Thompson</t>
+  </si>
+  <si>
+    <t>Zoe Saldana, Sam Worthington, Sigourney Weaver, Michelle Rodriguez, Joel David Moore</t>
+  </si>
+  <si>
+    <t>Kamal Haasan, Meena, Gemini Ganesan, K. S. Ravikumar, Heera Rajagopal, Nassar, Crazy Mohan</t>
+  </si>
+  <si>
+    <t>Roger Carel, Lorànt Deutsch, Laurent Lafitte, Guillaume Briat</t>
+  </si>
+  <si>
+    <t>Michael J. Fox, Christopher Lloyd, Mary Steenburgen, Thomas F. Wilson, Lea Thompson</t>
+  </si>
+  <si>
+    <t>Rowan Atkinson, Peter MacNicol, Pamela Reed, Harris Yulin, Burt Reynolds</t>
+  </si>
+  <si>
+    <t>Rowan Atkinson, Emma de Caunes, Willem Dafoe</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld, Renée Zellweger, Matthew Broderick, John Goodman, Patrick Warburton, Chris Rock</t>
+  </si>
+  <si>
+    <t>Eddie Murphy, Judge Reinhold, John Ashton, Lisa Eilbacher, Ronny Cox, Steven Berkoff</t>
+  </si>
+  <si>
+    <t>Akshay Kumar, Govinda, Paresh Rawal, Jackie Shroff, Arbaaz Khan, Lara Dutta, Rajpal Yadav, Manoj Joshi, Shakti Kapoor, Asrani, Sharat Saxena, Tanushree Dutta, Razak Khan</t>
+  </si>
+  <si>
+    <t>Vinay Pathak, Rajat Kapoor, Sarika, Ranvir Shorey, Milind Soman</t>
+  </si>
+  <si>
+    <t>Irrfan Khan, Shah Rukh Khan, Lara Dutta</t>
+  </si>
+  <si>
+    <t>Peter Ustinov, Dean Jones, Suzanne Pleshette</t>
+  </si>
+  <si>
+    <t>Adam Sandler, Drew Barrymore, Kevin Nealon, Terry Crews, Wendi McLendon-Covey</t>
+  </si>
+  <si>
+    <t>Martin Lawrence, Luke Wilson, Dave Chappelle, Peter Greene, Nicole Parker, William Forsythe</t>
+  </si>
+  <si>
+    <t>John Travolta, Miley Cyrus, Susie Essman, Mark Walton, Malcolm McDowell, James Lipton, Greg Germann</t>
+  </si>
+  <si>
+    <t>Matt Damon, Franka Potente, Chris Cooper, Clive Owen, Brian Cox, Adewale Akinnuoye-Agbaje</t>
+  </si>
+  <si>
+    <t>Matt Damon, Franka Potente, Brian Cox, Julia Stiles, Karl Urban, Gabriel Mann, Joan Allen</t>
+  </si>
+  <si>
+    <t>Matt Damon, Julia Stiles, David Strathairn, Scott Glenn, Paddy Considine, Édgar Ramírez, Albert Finney, Joan Allen</t>
+  </si>
+  <si>
+    <t>Richard Pryor, John Candy, Lonette McKee, Stephen Collins, Hume Cronyn</t>
+  </si>
+  <si>
+    <t>Jim Carrey, Morgan Freeman, Jennifer Aniston, Philip Baker Hall</t>
+  </si>
+  <si>
+    <t>Jack Nicholson, Morgan Freeman, Sean Hayes, Rob Morrow</t>
+  </si>
+  <si>
+    <t>Anupam Kher, Om Puri, Paresh Rawal, Rakhi Sawant</t>
+  </si>
+  <si>
+    <t>Owen Wilson, Paul Newman</t>
+  </si>
+  <si>
+    <t>Lara Dutta, Vinay Pathak, Akshay Kumar, Mahika Sharma</t>
+  </si>
+  <si>
+    <t>Ashok Kumar, Madhubala, Anoop Kumar, Kishore Kumar</t>
+  </si>
+  <si>
+    <t>Dev Anand, Shakila, Waheeda Rehman</t>
+  </si>
+  <si>
+    <t>Bill Hader, Anna Faris, James Caan, Andy Samberg, Bruce Campbell, Mr. T</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez, Gael García Bernal, Benjamin Bratt, Alanna Ubach, Renée Victor, Ana Ofelia Murguía, Edward James Olmos</t>
+  </si>
+  <si>
+    <t>Rock Hudson, Gina Lollobrigida, Sandra Dee, Joel Grey, Bobby Darin, Walter Slezak</t>
+  </si>
+  <si>
+    <t>Eddie Murphy, Arsenio Hall, James Earl Jones, John Amos, Madge Sinclair, Shari Headley</t>
+  </si>
+  <si>
+    <t>Mel Gibson, Julia Roberts, Patrick Stewart</t>
+  </si>
+  <si>
+    <t>Daddy Cool</t>
+  </si>
+  <si>
+    <t>Sunil Shetty, Javed Jaffrey, Aftab Shivdasani, Aarti Chabria, Ashish Chaudhary, Kim Sharma, Sophie Choudry, Rajpal Yadav, Tulip Joshi, Chunky Pandey, Prem Chopra</t>
+  </si>
+  <si>
+    <t>Richard Todd, Michael Redgrave</t>
+  </si>
+  <si>
+    <t>Edward Fox, Alan Badel, Tony Britton, Cyril Cusack, Derek Jacobi, Michael Lonsdale, Eric Porter, Delphine Seyrig</t>
+  </si>
+  <si>
+    <t>Akshay Kumar, Sunil Shetty, Katrina Kaif, Paresh Rawal, Sameera Reddy</t>
+  </si>
+  <si>
+    <t>Tom Bateman, Annette Bening, Kenneth Branagh, Russell Brand, Ali Fazal, Dawn French</t>
+  </si>
+  <si>
+    <t>Akshay Kumar, Suniel Shetty, Shahid Kapoor, Rimi Sen, Paresh Rawal, Johnny Lever</t>
+  </si>
+  <si>
+    <t>Steve Carell, Jason Segel, Russell Brand, Kristen Wiig, Miranda Cosgrove, Will Arnett, Danny McBride, Jack McBrayer, Julie Andrews</t>
+  </si>
+  <si>
+    <t>Steve Carell, Kristen Wiig, Benjamin Bratt, Miranda Cosgrove, Russell Brand, Ken Jeong</t>
+  </si>
+  <si>
+    <t>Steve Carell, Kristen Wiig, Trey Parker, Miranda Cosgrove, Steve Coogan, Jenny Slate, Dana Gaier, Julie Andrews</t>
+  </si>
+  <si>
+    <t>Sacha Baron Cohen, Anna Faris, Ben Kingsley</t>
+  </si>
+  <si>
+    <t>Aamir Khan, Saif Ali Khan, Akshaye Khanna, Preity Zinta, Sonali Kulkarni, Dimple Kapadia</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan, Madhuri Dixit, Karisma Kapoor, Akshay Kumar</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan, Kajol</t>
+  </si>
+  <si>
+    <t>Lee Marvin, Ernest Borgnine, Charles Bronson, Jim Brown, John Cassavetes, Richard Jaeckel</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan, Priyanka Chopra, Arjun Rampal, Isha Koppikar, Boman Irani, Pavan Malhotra, Rajesh Khattar, Om Puri, Kareena Kapoor</t>
+  </si>
+  <si>
+    <t>Jason Alexander, Faye Dunaway, Eric Lloyd, Rupert Everett, Glenn Shadix, Paul Reubens</t>
+  </si>
+  <si>
+    <t>Tom Cruise, Emily Blunt, Bill Paxton, Brendan Gleeson</t>
+  </si>
+  <si>
+    <t>Sean Connery, Catherine Zeta-Jones, Will Patton, Maury Chaykin, Ving Rhames</t>
+  </si>
+  <si>
+    <t>Denzel Washington, Marton Csokas, Chloë Grace Moretz, David Harbour, Bill Pullman, Melissa Leo</t>
+  </si>
+  <si>
+    <t>Denzel Washington, Pedro Pascal, Ashton Sanders, Bill Pullman, Melissa Leo</t>
+  </si>
+  <si>
+    <t>Dee Wallace, Henry Thomas, Peter Coyote, Robert MacNaughton, Drew Barrymore</t>
+  </si>
+  <si>
+    <t>Scott Mechlowicz, Jacob Pitts, Michelle Trachtenberg, Travis Wester</t>
+  </si>
+  <si>
+    <t>Steve Carell, Morgan Freeman, Lauren Graham, John Goodman, John Michael Higgins, Jimmy Bennett, Wanda Sykes</t>
+  </si>
+  <si>
+    <t>John Cena, Kate McKinnon</t>
+  </si>
+  <si>
+    <t>John Cleese, Jamie Lee Curtis, Kevin Kline, Michael Palin</t>
+  </si>
+  <si>
+    <t>Jamie Lee Curtis, Lindsay Lohan, Harold Gould, Chad Michael Murray, Mark Harmon</t>
+  </si>
+  <si>
+    <t>Meg Ryan, Kevin Kline, Timothy Hutton, Jean Reno, François Cluzet, Susan Anbeh</t>
+  </si>
+  <si>
+    <t>Kristen Bell, Idina Menzel, Jonathan Groff, Josh Gad, Santino Fontana</t>
+  </si>
+  <si>
+    <t>Harrison Ford, Tommy Lee Jones, Sela Ward, Joe Pantoliano, Andreas Katsulas, Jeroen Krabbé</t>
+  </si>
+  <si>
+    <t>Ben Kingsley, Candice Bergen, Edward Fox, John Gielgud, Trevor Howard, John Mills, Martin Sheen</t>
+  </si>
+  <si>
+    <t>Patrick Swayze, Demi Moore, Whoopi Goldberg, Tony Goldwyn</t>
+  </si>
+  <si>
+    <t>Ricky Gervais, Téa Leoni, Greg Kinnear, Billy Campbell, Kristen Wiig, Dana Ivey</t>
+  </si>
+  <si>
+    <t>Nǃxau ǂToma, Sandra Prinsloo, Marius Weyers, Nic de Jager, Michael Thys, Louw Verwey, Ken Gampu, Simon Sabela</t>
+  </si>
+  <si>
+    <t>N!xau, Lena Farugia, Hans Strydom</t>
+  </si>
+  <si>
+    <t>Utpal Dutt, Amol Palekar, Bindiya Goswami</t>
+  </si>
+  <si>
+    <t>Pierce Brosnan, Sean Bean, Izabella Scorupco, Famke Janssen, Joe Don Baker</t>
+  </si>
+  <si>
+    <t>Dev Anand, Waheeda Rehman</t>
+  </si>
+  <si>
+    <t>Gregory Peck, David Niven, Anthony Quinn, Stanley Baker, Anthony Quayle, Irene Papas, Gia Scala, James Darren</t>
+  </si>
+  <si>
+    <t>Jason Lee, Julia Stiles, Selma Blair, James Brolin, Shawn Hatosy, Lochlyn Munro, Julie Hagerty</t>
+  </si>
+  <si>
+    <t>Bradley Cooper, Ed Helms, Zach Galifianakis, Heather Graham, Justin Bartha, Jeffrey Tambor</t>
+  </si>
+  <si>
+    <t>Bradley Cooper, Ed Helms, Zach Galifianakis, Ken Jeong, Jeffrey Tambor, Justin Bartha, Paul Giamatti</t>
+  </si>
+  <si>
+    <t>Bradley Cooper, Ed Helms, Zach Galifianakis, Ken Jeong, Justin Bartha, Heather Graham, Jeffrey Tambor, John Goodman</t>
+  </si>
+  <si>
+    <t>Deepika Padukone, Shah Rukh Khan, Abhishek Bachchan, Sonu Sood, Boman Irani, Vivaan Shah, Jackie Shroff</t>
+  </si>
+  <si>
+    <t>After his wealthy family prohibits him from marrying the woman he is in love with, Devdas's life spirals downward as he takes up alcohol and a life of vice to alleviate the pain.</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan, Aishwarya Rai, Madhuri Dixit</t>
+  </si>
+  <si>
+    <t>Devdas</t>
   </si>
 </sst>
 </file>
@@ -2415,9 +2694,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2735,15 +3016,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
@@ -2758,5334 +3039,5017 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>747</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>753</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>754</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>755</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>747</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>754</v>
+      </c>
+      <c r="D7" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>756</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>755</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>756</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
+        <v>754</v>
+      </c>
+      <c r="D12" t="s">
+        <v>799</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>754</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D14" t="s">
+        <v>798</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>755</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D15" t="s">
+        <v>792</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>755</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" t="s">
+        <v>793</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>755</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D17" t="s">
+        <v>794</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>753</v>
-      </c>
-      <c r="D17">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>754</v>
-      </c>
-      <c r="D18">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>752</v>
+      </c>
+      <c r="D19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>754</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D20" t="s">
+        <v>800</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>754</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>753</v>
+      </c>
+      <c r="D21" t="s">
+        <v>801</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>755</v>
-      </c>
-      <c r="D21">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>753</v>
+      </c>
+      <c r="D22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>755</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>754</v>
+      </c>
+      <c r="D23" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>756</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>85</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" t="s">
+        <v>804</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>755</v>
-      </c>
-      <c r="D24">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>89</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>753</v>
+      </c>
+      <c r="D25" t="s">
+        <v>805</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>755</v>
-      </c>
-      <c r="D25">
-        <v>35</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>93</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" t="s">
+        <v>806</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>755</v>
-      </c>
-      <c r="D26">
-        <v>35</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
         <v>96</v>
       </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>97</v>
-      </c>
-      <c r="H26" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>750</v>
+      </c>
+      <c r="D27" t="s">
+        <v>807</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>752</v>
-      </c>
-      <c r="D27">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>101</v>
-      </c>
-      <c r="H27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>753</v>
+      </c>
+      <c r="D28" t="s">
+        <v>808</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>755</v>
-      </c>
-      <c r="D28">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>104</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>105</v>
-      </c>
-      <c r="H28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D29" t="s">
+        <v>809</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>755</v>
-      </c>
-      <c r="D29">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
         <v>108</v>
       </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>109</v>
-      </c>
-      <c r="H29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" t="s">
+        <v>810</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>755</v>
-      </c>
-      <c r="D30">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>113</v>
-      </c>
-      <c r="H30" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>754</v>
+      </c>
+      <c r="D31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>756</v>
-      </c>
-      <c r="D31">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
         <v>116</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>752</v>
+      </c>
+      <c r="D32" t="s">
+        <v>812</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>754</v>
-      </c>
-      <c r="D32">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>120</v>
-      </c>
-      <c r="H32" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>752</v>
+      </c>
+      <c r="D33" t="s">
+        <v>813</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>754</v>
-      </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>124</v>
-      </c>
-      <c r="H33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>752</v>
+      </c>
+      <c r="D34" t="s">
+        <v>814</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>754</v>
-      </c>
-      <c r="D34">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
         <v>127</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>128</v>
-      </c>
-      <c r="H34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>753</v>
+      </c>
+      <c r="D35" t="s">
+        <v>815</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>755</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>132</v>
-      </c>
-      <c r="H35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>753</v>
+      </c>
+      <c r="D36" t="s">
+        <v>816</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>755</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
         <v>135</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>136</v>
-      </c>
-      <c r="H36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>750</v>
+      </c>
+      <c r="D37" t="s">
+        <v>817</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>752</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
         <v>139</v>
       </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>140</v>
-      </c>
-      <c r="H37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D38" t="s">
+        <v>818</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>755</v>
-      </c>
-      <c r="D38">
-        <v>35</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
         <v>143</v>
       </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>144</v>
-      </c>
-      <c r="H38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>754</v>
+      </c>
+      <c r="D39" t="s">
+        <v>819</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>756</v>
-      </c>
-      <c r="D39">
-        <v>35</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
         <v>147</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>753</v>
+      </c>
+      <c r="D40" t="s">
+        <v>820</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>755</v>
-      </c>
-      <c r="D40">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
         <v>150</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>151</v>
-      </c>
-      <c r="H40" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>755</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
+        <v>753</v>
+      </c>
+      <c r="D41" t="s">
+        <v>821</v>
       </c>
       <c r="E41" s="1">
         <v>21186</v>
       </c>
       <c r="F41" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G41" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H41" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>750</v>
+      </c>
+      <c r="D42" t="s">
+        <v>822</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>752</v>
-      </c>
-      <c r="D42">
-        <v>35</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>745</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" t="s">
         <v>154</v>
-      </c>
-      <c r="F42" t="s">
-        <v>747</v>
-      </c>
-      <c r="G42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>754</v>
+      </c>
+      <c r="D43" t="s">
+        <v>823</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>756</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
         <v>157</v>
       </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>158</v>
-      </c>
-      <c r="H43" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>754</v>
+      </c>
+      <c r="D44" t="s">
+        <v>824</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>756</v>
-      </c>
-      <c r="D44">
-        <v>35</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
         <v>161</v>
-      </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D45" t="s">
+        <v>825</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>753</v>
-      </c>
-      <c r="D45">
-        <v>35</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
         <v>164</v>
       </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>165</v>
-      </c>
-      <c r="H45" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>753</v>
+      </c>
+      <c r="D46" t="s">
+        <v>826</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>755</v>
-      </c>
-      <c r="D46">
-        <v>35</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>168</v>
       </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>169</v>
-      </c>
-      <c r="H46" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>752</v>
+      </c>
+      <c r="D47" t="s">
+        <v>827</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>754</v>
-      </c>
-      <c r="D47">
-        <v>35</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
         <v>172</v>
       </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>173</v>
-      </c>
-      <c r="H47" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>828</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>753</v>
+      </c>
+      <c r="D48" t="s">
+        <v>829</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
         <v>175</v>
       </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>755</v>
-      </c>
-      <c r="D48">
-        <v>35</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="H48" t="s">
         <v>176</v>
-      </c>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>752</v>
+      </c>
+      <c r="D49" t="s">
+        <v>830</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>745</v>
+      </c>
+      <c r="G49" t="s">
         <v>179</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>754</v>
-      </c>
-      <c r="D49">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="H49" t="s">
         <v>180</v>
-      </c>
-      <c r="F49" t="s">
-        <v>747</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>752</v>
+      </c>
+      <c r="D50" t="s">
+        <v>831</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
         <v>183</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>754</v>
-      </c>
-      <c r="D50">
-        <v>35</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="H50" t="s">
         <v>184</v>
-      </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>185</v>
-      </c>
-      <c r="H50" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>753</v>
+      </c>
+      <c r="D51" t="s">
+        <v>832</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
         <v>187</v>
       </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>755</v>
-      </c>
-      <c r="D51">
-        <v>35</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="H51" t="s">
         <v>188</v>
-      </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>750</v>
+      </c>
+      <c r="D52" t="s">
+        <v>833</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
         <v>191</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>752</v>
-      </c>
-      <c r="D52">
-        <v>35</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="H52" t="s">
         <v>192</v>
-      </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>193</v>
-      </c>
-      <c r="H52" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>753</v>
+      </c>
+      <c r="D53" t="s">
+        <v>834</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
         <v>195</v>
       </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>755</v>
-      </c>
-      <c r="D53">
-        <v>35</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="H53" t="s">
         <v>196</v>
-      </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" t="s">
-        <v>197</v>
-      </c>
-      <c r="H53" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>756</v>
-      </c>
-      <c r="D54">
-        <v>35</v>
+        <v>754</v>
+      </c>
+      <c r="D54" t="s">
+        <v>835</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" t="s">
         <v>199</v>
-      </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>200</v>
-      </c>
-      <c r="H54" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>754</v>
+      </c>
+      <c r="D55" t="s">
+        <v>836</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
         <v>202</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>756</v>
-      </c>
-      <c r="D55">
-        <v>35</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="H55" t="s">
         <v>203</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>204</v>
-      </c>
-      <c r="H55" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>756</v>
-      </c>
-      <c r="D56">
-        <v>35</v>
+        <v>754</v>
+      </c>
+      <c r="D56" t="s">
+        <v>837</v>
       </c>
       <c r="E56" s="1">
         <v>42916</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>874</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>755</v>
-      </c>
-      <c r="D57">
-        <v>35</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>207</v>
+        <v>750</v>
+      </c>
+      <c r="D57" t="s">
+        <v>873</v>
+      </c>
+      <c r="E57" s="1">
+        <v>37449</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>874</v>
       </c>
       <c r="H57" t="s">
-        <v>209</v>
+        <v>872</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>753</v>
       </c>
-      <c r="D58">
-        <v>35</v>
+      <c r="D58" t="s">
+        <v>838</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>753</v>
-      </c>
-      <c r="D59">
-        <v>35</v>
+        <v>751</v>
+      </c>
+      <c r="D59" t="s">
+        <v>839</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>753</v>
-      </c>
-      <c r="D60">
-        <v>35</v>
+        <v>751</v>
+      </c>
+      <c r="D60" t="s">
+        <v>840</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H60" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>754</v>
-      </c>
-      <c r="D61">
-        <v>35</v>
+        <v>751</v>
+      </c>
+      <c r="D61" t="s">
+        <v>841</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>754</v>
-      </c>
-      <c r="D62">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D62" t="s">
+        <v>842</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>755</v>
-      </c>
-      <c r="D63">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D63" t="s">
+        <v>843</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>754</v>
-      </c>
-      <c r="D64">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D64" t="s">
+        <v>844</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H64" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>754</v>
-      </c>
-      <c r="D65">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D65" t="s">
+        <v>845</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>754</v>
-      </c>
-      <c r="D66">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D66" t="s">
+        <v>846</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H66" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>754</v>
-      </c>
-      <c r="D67">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D67" t="s">
+        <v>847</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>754</v>
-      </c>
-      <c r="D68">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D68" t="s">
+        <v>848</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>755</v>
-      </c>
-      <c r="D69">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D69" t="s">
+        <v>849</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>755</v>
-      </c>
-      <c r="D70">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D70" t="s">
+        <v>850</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>756</v>
-      </c>
-      <c r="D71">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D71" t="s">
+        <v>851</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>755</v>
-      </c>
-      <c r="D72">
-        <v>35</v>
+        <v>754</v>
+      </c>
+      <c r="D72" t="s">
+        <v>852</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H72" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>755</v>
-      </c>
-      <c r="D73">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D73" t="s">
+        <v>853</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H73" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>753</v>
       </c>
-      <c r="D74">
-        <v>35</v>
+      <c r="D74" t="s">
+        <v>854</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H74" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>756</v>
-      </c>
-      <c r="D75">
-        <v>45</v>
+        <v>751</v>
+      </c>
+      <c r="D75" t="s">
+        <v>855</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>776</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>754</v>
       </c>
-      <c r="D76">
-        <v>35</v>
+      <c r="D76" t="s">
+        <v>856</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>752</v>
       </c>
-      <c r="D77">
-        <v>35</v>
+      <c r="D77" t="s">
+        <v>857</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>752</v>
-      </c>
-      <c r="D78">
-        <v>35</v>
+        <v>750</v>
+      </c>
+      <c r="D78" t="s">
+        <v>858</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H78" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>752</v>
-      </c>
-      <c r="D79">
-        <v>35</v>
+        <v>750</v>
+      </c>
+      <c r="D79" t="s">
+        <v>859</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H79" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>755</v>
-      </c>
-      <c r="D80">
-        <v>35</v>
+        <v>750</v>
+      </c>
+      <c r="D80" t="s">
+        <v>860</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H80" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>755</v>
-      </c>
-      <c r="D81">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D81" t="s">
+        <v>861</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H81" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>755</v>
-      </c>
-      <c r="D82">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D82" t="s">
+        <v>862</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H82" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>757</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>754</v>
-      </c>
-      <c r="D83">
-        <v>30</v>
+        <v>753</v>
+      </c>
+      <c r="D83" t="s">
+        <v>863</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H83" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>755</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>752</v>
       </c>
-      <c r="D84">
-        <v>50</v>
+      <c r="D84" t="s">
+        <v>864</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H84" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>754</v>
-      </c>
-      <c r="D85">
-        <v>35</v>
+        <v>750</v>
+      </c>
+      <c r="D85" t="s">
+        <v>865</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H85" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>755</v>
-      </c>
-      <c r="D86">
-        <v>35</v>
+        <v>752</v>
+      </c>
+      <c r="D86" t="s">
+        <v>866</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H86" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>755</v>
-      </c>
-      <c r="D87">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D87" t="s">
+        <v>867</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H87" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>755</v>
-      </c>
-      <c r="D88">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D88" t="s">
+        <v>868</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H88" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>755</v>
-      </c>
-      <c r="D89">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D89" t="s">
+        <v>869</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H89" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>752</v>
-      </c>
-      <c r="D90">
-        <v>35</v>
+        <v>753</v>
+      </c>
+      <c r="D90" t="s">
+        <v>870</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>755</v>
-      </c>
-      <c r="D91">
-        <v>35</v>
+        <v>750</v>
+      </c>
+      <c r="D91" t="s">
+        <v>871</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H91" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
         <v>753</v>
       </c>
-      <c r="D92">
-        <v>35</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H92" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>753</v>
-      </c>
-      <c r="D93">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>755</v>
-      </c>
-      <c r="D94">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H94" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>755</v>
-      </c>
-      <c r="D95">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H95" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>755</v>
-      </c>
-      <c r="D96">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H96" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>755</v>
-      </c>
-      <c r="D97">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H97" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>755</v>
-      </c>
-      <c r="D98">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H98" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>755</v>
-      </c>
-      <c r="D99">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>753</v>
       </c>
-      <c r="D100">
-        <v>35</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H100" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>756</v>
-      </c>
-      <c r="D101">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H101" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>750</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>756</v>
-      </c>
-      <c r="D102">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H102" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>748</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>754</v>
       </c>
-      <c r="D103">
-        <v>35</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H103" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>754</v>
-      </c>
-      <c r="D104">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H104" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>754</v>
-      </c>
-      <c r="D105">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H105" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>754</v>
-      </c>
-      <c r="D106">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H106" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>752</v>
       </c>
-      <c r="D107">
-        <v>35</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H107" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>755</v>
-      </c>
-      <c r="D108">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H108" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>753</v>
       </c>
-      <c r="D109">
-        <v>35</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>747</v>
+        <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H109" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>754</v>
-      </c>
-      <c r="D110">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F110" t="s">
-        <v>4</v>
+        <v>745</v>
       </c>
       <c r="G110" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H110" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>754</v>
-      </c>
-      <c r="D111">
-        <v>30</v>
+        <v>752</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H111" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>755</v>
-      </c>
-      <c r="D112">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H112" t="s">
-        <v>781</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>753</v>
       </c>
-      <c r="D113">
-        <v>35</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H113" t="s">
-        <v>419</v>
+        <v>779</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>754</v>
-      </c>
-      <c r="D114">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H114" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>755</v>
-      </c>
-      <c r="D115">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H115" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>755</v>
-      </c>
-      <c r="D116">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H116" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>756</v>
-      </c>
-      <c r="D117">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H117" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>755</v>
-      </c>
-      <c r="D118">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H118" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="38.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1">
       <c r="A119" t="s">
+        <v>434</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>753</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>434</v>
+      </c>
+      <c r="H119" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="1">
+        <v>38611</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="H120" t="s">
         <v>771</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>753</v>
-      </c>
-      <c r="D119">
-        <v>40</v>
-      </c>
-      <c r="E119" s="1">
-        <v>38611</v>
-      </c>
-      <c r="F119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" t="s">
-        <v>772</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>438</v>
-      </c>
-      <c r="B120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" t="s">
-        <v>753</v>
-      </c>
-      <c r="D120">
-        <v>35</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F120" t="s">
-        <v>4</v>
-      </c>
-      <c r="G120" t="s">
-        <v>440</v>
-      </c>
-      <c r="H120" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>755</v>
-      </c>
-      <c r="D121">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H121" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>755</v>
-      </c>
-      <c r="D122">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H122" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>754</v>
-      </c>
-      <c r="D123">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H123" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>753</v>
-      </c>
-      <c r="D124">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>756</v>
-      </c>
-      <c r="D125">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H125" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>756</v>
-      </c>
-      <c r="D126">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H126" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>752</v>
-      </c>
-      <c r="D127">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H127" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>755</v>
-      </c>
-      <c r="D128">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H128" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>755</v>
-      </c>
-      <c r="D129">
-        <v>30</v>
+        <v>753</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H129" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>755</v>
-      </c>
-      <c r="D130">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H130" t="s">
-        <v>769</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>756</v>
-      </c>
-      <c r="D131">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H131" t="s">
-        <v>482</v>
+        <v>767</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>756</v>
-      </c>
-      <c r="D132">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H132" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>756</v>
-      </c>
-      <c r="D133">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H133" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>752</v>
-      </c>
-      <c r="D134">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F134" t="s">
-        <v>747</v>
+        <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H134" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>753</v>
-      </c>
-      <c r="D135">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F135" t="s">
-        <v>4</v>
+        <v>745</v>
       </c>
       <c r="G135" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H135" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>755</v>
-      </c>
-      <c r="D136">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H136" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>752</v>
-      </c>
-      <c r="D137">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H137" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>752</v>
-      </c>
-      <c r="D138">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H138" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>755</v>
-      </c>
-      <c r="D139">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H139" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>755</v>
-      </c>
-      <c r="D140">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H140" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>755</v>
-      </c>
-      <c r="D141">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H141" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
-        <v>756</v>
-      </c>
-      <c r="D142">
-        <v>40</v>
+        <v>753</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H142" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>753</v>
-      </c>
-      <c r="D143">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H143" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>756</v>
-      </c>
-      <c r="D144">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H144" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>756</v>
-      </c>
-      <c r="D145">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H145" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>755</v>
-      </c>
-      <c r="D146">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H146" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>755</v>
-      </c>
-      <c r="D147">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H147" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s">
         <v>753</v>
       </c>
-      <c r="D148">
-        <v>25</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H148" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>752</v>
-      </c>
-      <c r="D149">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H149" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>755</v>
-      </c>
-      <c r="D150">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H150" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C151" t="s">
         <v>753</v>
       </c>
-      <c r="D151">
-        <v>35</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H151" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>754</v>
-      </c>
-      <c r="D152">
-        <v>30</v>
+        <v>751</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H152" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>752</v>
       </c>
-      <c r="D153">
-        <v>35</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H153" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>756</v>
-      </c>
-      <c r="D154">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H154" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>766</v>
+        <v>563</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>755</v>
-      </c>
-      <c r="D155">
-        <v>25</v>
-      </c>
-      <c r="E155" s="1">
-        <v>25171</v>
+        <v>754</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="F155" t="s">
-        <v>747</v>
+        <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>766</v>
+        <v>563</v>
       </c>
       <c r="H155" t="s">
-        <v>767</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>568</v>
+        <v>764</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>755</v>
-      </c>
-      <c r="D156">
-        <v>35</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>569</v>
+        <v>753</v>
+      </c>
+      <c r="E156" s="1">
+        <v>25171</v>
       </c>
       <c r="F156" t="s">
-        <v>4</v>
+        <v>745</v>
       </c>
       <c r="G156" t="s">
-        <v>570</v>
+        <v>764</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C157" t="s">
-        <v>755</v>
-      </c>
-      <c r="D157">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H157" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>752</v>
-      </c>
-      <c r="D158">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H158" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>755</v>
-      </c>
-      <c r="D159">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H159" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>756</v>
-      </c>
-      <c r="D160">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H160" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>755</v>
-      </c>
-      <c r="D161">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H161" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>755</v>
-      </c>
-      <c r="D162">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H162" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>755</v>
-      </c>
-      <c r="D163">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H163" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>753</v>
       </c>
-      <c r="D164">
-        <v>35</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H164" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>753</v>
-      </c>
-      <c r="D165">
-        <v>45</v>
+        <v>751</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H165" t="s">
-        <v>775</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
-        <v>756</v>
-      </c>
-      <c r="D166">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H166" t="s">
-        <v>607</v>
+        <v>773</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>755</v>
-      </c>
-      <c r="D167">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H167" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>756</v>
-      </c>
-      <c r="D168">
-        <v>40</v>
+        <v>753</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H168" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
+        <v>610</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>754</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" t="s">
+        <v>610</v>
+      </c>
+      <c r="H169" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="25.5">
+      <c r="A170" t="s">
+        <v>613</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>751</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F170" t="s">
+        <v>745</v>
+      </c>
+      <c r="G170" t="s">
         <v>615</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>753</v>
-      </c>
-      <c r="D169">
-        <v>35</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="H170" t="s">
         <v>616</v>
-      </c>
-      <c r="F169" t="s">
-        <v>747</v>
-      </c>
-      <c r="G169" t="s">
-        <v>617</v>
-      </c>
-      <c r="H169" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>619</v>
-      </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>753</v>
-      </c>
-      <c r="D170">
-        <v>35</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F170" t="s">
-        <v>4</v>
-      </c>
-      <c r="G170" t="s">
-        <v>621</v>
-      </c>
-      <c r="H170" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>753</v>
-      </c>
-      <c r="D171">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H171" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>754</v>
-      </c>
-      <c r="D172">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H172" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C173" t="s">
-        <v>755</v>
-      </c>
-      <c r="D173">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H173" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>755</v>
-      </c>
-      <c r="D174">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H174" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>754</v>
-      </c>
-      <c r="D175">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H175" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>752</v>
       </c>
-      <c r="D176">
-        <v>35</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H176" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>754</v>
-      </c>
-      <c r="D177">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>374</v>
+        <v>641</v>
       </c>
       <c r="F177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H177" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>754</v>
-      </c>
-      <c r="D178">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>650</v>
+        <v>372</v>
       </c>
       <c r="F178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="H178" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>754</v>
-      </c>
-      <c r="D179">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H179" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>752</v>
       </c>
-      <c r="D180">
-        <v>35</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H180" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C181" t="s">
-        <v>754</v>
-      </c>
-      <c r="D181">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="H181" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>754</v>
-      </c>
-      <c r="D182">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H182" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>754</v>
-      </c>
-      <c r="D183">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H183" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>752</v>
       </c>
-      <c r="D184">
-        <v>25</v>
-      </c>
-      <c r="E184" s="1">
-        <v>25269</v>
+      <c r="E184" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="F184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>762</v>
+        <v>668</v>
       </c>
       <c r="H184" t="s">
-        <v>760</v>
+        <v>669</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>755</v>
-      </c>
-      <c r="D185">
-        <v>35</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>526</v>
+        <v>750</v>
+      </c>
+      <c r="E185" s="1">
+        <v>25269</v>
       </c>
       <c r="F185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="H185" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C186" t="s">
-        <v>755</v>
-      </c>
-      <c r="D186">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>675</v>
+        <v>524</v>
       </c>
       <c r="F186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H186" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C187" t="s">
         <v>753</v>
       </c>
-      <c r="D187">
-        <v>35</v>
-      </c>
       <c r="E187" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H187" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>752</v>
-      </c>
-      <c r="D188">
-        <v>35</v>
+        <v>751</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="H188" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>755</v>
-      </c>
-      <c r="D189">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>770</v>
+        <v>682</v>
       </c>
       <c r="H189" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>688</v>
+        <v>756</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>754</v>
-      </c>
-      <c r="D190">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="H190" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>754</v>
-      </c>
-      <c r="D191">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H191" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>755</v>
-      </c>
-      <c r="D192">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H192" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>755</v>
-      </c>
-      <c r="D193">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H193" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>752</v>
-      </c>
-      <c r="D194">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="H194" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>752</v>
-      </c>
-      <c r="D195">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H195" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>756</v>
-      </c>
-      <c r="D196">
-        <v>3</v>
+        <v>750</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H196" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>755</v>
-      </c>
-      <c r="D197">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H197" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B198" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>752</v>
-      </c>
-      <c r="D198">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H198" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
-        <v>755</v>
-      </c>
-      <c r="D199">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H199" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C200" t="s">
-        <v>755</v>
-      </c>
-      <c r="D200">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H200" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>755</v>
-      </c>
-      <c r="D201">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H201" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>755</v>
-      </c>
-      <c r="D202">
-        <v>35</v>
+        <v>753</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H202" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>754</v>
-      </c>
-      <c r="D203">
-        <v>35</v>
-      </c>
-      <c r="E203" s="1">
-        <v>36472</v>
+        <v>753</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="F203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H203" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>753</v>
-      </c>
-      <c r="D204">
-        <v>35</v>
+        <v>752</v>
       </c>
       <c r="E204" s="1">
-        <v>32192</v>
+        <v>36472</v>
       </c>
       <c r="F204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H204" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>756</v>
-      </c>
-      <c r="D205">
-        <v>30</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>157</v>
+        <v>751</v>
+      </c>
+      <c r="E205" s="1">
+        <v>32192</v>
       </c>
       <c r="F205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H205" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="E206" s="3"/>
+      <c r="A206" t="s">
+        <v>742</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>754</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F206" t="s">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>742</v>
+      </c>
+      <c r="H206" t="s">
+        <v>743</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:H206">
-    <sortCondition ref="A112"/>
+    <sortCondition ref="A91"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="914">
   <si>
     <t>Movie</t>
   </si>
@@ -449,9 +449,6 @@
     <t>BuddhaMarGaya</t>
   </si>
   <si>
-    <t>Laxmikant Kabadiya and his twin-sister, Prerna, started as mere beggars near Dadar Railway Station, and with the assistance of Vidyut Baba, they moved to collecting garbage, and recyclables, established their own recycling business, slowly acquired wealth and became multi-millionaires. Laxmikant went on to get married and sired two sons, Sameer and Ranjeet, who, in turn, went on to get married to Anju and Shruti. While Ranjeet has two daughters, Sanjana and Namrata, Sameer has one son, Pawan. Vidyut Baba, a Bi-sexual, is now their family Guru, and they have a trusted family servant named Ramu. The Kabadia family is now ready to launch it's first Public Offering, which will generate Crores of Rupees. The entire family is all set to enjoy this new-found wealth when they find out that while being intimate with a sexy, struggling actress, Kim, widower Laxmikant has passed away. The entire family know that this will ruin their future plans and decide to keep his death a secret. They threaten Kim with dire consequences and criminal charges, and let her flee. Unfortunately for them, Ramu finds out and starts to blackmail them collectively for jewelry and cash. The desperate family is all set to secretly cremate Laxmikant, but things get out of hand and they, after buying the dead body of a poor man, announce the death of Laxmikant's cousin. Amidst media frenzy, the Kabadias arrange for the public appearance of Laxmikant, followed quickly by another funeral, this time of an unknown Christian male, who they pass off as another family relative. Watch what happens when Ramu goes live on TV to announce the untimely passing away of a very much alive Vidyut Baba, throwing open a virtual Pandora's box. Amidst hilarious chaos, the family's lives are complicated even more when they find out to their shock that Laxmikant was leading a dual life and had sired a third son from another woman.</t>
-  </si>
-  <si>
     <t>Cars</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>An uptight by-the-book cop must protect the widow of a drug boss from crooked cops and gunmen.</t>
   </si>
   <si>
-    <t>How to lose a guy in 10 days</t>
-  </si>
-  <si>
     <t>2003-01-27</t>
   </si>
   <si>
@@ -1997,9 +1991,6 @@
     <t>1984-10-26</t>
   </si>
   <si>
-    <t>TerminatorThe</t>
-  </si>
-  <si>
     <t>In the post-apocalyptic future, reigning tyrannical supercomputers teleport a cyborg assassin known as the "Terminator" back to 1984 to kill Sarah Connor, whose unborn son is destined to lead insurgents against 21st century mechanical hegemony. Meanwhile, the human-resistance movement dispatches a lone warrior to safeguard Sarah. Can he stop the virtually indestructible killing machine?</t>
   </si>
   <si>
@@ -2009,9 +2000,6 @@
     <t>1991-08-24</t>
   </si>
   <si>
-    <t>Terminator2JudgmentDay</t>
-  </si>
-  <si>
     <t>Nearly 10 years have passed since Sarah Connor was targeted for termination by a cyborg from the future. Now her son, John, the future leader of the resistance, is the target for a newer, more deadly terminator. Once again, the resistance has managed to send a protector back to attempt to save John and his mother Sarah.</t>
   </si>
   <si>
@@ -2019,9 +2007,6 @@
   </si>
   <si>
     <t>2003-07-25</t>
-  </si>
-  <si>
-    <t>Terminator3RiseOfTheMachines</t>
   </si>
   <si>
     <t>It's been 10 years since John Connor saved Earth from Judgment Day, and he's now living under the radar, steering clear of using anything Skynet can trace. That is, until he encounters T-X, a robotic assassin ordered to finish what T-1000 started. Good thing Connor's former nemesis, the Terminator, is back to aid the now-adult Connor … just like he promised.</t>
@@ -2641,15 +2626,144 @@
   </si>
   <si>
     <t>Devdas</t>
+  </si>
+  <si>
+    <t>Ullathai Allitha</t>
+  </si>
+  <si>
+    <t>UllathaiAllitha</t>
+  </si>
+  <si>
+    <t>Tired of his father's disciplinarian ways and to avoid marrying a girl chosen by the latter, Raja runs away to Ooty. There, he is hired as a driver by the man whose daughter he was supposed to marry.</t>
+  </si>
+  <si>
+    <t>Karthik, Rambha, Goundamani</t>
+  </si>
+  <si>
+    <t>1958-01-01</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2002-07-12</t>
+  </si>
+  <si>
+    <t>2005-09-16</t>
+  </si>
+  <si>
+    <t>1968-11-29</t>
+  </si>
+  <si>
+    <t>1969-03-07</t>
+  </si>
+  <si>
+    <t>1988-02-19</t>
+  </si>
+  <si>
+    <t>1996-01-05</t>
+  </si>
+  <si>
+    <t>Terminator2</t>
+  </si>
+  <si>
+    <t>Terminator3</t>
+  </si>
+  <si>
+    <t>Terminator1</t>
+  </si>
+  <si>
+    <t>How to Lose a Guy in 10 Days</t>
+  </si>
+  <si>
+    <t>Rangeela</t>
+  </si>
+  <si>
+    <t>1995-09-08</t>
+  </si>
+  <si>
+    <t>Mili's ambition of becoming a famous actor is met with several hurdles when Raj Kamal, a noted actor, and Munna, her childhood friend, both fall in love with her.</t>
+  </si>
+  <si>
+    <t>Qayamat Se Qayamat Tak</t>
+  </si>
+  <si>
+    <t>1988-04-29</t>
+  </si>
+  <si>
+    <t>QSQT</t>
+  </si>
+  <si>
+    <t>Despite knowing that their respective families are bitter enemies, Raj and Rashmi fall in love with each other and decide to elope.</t>
+  </si>
+  <si>
+    <t>Aamir Khan, Juhi Chawla, Goga Kapoor</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>1998-04-24</t>
+  </si>
+  <si>
+    <t>Prashanth, Aishwarya Rai</t>
+  </si>
+  <si>
+    <t>When Visu meets Madhumitha (Aishwarya Rai), they quickly fall in love and plan to marry. But the sweethearts hit a snag in their impending nuptials when Visu's father, Rajamani (Nasser), objects: Visu has a twin brother, Ramu, and the old man is set on both boys marrying twins. A solution is easily arrived at when Visu introduces his brother to his bride's twin sister -- who is actually Madhumitha in disguise. Mayhem ensues when Ramu unwittingly falls in love with his future sister-in-law.</t>
+  </si>
+  <si>
+    <t>Kamali loses her bag in the railway station. Later, her bag is sent to her home, along with a letter from Surya, who found it. Kamali and Surya send letters to each other and soon fall in love.</t>
+  </si>
+  <si>
+    <t>Kadhal Kottai</t>
+  </si>
+  <si>
+    <t>1996-07-12</t>
+  </si>
+  <si>
+    <t>KadhalKottai</t>
+  </si>
+  <si>
+    <t>Bhushan, a tax inspector, wins a ticket to a cruise-liner. Relaxing there, he meets Ajit, a businessman who is evading an IT raid. They end up on an isolated island that leads to comical situations.</t>
+  </si>
+  <si>
+    <t>Bheja Fry 2</t>
+  </si>
+  <si>
+    <t>BhejaFry2</t>
+  </si>
+  <si>
+    <t>2011-06-17</t>
+  </si>
+  <si>
+    <t>Vinay Pathak, Kay Kay Menon, Rukhsaar Rehman, Minisha Lamba, Suresh Menon, Amol Gupte, Kishwer Merchant</t>
+  </si>
+  <si>
+    <t>Ajith Kumar, Devayani, Heera Rasakopal, Karan, Thalaivasal Vijay, Manivannan</t>
+  </si>
+  <si>
+    <t>Laxmikant Kabadiya and his twin sister, Prerna, have made it to the top from the very bottom, and now -- as they are about to land their greatest windfall of all -- an untimely and messy family death spoils their plans.</t>
+  </si>
+  <si>
+    <t>Addicted to Love</t>
+  </si>
+  <si>
+    <t>1997-05-23</t>
+  </si>
+  <si>
+    <t>AddictedToLove</t>
+  </si>
+  <si>
+    <t>Meg Ryan, Matthew Broderick, Kelly Preston, Tchéky Karyo</t>
+  </si>
+  <si>
+    <t>Small-town astronomer Sam (Matthew Broderick) is devastated when his fiancée, Linda (Kelly Preston), leaves him for French chef Anton Depeaux (Tcheky Karyo) during an out-of-town vacation. Obsessed, Sam follows her to New York City and moves in across the street from Linda and Anton's apartment, where he spies on them and records their lives. One day he is joined by Maggie (Meg Ryan), Anton's equally vengeful ex-girlfriend, and the two plot to break up the new couple.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -2692,13 +2806,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3014,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A190" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3032,28 +3146,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3065,22 +3179,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D2" t="s">
-        <v>781</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3091,12 +3205,12 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -3106,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3117,12 +3231,12 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
-        <v>783</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -3132,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3143,12 +3257,12 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D5" t="s">
-        <v>784</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -3169,16 +3283,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -3189,4867 +3303,5046 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>909</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D7" t="s">
-        <v>786</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>912</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>910</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>911</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>781</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D9" t="s">
-        <v>788</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>782</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D10" t="s">
-        <v>789</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>783</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>784</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>766</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D12" t="s">
-        <v>799</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>785</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>761</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D13" t="s">
-        <v>797</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>794</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D14" t="s">
-        <v>798</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>792</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D15" t="s">
-        <v>792</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>793</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D16" t="s">
-        <v>793</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>787</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D17" t="s">
-        <v>794</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>788</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>772</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>789</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D19" t="s">
-        <v>796</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>790</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D20" t="s">
-        <v>800</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>791</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D21" t="s">
-        <v>801</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>795</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D22" t="s">
-        <v>802</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>796</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D23" t="s">
-        <v>803</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>797</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D24" t="s">
-        <v>804</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>798</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D25" t="s">
-        <v>805</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>799</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D26" t="s">
-        <v>806</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D27" t="s">
-        <v>807</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>801</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>903</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D28" t="s">
-        <v>808</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
+        <v>906</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>905</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>904</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D29" t="s">
-        <v>809</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>802</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D30" t="s">
-        <v>810</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>803</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D31" t="s">
-        <v>811</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>804</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D32" t="s">
-        <v>812</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>805</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D33" t="s">
-        <v>813</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>806</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D34" t="s">
-        <v>814</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>807</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D35" t="s">
-        <v>815</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>808</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D36" t="s">
-        <v>816</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>134</v>
+        <v>809</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D37" t="s">
-        <v>817</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>810</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D38" t="s">
-        <v>818</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>142</v>
+        <v>811</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D39" t="s">
-        <v>819</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>812</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D40" t="s">
-        <v>820</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>149</v>
+        <v>813</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>761</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D41" t="s">
-        <v>821</v>
-      </c>
-      <c r="E41" s="1">
-        <v>21186</v>
+        <v>814</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>763</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>762</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D42" t="s">
-        <v>822</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>153</v>
+        <v>815</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>756</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D43" t="s">
-        <v>823</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>156</v>
+        <v>816</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="F43" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>758</v>
       </c>
       <c r="H43" t="s">
-        <v>158</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D44" t="s">
-        <v>824</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>817</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D45" t="s">
-        <v>825</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>818</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D46" t="s">
-        <v>826</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>819</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D47" t="s">
-        <v>827</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>820</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H47" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>828</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D48" t="s">
-        <v>829</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>174</v>
+        <v>821</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D49" t="s">
-        <v>830</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>178</v>
+        <v>822</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>823</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D50" t="s">
-        <v>831</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>182</v>
+        <v>824</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D51" t="s">
-        <v>832</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>186</v>
+        <v>825</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D52" t="s">
-        <v>833</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>190</v>
+        <v>826</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D53" t="s">
-        <v>834</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>194</v>
+        <v>827</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H53" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>747</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D54" t="s">
-        <v>835</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>197</v>
+        <v>828</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D55" t="s">
-        <v>836</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>201</v>
+        <v>829</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H55" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D56" t="s">
-        <v>837</v>
-      </c>
-      <c r="E56" s="1">
-        <v>42916</v>
+        <v>830</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>757</v>
+        <v>197</v>
       </c>
       <c r="H56" t="s">
-        <v>746</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>874</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D57" t="s">
-        <v>873</v>
-      </c>
-      <c r="E57" s="1">
-        <v>37449</v>
+        <v>831</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>874</v>
+        <v>201</v>
       </c>
       <c r="H57" t="s">
-        <v>872</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>739</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D58" t="s">
-        <v>838</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>205</v>
+        <v>832</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>752</v>
       </c>
       <c r="H58" t="s">
-        <v>207</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>869</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D59" t="s">
-        <v>839</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>209</v>
+        <v>868</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>210</v>
+        <v>869</v>
       </c>
       <c r="H59" t="s">
-        <v>211</v>
+        <v>867</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D60" t="s">
-        <v>840</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>213</v>
+        <v>833</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D61" t="s">
-        <v>841</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>217</v>
+        <v>834</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D62" t="s">
-        <v>842</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>221</v>
+        <v>835</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D63" t="s">
-        <v>843</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>225</v>
+        <v>836</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D64" t="s">
-        <v>844</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>228</v>
+        <v>837</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H64" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D65" t="s">
-        <v>845</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>232</v>
+        <v>838</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D66" t="s">
-        <v>846</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>236</v>
+        <v>839</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H66" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D67" t="s">
-        <v>847</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>239</v>
+        <v>840</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D68" t="s">
-        <v>848</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>243</v>
+        <v>841</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D69" t="s">
-        <v>849</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>247</v>
+        <v>842</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D70" t="s">
-        <v>850</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>250</v>
+        <v>843</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D71" t="s">
-        <v>851</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>253</v>
+        <v>844</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D72" t="s">
-        <v>852</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>257</v>
+        <v>845</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D73" t="s">
-        <v>853</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>260</v>
+        <v>846</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D74" t="s">
-        <v>854</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>264</v>
+        <v>847</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D75" t="s">
-        <v>855</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>268</v>
+        <v>848</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H75" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D76" t="s">
-        <v>856</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>272</v>
+        <v>849</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
-        <v>774</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D77" t="s">
-        <v>857</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>274</v>
+        <v>850</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H77" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D78" t="s">
-        <v>858</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>278</v>
+        <v>851</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H78" t="s">
-        <v>279</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D79" t="s">
-        <v>859</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>281</v>
+        <v>852</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D80" t="s">
-        <v>860</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>284</v>
+        <v>853</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H80" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D81" t="s">
-        <v>861</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>288</v>
+        <v>854</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H81" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D82" t="s">
-        <v>862</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>292</v>
+        <v>855</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H82" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D83" t="s">
-        <v>863</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>296</v>
+        <v>856</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>755</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D84" t="s">
-        <v>864</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>300</v>
+        <v>857</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H84" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D85" t="s">
-        <v>865</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>303</v>
+        <v>858</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H85" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>750</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D86" t="s">
-        <v>866</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>306</v>
+        <v>859</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H86" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D87" t="s">
-        <v>867</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>310</v>
+        <v>860</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D88" t="s">
-        <v>868</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>314</v>
+        <v>861</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D89" t="s">
-        <v>869</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>318</v>
+        <v>862</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H89" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D90" t="s">
-        <v>870</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>322</v>
+        <v>863</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H90" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D91" t="s">
-        <v>871</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>326</v>
+        <v>864</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H91" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>753</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>330</v>
+        <v>748</v>
+      </c>
+      <c r="D92" t="s">
+        <v>865</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H92" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>751</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>334</v>
+        <v>745</v>
+      </c>
+      <c r="D93" t="s">
+        <v>866</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H93" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>751</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>337</v>
+        <v>748</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H94" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>753</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>341</v>
+        <v>746</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H95" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>753</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>345</v>
+        <v>746</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>753</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>349</v>
+        <v>748</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H97" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>753</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>353</v>
+        <v>748</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H98" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>753</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>357</v>
+        <v>748</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H99" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>753</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>361</v>
+        <v>748</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H100" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>751</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>365</v>
+        <v>748</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H101" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>754</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>369</v>
+        <v>748</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H102" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>748</v>
+        <v>885</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>754</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>372</v>
+        <v>746</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H103" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>752</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>376</v>
+        <v>749</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>379</v>
+        <v>743</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>752</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>380</v>
+        <v>749</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H105" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>752</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>384</v>
+        <v>747</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H106" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>752</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>388</v>
+        <v>747</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H107" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>750</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>392</v>
+        <v>747</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H108" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>753</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>396</v>
+        <v>747</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H109" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>751</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>400</v>
+        <v>745</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="F110" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H110" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>752</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>404</v>
+        <v>748</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H111" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>752</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>408</v>
+        <v>746</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="F112" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G112" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H112" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>753</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>412</v>
+        <v>747</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H113" t="s">
-        <v>779</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>751</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>415</v>
+        <v>747</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H114" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
-        <v>752</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>419</v>
+        <v>748</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H115" t="s">
-        <v>421</v>
+        <v>774</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>753</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>423</v>
+        <v>746</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H116" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>753</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>427</v>
+        <v>747</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H117" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>430</v>
+        <v>894</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>754</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>431</v>
+        <v>746</v>
+      </c>
+      <c r="D118" t="s">
+        <v>896</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>432</v>
+        <v>894</v>
       </c>
       <c r="H118" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="4" customFormat="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D119"/>
-      <c r="E119" s="1" t="s">
-        <v>435</v>
+      <c r="E119" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H119" t="s">
-        <v>778</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="1">
-        <v>38611</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>770</v>
+      <c r="A120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>748</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>426</v>
       </c>
       <c r="H120" t="s">
-        <v>771</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>751</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>437</v>
+        <v>749</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H121" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>753</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>441</v>
+        <v>748</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H122" t="s">
-        <v>443</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>444</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>753</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F123" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" t="s">
-        <v>446</v>
+      <c r="A123" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="H123" t="s">
-        <v>447</v>
+        <v>766</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>448</v>
+        <v>899</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>752</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>449</v>
+        <v>746</v>
+      </c>
+      <c r="D124" t="s">
+        <v>907</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>900</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>450</v>
+        <v>901</v>
       </c>
       <c r="H124" t="s">
-        <v>451</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>751</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>453</v>
+        <v>746</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="H125" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>754</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>457</v>
+        <v>748</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="H126" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>754</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>461</v>
+        <v>748</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="H127" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>750</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>465</v>
+        <v>747</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H128" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>753</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>468</v>
+        <v>746</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="H129" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>753</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>472</v>
+        <v>749</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="H130" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>753</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>475</v>
+        <v>749</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="H131" t="s">
-        <v>767</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>754</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>478</v>
+        <v>745</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="H132" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>754</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>482</v>
+        <v>748</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="H133" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>754</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>486</v>
+        <v>748</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="F134" t="s">
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="H134" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>750</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>490</v>
+        <v>748</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="F135" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="H135" t="s">
-        <v>492</v>
+        <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>751</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>494</v>
+        <v>749</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="H136" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>753</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>498</v>
+        <v>749</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="H137" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>750</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>502</v>
+        <v>749</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="H138" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
-        <v>750</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>506</v>
+        <v>745</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="F139" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G139" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="H139" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>753</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>510</v>
+        <v>746</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="H140" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B141" t="s">
         <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>753</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>513</v>
+        <v>748</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="H141" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>753</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>517</v>
+        <v>745</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="H142" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>754</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>521</v>
+        <v>745</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="H143" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>751</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>524</v>
+        <v>748</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H144" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>754</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>527</v>
+        <v>748</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="F145" t="s">
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="H145" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>754</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>531</v>
+        <v>748</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="H146" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>753</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>534</v>
+        <v>749</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="H147" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>753</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>538</v>
+        <v>746</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="H148" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>751</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>542</v>
+        <v>749</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="H149" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>750</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>546</v>
+        <v>749</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="H150" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>753</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>550</v>
+        <v>748</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="H151" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>751</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>553</v>
+        <v>748</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="H152" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>752</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>557</v>
+        <v>746</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="H153" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>750</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>560</v>
+        <v>745</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="H154" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>754</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>564</v>
+        <v>748</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="F155" t="s">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="H155" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>764</v>
+        <v>550</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>753</v>
-      </c>
-      <c r="E156" s="1">
-        <v>25171</v>
+        <v>746</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="F156" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>764</v>
+        <v>552</v>
       </c>
       <c r="H156" t="s">
-        <v>765</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B157" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>753</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>567</v>
+        <v>747</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
-        <v>753</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>571</v>
+        <v>745</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="H158" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>750</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>574</v>
+        <v>749</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="H159" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>753</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>577</v>
+        <v>748</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="F160" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G160" t="s">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>760</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>754</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>581</v>
+        <v>748</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="F161" t="s">
         <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="H161" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
-        <v>753</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>585</v>
+        <v>748</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="F162" t="s">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="H162" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>753</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>589</v>
+        <v>745</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="H163" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>753</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>593</v>
+        <v>748</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H164" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>751</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>597</v>
+        <v>749</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="H165" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="B166" t="s">
         <v>35</v>
       </c>
       <c r="C166" t="s">
-        <v>751</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>601</v>
+        <v>748</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="H166" t="s">
-        <v>773</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>754</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>604</v>
+        <v>748</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="H167" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>753</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>607</v>
+        <v>748</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="H168" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>754</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>611</v>
+        <v>746</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="H169" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="25.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>613</v>
+        <v>889</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C170" t="s">
-        <v>751</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>614</v>
+        <v>745</v>
+      </c>
+      <c r="D170" t="s">
+        <v>893</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>890</v>
       </c>
       <c r="F170" t="s">
-        <v>745</v>
+        <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>615</v>
+        <v>891</v>
       </c>
       <c r="H170" t="s">
-        <v>616</v>
+        <v>892</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>751</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>618</v>
+        <v>746</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="H171" t="s">
-        <v>620</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>621</v>
+      <c r="A172" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C172" t="s">
-        <v>751</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>622</v>
+        <v>745</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>887</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
       </c>
-      <c r="G172" t="s">
-        <v>623</v>
+      <c r="G172" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="H172" t="s">
-        <v>624</v>
+        <v>888</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>752</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>626</v>
+        <v>749</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="H173" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>753</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>629</v>
+        <v>748</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="F174" t="s">
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="H174" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>753</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>633</v>
+        <v>749</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="H175" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>752</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>637</v>
+        <v>746</v>
+      </c>
+      <c r="D176" t="s">
+        <v>786</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="F176" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G176" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="H176" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>750</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>641</v>
+        <v>746</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="F177" t="s">
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="H177" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>752</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>372</v>
+        <v>746</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="H178" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
-        <v>752</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>648</v>
+        <v>747</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="H179" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>752</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>652</v>
+        <v>748</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="H180" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>750</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>656</v>
+        <v>748</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="H181" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>752</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>659</v>
+        <v>747</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="H182" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>752</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>663</v>
+        <v>745</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="H183" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>752</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>667</v>
+        <v>747</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="H184" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>759</v>
+        <v>645</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>750</v>
-      </c>
-      <c r="E185" s="1">
-        <v>25269</v>
+        <v>747</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>760</v>
+        <v>647</v>
       </c>
       <c r="H185" t="s">
-        <v>758</v>
+        <v>648</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>753</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>524</v>
+        <v>747</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="H186" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
-        <v>753</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>673</v>
+        <v>745</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="H187" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>751</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>677</v>
+        <v>747</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>678</v>
+        <v>884</v>
       </c>
       <c r="H188" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>750</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>681</v>
+        <v>747</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>682</v>
+        <v>882</v>
       </c>
       <c r="H189" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>756</v>
+        <v>662</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>753</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>684</v>
+        <v>747</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>768</v>
+        <v>883</v>
       </c>
       <c r="H190" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>686</v>
+        <v>754</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>752</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>687</v>
+        <v>745</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="H191" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>752</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>691</v>
+        <v>748</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="H192" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>753</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>695</v>
+        <v>748</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="H193" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>753</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>699</v>
+        <v>746</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="H194" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>750</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="H195" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>750</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>707</v>
+        <v>748</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="H196" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>754</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>711</v>
+        <v>747</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
       <c r="H197" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>753</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>714</v>
+        <v>747</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>686</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="H198" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B199" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>750</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="H199" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>753</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>722</v>
+        <v>748</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="H200" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>753</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>725</v>
+        <v>745</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="H201" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>728</v>
+        <v>870</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>753</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>729</v>
+        <v>748</v>
+      </c>
+      <c r="D202" t="s">
+        <v>873</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>730</v>
+        <v>871</v>
       </c>
       <c r="H202" t="s">
-        <v>731</v>
+        <v>872</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C203" t="s">
-        <v>753</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="H203" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>752</v>
-      </c>
-      <c r="E204" s="1">
-        <v>36472</v>
+        <v>749</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="H204" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>751</v>
-      </c>
-      <c r="E205" s="1">
-        <v>32192</v>
+        <v>748</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="H205" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C206" t="s">
-        <v>754</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>156</v>
+        <v>745</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="F206" t="s">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="H206" t="s">
-        <v>743</v>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>716</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" t="s">
+        <v>748</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F207" t="s">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s">
+        <v>716</v>
+      </c>
+      <c r="H207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>719</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>748</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F208" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" t="s">
+        <v>721</v>
+      </c>
+      <c r="H208" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>723</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>748</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F209" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" t="s">
+        <v>725</v>
+      </c>
+      <c r="H209" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>727</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>748</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F210" t="s">
+        <v>3</v>
+      </c>
+      <c r="G210" t="s">
+        <v>729</v>
+      </c>
+      <c r="H210" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>731</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>747</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F211" t="s">
+        <v>3</v>
+      </c>
+      <c r="G211" t="s">
+        <v>732</v>
+      </c>
+      <c r="H211" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>734</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>746</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F212" t="s">
+        <v>3</v>
+      </c>
+      <c r="G212" t="s">
+        <v>735</v>
+      </c>
+      <c r="H212" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>737</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>749</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F213" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" t="s">
+        <v>737</v>
+      </c>
+      <c r="H213" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H206">
-    <sortCondition ref="A91"/>
+  <sortState ref="A2:H213">
+    <sortCondition ref="A190"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="918">
   <si>
     <t>Movie</t>
   </si>
@@ -2758,6 +2758,21 @@
   </si>
   <si>
     <t>Small-town astronomer Sam (Matthew Broderick) is devastated when his fiancée, Linda (Kelly Preston), leaves him for French chef Anton Depeaux (Tcheky Karyo) during an out-of-town vacation. Obsessed, Sam follows her to New York City and moves in across the street from Linda and Anton's apartment, where he spies on them and records their lives. One day he is joined by Maggie (Meg Ryan), Anton's equally vengeful ex-girlfriend, and the two plot to break up the new couple.</t>
+  </si>
+  <si>
+    <t>Nobody</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>Bob Odenkirk, Connie Nielsen, Michael Ironside, Christopher Lloyd</t>
+  </si>
+  <si>
+    <t>Hutch Mansell, a seemingly mild-mannered family man and nobody, who becomes targeted by a group of dangerous criminals after an incident involving his family.&lt;br&gt;&lt;br&gt;
+Hutch's initial reluctance to defend himself and his family slowly gives way to a relentless pursuit of vengeance as he taps into his hidden skills and violent past. The movie unfolds with intense action sequences as Hutch faces off against ruthless adversaries, revealing his deadly capabilities and determination to protect his loved ones at any cost.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, redemption, and the consequences of underestimating someone who appears ordinary.&lt;br&gt;&lt;br&gt;
+"Nobody" received positive reviews for its action choreography, Odenkirk's performance, and its darkly humorous take on the genre.&lt;br&gt;&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -3128,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A190" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6999,145 +7014,148 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>550</v>
+        <v>914</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="D156" t="s">
+        <v>916</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>551</v>
+        <v>915</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>552</v>
+        <v>914</v>
       </c>
       <c r="H156" t="s">
-        <v>553</v>
+        <v>917</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H157" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H158" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H159" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>759</v>
+        <v>561</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>878</v>
+        <v>562</v>
       </c>
       <c r="F160" t="s">
-        <v>740</v>
+        <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>759</v>
+        <v>561</v>
       </c>
       <c r="H160" t="s">
-        <v>760</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>748</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>565</v>
+        <v>878</v>
       </c>
       <c r="F161" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G161" t="s">
-        <v>566</v>
+        <v>759</v>
       </c>
       <c r="H161" t="s">
-        <v>567</v>
+        <v>760</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -7146,136 +7164,136 @@
         <v>748</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F162" t="s">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H162" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H164" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H165" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H166" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>748</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H167" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -7284,211 +7302,208 @@
         <v>748</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H168" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H169" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>889</v>
+        <v>594</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>745</v>
-      </c>
-      <c r="D170" t="s">
-        <v>893</v>
+        <v>746</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>890</v>
+        <v>595</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>891</v>
+        <v>596</v>
       </c>
       <c r="H170" t="s">
-        <v>892</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>598</v>
+        <v>889</v>
       </c>
       <c r="B171" t="s">
         <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>746</v>
+        <v>745</v>
+      </c>
+      <c r="D171" t="s">
+        <v>893</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>599</v>
+        <v>890</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>600</v>
+        <v>891</v>
       </c>
       <c r="H171" t="s">
-        <v>768</v>
+        <v>892</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="4" t="s">
-        <v>886</v>
+      <c r="A172" t="s">
+        <v>598</v>
       </c>
       <c r="B172" t="s">
         <v>35</v>
       </c>
       <c r="C172" t="s">
+        <v>746</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F172" t="s">
+        <v>3</v>
+      </c>
+      <c r="G172" t="s">
+        <v>600</v>
+      </c>
+      <c r="H172" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" t="s">
         <v>745</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="F172" t="s">
-        <v>3</v>
-      </c>
-      <c r="G172" s="4" t="s">
+      <c r="F173" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H173" t="s">
         <v>888</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>601</v>
-      </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" t="s">
-        <v>749</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F173" t="s">
-        <v>3</v>
-      </c>
-      <c r="G173" t="s">
-        <v>601</v>
-      </c>
-      <c r="H173" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F174" t="s">
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H174" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H175" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>746</v>
-      </c>
-      <c r="D176" t="s">
-        <v>786</v>
+        <v>749</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F176" t="s">
-        <v>740</v>
+        <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H176" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -7496,22 +7511,25 @@
       <c r="C177" t="s">
         <v>746</v>
       </c>
+      <c r="D177" t="s">
+        <v>786</v>
+      </c>
       <c r="E177" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F177" t="s">
-        <v>3</v>
+        <v>740</v>
       </c>
       <c r="G177" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H177" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -7520,67 +7538,67 @@
         <v>746</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H178" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H179" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H180" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -7589,90 +7607,90 @@
         <v>748</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H181" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H182" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H183" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>370</v>
+        <v>639</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H184" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -7681,21 +7699,21 @@
         <v>747</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>646</v>
+        <v>370</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H185" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -7704,67 +7722,67 @@
         <v>747</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H186" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H187" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C188" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>884</v>
+        <v>653</v>
       </c>
       <c r="H188" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -7773,21 +7791,21 @@
         <v>747</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H189" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -7796,67 +7814,67 @@
         <v>747</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H190" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>879</v>
+        <v>663</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>755</v>
+        <v>883</v>
       </c>
       <c r="H191" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>522</v>
+        <v>879</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="H192" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B193" t="s">
         <v>29</v>
@@ -7865,113 +7883,113 @@
         <v>748</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>668</v>
+        <v>522</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H193" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C194" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H194" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H195" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>751</v>
+        <v>675</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
       <c r="H196" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="H197" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -7980,44 +7998,44 @@
         <v>747</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H198" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H199" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -8026,208 +8044,208 @@
         <v>748</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H200" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H201" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>870</v>
+        <v>697</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>748</v>
-      </c>
-      <c r="D202" t="s">
-        <v>873</v>
+        <v>745</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>881</v>
+        <v>698</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>871</v>
+        <v>699</v>
       </c>
       <c r="H202" t="s">
-        <v>872</v>
+        <v>700</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
       <c r="B203" t="s">
         <v>29</v>
       </c>
       <c r="C203" t="s">
-        <v>745</v>
+        <v>748</v>
+      </c>
+      <c r="D203" t="s">
+        <v>873</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>702</v>
+        <v>881</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>703</v>
+        <v>871</v>
       </c>
       <c r="H203" t="s">
-        <v>704</v>
+        <v>872</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C204" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H204" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H205" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F206" t="s">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H206" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B207" t="s">
         <v>35</v>
       </c>
       <c r="C207" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F207" t="s">
         <v>3</v>
       </c>
       <c r="G207" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H207" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C208" t="s">
         <v>748</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F208" t="s">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H208" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -8236,21 +8254,21 @@
         <v>748</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H209" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -8259,27 +8277,27 @@
         <v>748</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H210" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>728</v>
@@ -8288,61 +8306,84 @@
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H211" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>880</v>
+        <v>728</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H212" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
+        <v>734</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>746</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F213" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" t="s">
+        <v>735</v>
+      </c>
+      <c r="H213" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
         <v>737</v>
       </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
         <v>749</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E214" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F213" t="s">
-        <v>3</v>
-      </c>
-      <c r="G213" t="s">
+      <c r="F214" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" t="s">
         <v>737</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H214" t="s">
         <v>738</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H213">
-    <sortCondition ref="A190"/>
+  <sortState ref="A2:H214">
+    <sortCondition ref="A184"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -73,9 +73,6 @@
     <t>8HeadsInADuffelBag</t>
   </si>
   <si>
-    <t>Mafia hitman Tommy Spinelli is flying to San Diego with a bag that holds eight severed heads, which he's bringing to his superiors to prove that some troublesome rival mobsters are permanently out of the picture. When his bag gets accidentally switched at the airport, Tommy must track down his duffel bag and the 8 heads it contains.</t>
-  </si>
-  <si>
     <t>Absent Minded Professor, The</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>AbsentMindedProfessorThe</t>
   </si>
   <si>
-    <t>Henry Crawford is the titular absent-minded professor busy at work in his laboratory. He has a girlfriend, but she is getting frustrated at his repeatedly missing their dates and spending more time with his experiments than with her. One day, Prof. Crawford makes an incredible discovery a form of rubber that defies gravity with each bounce, which he names Flubber. Hopefully, with this invention Crawford can prove to his love that he's not just a hopeless loser stuck doing dead-end research.</t>
-  </si>
-  <si>
     <t>Adventures of Tintin, The</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>AdventuresOfTintin</t>
   </si>
   <si>
-    <t>Intrepid young reporter, Tintin, and his loyal dog, Snowy, are thrust into a world of high adventure when they discover a ship carrying an explosive secret. As Tintin is drawn into a centuries-old mystery, Ivan Ivanovitch Sakharine suspects him of stealing a priceless treasure. Tintin and Snowy, with the help of salty, cantankerous Captain Haddock and bumbling detectives, Thompson and Thomson, travel half the world, one step ahead of their enemies, as Tintin endeavors to find the Unicorn, a sunken ship that may hold a vast fortune, but also an ancient curse.</t>
-  </si>
-  <si>
     <t>Aethiree</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>2019-05-24</t>
   </si>
   <si>
-    <t>A kindhearted street urchin named Aladdin embarks on a magical adventure after finding a lamp that releases a wisecracking genie while a power-hungry Grand Vizier vies for the same lamp that has the power to make their deepest wishes come true.</t>
-  </si>
-  <si>
     <t>Angoor</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>1982-03-05</t>
   </si>
   <si>
-    <t>A story of identical twins and mistaken identities based on Shakespeare's play A comedy of errors.</t>
-  </si>
-  <si>
     <t>Animal, The</t>
   </si>
   <si>
@@ -139,27 +124,18 @@
     <t>AnimalThe</t>
   </si>
   <si>
-    <t>When loser Marvin Mange is involved in a horrible car accident, he's brought back to life by a deranged scientist as half man and half animal. His newfound powers are awesome -- but their adverse side effects could take over his life. Now, Marvin must fight to control his crazy primal urges around his new squeeze, Rianna, and his rival, Sgt. Sisk, who both think he's one cool cat.</t>
-  </si>
-  <si>
     <t>2014-11-26</t>
   </si>
   <si>
     <t>MansionOfTheGods</t>
   </si>
   <si>
-    <t>In order to wipe out the Gaulish village by any means necessary, Caesar plans to absorb the villagers into Roman culture by having an estate built next to the village to start a new Roman colony.</t>
-  </si>
-  <si>
     <t>Avatar</t>
   </si>
   <si>
     <t>2009-12-18</t>
   </si>
   <si>
-    <t>In the 22nd century, a paraplegic Marine is dispatched to the moon Pandora on a unique mission, but becomes torn between following orders and protecting an alien civilization.</t>
-  </si>
-  <si>
     <t>Avvai Shanmugi</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t>AvvaiShanmugi</t>
   </si>
   <si>
-    <t>A divorced husband desperately misses his daughter. In order to be with her, he takes up a job in his father-in-law's house. The only catch is that the job is that of a female governess.</t>
-  </si>
-  <si>
     <t>Baankey Ki Crazy Baraat</t>
   </si>
   <si>
@@ -181,9 +154,6 @@
     <t>BaankeyKiCrazyBaraat</t>
   </si>
   <si>
-    <t>It's a quirky situational comedy that tickles your funny bone, unexpectedly. The ensemble cast of actors that creates a laugh riot, that escalates in to a hangama ~ that will leave you chuckling, gurgling and laughing out aloud. So, leave your scowls, jowls and frown lines at home, and laugh like you've not done, in a long long time.</t>
-  </si>
-  <si>
     <t>Baby's Day Out</t>
   </si>
   <si>
@@ -193,9 +163,6 @@
     <t>BabysDayOut</t>
   </si>
   <si>
-    <t>Baby Bink couldn't ask for more: he has adoring (if somewhat sickly-sweet) parents, lives in a huge mansion, and he's just about to appear in the social pages of the paper. Unfortunately, not everyone in the world is as nice as Baby Bink's parents—especially the three enterprising kidnappers who pretend to be photographers from the newspaper. Successfully kidnapping Baby Bink, they have a harder time keeping hold of the rascal, who not only keeps one step ahead of them, but seems to be more than a little bit smarter than the three bumbling criminals.</t>
-  </si>
-  <si>
     <t>Bachna Ae Haseeno</t>
   </si>
   <si>
@@ -214,9 +181,6 @@
     <t>BackToTheFuture1</t>
   </si>
   <si>
-    <t>Eighties teenager Marty McFly is accidentally sent back in time to 1955, inadvertently disrupting his parents' first meeting and attracting his mother's romantic interest. Marty must repair the damage to history by rekindling his parents' romance and - with the help of his eccentric inventor friend Doc Brown - return to 1985.</t>
-  </si>
-  <si>
     <t>Back to the Future 2</t>
   </si>
   <si>
@@ -226,9 +190,6 @@
     <t>BackToTheFuture2</t>
   </si>
   <si>
-    <t>Marty and Doc are at it again in this wacky sequel to the 1985 blockbuster as the time-traveling duo head to 2015 to nip some McFly family woes in the bud. But things go awry thanks to bully Biff Tannen and a pesky sports almanac. In a last-ditch attempt to set things straight, Marty finds himself bound for 1955 and face to face with his teenage parents -- again.</t>
-  </si>
-  <si>
     <t>Back to the Future 3</t>
   </si>
   <si>
@@ -236,9 +197,6 @@
   </si>
   <si>
     <t>BackToTheFuture3</t>
-  </si>
-  <si>
-    <t>After receiving a 70 year old letter from Doc Brown that he has time traveled and retired to a town in the old west, Marty time travels back in time to Hill Valley in the 1880’s to see Doc, and to warn him that he will be murdered and to take whatever measures he can to prevent it from happening.</t>
   </si>
   <si>
     <t>Bean</t>
@@ -2081,9 +2039,6 @@
     <t>TheTourist</t>
   </si>
   <si>
-    <t>American tourist Frank meets mysterious British woman Elsie on the train to Venice. Romance seems to bud, but there's more to her than meets the eye.</t>
-  </si>
-  <si>
     <t>Tower Heist</t>
   </si>
   <si>
@@ -2319,24 +2274,12 @@
 &lt;br&gt; &lt;br&gt;Elizabeth begins to appear in the apartment, and both are confused. She thinks he is a squatter, and he thinks she broke in. They soon realize she moves through walls and objects. Elizabeth does not know who she is, and insists she is not dead. David unsuccessfully tries to have her spirit exorcised. As only David can see and hear her, others think he is hallucinating and talking to himself. Elizabeth asks him to help her discover who she really is.</t>
   </si>
   <si>
-    <t>Handsome world traveler Raj (Ranbir Kapoor) recounts a decade of casual romance, inlcuding a tryst with the beautiful Mahi (Minissha Lamba) in Switzerland and with model Radhika (Bipasha Basu) in Mumbai. Now living in Sydney, Australia, the historically commitment-phobic Raj finds himself wanting to settle down for real with his latest love, gorgeous taxi driver Gayatri (Deepika Padukone). But, as the two grow closer, Raj worries that his promiscuous past will come back to haunt him.</t>
-  </si>
-  <si>
     <t>A lonely 40-ish man, likely to remain a bachelor, has a chance to find the love of his life when he falls for a vivacious young woman. Have you ever stopped to think if the most ordinary, uninteresting, unobtrusive man you might see on the road or around you might have a love story to tell? Maybe not. How can an ordinary man have a breathtaking, goose flesh igniting, awe inspiring love story of all things to tell? &lt;br&gt;This is what happened to Surinder Sahni (Shahrukh Khan) - a simple, clean hearted, honest man, leading a humdrum life, when he meets his total opposite and finds love in the flamboyant, fun-loving, vivacious - Taani (Anushka Sharma) for whom the whole world is her canvas and she paints her own life with the colours of rainbow all until unforeseen circumstances changes it all and brings them together. What follows is a journey filled with laughter, tears, joy, pain, music, dance and a lot of love. A journey that makes us believe that there is an extraordinary love story in every ordinary jodi (couple).</t>
   </si>
   <si>
     <t>When their kingdom becomes trapped in perpetual winter, fearless Anna (Kristen Bell) joins forces with mountaineer Kristoff (Jonathan Groff) and his reindeer sidekick to find Anna's sister, Snow Queen Elsa (Idina Menzel), and break her icy spell. Although their epic journey leads them to encounters with mystical trolls, a comedic snowman (Josh Gad), harsh conditions, and magic at every turn, Anna and Kristoff bravely push onward in a race to save their kingdom from winter's cold grip.</t>
   </si>
   <si>
-    <t>Following the closing arguments in a murder trial, the 12 members of the jury must deliberate, with a guilty verdict meaning death for the accused, an inner-city teen. As the dozen men try to reach a unanimous decision while sequestered in a room, one juror (Henry Fonda) casts considerable doubt on elements of the case. Personal issues soon rise to the surface, and conflict threatens to derail the delicate process that will decide one boy's fate.</t>
-  </si>
-  <si>
-    <t>A girl who's sick of the social strictures of junior high is transformed into a grownup overnight. In this feel-good fairy tale, teenager Jenna (Christa B. Allen) wants a boyfriend, and when she's unable to find one, she fantasizes about being a well-adjusted adult. Suddenly, her secret desire becomes a reality, and she is transformed into a 30-year-old (Jennifer Garner). But adulthood, with its own set of male-female challenges, isn't as easy as it looks.</t>
-  </si>
-  <si>
-    <t>A world of the very near future in which cattle, fish and even family pet can be cloned. But cloning humans is illegal -- that is until family man Adam Gibson comes home from work one day to find a clone has replaced him. Taken from his family and plunged into a sinister world he doesn't understand, Gibson must not only save himself from the assassins who must now destroy him to protect their secret, but uncover who and what is behind the horrible things happening to him.</t>
-  </si>
-  <si>
     <t>A research scientist becomes the world's first pregnant man in order to test a drug he and a colleague have designed for expectant women. To carry out the trial, he has an embryo implant, believing that he will only carry the baby for three months - hardly expecting to face the prospect of giving birth.</t>
   </si>
   <si>
@@ -2755,9 +2698,6 @@
   </si>
   <si>
     <t>Meg Ryan, Matthew Broderick, Kelly Preston, Tchéky Karyo</t>
-  </si>
-  <si>
-    <t>Small-town astronomer Sam (Matthew Broderick) is devastated when his fiancée, Linda (Kelly Preston), leaves him for French chef Anton Depeaux (Tcheky Karyo) during an out-of-town vacation. Obsessed, Sam follows her to New York City and moves in across the street from Linda and Anton's apartment, where he spies on them and records their lives. One day he is joined by Maggie (Meg Ryan), Anton's equally vengeful ex-girlfriend, and the two plot to break up the new couple.</t>
   </si>
   <si>
     <t>Nobody</t>
@@ -2773,6 +2713,149 @@
 Hutch's initial reluctance to defend himself and his family slowly gives way to a relentless pursuit of vengeance as he taps into his hidden skills and violent past. The movie unfolds with intense action sequences as Hutch faces off against ruthless adversaries, revealing his deadly capabilities and determination to protect his loved ones at any cost.&lt;br&gt;&lt;br&gt;
 The film explores themes of identity, redemption, and the consequences of underestimating someone who appears ordinary.&lt;br&gt;&lt;br&gt;
 "Nobody" received positive reviews for its action choreography, Odenkirk's performance, and its darkly humorous take on the genre.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It stars Angelina Jolie as Elise Clifton-Ward, a mysterious and elegant British woman who crosses paths with an American math teacher, Frank Tupelo, played by Johnny Depp, while traveling to Venice, Italy.&lt;br /&gt;&lt;br /&gt;
+The story begins when Elise, under surveillance by Scotland Yard and other law enforcement agencies, receives instructions to find a man of similar build to her lover, Alexander Pearce, in order to mislead those pursuing him. Frank, an unsuspecting tourist, becomes entangled in this web of intrigue when Elise deliberately chooses him as her decoy. What follows is a series of twists and turns as Frank finds himself caught up in a dangerous game of deception and betrayal.&lt;br /&gt;&lt;br /&gt;
+As Frank and Elise navigate the beautiful and perilous streets of Venice, their relationship evolves amidst the backdrop of international espionage and suspense. The film blends elements of romance, suspense, and mystery as the characters' true motives and allegiances are gradually revealed.&lt;br /&gt;&lt;br /&gt;
+</t>
+  </si>
+  <si>
+    <t>The film is renowned for its powerful portrayal of jury deliberations and the dynamics among jurors in a murder trial.&lt;br&gt;&lt;br&gt;
+The story unfolds primarily in a single room where twelve jurors deliberate the guilt or innocence of a young man accused of murdering his father. Initially, all but one juror are ready to deliver a quick guilty verdict, but Juror #8 (played by Henry Fonda) stands alone in his belief in the defendant's innocence. His insistence on examining the evidence and discussing the case thoroughly leads to intense and often heated debates among the jurors.&lt;br&gt;&lt;br&gt;
+As the deliberations progress, the jurors' personal biases, backgrounds, and prejudices gradually come to light, influencing their opinions and decisions. The film delves deep into themes of justice, reasonable doubt, empathy, and the responsibility of individuals in the legal system.&lt;br&gt;&lt;br&gt;
+"12 Angry Men" is celebrated for its powerful performances, especially Henry Fonda's portrayal of Juror #8, who serves as the voice of reason and conscience in the room. The ensemble cast, which includes Lee J. Cobb, Ed Begley, E.G. Marshall, and Jack Klugman among others, delivers memorable performances that bring to life the tensions and complexities of the jury deliberation process.&lt;br&gt;&lt;br&gt;
+The film is notable for its minimalist setting and tight focus on character development and dialogue, creating a tense and gripping atmosphere throughout. "12 Angry Men" has since become a classic of American cinema, acclaimed for its insightful exploration of human nature and the principles of justice.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The film revolves around Jenna Rink, a 13-year-old girl who makes a wish on her birthday to be 30 and suddenly wakes up the next day as a 30-year-old woman.&lt;br&gt;&lt;br&gt;
+The story begins in 1987 when Jenna, feeling awkward and unpopular at her 13th birthday party, wishes to be "30, flirty, and thriving." Miraculously, her wish comes true, and she finds herself in 2004, living in a glamorous Manhattan apartment as a successful magazine editor. However, Jenna soon realizes that her adult life is not as perfect as she imagined. She reconnects with her childhood friend Matty (played by Mark Ruffalo), who is now a photographer, and discovers that their friendship has changed over the years.&lt;br&gt;&lt;br&gt;
+As Jenna navigates her newfound adulthood, she grapples with the consequences of the choices she made and learns valuable lessons about friendship, love, and self-acceptance. The film blends humor, nostalgia, and romance as Jenna tries to reconcile her 13-year-old self with her adult persona.&lt;br&gt;&lt;br&gt;
+"13 Going on 30" received positive reviews for Jennifer Garner's charming performance and its nostalgic appeal, especially for those who grew up in the 1980s. The film's lighthearted tone and heartfelt moments have made it a beloved entry in the romantic comedy genre, appealing to audiences of all ages with its themes of second chances and the importance of staying true to oneself.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The film is set in a near-future world where cloning technology has advanced to the point where human cloning is possible but strictly illegal.&lt;br&gt;&lt;br&gt;
+The story follows Adam Gibson (played by Schwarzenegger), a helicopter pilot who discovers that he has been illegally cloned after a botched mission. As he tries to uncover the truth behind his cloning and the conspiracy surrounding it, Gibson becomes embroiled in a dangerous web of corporate intrigue and ethical dilemmas.&lt;br&gt;&lt;br&gt;
+In this futuristic society, cloning has become a controversial issue with profound implications for identity, morality, and the sanctity of life. The film explores themes of scientific ethics, corporate greed, and the blurred lines between what is natural and what is artificial.&lt;br&gt;&lt;br&gt;
+As Gibson delves deeper into the mystery, he encounters other clones, confronts powerful figures who seek to control the technology for their own gain, and ultimately fights to reclaim his identity and protect his family.&lt;br&gt;&lt;br&gt;
+"The 6th Day" blends action-packed sequences with philosophical questions about the consequences of cloning technology and the ethical implications of playing with human life. While it received mixed reviews from critics, the film remains notable for its exploration of futuristic themes and Schwarzenegger's typically charismatic performance in a sci-fi setting.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>The movie stars Joe Pesci as Tommy Spinelli, a mobster tasked with delivering a duffel bag containing the severed heads of eight mafia figures to his boss. However, things go awry when Tommy mistakenly picks up the wrong bag at the airport, which belongs to Charlie (played by Andy Comeau), a medical student on his way to meet his girlfriend's parents.&lt;br&gt;&lt;br&gt;
+As Tommy and Charlie's paths cross, the film unfolds with a series of comedic mishaps and misunderstandings as Charlie unknowingly carries around the gruesome contents of the duffel bag. Tommy desperately tries to retrieve the heads before his boss finds out about the mix-up, leading to absurd and increasingly chaotic situations.&lt;br&gt;&lt;br&gt;
+The film is known for its dark humor, slapstick comedy, and the contrast between the bumbling, innocent Charlie and the hardened criminal Tommy. As the mismatched duo navigates through their predicament, they encounter various eccentric characters and find themselves in increasingly absurd situations.&lt;br&gt;&lt;br&gt;
+"8 Heads in a Duffel Bag" received mixed reviews upon its release but has since gained a cult following for its outrageous premise and comedic performances, particularly from Joe Pesci. The film's blend of crime thriller elements with dark comedy makes it a unique entry in the genre, offering a humorous take on the consequences of mistaken identity and criminal mishaps.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The film stars Fred MacMurray as Professor Ned Brainard, a brilliant but absent-minded scientist at Medfield College.&lt;br&gt;&lt;br&gt;
+The story revolves around Professor Brainard, who is so engrossed in his scientific experiments that he forgets about important events, including his own wedding to his fiancée, Betsy Carlisle (played by Nancy Olson). His latest experiment involves a substance called "flubber" (short for "flying rubber"), which gains remarkable properties that enable objects to defy gravity and bounce excessively.&lt;br&gt;&lt;br&gt;
+As Professor Brainard attempts to perfect his invention, he faces numerous humorous challenges and setbacks, including attempts by rival scientists to steal his formula. The film features slapstick comedy as well as heartfelt moments as Brainard tries to balance his passion for science with his personal life.&lt;br&gt;&lt;br&gt;
+The plot thickens when Brainard's discovery of flubber leads to a series of comedic and chaotic situations, including using it to help the Medfield College basketball team excel in their games. Ultimately, Brainard must reconcile his scientific achievements with his relationships and decide what truly matters in life.&lt;br&gt;&lt;br&gt;
+"The Absent-Minded Professor" was well-received upon its release for its imaginative storyline, Fred MacMurray's endearing portrayal of the eccentric professor, and the film's innovative special effects showcasing the antics of flubber. The movie's success led to a sequel, "Son of Flubber," and a 1997 remake titled "Flubber," starring Robin Williams.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>The film revolves around the quirky and unconventional relationship that develops between two individuals who team up to exact revenge on their respective ex-partners.&lt;br&gt;&lt;br&gt;
+The story begins with Sam (played by Matthew Broderick) discovering that his longtime girlfriend, Linda (played by Kelly Preston), has left him for another man, a French chef named Anton (played by Tchéky Karyo). Devastated and heartbroken, Sam moves into an abandoned building across the street from Linda's apartment in New York City.&lt;br&gt;&lt;br&gt;
+Meanwhile, Maggie (played by Meg Ryan), a tough and resourceful photographer, arrives in town seeking vengeance against her ex-boyfriend, Anton, who abandoned her without explanation. Maggie sets up surveillance equipment in Sam's building to spy on Anton and gather evidence of his infidelity.&lt;br&gt;&lt;br&gt;
+Initially at odds with each other, Sam and Maggie form an unlikely alliance as they bond over their shared experiences of betrayal and heartache. Their plan to sabotage Anton and Linda's relationship leads to comedic and unexpected situations, blurring the lines between revenge and romance.&lt;br&gt;&lt;br&gt;
+"Addicted to Love" explores themes of love, loss, and moving on from past relationships, while injecting humor and charm into its portrayal of two wounded souls finding solace and unexpected connection in each other's company. The film's blend of romantic comedy with elements of revenge and redemption has made it a memorable entry in the genre, buoyed by the chemistry between Meg Ryan and Matthew Broderick's characters.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>"The Adventures of Tintin" is a 2011 animated action-adventure film directed by Steven Spielberg. It is based on the popular comic book series "The Adventures of Tintin" created by Belgian cartoonist Hergé. The film combines elements from three of Hergé's Tintin adventures: "The Crab with the Golden Claws," "The Secret of the Unicorn," and "Red Rackham's Treasure."&lt;br&gt;&lt;br&gt;
+The story follows Tintin, a young and intrepid reporter with a knack for solving mysteries, voiced by Jamie Bell. Alongside his loyal dog Snowy, Tintin becomes embroiled in a thrilling quest when he purchases a model ship called the Unicorn. This purchase sets off a chain of events that lead Tintin into a globe-trotting adventure filled with danger, intrigue, and treasure hunting.&lt;br&gt;&lt;br&gt;
+As Tintin unravels the mystery surrounding the Unicorn, he encounters the irascible Captain Haddock, voiced by Andy Serkis, who holds crucial information about the lost treasure of his ancestor, Sir Francis Haddock. Together with Captain Haddock and the bumbling detectives Thomson and Thompson (voiced by Simon Pegg and Nick Frost), Tintin races against time to uncover the truth and outwit the sinister Ivan Sakharine (voiced by Daniel Craig), who also seeks the treasure.&lt;br&gt;&lt;br&gt;
+"The Adventures of Tintin" is notable for its groundbreaking motion-capture animation technology, which brought Hergé's iconic characters and vibrant world to life with stunning visual fidelity. The film captures the spirit of the original comics with its fast-paced action sequences, intricate plot, and colorful characters, appealing both to fans of the comics and new audiences alike.&lt;br&gt;&lt;br&gt;
+Critically acclaimed for its animation, storytelling, and faithfulness to the source material, "The Adventures of Tintin" received praise for its adventurous spirit and Spielberg's direction. It successfully revived interest in Tintin's adventures on the big screen and left audiences eager for potential sequels to further explore the beloved character's escapades.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Directed by Guy Ritchie, the film brings the classic tale of "Aladdin and the Magic Lamp" to life with a mix of vibrant visuals, music, and new interpretations of familiar characters.&lt;br&gt;&lt;br&gt;
+The story follows Aladdin (played by Mena Massoud), a charming and resourceful street thief living in the fictional city of Agrabah. One day, Aladdin meets Princess Jasmine (played by Naomi Scott), who has disguised herself to experience life beyond the palace walls. They form a connection, but Aladdin's life changes when he is tasked by the villainous Grand Vizier Jafar (played by Marwan Kenzari) to retrieve a magical lamp from the Cave of Wonders.&lt;br&gt;&lt;br&gt;
+Inside the cave, Aladdin discovers the Genie (played by Will Smith), who grants him three wishes. With the Genie's help, Aladdin transforms into Prince Ali Ababwa to impress Jasmine and win her heart. However, Jafar's ambitions to usurp the Sultan's throne and control Agrabah threaten to disrupt Aladdin's newfound happiness.&lt;br&gt;&lt;br&gt;
+The 2019 adaptation of "Aladdin" stays faithful to the core elements of the original animated film while expanding on the characters' motivations and relationships. It features memorable musical numbers including classic songs like "A Whole New World" and introduces new compositions to enhance the story.&lt;br&gt;&lt;br&gt;
+Will Smith's portrayal of the Genie, while distinct from Robin Williams' iconic performance in the animated version, brings humor, charisma, and a contemporary twist to the character. The film's visual effects and elaborate set designs immerse audiences in the colorful and enchanting world of Agrabah.&lt;br&gt;&lt;br&gt;
+"Aladdin" (2019) received a mixed reception from critics but was generally praised for its entertaining spectacle, lively performances, and the nostalgic appeal of revisiting a beloved Disney classic. It achieved commercial success worldwide, appealing to both fans of the original animated film and new audiences looking for a magical and family-friendly adventure.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>"Angoor" is a classic Indian comedy film released in 1982, directed by Gulzar and based on William Shakespeare's play "The Comedy of Errors." The film stars Sanjeev Kumar and Deven Verma in dual roles, along with Moushumi Chatterjee and Deepti Naval in key roles.&lt;br&gt;&lt;br&gt;
+The story revolves around two pairs of identical twins who are separated at birth due to a twist of fate. One pair consists of Ashok (Sanjeev Kumar) and Bahadur (Deven Verma), while the other pair consists of Anokhelal (Sanjeev Kumar) and Bhairav (Deven Verma). Coincidentally, they all end up in different places but share identical names and appearances.&lt;br&gt;&lt;br&gt;
+The plot takes off when Ashok and Bahadur, living in one city, encounter Anokhelal and Bhairav, who have arrived from another city. Hilarity ensues as misunderstandings and confusion arise due to their identical appearances and names. The film explores the comedic situations that arise from mistaken identities, mistaken intentions, and the chaos that ensues when characters interact with each other without realizing they are speaking to the wrong person.&lt;br&gt;&lt;br&gt;
+"Angoor" is celebrated for its witty dialogue, clever humor, and excellent performances by the cast, particularly Sanjeev Kumar and Deven Verma, who skillfully handle their dual roles. Gulzar's direction and adaptation of Shakespeare's play into a comedic Indian context were also widely appreciated.&lt;br&gt;&lt;br&gt;
+The film has become a cult classic in Indian cinema, known for its timeless humor and memorable scenes. It remains a beloved comedy that continues to entertain audiences with its delightful blend of mistaken identities and comic situations.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Marvin Mange, a hapless and somewhat socially awkward police evidence file clerk who dreams of becoming a real police officer.&lt;br&gt;&lt;br&gt;
+The plot takes a fantastical turn when Marvin is critically injured in a car accident while trying to respond to a burglary. He is saved by a mad scientist who uses experimental animal organs to rebuild Marvin's body, effectively turning him into a human-animal hybrid with enhanced physical abilities. Marvin soon discovers that he has acquired the traits and instincts of various animals, leading to a series of comedic and often absurd situations as he tries to navigate his new abilities and responsibilities.&lt;br&gt;&lt;br&gt;
+As Marvin begins to utilize his newfound powers to fight crime and impress his colleagues, he also faces challenges in balancing his personal life and relationships. The film explores themes of identity, acceptance, and the consequences of tampering with nature in a lighthearted and comedic manner.&lt;br&gt;&lt;br&gt;
+Critically, "The Animal" received mixed reviews. While some appreciated Rob Schneider's comedic performance and the film's slapstick humor, others found the premise and execution to be too outlandish and predictable. The film's humor often relies on physical comedy and Schneider's trademark comedic style, appealing primarily to fans of his work and those seeking light entertainment.&lt;br&gt;&lt;br&gt;
+Overall, "The Animal" is viewed as a typical entry in Rob Schneider's filmography, offering a blend of silly humor and exaggerated situations that may appeal to audiences looking for escapist comedy. However, it is not considered a standout in the genre or remembered for its profound storytelling or character development.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The story is set in ancient Gaul, where the indomitable Gauls, led by Asterix and his friend Obelix, resist Roman occupation. Julius Caesar devises a new plan to defeat the Gauls by building a luxury Roman estate called "The Mansion of the Gods" near their village. The Romans hope to entice the Gauls with Roman comforts and lure them into Roman ways, thus undermining their resistance.&lt;br&gt;&lt;br&gt;
+However, Asterix and Obelix are determined to thwart Caesar's plan and preserve their Gaulish way of life. They devise clever schemes and use their wit and strength to resist the allure of Romanization and protect their village from Caesar's influence.&lt;br&gt;&lt;br&gt;
+The film explores themes of cultural identity, resistance against oppression, and the clash of civilizations, all presented in a humorous and family-friendly manner typical of the Asterix comic series. The animation style stays true to the original comic's artwork, capturing its colorful characters and vibrant world.&lt;br&gt;&lt;br&gt;
+"Mansion of the Gods" received positive reviews for its fidelity to the source material, witty humor, and engaging storyline. It was praised for its clever satire on modern consumerism and cultural imperialism, while also delivering entertaining action sequences and memorable characters.&lt;br&gt;&lt;br&gt;
+Overall, "Mansion of the Gods" is celebrated as a successful adaptation of the beloved Asterix comics, appealing to both longtime fans and new audiences with its blend of adventure, humor, and social commentary.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>"Avatar" is a 2009 epic science fiction film directed and produced by James Cameron. It stands out for its groundbreaking visual effects, particularly its use of 3D technology and motion capture to create a visually stunning world and creatures.&lt;br&gt;&lt;br&gt;
+The story is set in the mid-22nd century on the lush, inhabited moon of Pandora, which orbits a gas giant in the Alpha Centauri star system. The protagonist, Jake Sully (played by Sam Worthington), is a paralyzed former Marine who is recruited to take part in the Avatar Program, a project that allows humans to remotely control genetically engineered Na'vi bodies to interact with the native population.&lt;br&gt;&lt;br&gt;
+As Jake becomes immersed in the culture of the Na'vi, he forms a deep connection with Neytiri (played by Zoe Saldana), a Na'vi princess. However, tensions rise as the human mining corporation led by Colonel Miles Quaritch (played by Stephen Lang) threatens Pandora's indigenous population in their quest for valuable resources.&lt;br&gt;&lt;br&gt;
+The film explores themes of environmentalism, colonialism, and the clash between nature and technology. It delves into the ethical implications of exploiting resources and displacing indigenous cultures for profit, while also celebrating the interconnectedness of all living beings.&lt;br&gt;&lt;br&gt;
+"Avatar" received widespread critical acclaim for its visual effects, world-building, and immersive 3D experience. It became a cultural phenomenon and broke numerous box office records, becoming the highest-grossing film of all time (until it was surpassed by "Avengers: Endgame" in 2019).&lt;br&gt;&lt;br&gt;
+The success of "Avatar" led to plans for multiple sequels, with James Cameron aiming to further explore Pandora's world and its inhabitants. The film's impact on filmmaking technology and its influence on popular culture cemented its place as a landmark achievement in the history of cinema.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The plot of "Avvai Shanmugi" revolves around Pandyan (played by Kamal Haasan), a loving father who goes through a bitter divorce with his wife. To gain custody of his daughter, Pandyan disguises himself as Avvai Shanmugi, an elderly woman hired to care for his daughter. Avvai Shanmugi is portrayed with humor and warmth as she navigates the complexities of domestic life while concealing her true identity.&lt;br&gt;&lt;br&gt;
+As Avvai Shanmugi, Pandyan faces numerous comedic challenges and cultural adjustments. The film explores themes of family, love, and the lengths a parent will go to for their child's happiness. The narrative unfolds with entertaining situations and misunderstandings arising from Pandyan's dual identity.&lt;br&gt;&lt;br&gt;
+Kamal Haasan's performance in the titular role of Avvai Shanmugi garnered critical acclaim for his portrayal of both the sensitive father and the humorous elderly woman. The film's success was also attributed to its engaging storyline, lively music composed by Deva, and the chemistry between the cast members.&lt;br&gt;&lt;br&gt;
+"Avvai Shanmugi" was a box office hit and remains a beloved comedy classic in Tamil cinema. It is celebrated for its light-hearted humor, memorable dialogues, and its commentary on social issues through the lens of comedy. The film's success led to it being remade in several languages, showcasing its enduring popularity and influence in Indian cinema.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The plot revolves around Baankey (played by Rajpal Yadav), a simple and innocent man who gets embroiled in a series of chaotic events surrounding a wedding. Baankey becomes inadvertently involved in a "crazy baraat" (wedding procession) where unexpected and hilarious situations unfold due to misunderstandings, mistaken identities, and quirky characters.&lt;br&gt;&lt;br&gt;
+As Baankey navigates through the chaotic wedding preparations and ceremonies, he encounters eccentric relatives, nosy neighbors, and a range of mishaps that threaten to derail the wedding festivities. The film blends slapstick comedy with situational humor as Baankey and the ensemble cast find themselves in increasingly absurd and humorous predicaments.&lt;br&gt;&lt;br&gt;
+"Baankey Ki Crazy Baraat" is known for its light-hearted and entertaining portrayal of Indian wedding culture, emphasizing the colorful and eventful nature of traditional celebrations. The film's ensemble cast delivers spirited performances, with Rajpal Yadav's comedic timing and Sanjay Mishra's eccentric character adding to the film's comedic appeal.&lt;br&gt;&lt;br&gt;
+While the film received mixed reviews from critics, it found an audience among fans of Hindi comedy films for its energetic performances, humorous storyline, and lively music. "Baankey Ki Crazy Baraat" remains a popular choice for audiences looking for a fun-filled and light-hearted comedy experience centered around the chaos of weddings in Indian culture.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film stars Joe Mantegna, Lara Flynn Boyle, Joe Pantoliano, and Brian Haley, with twins Adam and Jacob Worton playing the role of Baby Bink.&lt;br&gt;&lt;br&gt;
+The story revolves around Baby Bink, the wealthy infant son of a wealthy couple in Chicago. He becomes the target of three bumbling criminals: Eddie (played by Joe Mantegna), Norby (played by Joe Pantoliano), and Veeko (played by Brian Haley). The criminals kidnap Baby Bink with the intention of holding him for ransom, hoping to score a large sum of money from his wealthy parents.&lt;br&gt;&lt;br&gt;
+However, Baby Bink manages to escape from the criminals' clutches and embarks on an adventure through the streets of Chicago. The film humorously depicts Baby Bink's journey as he navigates various obstacles and encounters, unaware of the danger he's in. Throughout his escapade, Baby Bink's innocent curiosity leads him to unwittingly outwit the criminals at every turn.&lt;br&gt;&lt;br&gt;
+As Baby Bink's parents, the police, and the criminals all scramble to find him, the film unfolds with slapstick comedy and humorous situations. It celebrates the resilience and cleverness of the baby, contrasting sharply with the incompetence of the criminals.&lt;br&gt;&lt;br&gt;
+"Baby's Day Out" received mixed reviews from critics but found success with audiences, particularly for its charming portrayal of a baby's escapades and the comedic performances of the cast. The film's blend of adventure and humor, combined with its adorable central character, has made it a nostalgic favorite for many viewers who enjoy family-friendly comedies.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The story revolves around Raj Sharma (played by Ranbir Kapoor), a carefree and charming young man who believes in living life to the fullest without commitment. He meets and dates three different women at different stages of his life: Mahi (played by Minissha Lamba), Radhika (played by Bipasha Basu), and Gayatri (played by Deepika Padukone).&lt;br&gt;&lt;br&gt;
+As Raj's relationships with these women unfold, the film explores themes of love, heartbreak, and personal growth. Each relationship teaches Raj valuable lessons about life and love, transforming him from a carefree flirt into a more mature and understanding individual.&lt;br&gt;&lt;br&gt;
+The title "Bachna Ae Haseeno" translates to "Beware, oh beauties" in English, reflecting Raj's journey of reckoning with his past behavior and learning to value and respect the women in his life. The film's narrative structure moves between past and present, showcasing Raj's evolution as he reflects on his relationships and their impact on his life.&lt;br&gt;&lt;br&gt;
+"Bachna Ae Haseeno" was well-received for its engaging storyline, catchy music composed by Vishal-Shekhar, and the charismatic performances of its cast, particularly Ranbir Kapoor. The film's exploration of love and relationships resonated with audiences, making it a commercial success at the box office.&lt;br&gt;&lt;br&gt;
+Overall, "Bachna Ae Haseeno" is remembered as a contemporary romantic drama that blends humor, romance, and emotional depth, offering insights into the complexities of modern relationships and personal growth.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story follows Marty McFly, a high school student who accidentally travels back in time to 1955 in a plutonium-powered DeLorean time machine invented by Doc Brown. In 1955, Marty encounters a younger version of his parents and inadvertently interferes with their budding romance, endangering his own existence. With the help of the younger Doc Brown, Marty must find a way to ensure his parents fall in love while repairing the damaged time machine to return to 1985.&lt;br&gt;&lt;br&gt;
+"Back to the Future" blends elements of science fiction, comedy, and adventure, creating a timeless and iconic film that appeals to audiences of all ages. The film's exploration of time travel paradoxes, as Marty navigates the challenges of altering the past while preserving his future, is complemented by its witty dialogue and memorable characters.&lt;br&gt;&lt;br&gt;
+The film's success led to two sequels, "Back to the Future Part II" (1989) and "Back to the Future Part III" (1990), forming a trilogy that further explores Marty and Doc Brown's adventures across different time periods. The trilogy remains a cultural phenomenon, celebrated for its imaginative storytelling, innovative special effects, and enduring appeal.&lt;br&gt;&lt;br&gt;
+"Back to the Future" received critical acclaim for its screenplay, direction, performances, and Alan Silvestri's iconic musical score. It has since become a beloved classic, influencing popular culture and inspiring numerous adaptations, merchandise, and references in other films and TV shows.&lt;br&gt;&lt;br&gt;
+Overall, "Back to the Future" is regarded as one of the greatest films of the 1980s, known for its entertainment value, creative premise, and timeless themes of friendship, courage, and the consequences of altering history.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story picks up immediately after the events of the first film, with Marty and Doc traveling from 1985 to the future—specifically, to October 21, 2015—to prevent a series of events that would negatively impact the future of Marty's family. In the future, Marty must prevent his son from being involved in a robbery orchestrated by Biff Tannen's grandson, Griff. Along the way, Marty purchases a sports almanac, which he later discovers will have catastrophic consequences if it falls into the wrong hands.&lt;br&gt;&lt;br&gt;
+After successfully thwarting the robbery, Marty accidentally interferes with events in 1955, creating an alternate timeline where Biff (now an elderly man) has used the sports almanac to become incredibly wealthy and powerful. Marty and Doc must now travel back to 1955 once again to retrieve the almanac and restore the original timeline, all while facing new challenges and encountering their younger selves from the first film.&lt;br&gt;&lt;br&gt;
+"Back to the Future Part II" is notable for its complex narrative involving multiple timelines, parallel events, and the consequences of altering history. The film showcases impressive visual effects for its time, including the depiction of a futuristic 2015 and the seamless integration of actors playing multiple roles.&lt;br&gt;&lt;br&gt;
+The sequel was well-received for its imaginative storytelling, humor, and action sequences, though its darker tone and more intricate plot were noted compared to the original. It successfully sets up the third and final installment of the trilogy, "Back to the Future Part III" (1990), which concludes Marty and Doc's time-traveling adventures.&lt;br&gt;&lt;br&gt;
+Overall, "Back to the Future Part II" remains a beloved continuation of the franchise, expanding on the themes of time travel, friendship, and the consequences of altering the past. It is considered a classic of 1980s cinema and a crucial part of the "Back to the Future" trilogy's enduring legacy.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story continues directly from the cliffhanger ending of "Back to the Future Part II," where Marty receives a letter from Doc dated 1885, revealing that he is alive and living in the Old West. Marty discovers that Doc is trapped in the year 1885 after the DeLorean time machine was struck by lightning and sent back in time. Determined to rescue his friend, Marty travels back to 1885 using the repaired DeLorean.&lt;br&gt;&lt;br&gt;
+In the Old West, Marty reunites with Doc, who has integrated himself into the town of Hill Valley and fallen in love with schoolteacher Clara Clayton (played by Mary Steenburgen). However, their plans to return to 1985 are complicated by the discovery that the DeLorean lacks the necessary fuel for time travel. Marty and Doc must find a way to generate the 1.21 gigawatts of electricity needed to power the DeLorean and overcome various obstacles, including encounters with Buford "Mad Dog" Tannen (played by Thomas F. Wilson), the notorious outlaw ancestor of Biff Tannen.&lt;br&gt;&lt;br&gt;
+"Back to the Future Part III" blends elements of western film genre with the time-traveling adventure that defines the series. It explores themes of friendship, courage, and the importance of personal growth, as Marty and Doc confront challenges in the Wild West while trying to preserve the timeline and return to their own time.&lt;br&gt;&lt;br&gt;
+The film received positive reviews for its entertaining blend of action, humor, and heartfelt moments, marking a return to the lighter tone of the first film compared to the more complex narrative of the second installment. It successfully concludes the trilogy with satisfying resolutions for its characters and themes, solidifying its place as a beloved classic in cinema history.&lt;br&gt;&lt;br&gt;
+Overall, "Back to the Future Part III" is celebrated for its imaginative storytelling, impressive performances, and the enduring chemistry between Michael J. Fox and Christopher Lloyd. It remains a favorite among fans of the series and continues to entertain audiences with its timeless appeal.&lt;br&gt;&lt;br&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3135,7 +3218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3145,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3168,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3194,22 +3277,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>770</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3220,10 +3303,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -3235,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>771</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3246,10 +3329,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D4" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -3261,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>772</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3272,10 +3355,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -3287,99 +3370,99 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>748</v>
-      </c>
-      <c r="D6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>740</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D7" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="H7" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D8" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D9" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -3388,4997 +3471,4997 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D10" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D11" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D12" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D13" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D14" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D15" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D16" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D17" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>767</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D19" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D20" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D21" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>917</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D22" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D23" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D24" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D25" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D26" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D27" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D28" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="H28" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D29" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D30" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D31" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D32" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D33" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D34" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D35" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D36" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D37" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D38" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D39" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D40" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D41" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D42" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D43" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="F43" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G43" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="H43" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D44" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D45" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D46" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D47" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D48" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D49" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D50" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H50" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D51" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D52" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D53" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H53" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D54" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D55" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D56" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D57" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D58" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="H58" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D59" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="H59" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D60" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D61" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D62" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H62" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D63" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D64" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H64" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D65" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H65" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D66" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H66" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D67" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H67" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D68" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H68" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D69" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D70" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D71" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D72" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D73" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D74" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D75" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D76" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="H76" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D77" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D78" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H78" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D79" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D80" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H80" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D81" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H81" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D82" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="H82" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D83" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H83" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D84" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H84" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D85" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H85" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D86" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H86" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D87" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H87" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D88" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="H88" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D89" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H89" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D90" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H90" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D91" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H91" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D92" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H92" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D93" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H93" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H95" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H96" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H97" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H98" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="H99" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H100" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H101" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H102" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H103" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="H104" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H105" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="H106" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H107" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H108" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H109" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="H110" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H111" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F112" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G112" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H112" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="H113" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H114" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="H115" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H116" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H117" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D118" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="H118" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H119" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H120" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H121" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="H122" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="3" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="H123" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D124" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="H124" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="H125" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="H126" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="H127" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="H128" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H129" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H130" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="H131" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H132" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H133" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F134" t="s">
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="H134" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F135" t="s">
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="H135" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H136" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H137" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H138" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F139" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G139" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H139" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H140" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H141" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="H142" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H143" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="H144" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F145" t="s">
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H145" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="H146" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H147" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H148" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="H149" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="H150" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="H151" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="H152" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H153" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="H154" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F155" t="s">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H155" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="D156" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="H156" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H157" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H158" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="H159" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H160" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C161" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="F161" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G161" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="H161" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B162" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F162" t="s">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H162" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H163" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H165" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="H166" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="H167" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="H168" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="H169" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H170" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C171" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D171" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="H171" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H172" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="H173" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="F174" t="s">
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="H174" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="H175" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="H176" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D177" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F177" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G177" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H177" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H178" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="H179" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H180" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="H181" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="H182" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="H183" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="H184" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="H185" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="H186" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="H187" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="H188" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="H189" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="H190" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="H191" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H192" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="H193" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C194" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H194" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="H195" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="H196" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
+        <v>733</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F197" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
         <v>748</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F197" t="s">
-        <v>3</v>
-      </c>
-      <c r="G197" t="s">
-        <v>763</v>
-      </c>
       <c r="H197" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="H198" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H199" t="s">
-        <v>688</v>
+        <v>898</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="H200" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="H201" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="H202" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C203" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="D203" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="H203" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C204" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="H204" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="H205" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F206" t="s">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="H206" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F207" t="s">
         <v>3</v>
       </c>
       <c r="G207" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="H207" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="B208" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C208" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F208" t="s">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="H208" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="H209" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="H210" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="F211" t="s">
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="H211" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="H212" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="F213" t="s">
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="H213" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F214" t="s">
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="H214" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/json/movies.xlsx
+++ b/json/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="941">
   <si>
     <t>Movie</t>
   </si>
@@ -205,9 +205,6 @@
     <t>1997-08-01</t>
   </si>
   <si>
-    <t>Childlike Englishman, Mr. Bean, is an incompetent watchman at the Royal National Gallery. After the museum's board of directors' attempt to have him fired is blocked by the chairman, who has taken a liking to Bean, they send him to Los Angeles to act as their ambassador for the unveiling of a historic painting to humiliate him. Fooled, Mr. Bean must now successfully unveil the painting or risk his and a hapless Los Angeles curator's termination.</t>
-  </si>
-  <si>
     <t>Bean's Holiday, Mr</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>BeansHoliday</t>
   </si>
   <si>
-    <t>Mr. Bean wins a trip to Cannes where he unwittingly separates a young boy from his father and must help the two reunite. On the way he discovers France, bicycling and true love, among other things.</t>
-  </si>
-  <si>
     <t>Bee Movie</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>BeverlyHillsCop</t>
   </si>
   <si>
-    <t>The heat is on in this fast paced action-comedy starring Eddie Murphy as Axel Foley, a street smart Detroit cop tracking down his best friend's killer in Beverly Hills. Axel quickly learns that his wild style doesn't fit in with the Beverly Hills Police Department, which assigns two officers to make sure things don't get out of hand. Dragging the stuffy detectives along for the ride, Axel smashes through a huge culture clash in his hilarious, high-speed pursuit of justice. Featuring cameos by Paul Reiser, Bronson Pinchot and Damon Wayans, Beverly Hills Cop is an exhilarating, sidesplitting adventure.</t>
-  </si>
-  <si>
     <t>Bhagam Bhag</t>
   </si>
   <si>
@@ -253,10 +244,6 @@
     <t>BhagamBhag</t>
   </si>
   <si>
-    <t xml:space="preserve">Champak Chaturvedi runs a theatrical troupe in India. He hires two men, Bunty - a graduate in Arts, and Babla- who cannot read nor write English. One has to play the role of the play's hero, while one the villain. Both men end up squabbling with each other, as both want the hero's part. Then Champak finds out that Bunty has molested the play's heroine, Anjali, and punishes him. The group gets a contract to stage 30 plays in Britain, however, on the day of the departure, Anjali opts out, leaving Champak no alternative but to travel without a heroine, but hoping to recruit one while in Britain. Upon arrival, Babla sets about to find a suitable heroine from the Indian population, but Bunty beats him to it and recruits a woman named Munni.
-</t>
-  </si>
-  <si>
     <t>Bheja Fry</t>
   </si>
   <si>
@@ -266,9 +253,6 @@
     <t>BhejaFry</t>
   </si>
   <si>
-    <t>Ranjeet Thadani (Rajat Kapoor), a bored, arrogant music company executive hurts his back the night he has found a prize catch for a weekly bring - your -idiot talent dinner hosted by his friends and him. He ends up spending the evening with this idiot, Bharat Bhushan (Vinay Pathak) who tries to help him get his wife (Sarika) back who left him earlier that day. The result is utter chaos let loose by the idiot, who cannot do a single thing without messing it up further. The plot turns around to be a series of mini disasters that leave Ranjeet's comfortable life in ruins. Call it the idiot's revenge!</t>
-  </si>
-  <si>
     <t>Billu Barber</t>
   </si>
   <si>
@@ -278,9 +262,6 @@
     <t>BilluBarber</t>
   </si>
   <si>
-    <t>When a famous Bollywood actor visits a small village for a film's shoot, a lowly hairdressers claim that they were once childhood friends soon makes him the centre of attention.</t>
-  </si>
-  <si>
     <t>Blackbeard's Ghost</t>
   </si>
   <si>
@@ -290,9 +271,6 @@
     <t>BlackbeardsGhost</t>
   </si>
   <si>
-    <t>The eponymous wraith returns to Earth to aid his descendant, elderly Emily Stowecroft. The villains want to kick Emily and her friends out of their group home so that they can build a crooked casino. Good guy Steve Walker gets caught in the middle of the squabble after evoking Blackbeard's ghost.</t>
-  </si>
-  <si>
     <t>Blended</t>
   </si>
   <si>
@@ -302,9 +280,6 @@
     <t>blended</t>
   </si>
   <si>
-    <t>Recently divorced mom Lauren and widowed dad Jim let their friends push them into a blind date, which goes disastrously wrong. Unsurprisingly, neither wants to see the other ever again. However, fate intervenes when both Jim and Lauren, unbeknown to each other, purchase one-half of the same vacation package at a South African resort for families. They and their children are forced to share the same suite and participate in a slew of family activities together, where their attractions grows as their respective kids benefit from the burgeoning relationship.</t>
-  </si>
-  <si>
     <t>Blue Streak</t>
   </si>
   <si>
@@ -314,18 +289,12 @@
     <t>BlueStreak</t>
   </si>
   <si>
-    <t>Miles Logan is a jewel thief who just hit the big time by stealing a huge diamond. However, after two years in jail, he comes to find out that he hid the diamond in a police building that was being built at the time of the robbery. In an attempt to regain his diamond, he poses as an LAPD detective.</t>
-  </si>
-  <si>
     <t>Bolt</t>
   </si>
   <si>
     <t>2008-11-21</t>
   </si>
   <si>
-    <t>Bolt is the star of the biggest show in Hollywood. The only problem is, he thinks it's real. After he's accidentally shipped to New York City and separated from Penny, his beloved co-star and owner, Bolt must harness all his "super powers" to find a way home.</t>
-  </si>
-  <si>
     <t>Bourne Identity, The</t>
   </si>
   <si>
@@ -335,9 +304,6 @@
     <t>BourneIdentity</t>
   </si>
   <si>
-    <t>Wounded to the brink of death and suffering from amnesia, Jason Bourne is rescued at sea by a fisherman. With nothing to go on but a Swiss bank account number, he starts to reconstruct his life, but finds that many people he encounters want him dead. However, Bourne realizes that he has the combat and mental skills of a world-class spy—but who does he work for?</t>
-  </si>
-  <si>
     <t>Bourne Supremacy, The</t>
   </si>
   <si>
@@ -347,9 +313,6 @@
     <t>BourneSupremacy</t>
   </si>
   <si>
-    <t>When a CIA operation to purchase classified Russian documents is blown by a rival agent, who then shows up in the sleepy seaside village where Bourne and Marie have been living. The pair run for their lives and Bourne, who promised retaliation should anyone from his former life attempt contact, is forced to once again take up his life as a trained assassin to survive.</t>
-  </si>
-  <si>
     <t>Bourne Ultimatum</t>
   </si>
   <si>
@@ -359,9 +322,6 @@
     <t>BourneUltimatum</t>
   </si>
   <si>
-    <t>Bourne is brought out of hiding once again by reporter Simon Ross who is trying to unveil Operation Blackbriar, an upgrade to Project Treadstone, in a series of newspaper columns. Information from the reporter stirs a new set of memories, and Bourne must finally uncover his dark past while dodging The Company's best efforts to eradicate him.</t>
-  </si>
-  <si>
     <t>Brewster's Millions</t>
   </si>
   <si>
@@ -371,9 +331,6 @@
     <t>BrewstersMillions</t>
   </si>
   <si>
-    <t>Brewster, an aging minor-league baseball player, stands to inherit 300 million dollars if he can successfully spend 30 million dollars in 30 days without anything to show for it, and without telling anyone what he's up to... A task that's a lot harder than it sounds!</t>
-  </si>
-  <si>
     <t>Bruce Almighty</t>
   </si>
   <si>
@@ -383,9 +340,6 @@
     <t>BruceAlmighty</t>
   </si>
   <si>
-    <t>Bruce Nolan toils as a 'human interest' television reporter in Buffalo, N.Y., but despite his high ratings and the love of his beautiful girlfriend, Bruce remains unfulfilled. At the end of the worst day in his life, he angrily ridicules God—and the Almighty responds, endowing Bruce with all of His divine powers.</t>
-  </si>
-  <si>
     <t>Bucket List, The</t>
   </si>
   <si>
@@ -395,9 +349,6 @@
     <t>BucketList</t>
   </si>
   <si>
-    <t>Corporate billionaire Edward Cole and working class mechanic Carter Chambers are worlds apart. At a crossroads in their lives, they share a hospital room and discover they have two things in common: a desire to spend the time they have left doing everything they ever wanted to do and an unrealized need to come to terms with who they are. Together they embark on the road trip of a lifetime, becoming friends along the way and learning to live life to the fullest, with insight and humor.</t>
-  </si>
-  <si>
     <t>Buddha Mar Gaya</t>
   </si>
   <si>
@@ -413,9 +364,6 @@
     <t>2006-08-04</t>
   </si>
   <si>
-    <t>Lightning McQueen, a hotshot rookie race car driven to succeed, discovers that life is about the journey, not the finish line, when he finds himself unexpectedly detoured in the sleepy Route 66 town of Radiator Springs. On route across the country to the big Piston Cup Championship in California to compete against two seasoned pros, McQueen gets to know the town's offbeat characters.</t>
-  </si>
-  <si>
     <t>Chalo Dilli</t>
   </si>
   <si>
@@ -425,18 +373,12 @@
     <t>ChaloDilli</t>
   </si>
   <si>
-    <t>Lara Dutta accompanied by Vinay Pathak rediscover the colors of India in their journey to Delhi.</t>
-  </si>
-  <si>
     <t>CID</t>
   </si>
   <si>
     <t>1956-01-01</t>
   </si>
   <si>
-    <t>A newspaper editor, Shrivastav, is killed when he was about to expose the underworld links of a very rich and influential person. C.I.D. Inspector Shekhar is assigned to this case, an investigation of which leads him to suspect Dharamdas and his men. But Dharamdas spins a web of lies and deceit, and Shekhar himself becomes a suspect, and is arrested by the police, and loses his job, leaving Dharamdas and his men to carry on undeterred.</t>
-  </si>
-  <si>
     <t>Cloudy with a Chance of Meatballs</t>
   </si>
   <si>
@@ -446,18 +388,12 @@
     <t>CloudywithaChanceofMeatballs</t>
   </si>
   <si>
-    <t>Inventor Flint Lockwood creates a machine that makes clouds rain food, enabling the down-and-out citizens of Chewandswallow to feed themselves. But when the falling food reaches gargantuan proportions, Flint must scramble to avert disaster. Can he regain control of the machine and put an end to the wild weather before the town is destroyed?</t>
-  </si>
-  <si>
     <t>Coco</t>
   </si>
   <si>
     <t>2017-11-22</t>
   </si>
   <si>
-    <t>Despite his family’s baffling generations-old ban on music, Miguel dreams of becoming an accomplished musician like his idol, Ernesto de la Cruz. Desperate to prove his talent, Miguel finds himself in the stunning and colorful Land of the Dead following a mysterious chain of events. Along the way, he meets charming trickster Hector, and together, they set off on an extraordinary journey to unlock the real story behind Miguel's family history.</t>
-  </si>
-  <si>
     <t>Come September</t>
   </si>
   <si>
@@ -467,9 +403,6 @@
     <t>ComeSeptember</t>
   </si>
   <si>
-    <t>Robert Talbot, an American millionaire, arrives early for his annual vacation at his luxurious Italian villa. His long-time girlfriend Lisa has given up waiting for him and has decided to marry another man. Meanwhile, his sneaky business associate Maurice secretly misappropriates the villa as a hotel while Talbot is away. The current guests of the "hotel" are a group of young American girls.</t>
-  </si>
-  <si>
     <t>Coming To America</t>
   </si>
   <si>
@@ -479,9 +412,6 @@
     <t>ComingToAmerica</t>
   </si>
   <si>
-    <t>An African prince decides it’s time for him to find a princess... and his mission leads him and his most loyal friend to Queens, New York. In disguise as an impoverished immigrant, the pampered prince quickly finds himself a new job, new friends, new digs, new enemies and lots of trouble.</t>
-  </si>
-  <si>
     <t>Conspiracy Theory</t>
   </si>
   <si>
@@ -491,9 +421,6 @@
     <t>ConspiracyTheory</t>
   </si>
   <si>
-    <t>A man obsessed with conspiracy theories becomes a target after one of his theories turns out to be true. Unfortunately, in order to save himself, he has to figure out which theory it is.</t>
-  </si>
-  <si>
     <t>2009-08-28</t>
   </si>
   <si>
@@ -512,9 +439,6 @@
     <t>DamBusters</t>
   </si>
   <si>
-    <t>The story of the conception of a new British weapon for smashing the German dams in the Ruhr industrial complex and the execution of the raid by 617 Squadron 'The Dam Busters'.</t>
-  </si>
-  <si>
     <t>Day of the Jackal, The</t>
   </si>
   <si>
@@ -524,9 +448,6 @@
     <t>DayOfTheJackal</t>
   </si>
   <si>
-    <t>An international assassin known as ‘The Jackal’ is employed by disgruntled French generals to kill President Charles de Gaulle, with a dedicated gendarme on the assassin’s trail.</t>
-  </si>
-  <si>
     <t>De Dana Dan</t>
   </si>
   <si>
@@ -536,9 +457,6 @@
     <t>DeDanaDan</t>
   </si>
   <si>
-    <t>Two down on their luck men tries to kidnap a wealthy businesswoman's dog to demand a hefty ransom from her. But things go haywire when the dog goes missing.</t>
-  </si>
-  <si>
     <t>Death on the Nile</t>
   </si>
   <si>
@@ -548,9 +466,6 @@
     <t>DeathOnTheNile</t>
   </si>
   <si>
-    <t>Belgian sleuth Hercule Poirot boards a glamorous river steamer with enough champagne to fill the Nile. But his Egyptian vacation turns into a thrilling search for a murderer when a picture-perfect couple’s idyllic honeymoon is tragically cut short.</t>
-  </si>
-  <si>
     <t>Deewane Huye Paagal</t>
   </si>
   <si>
@@ -560,18 +475,12 @@
     <t>DeewaneHuyePaagal</t>
   </si>
   <si>
-    <t>A man embarks on journey to find his love in Dubai, only to learn she has different suitors and admirers.</t>
-  </si>
-  <si>
     <t>2010-08-06</t>
   </si>
   <si>
     <t>DespicableMe1</t>
   </si>
   <si>
-    <t>Villainous Gru lives up to his reputation as a despicable, deplorable and downright unlikable guy when he hatches a plan to steal the moon from the sky. But he has a tough time staying on task after three orphans land in his care.</t>
-  </si>
-  <si>
     <t>Despicable Me 2</t>
   </si>
   <si>
@@ -581,9 +490,6 @@
     <t>DespicableMe2</t>
   </si>
   <si>
-    <t>Gru is recruited by the Anti-Villain League to help deal with a powerful new super criminal.</t>
-  </si>
-  <si>
     <t>Dictator, The</t>
   </si>
   <si>
@@ -593,9 +499,6 @@
     <t>DictatorThe</t>
   </si>
   <si>
-    <t>The heroic story of a dictator who risks his life to ensure that democracy would never come to the country he so lovingly oppressed.</t>
-  </si>
-  <si>
     <t>Dil Chahta Hai</t>
   </si>
   <si>
@@ -605,9 +508,6 @@
     <t>DilChahtaHai</t>
   </si>
   <si>
-    <t>Three inseparable childhood friends are just out of college. Nothing comes between them - until they each fall in love, and their wildly different approaches to relationships creates tension.</t>
-  </si>
-  <si>
     <t>Dil To Pagal Hai</t>
   </si>
   <si>
@@ -617,9 +517,6 @@
     <t>DilToPagalHai</t>
   </si>
   <si>
-    <t>Rahul, the director of a successful dance troupe, considers Nisha his best friend, though secretly, she is madly in love with him. He then falls for Pooja, who is engaged to Ajay.</t>
-  </si>
-  <si>
     <t>Dilwale Dulhania Le Jayenge</t>
   </si>
   <si>
@@ -629,9 +526,6 @@
     <t>DilwaleDulhaniaLeJayenge</t>
   </si>
   <si>
-    <t>Raj is a rich, carefree, happy-go-lucky second generation NRI. Simran is the daughter of Chaudhary Baldev Singh, who in spite of being an NRI is very strict about adherence to Indian values. Simran has left for India to be married to her childhood fiancé. Raj leaves for India with a mission at his hands, to claim his lady love under the noses of her whole family. Thus begins a saga.</t>
-  </si>
-  <si>
     <t>Dirty Dozen, The</t>
   </si>
   <si>
@@ -641,18 +535,12 @@
     <t>DirtyDozen</t>
   </si>
   <si>
-    <t>Major Reisman is "volunteered" to lead another mission using convicted army soldiers, sentenced to either death or long prison terms. This time their mission is to kill a Nazi general who plans to assassinate Hitler.</t>
-  </si>
-  <si>
     <t>Don</t>
   </si>
   <si>
     <t>2006-10-20</t>
   </si>
   <si>
-    <t>DCP DeSilva sees a way to bring to justice the feared head of a criminal empire by recruiting a man named Vijay, who looks exactly like the crime boss. The ruse works too well, and soon Vijay finds his life in danger when DeSilva, the only one who knows his true identity, dies.</t>
-  </si>
-  <si>
     <t>Dunston Checks In</t>
   </si>
   <si>
@@ -662,9 +550,6 @@
     <t>DunstonChecksIn</t>
   </si>
   <si>
-    <t>Hotel manager Robert Grant is forced by his boss to postpone his family vacation when a hotel critic checks in. Trouble is, the critic is really a villainous jewel thief with an orangutan assistant named Dunston. When Dunston gets loose and tries to escape a life of crime -- aided by Robert's sons -- havoc, hijinks and lots of laughs abound!</t>
-  </si>
-  <si>
     <t>Edge of Tomorrow</t>
   </si>
   <si>
@@ -674,30 +559,18 @@
     <t>EdgeOfTomorrow</t>
   </si>
   <si>
-    <t>Major Bill Cage is an officer who has never seen a day of combat when he is unceremoniously demoted and dropped into combat. Cage is killed within minutes, managing to take an alpha alien down with him. He awakens back at the beginning of the same day and is forced to fight and die again... and again - as physical contact with the alien has thrown him into a time loop.</t>
-  </si>
-  <si>
     <t>Entrapment</t>
   </si>
   <si>
     <t>1999-04-30</t>
   </si>
   <si>
-    <t>Two thieves, who travel in elegant circles, try to outsmart each other and, in the process, end up falling in love.</t>
-  </si>
-  <si>
-    <t>Equalizer 1, The</t>
-  </si>
-  <si>
     <t>2014-10-03</t>
   </si>
   <si>
     <t>Equalizer1</t>
   </si>
   <si>
-    <t>McCall believes he has put his mysterious past behind him and dedicated himself to beginning a new, quiet life. But when he meets Teri, a young girl under the control of ultra-violent Russian gangsters, he can’t stand idly by – he has to help her. Armed with hidden skills that allow him to serve vengeance against anyone who would brutalize the helpless, McCall comes out of his self-imposed retirement and finds his desire for justice reawakened. If someone has a problem, if the odds are stacked against them, if they have nowhere else to turn, McCall will help. He is The Equalizer.</t>
-  </si>
-  <si>
     <t>Equalizer 2, The</t>
   </si>
   <si>
@@ -707,27 +580,18 @@
     <t>Equalizer2</t>
   </si>
   <si>
-    <t>Robert McCall, who serves an unflinching justice for the exploited and oppressed, embarks on a relentless, globe-trotting quest for vengeance when a long-time girl friend is murdered.</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
     <t>1982-06-11</t>
   </si>
   <si>
-    <t>After a gentle alien becomes stranded on Earth, the being is discovered and befriended by a young boy named Elliott. Bringing the extraterrestrial into his suburban California house, Elliott introduces E.T., as the alien is dubbed, to his brother and his little sister, Gertie, and the children decide to keep its existence a secret. Soon, however, E.T. falls ill, resulting in government intervention and a dire situation for both Elliott and the alien.</t>
-  </si>
-  <si>
     <t>EuroTrip</t>
   </si>
   <si>
     <t>2004-02-20</t>
   </si>
   <si>
-    <t>When Scott learns that his longtime cyber-buddy from Berlin is a gorgeous young woman, he and his friends embark on a trip across Europe.</t>
-  </si>
-  <si>
     <t>Evan Almighty</t>
   </si>
   <si>
@@ -737,18 +601,12 @@
     <t>EvanAlmighty</t>
   </si>
   <si>
-    <t>Junior congressman Evan Baxter, whose wish is to "change the world" is heard by none other than God. When God appears with the perplexing request to build an ark, Evan is sure he is losing it.</t>
-  </si>
-  <si>
     <t>Ferdinand</t>
   </si>
   <si>
     <t>2017-12-15</t>
   </si>
   <si>
-    <t>Ferdinand, a little bull, prefers sitting quietly under a cork tree just smelling the flowers versus jumping around, snorting, and butting heads with other bulls. As Ferdinand grows big and strong, his temperament remains mellow, but one day five men come to choose the "biggest, fastest, roughest bull" for the bullfights in Madrid and Ferdinand is mistakenly chosen. Based on the classic 1936 children's book by Munro Leaf.</t>
-  </si>
-  <si>
     <t>Fish Called Wanda, A</t>
   </si>
   <si>
@@ -758,9 +616,6 @@
     <t>FishCalledWanda</t>
   </si>
   <si>
-    <t>A diamond advocate is attempting to steal a collection of diamonds, yet troubles arise when he realizes that he is not the only one after the diamonds.</t>
-  </si>
-  <si>
     <t>Freaky Friday</t>
   </si>
   <si>
@@ -770,9 +625,6 @@
     <t>FreakyFriday</t>
   </si>
   <si>
-    <t>Mother and daughter bicker over everything -- what Anna wears, whom she likes and what she wants to do when she's older. In turn, Anna detests Tess's fiancé. When a magical fortune cookie switches their personalities, they each get a peek at how the other person feels, thinks and lives.</t>
-  </si>
-  <si>
     <t>French Kiss</t>
   </si>
   <si>
@@ -782,9 +634,6 @@
     <t>FrenchKiss</t>
   </si>
   <si>
-    <t>After her fiancee admits to infidelity while on a business trip in France, a woman attempts to get her lover back and marry him by traveling to Paris despite her crippling fear of flying. On the way she unwittingly smuggles something of value that has a charming crook chasing her across France as she chases after her future husband.</t>
-  </si>
-  <si>
     <t>Frozen</t>
   </si>
   <si>
@@ -800,27 +649,18 @@
     <t>Fugitive</t>
   </si>
   <si>
-    <t>Wrongfully convicted of murdering his wife and sentenced to death, Richard Kimble escapes from the law in an attempt to find the real killer and clear his name.</t>
-  </si>
-  <si>
     <t>Gandhi</t>
   </si>
   <si>
     <t>1982-11-30</t>
   </si>
   <si>
-    <t>In the early years of the 20th century, Mohandas K. Gandhi, a British-trained lawyer, forsakes all worldly possessions to take up the cause of Indian independence. Faced with armed resistance from the British government, Gandhi adopts a policy of 'passive resistance', endeavouring to win freedom for his people without resorting to bloodshed.</t>
-  </si>
-  <si>
     <t>Ghost</t>
   </si>
   <si>
     <t>1990-07-13</t>
   </si>
   <si>
-    <t>Sam Wheat is a banker, Molly Jensen is an artist, and the two are madly in love. However, when Sam is murdered by his friend and corrupt business partner Carl Bruner over a shady business deal, he is left to roam the earth as a powerless spirit. When he learns of Carl's betrayal, Sam must seek the help of psychic Oda Mae Brown to set things right and protect Molly from Carl and his goons.</t>
-  </si>
-  <si>
     <t>Ghost Town</t>
   </si>
   <si>
@@ -830,9 +670,6 @@
     <t>GhostTown</t>
   </si>
   <si>
-    <t>Bertram Pincus, a cranky, people-hating Manhattan dentist, develops the unwelcome ability to see dead people. Really annoying dead people. Even worse, they all want something from him, particularly Frank Herlihy, a smooth-talking ghost, who pesters him into a romantic scheme involving his widow Gwen. They are soon entangled in a hilarious predicament between the now and the hereafter!</t>
-  </si>
-  <si>
     <t>Gods Must Be Crazy</t>
   </si>
   <si>
@@ -842,9 +679,6 @@
     <t>GodsMustBeCrazy</t>
   </si>
   <si>
-    <t>A Coca-Cola bottle dropped from an airplane raises havoc among a normally peaceful tribe of African bushmen who believe it to be a utensil of the gods.</t>
-  </si>
-  <si>
     <t>Gods Must Be Crazy 2</t>
   </si>
   <si>
@@ -854,9 +688,6 @@
     <t>GodsMustBeCrazy2</t>
   </si>
   <si>
-    <t>Xixo is back again. This time, his children accidentally stow away on a fast-moving poachers' truck, unable to get off, and Xixo sets out to rescue them. Along the way, he encounters a couple of soldiers trying to capture each other and a pilot and passenger of a small plane, who are each having a few problems of their own.</t>
-  </si>
-  <si>
     <t>Gol Maal</t>
   </si>
   <si>
@@ -866,27 +697,18 @@
     <t>GolMaal</t>
   </si>
   <si>
-    <t>A man's simple lie to secure his job escalates into more complex lies when his orthodox boss becomes suspicious.</t>
-  </si>
-  <si>
     <t>GoldenEye</t>
   </si>
   <si>
     <t>1997-08-23</t>
   </si>
   <si>
-    <t>When a powerful satellite system falls into the hands of Alec Trevelyan, AKA Agent 006, a former ally-turned-enemy, only James Bond can save the world from a dangerous space weapon that -- in one short pulse -- could destroy the earth! As Bond squares off against his former compatriot, he also battles Xenia Onatopp, an assassin who uses pleasure as her ultimate weapon</t>
-  </si>
-  <si>
     <t>Guide</t>
   </si>
   <si>
     <t>1965-02-06</t>
   </si>
   <si>
-    <t>When mistaken to be a sage by some villagers, an ex-tour guide reflects on his past and lost love to search for spiritual wisdom to guide the villagers.</t>
-  </si>
-  <si>
     <t>Guns of Navarone</t>
   </si>
   <si>
@@ -896,9 +718,6 @@
     <t>GunsofNavarone</t>
   </si>
   <si>
-    <t>A team of allied saboteurs are assigned an impossible mission: infiltrate an impregnable Nazi-held island and destroy the two enormous long-range field guns that prevent the rescue of 2,000 trapped British soldiers.</t>
-  </si>
-  <si>
     <t>Guy Thing, A</t>
   </si>
   <si>
@@ -908,21 +727,12 @@
     <t>GuyThing</t>
   </si>
   <si>
-    <t>Paul Morse is a good guy. When his friends throw him a wild bachelor party, he just wants to keep his conscience clean -- which is why he's shocked when he wakes up in bed with a beautiful girl named Becky and can't remember the night before. Desperate to keep his fiancée, Karen, from finding out what may or may not be the truth, he tells her a teensy lie. Soon his lies are spiraling out of control and his life is a series of comical misunderstandings.</t>
-  </si>
-  <si>
-    <t>Hangover 1, The</t>
-  </si>
-  <si>
     <t>2009-06-26</t>
   </si>
   <si>
     <t>Hangover1</t>
   </si>
   <si>
-    <t>When three friends finally come to after a raucous night of bachelor-party revelry, they find a baby in the closet and a tiger in the bathroom. But they can't seem to locate their best friend, Doug – who's supposed to be tying the knot. Launching a frantic search for Doug, the trio perseveres through a nasty hangover to try to make it to the church on time.</t>
-  </si>
-  <si>
     <t>Hangover 2, The</t>
   </si>
   <si>
@@ -932,9 +742,6 @@
     <t>Hangover2</t>
   </si>
   <si>
-    <t>The Hangover crew heads to Thailand for Stu's wedding. After the disaster of a bachelor party in Las Vegas last year, Stu is playing it safe with a mellow pre-wedding brunch. However, nothing goes as planned and Bangkok is the perfect setting for another adventure with the rowdy group.</t>
-  </si>
-  <si>
     <t>Hangover 3, The</t>
   </si>
   <si>
@@ -944,9 +751,6 @@
     <t>Hangover3</t>
   </si>
   <si>
-    <t>This time, there's no wedding. No bachelor party. What could go wrong, right? But when the Wolfpack hits the road, all bets are off.</t>
-  </si>
-  <si>
     <t>Happy New Year</t>
   </si>
   <si>
@@ -956,9 +760,6 @@
     <t>HappyNewYear</t>
   </si>
   <si>
-    <t>Six would-be thieves enter a prestigious dance competition as a cover for their larger goal of pulling off a major heist.</t>
-  </si>
-  <si>
     <t>Hera Pheri</t>
   </si>
   <si>
@@ -968,18 +769,12 @@
     <t>HeraPheri</t>
   </si>
   <si>
-    <t>Three unemployed men find the answer to all their money problems when they receive a call from a kidnapper. However, things do not go as planned.</t>
-  </si>
-  <si>
     <t>Hitch</t>
   </si>
   <si>
     <t>2005-03-18</t>
   </si>
   <si>
-    <t>Dating coach Alex 'Hitch' Hitchens mentors a bumbling client, Albert, who hopes to win the heart of the glamorous Allegra Cole. While Albert makes progress, Hitch faces his own romantic setbacks when proven techniques fail to work on Sara Melas, a tabloid reporter digging for dirt on Allegra Cole's love life. When Sara discovers Hitch's connection to Albert – now Allegra's boyfriend – it threatens to destroy both relationships.</t>
-  </si>
-  <si>
     <t>Holiday, The</t>
   </si>
   <si>
@@ -989,9 +784,6 @@
     <t>TheHoliday</t>
   </si>
   <si>
-    <t>Two women, one from the United States and one from the United Kingdom, swap homes at Christmas time after bad breakups with their boyfriends. Each woman finds romance with a local man but realizes that the imminent return home may end the relationship.</t>
-  </si>
-  <si>
     <t>Home Alone</t>
   </si>
   <si>
@@ -1001,9 +793,6 @@
     <t>HomeAlone</t>
   </si>
   <si>
-    <t>Eight-year-old Kevin McCallister makes the most of the situation after his family unwittingly leaves him behind when they go on Christmas vacation. But when a pair of bungling burglars set their sights on Kevin's house, the plucky kid stands ready to defend his territory. By planting booby traps galore, adorably mischievous Kevin stands his ground as his frantic mother attempts to race home before Christmas Day.</t>
-  </si>
-  <si>
     <t>Home Alone 2: Lost in New York</t>
   </si>
   <si>
@@ -1013,9 +802,6 @@
     <t>HomeAlone2</t>
   </si>
   <si>
-    <t>Instead of flying to Florida with his folks, Kevin ends up alone in New York, where he gets a hotel room with his dad's credit card—despite problems from a clerk and meddling bellboy. But when Kevin runs into his old nemeses, the Wet Bandits, he's determined to foil their plans to rob a toy store on Christmas Eve.</t>
-  </si>
-  <si>
     <t>Home Alone 3</t>
   </si>
   <si>
@@ -1025,9 +811,6 @@
     <t>HomeAlone3</t>
   </si>
   <si>
-    <t>9-year-old Alex Pruitt is home alone with the chicken pox. Turns out, due to a mix-up among nefarious spies, Alex was given a toy car concealing a top-secret microchip. Now Alex must fend off the spies as they try to break into his house to get it back.</t>
-  </si>
-  <si>
     <t>Home Alone 4</t>
   </si>
   <si>
@@ -1037,9 +820,6 @@
     <t>HomeAlone4</t>
   </si>
   <si>
-    <t>Kevin McCallister's parents have split up. Now living with his mom, he decides to spend Christmas with his dad at the mansion of his father's rich girlfriend, Natalie. Meanwhile robber Marv Merchants, one of the villains from the first two movies, partners up with a new criminal named Vera to hit Natalie's mansion</t>
-  </si>
-  <si>
     <t>Hot Chick</t>
   </si>
   <si>
@@ -1061,18 +841,12 @@
     <t>HotPursuit</t>
   </si>
   <si>
-    <t>An uptight by-the-book cop must protect the widow of a drug boss from crooked cops and gunmen.</t>
-  </si>
-  <si>
     <t>2003-01-27</t>
   </si>
   <si>
     <t>HowToLoseAGuyIn10days</t>
   </si>
   <si>
-    <t>It’s the battle of wills, as Andie (Kate Hudson) needs to prove she can dump a guy in 10 days, whereas Ben (Matthew McConaughey) needs to prove he can win a girl in 10 days. Now, the clock is ticking - and the wildly entertaining comedy smash is off and running in this irresistible tale of sex, lies and outrageous romantic fireworks!</t>
-  </si>
-  <si>
     <t>How to Train Your Dragon</t>
   </si>
   <si>
@@ -1082,18 +856,12 @@
     <t>HowToTrainYourDragon</t>
   </si>
   <si>
-    <t>As the son of a Viking leader on the cusp of manhood, shy Hiccup Horrendous Haddock III faces a rite of passage: he must kill a dragon to prove his warrior mettle. But after downing a feared dragon, he realizes that he no longer wants to destroy it, and instead befriends the beast – which he names Toothless – much to the chagrin of his warrior father.</t>
-  </si>
-  <si>
     <t>2002-05-03</t>
   </si>
   <si>
     <t>IceAge1</t>
   </si>
   <si>
-    <t>With the impending ice age almost upon them, a mismatched trio of prehistoric critters – Manny the woolly mammoth, Diego the saber-toothed tiger and Sid the giant sloth – find an orphaned infant and decide to return it to its human parents. Along the way, the unlikely allies become friends but, when enemies attack, their quest takes on far nobler aims.</t>
-  </si>
-  <si>
     <t>Independence Day</t>
   </si>
   <si>
@@ -1103,9 +871,6 @@
     <t>IndependenceDay</t>
   </si>
   <si>
-    <t>On July 2, a giant alien mothership enters orbit around Earth and deploys several dozen saucer-shaped 'destroyer' spacecraft that quickly lay waste to major cities around the planet. On July 3, the United States conducts a coordinated counterattack that fails. On July 4, a plan is devised to gain access to the interior of the alien mothership in space, in order to plant a nuclear missile.</t>
-  </si>
-  <si>
     <t>Indiana Jones Last Crusade</t>
   </si>
   <si>
@@ -1115,21 +880,12 @@
     <t>IndianaJonesLastCrusade</t>
   </si>
   <si>
-    <t>In 1938, an art collector appeals to eminent archaeologist Dr. Indiana Jones to embark on a search for the Holy Grail. Indy learns that a medieval historian has vanished while searching for it, and the missing man is his own father, Dr. Henry Jones Sr.. He sets out to rescue his father by following clues in the old man's notebook, which his father had mailed to him before he went missing. Indy arrives in Venice, where he enlists the help of a beautiful academic, Dr. Elsa Schneider, along with Marcus Brody and Sallah. Together they must stop the Nazis from recovering the power of eternal life and taking over the world!</t>
-  </si>
-  <si>
-    <t>Indiana Jones Temple Of Doom</t>
-  </si>
-  <si>
     <t>1984-05-08</t>
   </si>
   <si>
     <t>IndianaJonesTempleOfDoom</t>
   </si>
   <si>
-    <t>After arriving in India, Indiana Jones is asked by a desperate village to find a mystical stone. He agrees – and stumbles upon a secret cult plotting a terrible plan in the catacombs of an ancient palace.</t>
-  </si>
-  <si>
     <t>Inside Man</t>
   </si>
   <si>
@@ -1139,9 +895,6 @@
     <t>InsideMan</t>
   </si>
   <si>
-    <t>When an armed, masked gang enter a Manhattan bank, lock the doors and take hostages, the detective assigned to effect their release enters negotiations preoccupied with corruption charges he is facing.</t>
-  </si>
-  <si>
     <t>Intern, The</t>
   </si>
   <si>
@@ -1151,9 +904,6 @@
     <t>TheIntern</t>
   </si>
   <si>
-    <t>70-year-old widower Ben Whittaker has discovered that retirement isn't all it's cracked up to be. Seizing an opportunity to get back in the game, he becomes a senior intern at an online fashion site, founded and run by Jules Ostin.</t>
-  </si>
-  <si>
     <t>Invention of Lying, The</t>
   </si>
   <si>
@@ -1163,9 +913,6 @@
     <t>InventionOfLying</t>
   </si>
   <si>
-    <t>Set in a world where the concept of lying doesn't exist, a loser changes his lot when he invents lying and uses it to get ahead.</t>
-  </si>
-  <si>
     <t>It Happened One Night</t>
   </si>
   <si>
@@ -1175,9 +922,6 @@
     <t>ItHappenedOneNight</t>
   </si>
   <si>
-    <t>A renegade reporter and a young heiress meet on a bus heading for New York, and end up stuck with each other when the bus leaves them behind at one of the stops.</t>
-  </si>
-  <si>
     <t>Italian Job</t>
   </si>
   <si>
@@ -1187,9 +931,6 @@
     <t>ItalianJob</t>
   </si>
   <si>
-    <t>Charlie's got a 'job' to do. Having just left prison he finds one his of friends has attempted a high risk job in Torino, Italy, right under the nose of the mafia. Charlie's friend doesn't get very far, so Charlie takes over the 'job'. Using three Mini Coopers, a couple of Jaguars and a bus, he hopes to bring Torino to a standstill, steal a fortune in gold and escape in the chaos.</t>
-  </si>
-  <si>
     <t>Italian Job - 2003, The</t>
   </si>
   <si>
@@ -1199,9 +940,6 @@
     <t>ItalianJob2</t>
   </si>
   <si>
-    <t>Charlie Croker pulled off the crime of a lifetime. The one thing that he didn't plan on was being double-crossed. Along with a drop-dead gorgeous safecracker, Croker and his team take off to re-steal the loot and end up in a pulse-pounding, pedal-to-the-metal chase that careens up, down, above and below the streets of Los Angeles.</t>
-  </si>
-  <si>
     <t>Jaane Bhi Do Yaaro</t>
   </si>
   <si>
@@ -1220,9 +958,6 @@
     <t>JabWeMet</t>
   </si>
   <si>
-    <t>A depressed wealthy businessman and a spunky and care-free young woman embark on an unexpected journey that changes their lives.</t>
-  </si>
-  <si>
     <t>Jason Bourne</t>
   </si>
   <si>
@@ -1232,9 +967,6 @@
     <t>JasonBourne</t>
   </si>
   <si>
-    <t>The most dangerous former operative of the CIA is drawn out of hiding to uncover hidden truths about his past.</t>
-  </si>
-  <si>
     <t>Johnny English</t>
   </si>
   <si>
@@ -1244,9 +976,6 @@
     <t>JohnnyEnglish</t>
   </si>
   <si>
-    <t>A lowly pencil pusher working for MI7, Johnny English is suddenly promoted to super spy after Agent One is assassinated and every other agent is blown up at his funeral. When a billionaire entrepreneur sponsors the exhibition of the Crown Jewels—and the valuable gems disappear on the opening night and on English's watch—the newly-designated agent must jump into action to find the thief and recover the missing gems.</t>
-  </si>
-  <si>
     <t>Johnny English Reborn</t>
   </si>
   <si>
@@ -1256,9 +985,6 @@
     <t>JohnnyEnglishReborn</t>
   </si>
   <si>
-    <t>The most prominent heads of state in the world begin gathering for a conference that could have a major impact on global politics. When MI-7 receives word that the Chinese premier has become the target of some high-powered killers, it falls on Johnny English to save the day. Armed with the latest high-tech weaponry and gadgets that would make even James Bond jealous, the once-disgraced agent uncovers evidence of a massive conspiracy involving some of the world's most powerful organisations, and vows to redeem his tarnished reputation by stopping the killers before they can strike.</t>
-  </si>
-  <si>
     <t>Jungle Book, The</t>
   </si>
   <si>
@@ -1268,9 +994,6 @@
     <t>JungleBook</t>
   </si>
   <si>
-    <t>A man-cub named Mowgli fostered by wolves. After a threat from the tiger Shere Khan, Mowgli is forced to flee the jungle, by which he embarks on a journey of self discovery with the help of the panther, Bagheera and the free-spirited bear, Baloo.</t>
-  </si>
-  <si>
     <t>Junior</t>
   </si>
   <si>
@@ -1286,9 +1009,6 @@
     <t>KalHoNaaHo</t>
   </si>
   <si>
-    <t>An uptight MBA student falls for the charismatic new neighbor who charms her troubled family – but he has a secret that forces him to push her away.</t>
-  </si>
-  <si>
     <t>Kanna Laddu Thinna Aasaiya</t>
   </si>
   <si>
@@ -1298,9 +1018,6 @@
     <t>KannaLadduThinnaAasaiya</t>
   </si>
   <si>
-    <t>Shiva and his friends fall for Sowmya, who has just moved into their locality. They are forced into a competition to win over the girl.</t>
-  </si>
-  <si>
     <t>Kindergarten Cop</t>
   </si>
   <si>
@@ -1310,9 +1027,6 @@
     <t>KindergartenCop</t>
   </si>
   <si>
-    <t>Hard-edged cop John Kimble gets more than he bargained for when he goes undercover as a kindergarten teacher to get the goods on a brutal drug lord while at the same time protecting the man's young son. Pitted against a class of boisterous moppets whose antics try his patience and test his mettle, Kimble may have met his match … in more ways than one.</t>
-  </si>
-  <si>
     <t>Knight and Day</t>
   </si>
   <si>
@@ -1322,9 +1036,6 @@
     <t>KnightNDay</t>
   </si>
   <si>
-    <t>A fugitive couple goes on a glamorous and sometimes deadly adventure where nothing and no one – even themselves – are what they seem. Amid shifting alliances and unexpected betrayals, they race across the globe, with their survival ultimately hinging on the battle of truth vs. trust.</t>
-  </si>
-  <si>
     <t>Kuch Kuch Hota Hai</t>
   </si>
   <si>
@@ -1334,21 +1045,12 @@
     <t>KuchKuchHotaHai</t>
   </si>
   <si>
-    <t>Per her mother's last wish, an 8 year old girl sets out to reunite her father with his college best friend who was in love with him.</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda 1</t>
-  </si>
-  <si>
     <t>2008-07-11</t>
   </si>
   <si>
     <t>KungFuPanda</t>
   </si>
   <si>
-    <t>When the Valley of Peace is threatened, lazy Po the panda discovers his destiny as the "chosen one" and trains to become a kung fu hero, but transforming the unsleek slacker into a brave warrior won't be easy. It's up to Master Shifu and the Furious Five -- Tigress, Crane, Mantis, Viper and Monkey -- to give it a try.</t>
-  </si>
-  <si>
     <t>Kung Fu Panda 2</t>
   </si>
   <si>
@@ -1358,18 +1060,12 @@
     <t>KungFuPanda2</t>
   </si>
   <si>
-    <t>Po is now living his dream as The Dragon Warrior, protecting the Valley of Peace alongside his friends and fellow kung fu masters, The Furious Five - Tigress, Crane, Mantis, Viper and Monkey. But Po’s new life of awesomeness is threatened by the emergence of a formidable villain, who plans to use a secret, unstoppable weapon to conquer China and destroy kung fu. It is up to Po and The Furious Five to journey across China to face this threat and vanquish it. But how can Po stop a weapon that can stop kung fu? He must look to his past and uncover the secrets of his mysterious origins; only then will he be able to unlock the strength he needs to succeed.</t>
-  </si>
-  <si>
     <t>Lagaan</t>
   </si>
   <si>
     <t>2001-06-15</t>
   </si>
   <si>
-    <t>In 1890s India, an arrogant British commander challenges the harshly taxed residents of Champaner to a high-stakes cricket match.</t>
-  </si>
-  <si>
     <t>Liar Liar</t>
   </si>
   <si>
@@ -1379,9 +1075,6 @@
     <t>LiarLiar</t>
   </si>
   <si>
-    <t>Fletcher Reede is a fast-talking attorney and habitual liar. When his son Max blows out the candles on his fifth birthday he has just one wish - that his dad will stop lying for 24 hours. When Max's wish comes true, Fletcher discovers that his mouth has suddenly become his biggest liability.</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -1409,9 +1102,6 @@
     <t>Madagascar1</t>
   </si>
   <si>
-    <t>Alex the lion is the king of the urban jungle, the main attraction at New York's Central Park Zoo. He and his best friends—Marty the zebra, Melman the giraffe and Gloria the hippo—have spent their whole lives in blissful captivity before an admiring public and with regular meals provided for them. Not content to leave well enough alone, Marty lets his curiosity get the better of him and makes his escape—with the help of some prodigious penguins—to explore the world.</t>
-  </si>
-  <si>
     <t>Madagascar 3: Europe's Most Wanted</t>
   </si>
   <si>
@@ -1421,9 +1111,6 @@
     <t>Madagascar3</t>
   </si>
   <si>
-    <t>Animal pals Alex, Marty, Melman, and Gloria are still trying to make it back to New York's Central Park Zoo. They are forced to take a detour to Europe to find the penguins and chimps who broke the bank at a Monte Carlo casino. When French animal-control officer Capitaine Chantel DuBois picks up their scent, Alex and company are forced to hide out in a traveling circus.</t>
-  </si>
-  <si>
     <t>Madagascar: Escape 2 Africa</t>
   </si>
   <si>
@@ -1433,9 +1120,6 @@
     <t>Madagascar2</t>
   </si>
   <si>
-    <t>Alex, Marty, and other zoo animals find a way to escape from Madagascar when the penguins reassemble a wrecked airplane. The precariously repaired craft stays airborne just long enough to make it to the African continent. There the New Yorkers encounter members of their own species for the first time. Africa proves to be a wild place, but Alex and company wonder if it is better than their Central Park home.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madhumati </t>
   </si>
   <si>
@@ -1457,9 +1141,6 @@
     <t>MaidInManhattan</t>
   </si>
   <si>
-    <t>Marisa Ventura is a struggling single mom who works at a posh Manhattan hotel and dreams of a better life for her and her young son. One fateful day, hotel guest and senatorial candidate Christopher Marshall meets Marisa and mistakes her for a wealthy socialite. After an enchanting evening together, the two fall madly in love. But when Marisa's true identity is revealed, issues of class and social status threaten to separate them. Can two people from very different worlds overcome their differences and live happily ever after?</t>
-  </si>
-  <si>
     <t>Malamaal Weekly</t>
   </si>
   <si>
@@ -1469,9 +1150,6 @@
     <t>MalamaalWeekly</t>
   </si>
   <si>
-    <t>Lilaram sells lottery tickets and one customer has hit the jackpot but dies of shock upon finding out that he has won. Now, Lilaram wants all the money, and so does everyone around him.</t>
-  </si>
-  <si>
     <t>Mamma Mia!</t>
   </si>
   <si>
@@ -1481,9 +1159,6 @@
     <t>MammaMia</t>
   </si>
   <si>
-    <t>An independent, single mother who owns a small hotel on a Greek island is about to marry off the spirited young daughter she's raised alone. But, the daughter has secretly invited three of her mother's ex-lovers in the hopes of finding her biological father.</t>
-  </si>
-  <si>
     <t>Margin Call</t>
   </si>
   <si>
@@ -1493,18 +1168,12 @@
     <t>MarginCall</t>
   </si>
   <si>
-    <t>A thriller that revolves around the key people at an investment bank over a 24-hour period during the early stages of the financial crisis.</t>
-  </si>
-  <si>
     <t>Mask</t>
   </si>
   <si>
     <t>1994-07-28</t>
   </si>
   <si>
-    <t>When timid bank clerk Stanley Ipkiss discovers a magical mask containing the spirit of the Norse god Loki, his entire life changes. While wearing the mask, Ipkiss becomes a supernatural playboy exuding charm and confidence which allows him to catch the eye of local nightclub singer Tina Carlyle. Unfortunately, under the mask's influence, Ipkiss also robs a bank, which angers junior crime lord Dorian Tyrell, whose goons get blamed for the heist.</t>
-  </si>
-  <si>
     <t>Mere Baap Pehle Aap</t>
   </si>
   <si>
@@ -1514,9 +1183,6 @@
     <t>MereBaapPehleAap</t>
   </si>
   <si>
-    <t>As if running a mall is not enough, Gaurav Rane has also to bail out his widower dad, Janardhan, as well as Madhav Mathur, several times from police custody on multiple counts of eve-teasing. Romance enters his life in the attractive shape of U.S.-based Sheekha Kapoor, who also befriends both Janardhan and Madhav. Chaos results, hilarious at times, when Janardhan starts to change his appearance to</t>
-  </si>
-  <si>
     <t>Michael Madana Kama Rajan</t>
   </si>
   <si>
@@ -1526,27 +1192,18 @@
     <t>MichaelMadanaKamaRajan</t>
   </si>
   <si>
-    <t>A wicked man separates a set of quadruplets after their birth and one of them ends up with their biological father, while the other three find new homes. Things take a turn after they meet each other.</t>
-  </si>
-  <si>
     <t>Minions</t>
   </si>
   <si>
     <t>2015-07-10</t>
   </si>
   <si>
-    <t>Minions Kevin, Stuart and Bob decide to find a new master. They embark on a global trip and meet Scarlett Overkill, a female super-villain who recruits them and hatches a plan to take over the world.</t>
-  </si>
-  <si>
     <t>Mohabbatein</t>
   </si>
   <si>
     <t>2000-10-27</t>
   </si>
   <si>
-    <t>At a prestigious all-male university, three friends seek love outside of the school grounds; at the same time, a newly-hired music teacher seeks to befriend and loosen up the militantly strict headmaster.</t>
-  </si>
-  <si>
     <t>Monster's Inc</t>
   </si>
   <si>
@@ -1556,18 +1213,12 @@
     <t>MonstersInc</t>
   </si>
   <si>
-    <t>James Sullivan and Mike Wazowski are monsters, they earn their living scaring children and are the best in the business... even though they're more afraid of the children than they are of them. When a child accidentally enters their world, James and Mike suddenly find that kids are not to be afraid of and they uncover a conspiracy that could threaten all children across the world.</t>
-  </si>
-  <si>
     <t>MonsterUniversity</t>
   </si>
   <si>
     <t>2013-06-21</t>
   </si>
   <si>
-    <t>A look at the relationship between Mike and Sulley during their days at Monsters University — when they weren't necessarily the best of friends.</t>
-  </si>
-  <si>
     <t>Monte Carlo</t>
   </si>
   <si>
@@ -1577,9 +1228,6 @@
     <t>MonteCarlo</t>
   </si>
   <si>
-    <t>Three young women vacationing in Paris find themselves whisked away to Monte Carlo after one of the girls is mistaken for a British heiress.</t>
-  </si>
-  <si>
     <t>Mumbai Express</t>
   </si>
   <si>
@@ -1589,9 +1237,6 @@
     <t>MumbaiExpress</t>
   </si>
   <si>
-    <t>Three amateur thieves plot to kidnap the son of wealthy Mehta (Saurabh Shukla) from school. They do a trial run. However, on the eve of the kidnap, the guy whose job is to operate a crane in this plan is hospitalized. The services of Avinash a.k.a. Mumbai Xpress (Kamal Haasan), a deaf stunt man performing daredevil bike acts is roped in. Twists and turns take place where the other two gang members are hurt and invariably Mumbai Xpress is left to perform all the tasks by himself. He kidnaps the wrong boy, Daddu (Hardhik), the illegitimate son of Ahalya (Manisha Koirala) and police officer Rao (Om Puri), but manages to get a huge ransom from Mehta by default. A brawl takes place between the original kidnap planners - Digambar (Vijay Raaz), Johnson (Dinesh Lamba) and Avinash - in handling Ahalya's child but Avinash delivers the child unhurt to his mother. He secretly listen to Ahalya's tele-con with Rao where Rao wants to settle both the ransom and sever his ties with her. Ahalya pleads and coaxes him to help her get the ransom which Rao is willing to pay. The child takes a fancy to Avinash and wants him to be the man in their life, and gets him to agree. Ahalaya wants either Rao's or Mehta's money which Avinash is holding, whereas Avinash is in love and wants to be that protective person. Rao appoints Mehta to handle the ransom and what follows is a series of humorous mix-ups. In the end, all settle their differences and become the board of directors of Avinash's Mumbai Express, a mega bar owned by Avinash and Ahalya, now married, to a happy ending.</t>
-  </si>
-  <si>
     <t>Mungaru Male</t>
   </si>
   <si>
@@ -1601,9 +1246,6 @@
     <t>MungaruMale</t>
   </si>
   <si>
-    <t>Preetham loves Nandhini but gets heartbroken when he comes to know that her marriage is already fixed. Things change when she challenges him to win her heart.</t>
-  </si>
-  <si>
     <t>Murder on the Orient Express</t>
   </si>
   <si>
@@ -1622,9 +1264,6 @@
     <t>1990-11-30</t>
   </si>
   <si>
-    <t>Nadigan (English: Actor) is a 1990 Tamil film directed by P Vasu. The film stars Sathyaraj in the lead role pairing with Kushboo Sundar.[2] The film released with largely positive reviews and was declared a blockbuster. The film was a remake of Hindi film Professor</t>
-  </si>
-  <si>
     <t>Notting Hill</t>
   </si>
   <si>
@@ -1634,18 +1273,12 @@
     <t>NottingHill</t>
   </si>
   <si>
-    <t>William Thacker is a London bookstore owner whose humdrum existence is thrown into romantic turmoil when famous American actress Anna Scott appears in his shop. A chance encounter over spilled orange juice leads to a kiss that blossoms into a full-blown affair. As the average bloke and glamorous movie star draw closer and closer together, they struggle to reconcile their radically different lifestyles in the name of love.</t>
-  </si>
-  <si>
     <t>Octopussy</t>
   </si>
   <si>
     <t>1983-06-06</t>
   </si>
   <si>
-    <t>James Bond is sent to investigate after a fellow “00” agent is found dead with a priceless Indian Fabergé egg. Bond follows the mystery and uncovers a smuggling scandal and a Russian General who wants to provoke a new World War.</t>
-  </si>
-  <si>
     <t>Om Shanti Om</t>
   </si>
   <si>
@@ -1655,18 +1288,12 @@
     <t>OmShantiOm</t>
   </si>
   <si>
-    <t>Reincarnated 30 years after being killed in a suspicious on-set fire, a small-time actor is determined to punish the person who ignited the blaze.</t>
-  </si>
-  <si>
     <t>Padington</t>
   </si>
   <si>
     <t>2014-11-23</t>
   </si>
   <si>
-    <t>A young Peruvian bear travels to London in search of a new home. Finding himself lost and alone at Paddington Station, he meets the kindly Brown family.</t>
-  </si>
-  <si>
     <t>Pammal K. Sambandam</t>
   </si>
   <si>
@@ -1685,18 +1312,12 @@
     <t>2002-06-28</t>
   </si>
   <si>
-    <t>Ram's friends hire Maggie, a call girl, to help him get over his wife, who mistakenly believes him to be a philanderer. However, they get in trouble when Maggie ends up dead.</t>
-  </si>
-  <si>
     <t>Pardes</t>
   </si>
   <si>
     <t>1997-08-08</t>
   </si>
   <si>
-    <t>Kishorilal wants an Indian bride for his westernised son. He gets him engaged to Ganga, his friend's daughter, and brings her to USA. But she shares a deeper bond with Arjun, Kishorilal's foster son.</t>
-  </si>
-  <si>
     <t>Parent Trap, The</t>
   </si>
   <si>
@@ -1706,9 +1327,6 @@
     <t>ParentTrap</t>
   </si>
   <si>
-    <t>Hallie Parker and Annie James are identical twins separated at a young age because of their parents' divorce. Unknowingly to their parents, the girls are sent to the same summer camp where they meet, discover the truth about themselves, and then plot with each other to switch places.</t>
-  </si>
-  <si>
     <t>Penguins of Madagascar</t>
   </si>
   <si>
@@ -1718,9 +1336,6 @@
     <t>PenguinsofMadagascar</t>
   </si>
   <si>
-    <t>Skipper, Kowalski, Rico and Private join forces with undercover organization The North Wind to stop the villainous Dr. Octavius Brine from destroying the world as we know it.</t>
-  </si>
-  <si>
     <t>Phir Hera Pheri</t>
   </si>
   <si>
@@ -1730,9 +1345,6 @@
     <t>PhirHeraPheri</t>
   </si>
   <si>
-    <t>Babu Rao, Raju and Shyam, are living happily after having risen from rags to riches. Still, money brings the joy of riches and with it the greed to make more money - and so, with a don as an unknowing investor, Raju initiates a new game.</t>
-  </si>
-  <si>
     <t>Pink Panther 2, The</t>
   </si>
   <si>
@@ -1742,9 +1354,6 @@
     <t>PinkPanther2</t>
   </si>
   <si>
-    <t>When legendary treasures from around the world are stolen, including the priceless Pink Panther Diamond, Chief Inspector Dreyfus is forced to assign Inspector Clouseau to a team of international detectives and experts charged with catching the thief and retrieving the stolen artifacts.</t>
-  </si>
-  <si>
     <t>Pink Panther, The</t>
   </si>
   <si>
@@ -1754,9 +1363,6 @@
     <t>PinkPanther1</t>
   </si>
   <si>
-    <t>When the coach of the France soccer team is killed by a poisoned dart in the stadium in the end of a game, and his expensive and huge ring with the diamond Pink Panther disappears, the ambitious Chief Inspector Dreyfus assigns the worst police inspector Jacques Clouseau to the case.</t>
-  </si>
-  <si>
     <t>Pretty Woman</t>
   </si>
   <si>
@@ -1766,9 +1372,6 @@
     <t>PrettyWoman</t>
   </si>
   <si>
-    <t>When a millionaire wheeler-dealer enters a business contract with a Hollywood hooker Vivian Ward, he loses his heart in the bargain.</t>
-  </si>
-  <si>
     <t>Rab Ne Bana Di Jodi</t>
   </si>
   <si>
@@ -1784,9 +1387,6 @@
     <t>2007-06-29</t>
   </si>
   <si>
-    <t>Remy, a resident of Paris, appreciates good food and has quite a sophisticated palate. He would love to become a chef so he can create and enjoy culinary masterpieces to his heart's delight. The only problem is, Remy is a rat. When he winds up in the sewer beneath one of Paris' finest restaurants, the rodent gourmet finds himself ideally placed to realize his dream.</t>
-  </si>
-  <si>
     <t>Return of the Pink Panther, The</t>
   </si>
   <si>
@@ -1796,18 +1396,12 @@
     <t>ReturnOfThePinkPanther</t>
   </si>
   <si>
-    <t>The famous Pink Panther jewel has once again been stolen and Inspector Clouseau is called in to catch the thief. The Inspector is convinced that 'The Phantom' has returned and utilises all of his resources – himself and his Asian manservant – to reveal the identity of 'The Phantom'.</t>
-  </si>
-  <si>
     <t>Rio</t>
   </si>
   <si>
     <t>2011-04-15</t>
   </si>
   <si>
-    <t>Captured by smugglers when he was just a hatchling, a macaw named Blu (Lorànt Deutsch) never learned to fly but has a happy domesticated life in Minnesota with Linda (Élisabeth Ventura), who thinks he is the last of his breed.</t>
-  </si>
-  <si>
     <t>Roman Holiday</t>
   </si>
   <si>
@@ -1817,9 +1411,6 @@
     <t>RomanHoliday</t>
   </si>
   <si>
-    <t>Overwhelmed by her suffocating schedule, touring European princess Ann takes off for a night while in Rome. When a sedative she took from her doctor kicks in, however, she falls asleep on a park bench and is found by an American reporter, Joe Bradley, who takes her back to his apartment for safety. At work the next morning, Joe finds out Ann's regal identity and bets his editor he can get exclusive interview with her, but romance soon gets in the way.</t>
-  </si>
-  <si>
     <t>Romancing The Stone</t>
   </si>
   <si>
@@ -1829,9 +1420,6 @@
     <t>RomancingTheStone</t>
   </si>
   <si>
-    <t>Though she can spin wild tales of passionate romance, novelist Joan Wilder has no life of her own. Then one day adventure comes her way in the form of a mysterious package. It turns out that the parcel is the ransom she'll need to free her abducted sister, so Joan flies to South America to hand it over. But she gets on the wrong bus and winds up hopelessly stranded in the jungle.</t>
-  </si>
-  <si>
     <t>Royal Matchmaker</t>
   </si>
   <si>
@@ -1841,18 +1429,12 @@
     <t>RoyalMatchmaker</t>
   </si>
   <si>
-    <t>A struggling NYC matchmaker is hired by a king to find his son a suitable wife in time for a national celebration. As the clock ticks towards her deadline, the matchmaker finds him the perfect wife -- only to realize that she’s fallen in love with him!</t>
-  </si>
-  <si>
     <t>Sholay</t>
   </si>
   <si>
     <t>1975-08-15</t>
   </si>
   <si>
-    <t>After his family is murdered by a notorious and ruthless bandit, a former police officer enlists the services of two outlaws to capture the bandit.</t>
-  </si>
-  <si>
     <t>Shot in the Dark, A</t>
   </si>
   <si>
@@ -1862,9 +1444,6 @@
     <t>ShotInTheDarkA</t>
   </si>
   <si>
-    <t>Inspector Jacques Clouseau investigates the murder of Mr. Benjamin Ballon's driver at a country estate.</t>
-  </si>
-  <si>
     <t>Sister Act</t>
   </si>
   <si>
@@ -1874,9 +1453,6 @@
     <t>SisterAct</t>
   </si>
   <si>
-    <t>A Reno singer witnesses a mob murder and the cops stash her in a nunnery to protect her from the mob's hitmen. The mother superior does not trust her, and takes steps to limit her influence on the other nuns. Eventually the singer rescues the failing choir and begins helping with community projects, which gets her an interview on TV—and identification by the mob.</t>
-  </si>
-  <si>
     <t>Six Days Seven Nights</t>
   </si>
   <si>
@@ -1886,9 +1462,6 @@
     <t>SixDaysSevenNights</t>
   </si>
   <si>
-    <t>When Quinn, a grouchy pilot living the good life in the South Pacific, agrees to transfer a savvy fashion editor, Robin, to Tahiti, he ends up stranded on a deserted island with her after their plane crashes. The pair avoid each other at first, until they're forced to team up to escape from the island -- and some pirates who want their heads.</t>
-  </si>
-  <si>
     <t>Sound of Music, The</t>
   </si>
   <si>
@@ -1898,18 +1471,12 @@
     <t>SoundOfMusic</t>
   </si>
   <si>
-    <t>In the years before the Second World War, a tomboyish postulant at an Austrian abbey is hired as a governess in the home of a widowed naval captain with seven children, and brings a new love of life and music into the home.</t>
-  </si>
-  <si>
     <t>Spider-Man 1</t>
   </si>
   <si>
     <t>Spiderman1</t>
   </si>
   <si>
-    <t>After being bitten by a genetically altered spider at Oscorp, nerdy but endearing high school student Peter Parker is endowed with amazing powers to become the superhero known as Spider-Man.</t>
-  </si>
-  <si>
     <t>Spider-Man 2</t>
   </si>
   <si>
@@ -1919,9 +1486,6 @@
     <t>Spiderman2</t>
   </si>
   <si>
-    <t>Peter Parker is going through a major identity crisis. Burned out from being Spider-Man, he decides to shelve his superhero alter ego, which leaves the city suffering in the wake of carnage left by the evil Doc Ock. In the meantime, Parker still can't act on his feelings for Mary Jane Watson, a girl he's loved since childhood. A certain anger begins to brew in his best friend Harry Osborn as well...</t>
-  </si>
-  <si>
     <t>Sudden Death</t>
   </si>
   <si>
@@ -1931,51 +1495,30 @@
     <t>SuddenDeath</t>
   </si>
   <si>
-    <t>When a man's daughter is suddenly taken during a championship hockey game – with the captors demanding a billion dollars by game's end – he frantically sets a plan in motion to rescue her and abort an impending explosion before the final buzzer.</t>
-  </si>
-  <si>
     <t>Swades</t>
   </si>
   <si>
     <t>2004-12-17</t>
   </si>
   <si>
-    <t>A successful Indian scientist returns to an Indian village to take his nanny to America with him and in the process rediscovers his roots.</t>
-  </si>
-  <si>
-    <t>Terminator 1, The</t>
-  </si>
-  <si>
     <t>1984-10-26</t>
   </si>
   <si>
-    <t>In the post-apocalyptic future, reigning tyrannical supercomputers teleport a cyborg assassin known as the "Terminator" back to 1984 to kill Sarah Connor, whose unborn son is destined to lead insurgents against 21st century mechanical hegemony. Meanwhile, the human-resistance movement dispatches a lone warrior to safeguard Sarah. Can he stop the virtually indestructible killing machine?</t>
-  </si>
-  <si>
     <t>Terminator 2: Judgment Day</t>
   </si>
   <si>
     <t>1991-08-24</t>
   </si>
   <si>
-    <t>Nearly 10 years have passed since Sarah Connor was targeted for termination by a cyborg from the future. Now her son, John, the future leader of the resistance, is the target for a newer, more deadly terminator. Once again, the resistance has managed to send a protector back to attempt to save John and his mother Sarah.</t>
-  </si>
-  <si>
     <t>Terminator 3: Rise of the Machines</t>
   </si>
   <si>
     <t>2003-07-25</t>
   </si>
   <si>
-    <t>It's been 10 years since John Connor saved Earth from Judgment Day, and he's now living under the radar, steering clear of using anything Skynet can trace. That is, until he encounters T-X, a robotic assassin ordered to finish what T-1000 started. Good thing Connor's former nemesis, the Terminator, is back to aid the now-adult Connor … just like he promised.</t>
-  </si>
-  <si>
     <t>Thenali</t>
   </si>
   <si>
-    <t>Thenali suffers from panophobia and seeks doctor Kailash's help but the latter denies his request. Later, when Kailash goes on a vacation with his family, Thenali joins them and charms his sister.</t>
-  </si>
-  <si>
     <t>Thillu Mullu</t>
   </si>
   <si>
@@ -1985,9 +1528,6 @@
     <t>ThilluMullu</t>
   </si>
   <si>
-    <t>Chandran lies to his boss that his mother is unwell to get a leave but gets caught. In order to save his job, he is forced to pretend to his boss that he has a good-for-nothing twin brother.</t>
-  </si>
-  <si>
     <t>Three To Tango</t>
   </si>
   <si>
@@ -1997,9 +1537,6 @@
     <t>ThreeToTango</t>
   </si>
   <si>
-    <t>Oscar and Peter land a career-making opportunity when a Chicago tycoon chooses them to compete for the design of a cultural center. The tycoon mistakenly believes that Oscar is gay and has him spy on his mistress Amy. Oscar goes along with it and ends up falling in love with Amy.</t>
-  </si>
-  <si>
     <t>To Sir With Love</t>
   </si>
   <si>
@@ -2009,15 +1546,9 @@
     <t>ToSirWithLove</t>
   </si>
   <si>
-    <t>A British Guianese engineer starts a job as a high school teacher in London’s East End, where his uninterested and delinquent pupils are in desperate need of attention and care.</t>
-  </si>
-  <si>
     <t>2021-02-26</t>
   </si>
   <si>
-    <t>Tom the cat and Jerry the mouse get kicked out of their home and relocate to a fancy New York hotel, where a scrappy employee named Kayla will lose her job if she can’t evict Jerry before a high-class wedding at the hotel. Her solution? Hiring Tom to get rid of the pesky mouse.</t>
-  </si>
-  <si>
     <t>Tomorrow Never Dies</t>
   </si>
   <si>
@@ -2027,9 +1558,6 @@
     <t>TomorrowNeverDies</t>
   </si>
   <si>
-    <t>A deranged media mogul is staging international incidents to pit the world's superpowers against each other. Now James Bond must take on this evil mastermind in an adrenaline-charged battle to end his reign of terror and prevent global pandemonium.</t>
-  </si>
-  <si>
     <t>Tourist, The</t>
   </si>
   <si>
@@ -2048,9 +1576,6 @@
     <t>TowerHeist</t>
   </si>
   <si>
-    <t>A luxury condo manager leads a staff of workers to seek payback on the Wall Street swindler who defrauded them. With only days until the billionaire gets away with the perfect crime, the unlikely crew of amateur thieves enlists the help of petty crook Slide to steal the $20 million they’re sure is hidden in the penthouse.</t>
-  </si>
-  <si>
     <t>Trading Places</t>
   </si>
   <si>
@@ -2060,9 +1585,6 @@
     <t>TradingPlaces</t>
   </si>
   <si>
-    <t>A snobbish investor and a wily street con-artist find their positions reversed as part of a bet by two callous millionaires.</t>
-  </si>
-  <si>
     <t>Truman Show, The</t>
   </si>
   <si>
@@ -2072,9 +1594,6 @@
     <t>TrumanShow</t>
   </si>
   <si>
-    <t>Truman Burbank is the star of The Truman Show, a 24-hour-a-day reality TV show that broadcasts every aspect of his life without his knowledge. His entire life has been an unending soap opera for consumption by the rest of the world. And everyone he knows, including his wife and his best friend is really an actor, paid to be part of his life.</t>
-  </si>
-  <si>
     <t>Unnaipol Oruvan</t>
   </si>
   <si>
@@ -2090,12 +1609,6 @@
     <t>Up</t>
   </si>
   <si>
-    <t>1998-11-06</t>
-  </si>
-  <si>
-    <t>Carl Fredricksen spent his entire life dreaming of exploring the globe and experiencing life to its fullest. But at age 78, life seems to have passed him by, until a twist of fate (and a persistent 8-year old Wilderness Explorer named Russell) gives him a new lease on life.</t>
-  </si>
-  <si>
     <t>Waterboy, The</t>
   </si>
   <si>
@@ -2105,9 +1618,6 @@
     <t>Waterboy</t>
   </si>
   <si>
-    <t>Bobby Boucher is a water boy for a struggling college football team. The coach discovers Boucher's hidden rage makes him a tackling machine whose bone-crushing power might vault his team into the playoffs.</t>
-  </si>
-  <si>
     <t>Wednesday, A</t>
   </si>
   <si>
@@ -2117,18 +1627,12 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>A retired police commissioner recounts the most memorable case of his career, wherein he was informed about a bomb scare in Mumbai.</t>
-  </si>
-  <si>
     <t>Welcome</t>
   </si>
   <si>
     <t>2013-08-30</t>
   </si>
   <si>
-    <t>Dubai-based criminal don Uday takes it upon himself to try and get his sister Sanjana married - in vain, as no one wants to be associated with a crime family. Uday's associate Sagar Pandey finds a young man, Rajiv, who lives with his maternal uncle and aunt - Dr. and Mrs. Ghunghroo. Through extortion he compels Ghunghroo to accept this matrimonial alliance. But Rajiv has already fallen in love with young woman in South Africa. When the time comes to get Rajiv formally engaged to this woman, he finds out that Sanjana and she are the very same. With no escape from this predicament, the wedding is planned, with hilarious consequences.</t>
-  </si>
-  <si>
     <t>We're the Millers</t>
   </si>
   <si>
@@ -2138,9 +1642,6 @@
     <t>WereTheMillers</t>
   </si>
   <si>
-    <t>A veteran pot dealer creates a fake family as part of his plan to move a huge shipment of weed into the U.S. from Mexico.</t>
-  </si>
-  <si>
     <t>What Women Want</t>
   </si>
   <si>
@@ -2150,9 +1651,6 @@
     <t>WhatWomenWant</t>
   </si>
   <si>
-    <t>Advertising executive Nick Marshall is as cocky as they come, but what happens to a chauvinistic guy when he can suddenly hear what women are thinking? Nick gets passed over for a promotion, but after an accident enables him to hear women's thoughts, he puts his newfound talent to work against Darcy, his new boss, who seems to be infatuated with him.</t>
-  </si>
-  <si>
     <t>White Chicks</t>
   </si>
   <si>
@@ -2162,42 +1660,27 @@
     <t>WhiteChicks</t>
   </si>
   <si>
-    <t>Two FBI agent brothers, Marcus and Kevin Copeland, accidentally foil a drug bust. To avoid being fired they accept a mission escorting a pair of socialites to the Hamptons--but when the girls are disfigured in a car accident, they refuse to go. Left without options, Marcus and Kevin decide to pose as the sisters, transforming themselves from black men into rich white women.</t>
-  </si>
-  <si>
     <t>World Is Not Enough, The</t>
   </si>
   <si>
     <t>WorldIsNotEnough</t>
   </si>
   <si>
-    <t>Greed, revenge, world dominance and high-tech terrorism – it's all in a day's work for Bond, who's on a mission to protect a beautiful oil heiress from a notorious terrorist. In a race against time that culminates in a dramatic submarine showdown, Bond works to defuse the international power struggle that has the world's oil supply hanging in the balance.</t>
-  </si>
-  <si>
     <t>You've Got Mail</t>
   </si>
   <si>
     <t>YouveGotMail</t>
   </si>
   <si>
-    <t>Book superstore magnate, Joe Fox and independent book shop owner, Kathleen Kelly fall in love in the anonymity of the Internet—both blissfully unaware that he's trying to put her out of business.</t>
-  </si>
-  <si>
     <t>Zootopia</t>
   </si>
   <si>
-    <t>Determined to prove herself, Officer Judy Hopps, the first bunny on Zootopia's police force, jumps at the chance to crack her first case - even if it means partnering with scam-artist fox Nick Wilde to solve the mystery.</t>
-  </si>
-  <si>
     <t>Despicable Me 3</t>
   </si>
   <si>
     <t>BW</t>
   </si>
   <si>
-    <t>Gru meets his long-lost twin brother Dru, after getting fired from the Anti-Villain League. However, the siblings find themselves at loggerheads with a child actor-turned-villain.</t>
-  </si>
-  <si>
     <t>Despicable Me</t>
   </si>
   <si>
@@ -2231,9 +1714,6 @@
     <t>DespicableMe3</t>
   </si>
   <si>
-    <t>The mastermind (David Niven) of Britain's great train robbery plans to rob a French train of NATO money bound for Brussels.</t>
-  </si>
-  <si>
     <t>The Brain</t>
   </si>
   <si>
@@ -2243,24 +1723,15 @@
     <t>Chalti Ka Naam Gaadi</t>
   </si>
   <si>
-    <t>Brijmohan believes that his love, Kamini, left him for another man and resents women. When his two brothers, who had planned for lifelong bachelorhood, fall in love, they fear his wrath.</t>
-  </si>
-  <si>
     <t>ChaltiKaNaamGaadi</t>
   </si>
   <si>
     <t>Padosan</t>
   </si>
   <si>
-    <t>Bhola falls in love with his neighbour Bindu, a fashionable college girl. In order to woo her, he seeks help from his musical friend but loses all hope when she shows interest in someone else.</t>
-  </si>
-  <si>
     <t>Asterix - Mansion of the Gods</t>
   </si>
   <si>
-    <t>Race car driver Jim Douglas (Dean Jones) and his philosophical mechanic, Tennessee Steinmetz (Buddy Hackett), find themselves in possession of a white Volkswagen Beetle that seems to have a mind and spirit of its own. Calling the car Herbie, Jim and Tennessee become the talk of the California racing circuit -- much to the displeasure of sports-car dealer Peter Thorndyke (David Tomlinson), who tries to use his assistant (Michele Lee) to come between the friends and their car.</t>
-  </si>
-  <si>
     <t>TomJerry</t>
   </si>
   <si>
@@ -2270,22 +1741,9 @@
     <t>JustLikeHeaven</t>
   </si>
   <si>
-    <t>Elizabeth Masterson, an emergency room physician in San Francisco whose work is everything, is in a car crash while on her way to a blind date at her sister's. Three months later, landscape architect David Abbott, needing a fresh start after his wife's death, takes a sublet on Elizabeth's apartment.
-&lt;br&gt; &lt;br&gt;Elizabeth begins to appear in the apartment, and both are confused. She thinks he is a squatter, and he thinks she broke in. They soon realize she moves through walls and objects. Elizabeth does not know who she is, and insists she is not dead. David unsuccessfully tries to have her spirit exorcised. As only David can see and hear her, others think he is hallucinating and talking to himself. Elizabeth asks him to help her discover who she really is.</t>
-  </si>
-  <si>
-    <t>A lonely 40-ish man, likely to remain a bachelor, has a chance to find the love of his life when he falls for a vivacious young woman. Have you ever stopped to think if the most ordinary, uninteresting, unobtrusive man you might see on the road or around you might have a love story to tell? Maybe not. How can an ordinary man have a breathtaking, goose flesh igniting, awe inspiring love story of all things to tell? &lt;br&gt;This is what happened to Surinder Sahni (Shahrukh Khan) - a simple, clean hearted, honest man, leading a humdrum life, when he meets his total opposite and finds love in the flamboyant, fun-loving, vivacious - Taani (Anushka Sharma) for whom the whole world is her canvas and she paints her own life with the colours of rainbow all until unforeseen circumstances changes it all and brings them together. What follows is a journey filled with laughter, tears, joy, pain, music, dance and a lot of love. A journey that makes us believe that there is an extraordinary love story in every ordinary jodi (couple).</t>
-  </si>
-  <si>
-    <t>When their kingdom becomes trapped in perpetual winter, fearless Anna (Kristen Bell) joins forces with mountaineer Kristoff (Jonathan Groff) and his reindeer sidekick to find Anna's sister, Snow Queen Elsa (Idina Menzel), and break her icy spell. Although their epic journey leads them to encounters with mystical trolls, a comedic snowman (Josh Gad), harsh conditions, and magic at every turn, Anna and Kristoff bravely push onward in a race to save their kingdom from winter's cold grip.</t>
-  </si>
-  <si>
     <t>A research scientist becomes the world's first pregnant man in order to test a drug he and a colleague have designed for expectant women. To carry out the trial, he has an embryo implant, believing that he will only carry the baby for three months - hardly expecting to face the prospect of giving birth.</t>
   </si>
   <si>
-    <t>Two photographers, who are employed by a newspaper editor to expose the scandalous activities of the rich, come across corruption by a builder and accidentally photograph a murder.</t>
-  </si>
-  <si>
     <t>Cast</t>
   </si>
   <si>
@@ -2562,9 +2020,6 @@
     <t>Deepika Padukone, Shah Rukh Khan, Abhishek Bachchan, Sonu Sood, Boman Irani, Vivaan Shah, Jackie Shroff</t>
   </si>
   <si>
-    <t>After his wealthy family prohibits him from marrying the woman he is in love with, Devdas's life spirals downward as he takes up alcohol and a life of vice to alleviate the pain.</t>
-  </si>
-  <si>
     <t>Shah Rukh Khan, Aishwarya Rai, Madhuri Dixit</t>
   </si>
   <si>
@@ -2625,9 +2080,6 @@
     <t>1995-09-08</t>
   </si>
   <si>
-    <t>Mili's ambition of becoming a famous actor is met with several hurdles when Raj Kamal, a noted actor, and Munna, her childhood friend, both fall in love with her.</t>
-  </si>
-  <si>
     <t>Qayamat Se Qayamat Tak</t>
   </si>
   <si>
@@ -2637,9 +2089,6 @@
     <t>QSQT</t>
   </si>
   <si>
-    <t>Despite knowing that their respective families are bitter enemies, Raj and Rashmi fall in love with each other and decide to elope.</t>
-  </si>
-  <si>
     <t>Aamir Khan, Juhi Chawla, Goga Kapoor</t>
   </si>
   <si>
@@ -2652,12 +2101,6 @@
     <t>Prashanth, Aishwarya Rai</t>
   </si>
   <si>
-    <t>When Visu meets Madhumitha (Aishwarya Rai), they quickly fall in love and plan to marry. But the sweethearts hit a snag in their impending nuptials when Visu's father, Rajamani (Nasser), objects: Visu has a twin brother, Ramu, and the old man is set on both boys marrying twins. A solution is easily arrived at when Visu introduces his brother to his bride's twin sister -- who is actually Madhumitha in disguise. Mayhem ensues when Ramu unwittingly falls in love with his future sister-in-law.</t>
-  </si>
-  <si>
-    <t>Kamali loses her bag in the railway station. Later, her bag is sent to her home, along with a letter from Surya, who found it. Kamali and Surya send letters to each other and soon fall in love.</t>
-  </si>
-  <si>
     <t>Kadhal Kottai</t>
   </si>
   <si>
@@ -2667,9 +2110,6 @@
     <t>KadhalKottai</t>
   </si>
   <si>
-    <t>Bhushan, a tax inspector, wins a ticket to a cruise-liner. Relaxing there, he meets Ajit, a businessman who is evading an IT raid. They end up on an isolated island that leads to comical situations.</t>
-  </si>
-  <si>
     <t>Bheja Fry 2</t>
   </si>
   <si>
@@ -2685,9 +2125,6 @@
     <t>Ajith Kumar, Devayani, Heera Rasakopal, Karan, Thalaivasal Vijay, Manivannan</t>
   </si>
   <si>
-    <t>Laxmikant Kabadiya and his twin sister, Prerna, have made it to the top from the very bottom, and now -- as they are about to land their greatest windfall of all -- an untimely and messy family death spoils their plans.</t>
-  </si>
-  <si>
     <t>Addicted to Love</t>
   </si>
   <si>
@@ -2707,76 +2144,6 @@
   </si>
   <si>
     <t>Bob Odenkirk, Connie Nielsen, Michael Ironside, Christopher Lloyd</t>
-  </si>
-  <si>
-    <t>Hutch Mansell, a seemingly mild-mannered family man and nobody, who becomes targeted by a group of dangerous criminals after an incident involving his family.&lt;br&gt;&lt;br&gt;
-Hutch's initial reluctance to defend himself and his family slowly gives way to a relentless pursuit of vengeance as he taps into his hidden skills and violent past. The movie unfolds with intense action sequences as Hutch faces off against ruthless adversaries, revealing his deadly capabilities and determination to protect his loved ones at any cost.&lt;br&gt;&lt;br&gt;
-The film explores themes of identity, redemption, and the consequences of underestimating someone who appears ordinary.&lt;br&gt;&lt;br&gt;
-"Nobody" received positive reviews for its action choreography, Odenkirk's performance, and its darkly humorous take on the genre.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It stars Angelina Jolie as Elise Clifton-Ward, a mysterious and elegant British woman who crosses paths with an American math teacher, Frank Tupelo, played by Johnny Depp, while traveling to Venice, Italy.&lt;br /&gt;&lt;br /&gt;
-The story begins when Elise, under surveillance by Scotland Yard and other law enforcement agencies, receives instructions to find a man of similar build to her lover, Alexander Pearce, in order to mislead those pursuing him. Frank, an unsuspecting tourist, becomes entangled in this web of intrigue when Elise deliberately chooses him as her decoy. What follows is a series of twists and turns as Frank finds himself caught up in a dangerous game of deception and betrayal.&lt;br /&gt;&lt;br /&gt;
-As Frank and Elise navigate the beautiful and perilous streets of Venice, their relationship evolves amidst the backdrop of international espionage and suspense. The film blends elements of romance, suspense, and mystery as the characters' true motives and allegiances are gradually revealed.&lt;br /&gt;&lt;br /&gt;
-</t>
-  </si>
-  <si>
-    <t>The film is renowned for its powerful portrayal of jury deliberations and the dynamics among jurors in a murder trial.&lt;br&gt;&lt;br&gt;
-The story unfolds primarily in a single room where twelve jurors deliberate the guilt or innocence of a young man accused of murdering his father. Initially, all but one juror are ready to deliver a quick guilty verdict, but Juror #8 (played by Henry Fonda) stands alone in his belief in the defendant's innocence. His insistence on examining the evidence and discussing the case thoroughly leads to intense and often heated debates among the jurors.&lt;br&gt;&lt;br&gt;
-As the deliberations progress, the jurors' personal biases, backgrounds, and prejudices gradually come to light, influencing their opinions and decisions. The film delves deep into themes of justice, reasonable doubt, empathy, and the responsibility of individuals in the legal system.&lt;br&gt;&lt;br&gt;
-"12 Angry Men" is celebrated for its powerful performances, especially Henry Fonda's portrayal of Juror #8, who serves as the voice of reason and conscience in the room. The ensemble cast, which includes Lee J. Cobb, Ed Begley, E.G. Marshall, and Jack Klugman among others, delivers memorable performances that bring to life the tensions and complexities of the jury deliberation process.&lt;br&gt;&lt;br&gt;
-The film is notable for its minimalist setting and tight focus on character development and dialogue, creating a tense and gripping atmosphere throughout. "12 Angry Men" has since become a classic of American cinema, acclaimed for its insightful exploration of human nature and the principles of justice.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The film revolves around Jenna Rink, a 13-year-old girl who makes a wish on her birthday to be 30 and suddenly wakes up the next day as a 30-year-old woman.&lt;br&gt;&lt;br&gt;
-The story begins in 1987 when Jenna, feeling awkward and unpopular at her 13th birthday party, wishes to be "30, flirty, and thriving." Miraculously, her wish comes true, and she finds herself in 2004, living in a glamorous Manhattan apartment as a successful magazine editor. However, Jenna soon realizes that her adult life is not as perfect as she imagined. She reconnects with her childhood friend Matty (played by Mark Ruffalo), who is now a photographer, and discovers that their friendship has changed over the years.&lt;br&gt;&lt;br&gt;
-As Jenna navigates her newfound adulthood, she grapples with the consequences of the choices she made and learns valuable lessons about friendship, love, and self-acceptance. The film blends humor, nostalgia, and romance as Jenna tries to reconcile her 13-year-old self with her adult persona.&lt;br&gt;&lt;br&gt;
-"13 Going on 30" received positive reviews for Jennifer Garner's charming performance and its nostalgic appeal, especially for those who grew up in the 1980s. The film's lighthearted tone and heartfelt moments have made it a beloved entry in the romantic comedy genre, appealing to audiences of all ages with its themes of second chances and the importance of staying true to oneself.&lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The film is set in a near-future world where cloning technology has advanced to the point where human cloning is possible but strictly illegal.&lt;br&gt;&lt;br&gt;
-The story follows Adam Gibson (played by Schwarzenegger), a helicopter pilot who discovers that he has been illegally cloned after a botched mission. As he tries to uncover the truth behind his cloning and the conspiracy surrounding it, Gibson becomes embroiled in a dangerous web of corporate intrigue and ethical dilemmas.&lt;br&gt;&lt;br&gt;
-In this futuristic society, cloning has become a controversial issue with profound implications for identity, morality, and the sanctity of life. The film explores themes of scientific ethics, corporate greed, and the blurred lines between what is natural and what is artificial.&lt;br&gt;&lt;br&gt;
-As Gibson delves deeper into the mystery, he encounters other clones, confronts powerful figures who seek to control the technology for their own gain, and ultimately fights to reclaim his identity and protect his family.&lt;br&gt;&lt;br&gt;
-"The 6th Day" blends action-packed sequences with philosophical questions about the consequences of cloning technology and the ethical implications of playing with human life. While it received mixed reviews from critics, the film remains notable for its exploration of futuristic themes and Schwarzenegger's typically charismatic performance in a sci-fi setting.&lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>The movie stars Joe Pesci as Tommy Spinelli, a mobster tasked with delivering a duffel bag containing the severed heads of eight mafia figures to his boss. However, things go awry when Tommy mistakenly picks up the wrong bag at the airport, which belongs to Charlie (played by Andy Comeau), a medical student on his way to meet his girlfriend's parents.&lt;br&gt;&lt;br&gt;
-As Tommy and Charlie's paths cross, the film unfolds with a series of comedic mishaps and misunderstandings as Charlie unknowingly carries around the gruesome contents of the duffel bag. Tommy desperately tries to retrieve the heads before his boss finds out about the mix-up, leading to absurd and increasingly chaotic situations.&lt;br&gt;&lt;br&gt;
-The film is known for its dark humor, slapstick comedy, and the contrast between the bumbling, innocent Charlie and the hardened criminal Tommy. As the mismatched duo navigates through their predicament, they encounter various eccentric characters and find themselves in increasingly absurd situations.&lt;br&gt;&lt;br&gt;
-"8 Heads in a Duffel Bag" received mixed reviews upon its release but has since gained a cult following for its outrageous premise and comedic performances, particularly from Joe Pesci. The film's blend of crime thriller elements with dark comedy makes it a unique entry in the genre, offering a humorous take on the consequences of mistaken identity and criminal mishaps.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The film stars Fred MacMurray as Professor Ned Brainard, a brilliant but absent-minded scientist at Medfield College.&lt;br&gt;&lt;br&gt;
-The story revolves around Professor Brainard, who is so engrossed in his scientific experiments that he forgets about important events, including his own wedding to his fiancée, Betsy Carlisle (played by Nancy Olson). His latest experiment involves a substance called "flubber" (short for "flying rubber"), which gains remarkable properties that enable objects to defy gravity and bounce excessively.&lt;br&gt;&lt;br&gt;
-As Professor Brainard attempts to perfect his invention, he faces numerous humorous challenges and setbacks, including attempts by rival scientists to steal his formula. The film features slapstick comedy as well as heartfelt moments as Brainard tries to balance his passion for science with his personal life.&lt;br&gt;&lt;br&gt;
-The plot thickens when Brainard's discovery of flubber leads to a series of comedic and chaotic situations, including using it to help the Medfield College basketball team excel in their games. Ultimately, Brainard must reconcile his scientific achievements with his relationships and decide what truly matters in life.&lt;br&gt;&lt;br&gt;
-"The Absent-Minded Professor" was well-received upon its release for its imaginative storyline, Fred MacMurray's endearing portrayal of the eccentric professor, and the film's innovative special effects showcasing the antics of flubber. The movie's success led to a sequel, "Son of Flubber," and a 1997 remake titled "Flubber," starring Robin Williams.&lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>The film revolves around the quirky and unconventional relationship that develops between two individuals who team up to exact revenge on their respective ex-partners.&lt;br&gt;&lt;br&gt;
-The story begins with Sam (played by Matthew Broderick) discovering that his longtime girlfriend, Linda (played by Kelly Preston), has left him for another man, a French chef named Anton (played by Tchéky Karyo). Devastated and heartbroken, Sam moves into an abandoned building across the street from Linda's apartment in New York City.&lt;br&gt;&lt;br&gt;
-Meanwhile, Maggie (played by Meg Ryan), a tough and resourceful photographer, arrives in town seeking vengeance against her ex-boyfriend, Anton, who abandoned her without explanation. Maggie sets up surveillance equipment in Sam's building to spy on Anton and gather evidence of his infidelity.&lt;br&gt;&lt;br&gt;
-Initially at odds with each other, Sam and Maggie form an unlikely alliance as they bond over their shared experiences of betrayal and heartache. Their plan to sabotage Anton and Linda's relationship leads to comedic and unexpected situations, blurring the lines between revenge and romance.&lt;br&gt;&lt;br&gt;
-"Addicted to Love" explores themes of love, loss, and moving on from past relationships, while injecting humor and charm into its portrayal of two wounded souls finding solace and unexpected connection in each other's company. The film's blend of romantic comedy with elements of revenge and redemption has made it a memorable entry in the genre, buoyed by the chemistry between Meg Ryan and Matthew Broderick's characters.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>"The Adventures of Tintin" is a 2011 animated action-adventure film directed by Steven Spielberg. It is based on the popular comic book series "The Adventures of Tintin" created by Belgian cartoonist Hergé. The film combines elements from three of Hergé's Tintin adventures: "The Crab with the Golden Claws," "The Secret of the Unicorn," and "Red Rackham's Treasure."&lt;br&gt;&lt;br&gt;
-The story follows Tintin, a young and intrepid reporter with a knack for solving mysteries, voiced by Jamie Bell. Alongside his loyal dog Snowy, Tintin becomes embroiled in a thrilling quest when he purchases a model ship called the Unicorn. This purchase sets off a chain of events that lead Tintin into a globe-trotting adventure filled with danger, intrigue, and treasure hunting.&lt;br&gt;&lt;br&gt;
-As Tintin unravels the mystery surrounding the Unicorn, he encounters the irascible Captain Haddock, voiced by Andy Serkis, who holds crucial information about the lost treasure of his ancestor, Sir Francis Haddock. Together with Captain Haddock and the bumbling detectives Thomson and Thompson (voiced by Simon Pegg and Nick Frost), Tintin races against time to uncover the truth and outwit the sinister Ivan Sakharine (voiced by Daniel Craig), who also seeks the treasure.&lt;br&gt;&lt;br&gt;
-"The Adventures of Tintin" is notable for its groundbreaking motion-capture animation technology, which brought Hergé's iconic characters and vibrant world to life with stunning visual fidelity. The film captures the spirit of the original comics with its fast-paced action sequences, intricate plot, and colorful characters, appealing both to fans of the comics and new audiences alike.&lt;br&gt;&lt;br&gt;
-Critically acclaimed for its animation, storytelling, and faithfulness to the source material, "The Adventures of Tintin" received praise for its adventurous spirit and Spielberg's direction. It successfully revived interest in Tintin's adventures on the big screen and left audiences eager for potential sequels to further explore the beloved character's escapades.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Directed by Guy Ritchie, the film brings the classic tale of "Aladdin and the Magic Lamp" to life with a mix of vibrant visuals, music, and new interpretations of familiar characters.&lt;br&gt;&lt;br&gt;
-The story follows Aladdin (played by Mena Massoud), a charming and resourceful street thief living in the fictional city of Agrabah. One day, Aladdin meets Princess Jasmine (played by Naomi Scott), who has disguised herself to experience life beyond the palace walls. They form a connection, but Aladdin's life changes when he is tasked by the villainous Grand Vizier Jafar (played by Marwan Kenzari) to retrieve a magical lamp from the Cave of Wonders.&lt;br&gt;&lt;br&gt;
-Inside the cave, Aladdin discovers the Genie (played by Will Smith), who grants him three wishes. With the Genie's help, Aladdin transforms into Prince Ali Ababwa to impress Jasmine and win her heart. However, Jafar's ambitions to usurp the Sultan's throne and control Agrabah threaten to disrupt Aladdin's newfound happiness.&lt;br&gt;&lt;br&gt;
-The 2019 adaptation of "Aladdin" stays faithful to the core elements of the original animated film while expanding on the characters' motivations and relationships. It features memorable musical numbers including classic songs like "A Whole New World" and introduces new compositions to enhance the story.&lt;br&gt;&lt;br&gt;
-Will Smith's portrayal of the Genie, while distinct from Robin Williams' iconic performance in the animated version, brings humor, charisma, and a contemporary twist to the character. The film's visual effects and elaborate set designs immerse audiences in the colorful and enchanting world of Agrabah.&lt;br&gt;&lt;br&gt;
-"Aladdin" (2019) received a mixed reception from critics but was generally praised for its entertaining spectacle, lively performances, and the nostalgic appeal of revisiting a beloved Disney classic. It achieved commercial success worldwide, appealing to both fans of the original animated film and new audiences looking for a magical and family-friendly adventure.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>"Angoor" is a classic Indian comedy film released in 1982, directed by Gulzar and based on William Shakespeare's play "The Comedy of Errors." The film stars Sanjeev Kumar and Deven Verma in dual roles, along with Moushumi Chatterjee and Deepti Naval in key roles.&lt;br&gt;&lt;br&gt;
@@ -2784,54 +2151,6 @@
 The plot takes off when Ashok and Bahadur, living in one city, encounter Anokhelal and Bhairav, who have arrived from another city. Hilarity ensues as misunderstandings and confusion arise due to their identical appearances and names. The film explores the comedic situations that arise from mistaken identities, mistaken intentions, and the chaos that ensues when characters interact with each other without realizing they are speaking to the wrong person.&lt;br&gt;&lt;br&gt;
 "Angoor" is celebrated for its witty dialogue, clever humor, and excellent performances by the cast, particularly Sanjeev Kumar and Deven Verma, who skillfully handle their dual roles. Gulzar's direction and adaptation of Shakespeare's play into a comedic Indian context were also widely appreciated.&lt;br&gt;&lt;br&gt;
 The film has become a cult classic in Indian cinema, known for its timeless humor and memorable scenes. It remains a beloved comedy that continues to entertain audiences with its delightful blend of mistaken identities and comic situations.</t>
-  </si>
-  <si>
-    <t>The film follows the story of Marvin Mange, a hapless and somewhat socially awkward police evidence file clerk who dreams of becoming a real police officer.&lt;br&gt;&lt;br&gt;
-The plot takes a fantastical turn when Marvin is critically injured in a car accident while trying to respond to a burglary. He is saved by a mad scientist who uses experimental animal organs to rebuild Marvin's body, effectively turning him into a human-animal hybrid with enhanced physical abilities. Marvin soon discovers that he has acquired the traits and instincts of various animals, leading to a series of comedic and often absurd situations as he tries to navigate his new abilities and responsibilities.&lt;br&gt;&lt;br&gt;
-As Marvin begins to utilize his newfound powers to fight crime and impress his colleagues, he also faces challenges in balancing his personal life and relationships. The film explores themes of identity, acceptance, and the consequences of tampering with nature in a lighthearted and comedic manner.&lt;br&gt;&lt;br&gt;
-Critically, "The Animal" received mixed reviews. While some appreciated Rob Schneider's comedic performance and the film's slapstick humor, others found the premise and execution to be too outlandish and predictable. The film's humor often relies on physical comedy and Schneider's trademark comedic style, appealing primarily to fans of his work and those seeking light entertainment.&lt;br&gt;&lt;br&gt;
-Overall, "The Animal" is viewed as a typical entry in Rob Schneider's filmography, offering a blend of silly humor and exaggerated situations that may appeal to audiences looking for escapist comedy. However, it is not considered a standout in the genre or remembered for its profound storytelling or character development.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The story is set in ancient Gaul, where the indomitable Gauls, led by Asterix and his friend Obelix, resist Roman occupation. Julius Caesar devises a new plan to defeat the Gauls by building a luxury Roman estate called "The Mansion of the Gods" near their village. The Romans hope to entice the Gauls with Roman comforts and lure them into Roman ways, thus undermining their resistance.&lt;br&gt;&lt;br&gt;
-However, Asterix and Obelix are determined to thwart Caesar's plan and preserve their Gaulish way of life. They devise clever schemes and use their wit and strength to resist the allure of Romanization and protect their village from Caesar's influence.&lt;br&gt;&lt;br&gt;
-The film explores themes of cultural identity, resistance against oppression, and the clash of civilizations, all presented in a humorous and family-friendly manner typical of the Asterix comic series. The animation style stays true to the original comic's artwork, capturing its colorful characters and vibrant world.&lt;br&gt;&lt;br&gt;
-"Mansion of the Gods" received positive reviews for its fidelity to the source material, witty humor, and engaging storyline. It was praised for its clever satire on modern consumerism and cultural imperialism, while also delivering entertaining action sequences and memorable characters.&lt;br&gt;&lt;br&gt;
-Overall, "Mansion of the Gods" is celebrated as a successful adaptation of the beloved Asterix comics, appealing to both longtime fans and new audiences with its blend of adventure, humor, and social commentary.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>"Avatar" is a 2009 epic science fiction film directed and produced by James Cameron. It stands out for its groundbreaking visual effects, particularly its use of 3D technology and motion capture to create a visually stunning world and creatures.&lt;br&gt;&lt;br&gt;
-The story is set in the mid-22nd century on the lush, inhabited moon of Pandora, which orbits a gas giant in the Alpha Centauri star system. The protagonist, Jake Sully (played by Sam Worthington), is a paralyzed former Marine who is recruited to take part in the Avatar Program, a project that allows humans to remotely control genetically engineered Na'vi bodies to interact with the native population.&lt;br&gt;&lt;br&gt;
-As Jake becomes immersed in the culture of the Na'vi, he forms a deep connection with Neytiri (played by Zoe Saldana), a Na'vi princess. However, tensions rise as the human mining corporation led by Colonel Miles Quaritch (played by Stephen Lang) threatens Pandora's indigenous population in their quest for valuable resources.&lt;br&gt;&lt;br&gt;
-The film explores themes of environmentalism, colonialism, and the clash between nature and technology. It delves into the ethical implications of exploiting resources and displacing indigenous cultures for profit, while also celebrating the interconnectedness of all living beings.&lt;br&gt;&lt;br&gt;
-"Avatar" received widespread critical acclaim for its visual effects, world-building, and immersive 3D experience. It became a cultural phenomenon and broke numerous box office records, becoming the highest-grossing film of all time (until it was surpassed by "Avengers: Endgame" in 2019).&lt;br&gt;&lt;br&gt;
-The success of "Avatar" led to plans for multiple sequels, with James Cameron aiming to further explore Pandora's world and its inhabitants. The film's impact on filmmaking technology and its influence on popular culture cemented its place as a landmark achievement in the history of cinema.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The plot of "Avvai Shanmugi" revolves around Pandyan (played by Kamal Haasan), a loving father who goes through a bitter divorce with his wife. To gain custody of his daughter, Pandyan disguises himself as Avvai Shanmugi, an elderly woman hired to care for his daughter. Avvai Shanmugi is portrayed with humor and warmth as she navigates the complexities of domestic life while concealing her true identity.&lt;br&gt;&lt;br&gt;
-As Avvai Shanmugi, Pandyan faces numerous comedic challenges and cultural adjustments. The film explores themes of family, love, and the lengths a parent will go to for their child's happiness. The narrative unfolds with entertaining situations and misunderstandings arising from Pandyan's dual identity.&lt;br&gt;&lt;br&gt;
-Kamal Haasan's performance in the titular role of Avvai Shanmugi garnered critical acclaim for his portrayal of both the sensitive father and the humorous elderly woman. The film's success was also attributed to its engaging storyline, lively music composed by Deva, and the chemistry between the cast members.&lt;br&gt;&lt;br&gt;
-"Avvai Shanmugi" was a box office hit and remains a beloved comedy classic in Tamil cinema. It is celebrated for its light-hearted humor, memorable dialogues, and its commentary on social issues through the lens of comedy. The film's success led to it being remade in several languages, showcasing its enduring popularity and influence in Indian cinema.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The plot revolves around Baankey (played by Rajpal Yadav), a simple and innocent man who gets embroiled in a series of chaotic events surrounding a wedding. Baankey becomes inadvertently involved in a "crazy baraat" (wedding procession) where unexpected and hilarious situations unfold due to misunderstandings, mistaken identities, and quirky characters.&lt;br&gt;&lt;br&gt;
-As Baankey navigates through the chaotic wedding preparations and ceremonies, he encounters eccentric relatives, nosy neighbors, and a range of mishaps that threaten to derail the wedding festivities. The film blends slapstick comedy with situational humor as Baankey and the ensemble cast find themselves in increasingly absurd and humorous predicaments.&lt;br&gt;&lt;br&gt;
-"Baankey Ki Crazy Baraat" is known for its light-hearted and entertaining portrayal of Indian wedding culture, emphasizing the colorful and eventful nature of traditional celebrations. The film's ensemble cast delivers spirited performances, with Rajpal Yadav's comedic timing and Sanjay Mishra's eccentric character adding to the film's comedic appeal.&lt;br&gt;&lt;br&gt;
-While the film received mixed reviews from critics, it found an audience among fans of Hindi comedy films for its energetic performances, humorous storyline, and lively music. "Baankey Ki Crazy Baraat" remains a popular choice for audiences looking for a fun-filled and light-hearted comedy experience centered around the chaos of weddings in Indian culture.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The film stars Joe Mantegna, Lara Flynn Boyle, Joe Pantoliano, and Brian Haley, with twins Adam and Jacob Worton playing the role of Baby Bink.&lt;br&gt;&lt;br&gt;
-The story revolves around Baby Bink, the wealthy infant son of a wealthy couple in Chicago. He becomes the target of three bumbling criminals: Eddie (played by Joe Mantegna), Norby (played by Joe Pantoliano), and Veeko (played by Brian Haley). The criminals kidnap Baby Bink with the intention of holding him for ransom, hoping to score a large sum of money from his wealthy parents.&lt;br&gt;&lt;br&gt;
-However, Baby Bink manages to escape from the criminals' clutches and embarks on an adventure through the streets of Chicago. The film humorously depicts Baby Bink's journey as he navigates various obstacles and encounters, unaware of the danger he's in. Throughout his escapade, Baby Bink's innocent curiosity leads him to unwittingly outwit the criminals at every turn.&lt;br&gt;&lt;br&gt;
-As Baby Bink's parents, the police, and the criminals all scramble to find him, the film unfolds with slapstick comedy and humorous situations. It celebrates the resilience and cleverness of the baby, contrasting sharply with the incompetence of the criminals.&lt;br&gt;&lt;br&gt;
-"Baby's Day Out" received mixed reviews from critics but found success with audiences, particularly for its charming portrayal of a baby's escapades and the comedic performances of the cast. The film's blend of adventure and humor, combined with its adorable central character, has made it a nostalgic favorite for many viewers who enjoy family-friendly comedies.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The story revolves around Raj Sharma (played by Ranbir Kapoor), a carefree and charming young man who believes in living life to the fullest without commitment. He meets and dates three different women at different stages of his life: Mahi (played by Minissha Lamba), Radhika (played by Bipasha Basu), and Gayatri (played by Deepika Padukone).&lt;br&gt;&lt;br&gt;
-As Raj's relationships with these women unfold, the film explores themes of love, heartbreak, and personal growth. Each relationship teaches Raj valuable lessons about life and love, transforming him from a carefree flirt into a more mature and understanding individual.&lt;br&gt;&lt;br&gt;
-The title "Bachna Ae Haseeno" translates to "Beware, oh beauties" in English, reflecting Raj's journey of reckoning with his past behavior and learning to value and respect the women in his life. The film's narrative structure moves between past and present, showcasing Raj's evolution as he reflects on his relationships and their impact on his life.&lt;br&gt;&lt;br&gt;
-"Bachna Ae Haseeno" was well-received for its engaging storyline, catchy music composed by Vishal-Shekhar, and the charismatic performances of its cast, particularly Ranbir Kapoor. The film's exploration of love and relationships resonated with audiences, making it a commercial success at the box office.&lt;br&gt;&lt;br&gt;
-Overall, "Bachna Ae Haseeno" is remembered as a contemporary romantic drama that blends humor, romance, and emotional depth, offering insights into the complexities of modern relationships and personal growth.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The story follows Marty McFly, a high school student who accidentally travels back in time to 1955 in a plutonium-powered DeLorean time machine invented by Doc Brown. In 1955, Marty encounters a younger version of his parents and inadvertently interferes with their budding romance, endangering his own existence. With the help of the younger Doc Brown, Marty must find a way to ensure his parents fall in love while repairing the damaged time machine to return to 1985.&lt;br&gt;&lt;br&gt;
@@ -2842,20 +2161,1177 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The story picks up immediately after the events of the first film, with Marty and Doc traveling from 1985 to the future—specifically, to October 21, 2015—to prevent a series of events that would negatively impact the future of Marty's family. In the future, Marty must prevent his son from being involved in a robbery orchestrated by Biff Tannen's grandson, Griff. Along the way, Marty purchases a sports almanac, which he later discovers will have catastrophic consequences if it falls into the wrong hands.&lt;br&gt;&lt;br&gt;
+    <t>The story revolves around Mr. Bean, a clumsy and socially awkward man who works as a guard at the Royal National Gallery in London. When the gallery's board of directors decides to send him to Los Angeles to represent them, they hope to get rid of him temporarily. Their plan is to have him oversee the transfer of Whistler's Mother, a famous painting, to a museum in California.&lt;br&gt;&lt;br&gt;
+Upon arrival in Los Angeles, Bean's unusual behavior and ignorance of American culture immediately create chaos and misunderstandings. He stays with the eccentric Grierson family, where his antics continue to disrupt their lives. Despite his best efforts to impress, Bean's clumsiness and bizarre antics threaten the success of the painting's unveiling.&lt;br&gt;&lt;br&gt;
+As the film progresses, Bean inadvertently causes a series of comedic incidents, from ruining a movie set to getting the Grierson family into trouble with the law. However, his unique perspective and genuine kindness eventually win over those around him, including the initially skeptical Grierson family.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film revolves around Laxmikant Kabadiya (played by Anupam Kher), a wealthy businessman in Mumbai who is deeply superstitious and believes in astrology. One day, he seeks advice from an astrologer who predicts that his death is imminent and advises him to donate his wealth to charity to avoid a tragic fate.&lt;br&gt;&lt;br&gt;
+Panicked by the prediction, Laxmikant decides to donate his entire wealth to a charitable trust run by a fake Swami (played by Om Puri). However, things take a disastrous turn when Laxmikant accidentally dies while trying to retrieve a valuable necklace he had donated.&lt;br&gt;&lt;br&gt;
+As news of Laxmikant's death spreads, chaos ensues as everyone involved in the botched donation scheme tries to cover up their tracks and prevent the truth from coming to light. The film follows a series of comedic and absurd events involving corrupt politicians, conniving relatives, incompetent police officers, and a hapless mortuary attendant, all attempting to deal with the fallout of Laxmikant's sudden demise.&lt;br&gt;&lt;br&gt;
+Amidst the confusion and farcical situations, the film satirizes the greed, hypocrisy, and opportunism prevalent in society. It also explores themes of karma, consequences, and the absurdity of blind faith and superstition.&lt;br&gt;&lt;br&gt;
+The film primarily explores themes of greed, hypocrisy, superstition, and the absurdity of human behavior when faced with unexpected circumstances. It satirizes societal norms and traditions, highlighting the lengths people will go to in pursuit of wealth and self-interest.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film follows the story of Inspector Shekhar (played by Dev Anand), a dedicated and determined police officer known for his sharp investigative skills. Shekhar is assigned to investigate the murder of a wealthy businessman, Rai Bahadur Chunilal (played by Suresh), who is found dead in his mansion under mysterious circumstances.&lt;br&gt;&lt;br&gt;
+As Shekhar delves deeper into the case, he uncovers a web of deceit, conspiracy, and hidden motives involving the deceased businessman's family members and associates. Suspects include Chunilal's wife, Geeta (played by Shakila), his younger brother, Madan (played by Johnny Walker), and his secretary, Kamini (played by Waheeda Rehman).&lt;br&gt;&lt;br&gt;
+Throughout the investigation, Shekhar encounters various twists and turns, false leads, and red herrings that challenge his deductive reasoning and instincts. He navigates through the complexities of human emotions and conflicting interests as he seeks to unravel the truth behind Chunilal's murder.&lt;br&gt;&lt;br&gt;
+As the suspense builds, Shekhar must use all his resources and expertise to solve the case and bring the perpetrator to justice. Along the way, he confronts personal dilemmas and ethical questions that test his principles as a police officer.&lt;br&gt;&lt;br&gt;
+The film explores themes of crime, deception, justice, and the complexities of human nature. It delves into the psychology of crime and investigation, highlighting the challenges faced by law enforcement in uncovering the truth amidst a backdrop of intrigue and betrayal.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The story revolves around Miguel Rivera, a young boy with a passion for music despite his family's generations-old ban on it. Miguel idolizes Ernesto de la Cruz, a famous deceased musician, and dreams of becoming a great musician himself. On Dia de los Muertos (Day of the Dead), Miguel accidentally enters the Land of the Dead, where he encounters his deceased relatives and seeks the help of his ancestors to return to the living world.&lt;br&gt;&lt;br&gt;
+As Miguel embarks on a journey to uncover his family's history and understand the origins of the music ban, he teams up with Hector, a charming trickster spirit. Together, they navigate the vibrant and colorful Land of the Dead, discovering secrets that reshape Miguel's understanding of his family's past.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film revolves around Nitin Bankar (played by Akshay Kumar) and Ram Mishra (played by Sunil Shetty), two struggling individuals who dream of making it big but are constantly thwarted by financial troubles. Nitin is in love with Anjali Kakkad (played by Katrina Kaif), the daughter of a wealthy businessman, while Ram is married to Manpreet Oberoi (played by Sameera Reddy), who comes from a wealthy family.&lt;br&gt;&lt;br&gt;
+Desperate for money, Nitin and Ram hatch a plan to get rich quick by kidnapping Kuljeet Kaur (played by Archana Puran Singh), a wealthy woman with a dog named Moolchand Ji. However, their plan goes awry when they mistakenly kidnap the wrong woman, Anjali's pet dog, and chaos ensues.&lt;br&gt;&lt;br&gt;
+To make matters worse, Nitin and Ram find themselves caught up in a series of misunderstandings and comedic situations involving a hotel owner (played by Paresh Rawal), a gangster (played by Tinnu Anand), and various other characters. As they try to extricate themselves from their predicament, they must navigate through a maze of lies, disguises, and misadventures.&lt;br&gt;&lt;br&gt;
+The film culminates in a madcap race against time as Nitin and Ram attempt to sort out the mess they've created and win back the love and trust of their respective partners.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The story revolves around Raj Malhotra (played by Shah Rukh Khan) and Simran Singh (played by Kajol), two young Indians living in London who meet during a trip across Europe. Despite initial clashes, they gradually develop feelings for each other. However, Simran is already pledged to marry a man chosen by her strict father, Baldev Singh (played by Amrish Puri), who values tradition and family honor above all else.&lt;br&gt;&lt;br&gt;
+As Raj and Simran fall deeper in love, they face numerous obstacles, including Simran's impending arranged marriage and her father's staunch beliefs. Determined to win over Simran's family and honor their love, Raj sets out to change Baldev Singh's opinion of him and win approval for their marriage.&lt;br&gt;&lt;br&gt;
+The film explores themes of love, tradition, and cultural identity, as Raj and Simran navigate between their desires and familial expectations. It culminates in a climactic and emotionally charged showdown in Punjab, where Raj must prove his devotion and sincerity to Simran's family.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Equalizer, The</t>
+  </si>
+  <si>
+    <t>E.T. The Extra-Terrestrial</t>
+  </si>
+  <si>
+    <t>The story centers around Ferdinand (voiced by John Cena), a gentle-hearted and enormous bull who prefers flowers and peacefulness over bullfighting. Despite his size and strength, Ferdinand refuses to engage in the traditional bullfighting practices favored by others at Casa del Toro, where he lives.&lt;br&gt;&lt;br&gt;
+After accidentally causing chaos in the village due to a mishap involving a bee, Ferdinand is mistaken for a dangerous beast and taken away from his home. Determined to return to Casa del Toro and reunite with his beloved owner, Nina (voiced by Julia Saldanha), Ferdinand embarks on an adventure accompanied by a misfit group of animals.&lt;br&gt;&lt;br&gt;
+Throughout his journey, Ferdinand encounters various characters, including Lupe (voiced by Kate McKinnon), an eccentric goat who becomes his coach and friend. Along the way, Ferdinand learns valuable lessons about courage, identity, and acceptance, as he navigates challenges that ultimately lead him to embrace his true nature and stand up for what he believes in.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film revolves around Ramprasad Sharma (played by Amol Palekar), a young man from a middle-class family who finds himself entangled in a web of lies due to circumstances beyond his control. To impress his potential employer, Bhavani Shankar (played by Utpal Dutt), who values traditional values and despises youthful frivolities, Ramprasad creates a fictional twin brother named Laxmanprasad.&lt;br&gt;&lt;br&gt;
+However, the situation gets complicated when Bhavani Shankar wants to meet Laxmanprasad. To keep up the charade, Ramprasad enlists the help of his girlfriend’s (Bindiya Goswami) sister, who poses as Laxmanprasad’s wife. This leads to hilarious situations as Ramprasad tries to balance his dual identities without getting caught.</t>
+  </si>
+  <si>
+    <t>The film begins with James Bond (Pierce Brosnan) investigating the theft of a secret Russian helicopter, armed with a powerful electromagnetic pulse weapon known as GoldenEye. Bond’s investigation leads him to face a former MI6 agent, Alec Trevelyan (Sean Bean), who has turned rogue and plans to use the GoldenEye weapon to destroy London's financial district as revenge for past betrayals.&lt;br&gt;&lt;br&gt;
+Bond teams up with Russian computer programmer Natalya Simonova (Izabella Scorupco) and CIA operative Jack Wade (Joe Don Baker) to stop Trevelyan and his accomplice, Xenia Onatopp (Famke Janssen), from carrying out their deadly plan. The mission takes Bond from Russia to Cuba and eventually to Trevelyan’s hidden base in the jungles of Cuba.</t>
+  </si>
+  <si>
+    <t>The story revolves around Raju (played by Dev Anand), a charismatic and carefree tourist guide in a small town who becomes romantically involved with Rosie Marco (played by Waheeda Rehman), a married woman trapped in an unhappy marriage with Marco (played by Kishore Sahu), an archaeologist. Raju helps Rosie pursue her passion for dance, leading her to achieve fame as a dancer while their relationship deepens.&lt;br&gt;&lt;br&gt;
+However, their unconventional relationship and Raju’s own aspirations lead to unforeseen consequences. Raju eventually faces accusations of forgery and fraud, and he undergoes a spiritual transformation during his time in prison. After his release, he becomes a holy man and gains a following, leading to a clash between his past and his present identities.</t>
+  </si>
+  <si>
+    <t>Set during World War II, the story follows a team of Allied commandos tasked with infiltrating the German-held Greek island of Navarone to destroy massive artillery guns that threaten Allied naval operations in the Aegean Sea. The guns are positioned on a cliff, making them virtually impregnable and a significant threat to Allied ships passing through the nearby channel.&lt;br&gt;&lt;br&gt;
+The team is led by Captain Keith Mallory (Gregory Peck), an experienced mountaineer, and includes explosives expert Corporal Miller (David Niven), Greek resistance fighter Andrea Stavros (Anthony Quinn), and others. They face numerous challenges and betrayals as they navigate the treacherous terrain and attempt to accomplish their mission before the guns can be used against a crucial Allied operation.</t>
+  </si>
+  <si>
+    <t>The story revolves around Paul Morse (played by Jason Lee), a mild-mannered man who is about to get married to his girlfriend Karen (played by Selma Blair). However, during his bachelor party, Paul wakes up in bed next to Becky (played by Julia Stiles), a beautiful woman whom he does not remember meeting the night before.&lt;br&gt;&lt;br&gt;
+Paul tries to keep his one-night stand a secret from Karen and plans to forget about it. However, Becky turns out to be Karen's cousin, and circumstances force them to spend more time together. As Paul tries to navigate his guilt and growing attraction to Becky, comedic misunderstandings and mishaps ensue, complicating his impending marriage.</t>
+  </si>
+  <si>
+    <t>Hangover, The</t>
+  </si>
+  <si>
+    <t>The story revolves around a group of six misfit characters who come together to pull off a heist in Dubai. Charlie (played by Shah Rukh Khan), a street fighter seeking revenge for his father's unjust downfall, forms a team comprising a talented hacker (Vivaan Shah), a safe-cracker (Boman Irani), an explosives expert (Sonu Sood), a disguise specialist (Abhishek Bachchan), and a dancer (Deepika Padukone).&lt;br&gt;&lt;br&gt;
+Their plan is to participate in the World Dance Championship in Dubai as a cover to execute a robbery at a hotel hosting a prestigious diamond exhibition. As the team prepares for the competition and the heist, they encounter personal challenges, rivalries, and unexpected twists that test their loyalty and determination.</t>
+  </si>
+  <si>
+    <t>The story revolves around three main characters - Baburao Ganpatrao Apte (played by Paresh Rawal), Raju (played by Akshay Kumar), and Shyam (played by Sunil Shetty) - who are struggling with financial problems in their daily lives. Raju and Shyam are tenants in Baburao's house, where they often face eviction due to their inability to pay rent on time.&lt;br&gt;&lt;br&gt;
+One day, they receive a wrong-number phone call from a kidnapped girl’s father, demanding a hefty ransom. Desperate for money, they decide to pretend to be the girl’s kidnappers and demand the ransom themselves. Their plan goes awry when the real kidnappers turn out to be dangerous criminals, leading to a series of comedic misunderstandings and chaotic situations.</t>
+  </si>
+  <si>
+    <t>The story follows Alex "Hitch" Hitchens (played by Will Smith), a charming and charismatic "date doctor" in New York City who coaches men on how to successfully woo women and build relationships. Hitch operates discreetly, helping his clients with their confidence, style, and approach to dating.&lt;br&gt;&lt;br&gt;
+One day, Hitch meets Albert Brennaman (played by Kevin James), a bumbling accountant who is smitten with a wealthy celebrity, Allegra Cole (played by Amber Valletta). Hitch takes Albert under his wing and coaches him on how to win Allegra's heart, despite the odds stacked against them.&lt;br&gt;&lt;br&gt;
+At the same time, Hitch meets and falls for Sara Melas (played by Eva Mendes), a smart and skeptical gossip columnist who is investigating Hitch's secretive business. As Hitch navigates his own feelings and tries to win Sara over, his carefully curated world begins to unravel, leading to humorous and heartfelt revelations about love and authenticity.</t>
+  </si>
+  <si>
+    <t>The story revolves around two women, Iris Simpkins (played by Kate Winslet) and Amanda Woods (played by Cameron Diaz), who are dealing with romantic troubles in their respective lives. Iris, a British journalist, is in unrequited love with her colleague Jasper (played by Rufus Sewell), who is engaged and cheating on her. Amanda, a successful businesswoman in Los Angeles, discovers her boyfriend cheating on her.
+Seeking to escape their troubles during the Christmas holiday season, Iris and Amanda connect online through a home exchange website and decide to swap homes for two weeks. Iris travels to Amanda’s luxurious mansion in Los Angeles, while Amanda stays at Iris’s quaint cottage in Surrey, England.
+In their new environments, both women embark on unexpected romantic journeys. Iris befriends Arthur Abbott (played by Eli Wallach), an elderly screenwriter, and catches the eye of Miles (played by Jack Black), a film composer. Meanwhile, Amanda encounters Graham (played by Jude Law), Iris’s charming and handsome brother, and they develop a mutual attraction.</t>
+  </si>
+  <si>
+    <t>The story begins with the McCallister family preparing for their trip to Paris for Christmas vacation. Amidst the chaos of packing and rushing to the airport, Kevin, the youngest child, is mistakenly left home alone. Initially thrilled to have the house to himself, Kevin soon realizes the predicament he’s in, especially when he discovers that burglars Harry (played by Joe Pesci) and Marv (played by Daniel Stern) are planning to rob his house.&lt;br&gt;&lt;br&gt;
+Using his quick wit and resourcefulness, Kevin sets up booby traps around the house to thwart the burglars’ attempts to break in. As Kevin defends his home from the inept criminals, he learns lessons about independence, family, and the true meaning of Christmas.</t>
+  </si>
+  <si>
+    <t>The story picks up a year after the events of the first film. The McCallister family is planning another Christmas vacation, this time to Florida. However, due to a series of mishaps at the airport, Kevin boards the wrong flight and ends up alone in New York City, while the rest of his family travels to Florida.&lt;br&gt;&lt;br&gt;
+In New York, Kevin checks into the Plaza Hotel using his father's credit card and begins to explore the city. Meanwhile, Harry and Marv, the bumbling burglars from the first film, have escaped from prison and coincidentally end up in New York as well. They plan to rob a toy store during Christmas Eve, unaware that Kevin is also in the city.&lt;br&gt;&lt;br&gt;
+As Kevin navigates the bustling streets of New York and enjoys the sights, he crosses paths with the friendly pigeon lady (played by Brenda Fricker) in Central Park, who helps him thwart Harry and Marv's robbery attempt using clever traps and tricks similar to those in the first film.</t>
+  </si>
+  <si>
+    <t>The story centers around Alex Pruitt (played by Alex D. Linz), a young boy who lives with his parents and siblings in a suburban neighborhood. Due to an illness, Alex is home from school and spends his time spying on his neighbors with a high-tech video camera he received as a gift.
+Meanwhile, a group of international criminals led by Peter Beaupre (played by Olek Krupa) is planning to steal a top-secret microchip that is hidden in a remote-control car toy. When the criminals mistakenly intercept a package containing the toy, it ends up in Alex’s possession.
+Realizing the importance of the microchip, the criminals begin targeting Alex’s house to retrieve the toy. Unaware of the criminals' intentions at first, Alex soon realizes he must defend his home using his wits and various homemade traps, similar to the original "Home Alone" films.</t>
+  </si>
+  <si>
+    <t>The story revolves around Kevin McCallister (played by Mike Weinberg), who is now living with his recently divorced mother, Kate (played by Clare Carey), and her wealthy new boyfriend, Peter McCallister (played by Jason Beghe). The family plans to spend Christmas at Peter's mansion, where Kevin feels out of place and neglected amidst preparations for Peter's son Buzz's (played by Gideon Jacobs) upcoming wedding.&lt;br&gt;&lt;br&gt;
+Meanwhile, Marv Merchants (played by French Stewart), one of the burglars from the original films, has been released from prison and reunites with his wife, Vera (played by Missi Pyle). The couple devises a plan to steal a valuable painting from Peter’s mansion during the Christmas holiday.&lt;br&gt;&lt;br&gt;
+When Kevin discovers their scheme, he sets up traps and tricks to thwart their plans and protect his family’s home. With the help of a new ally, his high-tech toy car and a butler named Prescott (played by Erick Avari), Kevin engages in a battle of wits against the bumbling burglars.</t>
+  </si>
+  <si>
+    <t>Officer Rose Cooper, known for her strict adherence to rules and procedures, is given a chance to prove herself when she is assigned to protect Daniella Riva, the wife of a drug lord turned state's witness. The two women must embark on a journey from Texas to Dallas to testify against a drug lord, with dangerous criminals and corrupt cops hot on their trail.&lt;br&gt;&lt;br&gt;
+As they attempt to evade capture and make their way to the courthouse, Rose and Daniella find themselves in a series of comedic and action-packed situations. Despite their differences, they form an unlikely bond and learn to rely on each other’s strengths to survive the chaotic journey.</t>
+  </si>
+  <si>
+    <t>Andie Anderson, a writer for a women's magazine called Composure, is assigned to write an article on how to lose a guy in 10 days by exhibiting all the classic behaviors that drive men away. At the same time, Benjamin Barry, an advertising executive, bets his boss that he can make any woman fall in love with him in 10 days to land a lucrative diamond campaign.&lt;br&gt;&lt;br&gt;
+Their paths cross at a bar, where Andie sets her sights on Benjamin as her unwitting subject for the article, while Benjamin sees Andie as his ticket to winning the bet. What ensues is a series of comedic situations as Andie tries to drive Benjamin away using bizarre behavior and relationship faux pas, while Benjamin does everything he can to make Andie fall for him.&lt;br&gt;&lt;br&gt;
+As the days tick by, both Andie and Benjamin begin to develop genuine feelings for each other, leading to inevitable complications when their true motives are revealed. The film explores themes of love, relationships, authenticity, and the lengths people will go to in order to win a bet or achieve their goals.</t>
+  </si>
+  <si>
+    <t>The story is set in the mythical Viking village of Berk, where dragons frequently raid and steal livestock. The young Viking teenager, Hiccup (voiced by Jay Baruchel), dreams of becoming a dragon slayer like the rest of his tribe, including his father Stoick the Vast (voiced by Gerard Butler), who is the chief.&lt;br&gt;&lt;br&gt;
+During a dragon raid, Hiccup manages to shoot down a Night Fury, a mysterious and elusive dragon that no one has ever seen up close or survived an encounter with. However, when Hiccup finds the dragon in the forest, he cannot bring himself to kill it and instead sets it free. He names the dragon Toothless, and the two develop an unlikely friendship as Hiccup learns about dragons and their true nature.&lt;br&gt;&lt;br&gt;
+Through his bond with Toothless, Hiccup discovers that dragons are not the savage creatures his people believe them to be. He works secretly to train Toothless and learns the truth about the dragons' behaviors and motivations. As Hiccup gains knowledge and confidence, he begins to challenge the traditional ways of his Viking tribe and strives to bring about peace between Vikings and dragons.</t>
+  </si>
+  <si>
+    <t>"Ice Age" begins with a group of animals fleeing the onset of the Ice Age, including Manny, a woolly mammoth (voiced by Ray Romano); Sid, a clumsy ground sloth (voiced by John Leguizamo); and Diego, a sly saber-toothed tiger (voiced by Denis Leary). The unlikely trio ends up together when they discover a human baby whom they decide to return to his tribe.&lt;br&gt;&lt;br&gt;
+As they embark on their journey to reunite the baby with his family, the group faces various challenges and obstacles, including encounters with hostile animals and natural disasters. Along the way, they learn to work together despite their differences, forming a bond of friendship and camaraderie.&lt;br&gt;&lt;br&gt;
+Meanwhile, Diego, initially sent by his pack to retrieve the baby for sinister purposes, begins to question his loyalty and develops a genuine affection for his new friends. Together, Manny, Sid, and Diego navigate the harsh terrain of the ice age and ultimately learn valuable lessons about family, loyalty, and acceptance.</t>
+  </si>
+  <si>
+    <t>"Independence Day" begins with the sudden arrival of massive alien spacecraft that hover over major cities around the world, including New York City, Los Angeles, and Washington, D.C. The aliens’ intentions become clear when they launch a devastating attack, using advanced technology to destroy landmarks and military installations.&lt;br&gt;&lt;br&gt;
+The story follows several characters as they react to the crisis: Captain Steven Hiller (played by Will Smith), a Marine Corps pilot determined to fight back against the invaders; David Levinson (played by Jeff Goldblum), a computer expert who discovers a pattern in the aliens’ signals and tries to warn the world; and President Thomas J. Whitmore (played by Bill Pullman), who rallies the global community to mount a defense against the alien threat.&lt;br&gt;&lt;br&gt;
+As humanity faces extinction, the survivors unite in a desperate last stand against the powerful extraterrestrial forces. The climax culminates in a climactic battle on July 4th, Independence Day in the United States, where a plan is devised to disable the alien mothership and turn the tide of the war.</t>
+  </si>
+  <si>
+    <t>The film opens with a young Indiana Jones (played by River Phoenix) on an adventure in 1912 Utah, where he acquires a valuable artifact and faces his fear of snakes. This sequence serves as a prologue to the main story.&lt;br&gt;&lt;br&gt;
+In 1938, Indiana Jones (played by Harrison Ford) is approached by Walter Donovan (played by Julian Glover), an American businessman and collector of rare antiquities. Donovan informs Indy that his father, Dr. Henry Jones Sr. (played by Sean Connery), an esteemed archaeologist, has gone missing while searching for the Holy Grail, the legendary cup said to grant immortality.&lt;br&gt;&lt;br&gt;
+Indy sets out to find his father and the Grail, uncovering clues that lead him to Venice and then to a Nazi stronghold in Austria. Along the way, he is reunited with his father, who is captured by Nazis led by Colonel Vogel (played by Michael Byrne) and Elsa Schneider (played by Alison Doody), a femme fatale with her own agenda.&lt;br&gt;&lt;br&gt;
+The adventure takes Indy and his father across Europe, facing dangerous traps, betrayals, and intense action sequences as they race against time to find the Holy Grail before it falls into the hands of the Nazis. They must navigate booby-trapped caves, solve ancient puzzles, and confront personal challenges that test their courage and convictions.</t>
+  </si>
+  <si>
+    <t>The film is set in 1935, one year before the events of "Raiders of the Lost Ark." Indiana Jones (played by Harrison Ford) finds himself in Shanghai, where he narrowly escapes a deadly deal with crime lord Lao Che (played by Roy Chiao) with the help of nightclub singer Willie Scott (played by Kate Capshaw) and his loyal friend, Short Round (played by Jonathan Ke Quan).&lt;br&gt;&lt;br&gt;
+Fleeing Shanghai on a plane, Indy, Willie, and Short Round crash-land in India and come across a village whose children have been kidnapped and taken to the Pankot Palace. Suspecting foul play, Indy agrees to investigate, leading them to discover a secret cult known as the Thuggee, who worship the goddess Kali and practice human sacrifice.&lt;br&gt;&lt;br&gt;
+As Indy delves deeper into the mystery, he uncovers a plot by the Thuggee high priest, Mola Ram (played by Amrish Puri), to use the power of the sacred Sankara Stones to spread darkness and enslavement across the world. With the help of Willie and Short Round, Indy sets out to rescue the enslaved children, recover the stolen Sankara Stones, and stop Mola Ram's sinister plans.</t>
+  </si>
+  <si>
+    <t>The story begins with a meticulously planned bank heist at a Manhattan bank, orchestrated by a masked man named Dalton Russell (played by Clive Owen). Russell and his team of robbers take hostages and secure the bank, initiating a tense standoff with the police.&lt;br&gt;&lt;br&gt;
+Detective Keith Frazier (played by Denzel Washington) is assigned to negotiate with Russell and resolve the hostage situation peacefully. As Frazier tries to uncover Russell's motives and strategy, he becomes entangled in a complex web of deception, manipulation, and hidden agendas involving the hostages, the bank's owner Arthur Case (played by Christopher Plummer), and a mysterious fixer named Madeleine White (played by Jodie Foster).&lt;br&gt;&lt;br&gt;
+As the situation escalates, Frazier discovers that not everything is as it seems, and the heist may be a cover for a larger conspiracy involving powerful individuals with ulterior motives. The film unfolds through a series of flashbacks and shifting perspectives, revealing layers of intrigue and moral ambiguity as the true nature of the heist and its players is gradually unveiled.</t>
+  </si>
+  <si>
+    <t>Ben Whittaker is a 70-year-old widower who becomes bored with retirement and decides to apply for a senior internship program at an online fashion retailer called About the Fit, founded and run by Jules Ostin. Despite initial skepticism from the company’s management, Ben’s charm, experience, and positive attitude win over Jules, who reluctantly agrees to take him on as her intern.&lt;br&gt;&lt;br&gt;
+As Ben adapts to the fast-paced and tech-savvy environment of the company, he forms a bond with his younger coworkers and becomes a mentor figure to them. Meanwhile, Jules struggles with the pressures of balancing her demanding job, her family life, and the rapid growth of her business.&lt;br&gt;&lt;br&gt;
+Throughout the film, Ben’s wisdom and old-fashioned values provide valuable insights to Jules and her team, helping them navigate challenges and personal dilemmas. As their friendship grows, both Ben and Jules learn valuable lessons about work, life, and the importance of pursuing one’s passions.</t>
+  </si>
+  <si>
+    <t>The film is set in an alternate reality where lying does not exist, and everyone always tells the truth, even if it’s blunt or hurtful. Mark Bellison (played by Ricky Gervais) is a screenwriter who works for a film studio but is struggling with his career and personal life. He is unsuccessful in his attempts to woo Anna McDoogles (played by Jennifer Garner), a beautiful woman he admires.&lt;br&gt;&lt;br&gt;
+One day, due to a genetic anomaly, Mark discovers that he can lie and manipulate facts in a world where everyone believes whatever they are told. Initially using his newfound ability for personal gain, Mark soon realizes the potential for influencing others and making positive changes in society, including easing people’s fears about death and creating a more hopeful outlook on life.&lt;br&gt;&lt;br&gt;
+As Mark gains fame and wealth from his ability to lie, he becomes conflicted about the consequences of his actions and the ethical implications of deception. He grapples with the moral dilemmas of whether lying ultimately brings happiness or causes more harm.</t>
+  </si>
+  <si>
+    <t>The story follows Ellie Andrews (played by Claudette Colbert), a wealthy and rebellious heiress who elopes with a playboy aviator despite her father’s objections. While on the run from her father, Ellie escapes her father's yacht and heads for New York City to reunite with her husband. She boards a night bus and meets Peter Warne (played by Clark Gable), a recently fired newspaper reporter looking for a big story to redeem his career.&lt;br&gt;&lt;br&gt;
+When Peter recognizes Ellie and learns of her identity, he sees an opportunity for a lucrative scoop. He offers to help Ellie reach her husband in exchange for exclusive rights to her story. Reluctantly, Ellie agrees to Peter’s terms, and the mismatched pair embarks on a cross-country journey by bus and hitchhiking, encountering various comedic and dramatic situations along the way.&lt;br&gt;&lt;br&gt;
+As they travel together, Peter and Ellie’s initial animosity turns into mutual respect and affection. They face challenges, including financial struggles and misunderstandings, but ultimately develop a deep bond. Through their adventures, Ellie learns about life beyond her sheltered world, while Peter rediscovers his passion for journalism and finds love in unexpected places.</t>
+  </si>
+  <si>
+    <t>The film follows a group of skilled thieves led by Charlie Croker (played by Mark Wahlberg), who plan to steal a large amount of gold bars from a heavily guarded palazzo in Venice, Italy. The heist is successful, but they are betrayed by one of their own, Steve (played by Edward Norton), who steals the gold for himself and leaves the team for dead.&lt;br&gt;&lt;br&gt;
+Surviving the betrayal, Charlie and his team, including safecracker John Bridger (played by Donald Sutherland), his daughter Stella (played by Charlize Theron), computer expert Lyle (played by Seth Green), and wheelman Handsome Rob (played by Jason Statham), set out to reclaim the stolen gold and exact revenge on Steve.&lt;br&gt;&lt;br&gt;
+Their pursuit takes them to Los Angeles, where Steve plans to sell the gold to a Ukrainian gangster. Charlie orchestrates an elaborate plan to steal back the gold, using their unique skills and intricate knowledge of the city’s infrastructure to execute a series of daring heists and high-speed chases.</t>
+  </si>
+  <si>
+    <t>Charlie Croker (played by Michael Caine), a charming and resourceful thief, is released from prison and immediately sets his sights on a daring heist: stealing $4 million in gold bullion from under the noses of the Italian Mafia. With meticulous planning and a team of expert criminals, including computer expert Professor Peach (played by Benny Hill), getaway driver Big William (played by Tony Beckley), and explosives expert Camp Freddie (played by Tony Beckley), they execute a plan to hijack a convoy of gold-filled armored cars in Turin, Italy.&lt;br&gt;&lt;br&gt;
+The heist itself is a meticulously choreographed spectacle involving Mini Coopers and a traffic jam, showcasing the team’s ingenious tactics and clever improvisation. However, just as they seem to have pulled off the perfect crime, complications arise. Betrayal within the team and unexpected challenges threaten their getaway and force them to improvise further to ensure their escape with the stolen gold.</t>
+  </si>
+  <si>
+    <t>The film is a dark satire that follows the misadventures of two professional photographers, Vinod Chopra (played by Naseeruddin Shah) and Sudhir Mishra (played by Ravi Baswani), who are struggling to make ends meet in Mumbai. They inadvertently become entangled in a web of corruption, greed, and political conspiracy when they witness and capture evidence of a murder committed by a powerful builder, Tarneja (played by Pankaj Kapur).
+As Vinod and Sudhir try to expose the truth through their photographs, they encounter a series of absurd and comedic situations, including a chaotic play rehearsal, a hilarious drunkard (played by Satish Shah), and a madcap climax involving a Mahabharata-inspired tableau and a chaotic chase sequence.
+The film cleverly critiques societal issues such as corruption, media ethics, and the nexus between politics and business, all while maintaining a satirical and comedic tone throughout.</t>
+  </si>
+  <si>
+    <t>The story revolves around two contrasting characters: Aditya Kashyap (played by Shahid Kapoor), a disillusioned and depressed businessman who is facing personal and professional setbacks, and Geet Dhillon (played by Kareena Kapoor Khan), a lively and carefree young woman with a zest for life.&lt;br&gt;&lt;br&gt;
+Aditya, on a journey to escape his troubles, boards a train to Mumbai but ends up meeting Geet, who is on her way to her hometown of Bhatinda. Geet’s bubbly and talkative nature intrigues Aditya, and despite his initial reluctance, he finds himself drawn into her world. Geet, unaware of Aditya’s troubles, sees him as a friend and confidant.&lt;br&gt;&lt;br&gt;
+However, their journey takes an unexpected turn when Geet realizes she is running away from home to marry her boyfriend Anshuman (played by Tarun Arora), who has betrayed her. Heartbroken and lost, Geet turns to Aditya for support, and he accompanies her back to Bhatinda to confront the situation.&lt;br&gt;&lt;br&gt;
+During their eventful journey, Aditya and Geet’s relationship evolves as they navigate misunderstandings, emotions, and revelations about themselves and each other. Aditya finds himself rediscovering his zest for life through Geet’s infectious positivity, while Geet learns important lessons about love, self-worth, and following one’s heart.</t>
+  </si>
+  <si>
+    <t>The film picks up several years after the events of "The Bourne Ultimatum," with Jason Bourne (played by Matt Damon) living off the grid and surviving as a bare-knuckle boxer. He is approached by former CIA operative Nicky Parsons (played by Julia Stiles), who has hacked into the CIA's database and uncovered new information about Bourne's past and his father's involvement in the Treadstone program.
+As Bourne investigates further, he becomes embroiled in a complex web of government conspiracies, surveillance programs, and corporate espionage. The CIA, led by Director Robert Dewey (played by Tommy Lee Jones) and cyber division head Heather Lee (played by Alicia Vikander), is determined to capture or eliminate Bourne to prevent him from exposing their secrets.
+Bourne’s journey takes him across several international locations, including Athens and Las Vegas, as he confronts his past and seeks answers about his true identity and the reasons behind his recruitment into the Treadstone program. Along the way, he faces deadly operatives, high-speed chases, and intense hand-to-hand combat, all while trying to evade capture and uncover the truth.</t>
+  </si>
+  <si>
+    <t>"Jeans" revolves around a young scientist named Vishwanathan (played by Prashanth), who lives with his grandmother (played by Lakshmi) in Chennai, India. Vishwanathan is working on a project involving genetically modified crops to help farmers. His grandmother wishes to see him married before her health deteriorates further.&lt;br&gt;&lt;br&gt;
+To fulfill his grandmother's wish and find a bride, Vishwanathan and his friend (played by S.V. Shekhar) travel to Los Angeles, USA. In Los Angeles, they come across two identical twin sisters, Vaishnavi and Madhumitha (both played by Aishwarya Rai). The twins are polar opposites in terms of personality and lifestyle: Vaishnavi is traditional, demure, and obedient, while Madhumitha is modern, bold, and rebellious.&lt;br&gt;&lt;br&gt;
+Vishwanathan falls in love with Vaishnavi, but complications arise due to a misunderstanding that leads to him proposing to Madhumitha instead. Eventually, Vishwanathan realizes the truth and decides to marry Vaishnavi. However, the story takes a turn when Vaishnavi is diagnosed with a heart condition that requires an expensive surgery.&lt;br&gt;&lt;br&gt;
+To raise funds for Vaishnavi's surgery, Vishwanathan returns to India and enters a "World's Best Man" contest, hoping to win the prize money. The contest involves performing various difficult tasks, including scaling Mount Everest and wrestling with a crocodile.</t>
+  </si>
+  <si>
+    <t>Johnny English (played by Rowan Atkinson) is a bumbling and incompetent British intelligence agent who works for MI7, a fictional branch of the British Secret Service. After a disastrous mission in Mozambique where he inadvertently blows his cover and fails to retrieve stolen Crown Jewels, English is relegated to menial tasks at the agency.&lt;br&gt;&lt;br&gt;
+However, when all the other MI7 agents are suddenly killed in a bombing at a funeral, English is reluctantly promoted to the role of the agency’s last hope to thwart a plot to steal the Crown Jewels of the United Kingdom. Assisted by his loyal but skeptical sidekick Bough (played by Ben Miller), English sets out to uncover the identity of the mysterious French businessman Pascal Sauvage (played by John Malkovich), who is behind the theft scheme.&lt;br&gt;&lt;br&gt;
+Despite his lack of skill and grace, English’s unconventional methods and sheer determination lead him into a series of comedic misadventures as he tries to uncover the truth and stop Sauvage’s nefarious plans. Along the way, he encounters dangerous situations, gadgets gone awry, and plenty of slapstick humor.</t>
+  </si>
+  <si>
+    <t>The film begins with Johnny English, the bumbling and inept British MI7 spy, who has been in seclusion in a Tibetan monastery after a disastrous mission in Mozambique years ago. He is called back into action when a plot to assassinate the Chinese Premier unfolds, requiring MI7’s best agent to uncover and thwart the conspiracy.&lt;br&gt;&lt;br&gt;
+Despite his lack of modern espionage skills and outdated methods, English is reinstated as MI7’s top agent and is assigned to work with Agent Tucker (played by Daniel Kaluuya) to investigate the case. English’s mission takes him across Hong Kong, Macau, and Switzerland, where he encounters various challenges, including deadly assassins and high-tech gadgets.&lt;br&gt;&lt;br&gt;
+With the help of his loyal assistant, Bough (played by Ben Miller), and a new ally, Kate Sumner (played by Rosamund Pike), English navigates through a series of comedic misadventures while uncovering a complex web of deceit and betrayal orchestrated by criminal mastermind Simon Ambrose (played by Dominic West).</t>
+  </si>
+  <si>
+    <t>The story revolves around Elizabeth Masterson (played by Reese Witherspoon), a successful and driven medical resident living in San Francisco. Elizabeth is dedicated to her career and has little time for socializing or relationships. One night, after a grueling shift at the hospital, she drives home and gets into a severe car accident.&lt;br&gt;&lt;br&gt;
+As a result of the accident, Elizabeth slips into a coma and is hospitalized. Meanwhile, David Abbott (played by Mark Ruffalo), a recently widowed landscape architect, is looking for a new apartment in San Francisco. He visits a beautiful apartment that Elizabeth used to live in, unaware that she is still technically the legal tenant.&lt;br&gt;&lt;br&gt;
+To his surprise, David discovers Elizabeth's spirit inhabiting the apartment as a ghost. Initially skeptical and frightened, David eventually realizes that Elizabeth’s ghostly presence is real and seeks to help her regain consciousness and solve the mystery of why she is stuck in limbo.&lt;br&gt;&lt;br&gt;
+As David and Elizabeth reluctantly team up, they begin to uncover details about Elizabeth's life, including her ambitious career goals and the reasons behind her emotional detachment. Along the way, they develop a deep bond and mutual affection for each other, leading to a heartwarming and poignant romance.</t>
+  </si>
+  <si>
+    <t>The story revolves around two individuals, Ajith Kumar (played by Ajith Kumar) and Devayani (played by Devayani), who live in two different villages in Tamil Nadu. They develop a unique bond through the exchange of letters written to each other, despite never having met in person.&lt;br&gt;&lt;br&gt;
+Ajith Kumar, a straightforward and principled young man, finds a letter addressed to Devayani on a tree one day. Intrigued, he responds to the letter and begins a correspondence with Devayani, who lives in a nearby village. They share their thoughts, dreams, and feelings through letters, gradually falling in love without knowing each other’s physical appearances.&lt;br&gt;&lt;br&gt;
+Meanwhile, Devayani, a reserved and traditional village girl, also begins to develop feelings for Ajith Kumar based on his letters. Their bond deepens over time, leading them to contemplate the idea of marriage despite never having seen each other face-to-face.&lt;br&gt;&lt;br&gt;
+The story takes a turn when Ajith Kumar decides to meet Devayani in person to propose marriage. However, circumstances prevent their meeting, and misunderstandings arise that threaten to derail their relationship. Ultimately, their love for each other is put to the test as they navigate obstacles and strive to unite against all odds.</t>
+  </si>
+  <si>
+    <t>The film is set in New York City and follows the life of Naina Catherine Kapur (played by Preity Zinta), a young Indian American woman who lives with her widowed mother Jennifer (played by Jaya Bachchan) and younger brother Shiv (played by Athit Naik). Naina is burdened by responsibilities and has lost her zest for life after her father's death and her mother's struggles to keep the family together.&lt;br&gt;&lt;br&gt;
+Naina’s life takes a turn with the arrival of Aman Mathur (played by Shah Rukh Khan), their lively and optimistic new neighbor. Aman's infectious energy and positive outlook on life gradually begin to change Naina’s perspective, bringing joy and laughter back into her life. Aman becomes not only a friend but also a mentor to Naina and her family, encouraging them to embrace happiness and live life to the fullest.&lt;br&gt;&lt;br&gt;
+However, as Naina and Aman grow closer, she discovers that he is hiding a painful secret about his health. Despite his love for her, Aman sacrifices his feelings to ensure Naina’s happiness and decides to bring her together with her best friend Rohit Patel (played by Saif Ali Khan), who has secretly loved Naina for years.&lt;br&gt;&lt;br&gt;
+The film explores themes of love, friendship, self-discovery, and the importance of cherishing every moment. It culminates in an emotional journey where Naina and her family learn valuable lessons about life, love, and letting go.</t>
+  </si>
+  <si>
+    <t>The film revolves around three friends: Kaliyamoorthy (played by Santhanam), Power Kumar (played by Srinivasan), and Shiva Sundaram (played by Sethu). They are ardent fans of the popular Tamil actor Powerstar Srinivasan (who plays Power Kumar in the film). The trio shares a common obsession with the actor and often mimics his style and dialogue delivery.&lt;br&gt;&lt;br&gt;
+The plot thickens when all three friends fall in love with the same woman, Dr. Sowmiya (played by Vishakha Singh), who moves into their neighborhood. Each friend tries to win her affection using different strategies, leading to hilarious misunderstandings and comedic situations.&lt;br&gt;&lt;br&gt;
+As the competition intensifies, the friends find themselves entangled in a series of comical scenarios involving mistaken identities, slapstick humor, and over-the-top antics to impress Dr. Sowmiya. Their attempts at wooing her create chaos and confusion, ultimately testing the strength of their friendship and their understanding of love.</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger plays Detective John Kimble, a tough and no-nonsense police detective in Los Angeles who is known for his relentless pursuit of criminals. While on the trail of a notorious drug dealer named Cullen Crisp (played by Richard Tyson), Kimble and his partner discover crucial information from Crisp's ex-wife about his son and the large sum of money he inherited from his criminal activities.&lt;br&gt;&lt;br&gt;
+To track down Crisp and protect his son, Kimble goes undercover as a kindergarten teacher at Astoria Elementary School in Oregon, where Crisp’s son is believed to attend. Initially out of his element and struggling to adapt to the chaotic environment of the kindergarten classroom, Kimble clashes with the young students and their unconventional behavior.&lt;br&gt;&lt;br&gt;
+As Kimble begins to bond with his students and gain their trust, he discovers that being a kindergarten teacher requires patience, empathy, and understanding. With the help of his fellow teacher Joyce Palmieri (played by Penelope Ann Miller), Kimble learns valuable lessons about caring for others and finds himself developing a paternal bond with the children, especially a young boy named Dominic (played by Christian Cousins).&lt;br&gt;&lt;br&gt;
+Meanwhile, Kimble’s investigation into Crisp’s whereabouts becomes increasingly dangerous as he gets closer to uncovering the drug dealer’s location and preventing a potential threat to his son and the school.</t>
+  </si>
+  <si>
+    <t>The story follows June Havens (played by Cameron Diaz), a car mechanic from Boston who unexpectedly finds herself caught up in the world of espionage after meeting the charming and mysterious Roy Miller (played by Tom Cruise) at an airport. Roy, who initially appears to be a charming and friendly stranger, turns out to be a rogue secret agent on the run from both the U.S. government and a dangerous arms dealer.&lt;br&gt;&lt;br&gt;
+After a series of high-octane action sequences and narrow escapes, June becomes entangled in Roy’s mission to protect a powerful and innovative energy source called the Zephyr. As they travel across several exotic locations, including Austria and Spain, Roy and June must evade capture by relentless assassins while trying to unravel the conspiracy surrounding the Zephyr and stay one step ahead of their pursuers.&lt;br&gt;&lt;br&gt;
+Despite Roy’s dubious intentions and June’s initial reluctance, the two form an unlikely alliance and develop feelings for each other amid the chaos and danger. As the stakes escalate and their enemies close in, Roy and June must rely on each other’s skills and trust to survive and expose the truth behind the deadly conspiracy.</t>
+  </si>
+  <si>
+    <t>Indiana Jones Temple of Doom</t>
+  </si>
+  <si>
+    <t>The film is renowned for its powerful portrayal of jury deliberations and the dynamics among jurors in a murder trial.&lt;br&gt;&lt;br&gt;
+The story unfolds primarily in a single room where twelve jurors deliberate the guilt or innocence of a young man accused of murdering his father. Initially, all but one juror are ready to deliver a quick guilty verdict, but Juror #8 (played by Henry Fonda) stands alone in his belief in the defendant's innocence. His insistence on examining the evidence and discussing the case thoroughly leads to intense and often heated debates among the jurors.&lt;br&gt;&lt;br&gt;
+As the deliberations progress, the jurors' personal biases, backgrounds, and prejudices gradually come to light, influencing their opinions and decisions. The film delves deep into themes of justice, reasonable doubt, empathy, and the responsibility of individuals in the legal system.&lt;br&gt;&lt;br&gt;
+"12 Angry Men" is celebrated for its powerful performances, especially Henry Fonda's portrayal of Juror #8, who serves as the voice of reason and conscience in the room. The ensemble cast, which includes Lee J. Cobb, Ed Begley, E.G. Marshall, and Jack Klugman among others, delivers memorable performances that bring to life the tensions and complexities of the jury deliberation process.
+The film is notable for its minimalist setting and tight focus on character development and dialogue, creating a tense and gripping atmosphere throughout. "12 Angry Men" has since become a classic of American cinema, acclaimed for its insightful exploration of human nature and the principles of justice.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The film revolves around Jenna Rink, a 13-year-old girl who makes a wish on her birthday to be 30 and suddenly wakes up the next day as a 30-year-old woman.&lt;br&gt;&lt;br&gt;
+The story begins in 1987 when Jenna, feeling awkward and unpopular at her 13th birthday party, wishes to be "30, flirty, and thriving." Miraculously, her wish comes true, and she finds herself in 2004, living in a glamorous Manhattan apartment as a successful magazine editor. However, Jenna soon realizes that her adult life is not as perfect as she imagined. She reconnects with her childhood friend Matty (played by Mark Ruffalo), who is now a photographer, and discovers that their friendship has changed over the years.&lt;br&gt;&lt;br&gt;
+As Jenna navigates her newfound adulthood, she grapples with the consequences of the choices she made and learns valuable lessons about friendship, love, and self-acceptance. The film blends humor, nostalgia, and romance as Jenna tries to reconcile her 13-year-old self with her adult persona.&lt;br&gt;&lt;br&gt;
+"13 Going on 30" received positive reviews for Jennifer Garner's charming performance and its nostalgic appeal, especially for those who grew up in the 1980s. The film's lighthearted tone and heartfelt moments have made it a beloved entry in the romantic comedy genre, appealing to audiences of all ages with its themes of second chances and the importance of staying true to oneself.</t>
+  </si>
+  <si>
+    <t>The film is set in a near-future world where cloning technology has advanced to the point where human cloning is possible but strictly illegal.&lt;br&gt;&lt;br&gt;
+The story follows Adam Gibson (played by Schwarzenegger), a helicopter pilot who discovers that he has been illegally cloned after a botched mission. As he tries to uncover the truth behind his cloning and the conspiracy surrounding it, Gibson becomes embroiled in a dangerous web of corporate intrigue and ethical dilemmas.&lt;br&gt;&lt;br&gt;
+In this futuristic society, cloning has become a controversial issue with profound implications for identity, morality, and the sanctity of life. The film explores themes of scientific ethics, corporate greed, and the blurred lines between what is natural and what is artificial.&lt;br&gt;&lt;br&gt;
+As Gibson delves deeper into the mystery, he encounters other clones, confronts powerful figures who seek to control the technology for their own gain, and ultimately fights to reclaim his identity and protect his family.&lt;br&gt;&lt;br&gt;
+"The 6th Day" blends action-packed sequences with philosophical questions about the consequences of cloning technology and the ethical implications of playing with human life. While it received mixed reviews from critics, the film remains notable for its exploration of futuristic themes and Schwarzenegger's typically charismatic performance in a sci-fi setting.</t>
+  </si>
+  <si>
+    <t>The movie stars Joe Pesci as Tommy Spinelli, a mobster tasked with delivering a duffel bag containing the severed heads of eight mafia figures to his boss. However, things go awry when Tommy mistakenly picks up the wrong bag at the airport, which belongs to Charlie (played by Andy Comeau), a medical student on his way to meet his girlfriend's parents.&lt;br&gt;&lt;br&gt;
+As Tommy and Charlie's paths cross, the film unfolds with a series of comedic mishaps and misunderstandings as Charlie unknowingly carries around the gruesome contents of the duffel bag. Tommy desperately tries to retrieve the heads before his boss finds out about the mix-up, leading to absurd and increasingly chaotic situations.&lt;br&gt;&lt;br&gt;
+The film is known for its dark humor, slapstick comedy, and the contrast between the bumbling, innocent Charlie and the hardened criminal Tommy. As the mismatched duo navigates through their predicament, they encounter various eccentric characters and find themselves in increasingly absurd situations.&lt;br&gt;&lt;br&gt;
+"8 Heads in a Duffel Bag" received mixed reviews upon its release but has since gained a cult following for its outrageous premise and comedic performances, particularly from Joe Pesci. The film's blend of crime thriller elements with dark comedy makes it a unique entry in the genre, offering a humorous take on the consequences of mistaken identity and criminal mishaps.</t>
+  </si>
+  <si>
+    <t>The film stars Fred MacMurray as Professor Ned Brainard, a brilliant but absent-minded scientist at Medfield College.&lt;br&gt;&lt;br&gt;
+The story revolves around Professor Brainard, who is so engrossed in his scientific experiments that he forgets about important events, including his own wedding to his fiancée, Betsy Carlisle (played by Nancy Olson). His latest experiment involves a substance called "flubber" (short for "flying rubber"), which gains remarkable properties that enable objects to defy gravity and bounce excessively.&lt;br&gt;&lt;br&gt;
+As Professor Brainard attempts to perfect his invention, he faces numerous humorous challenges and setbacks, including attempts by rival scientists to steal his formula. The film features slapstick comedy as well as heartfelt moments as Brainard tries to balance his passion for science with his personal life.&lt;br&gt;&lt;br&gt;
+The plot thickens when Brainard's discovery of flubber leads to a series of comedic and chaotic situations, including using it to help the Medfield College basketball team excel in their games. Ultimately, Brainard must reconcile his scientific achievements with his relationships and decide what truly matters in life.&lt;br&gt;&lt;br&gt;
+"The Absent-Minded Professor" was well-received upon its release for its imaginative storyline, Fred MacMurray's endearing portrayal of the eccentric professor, and the film's innovative special effects showcasing the antics of flubber. The movie's success led to a sequel, "Son of Flubber," and a 1997 remake titled "Flubber," starring Robin Williams.</t>
+  </si>
+  <si>
+    <t>The film revolves around the quirky and unconventional relationship that develops between two individuals who team up to exact revenge on their respective ex-partners.&lt;br&gt;&lt;br&gt;
+The story begins with Sam (played by Matthew Broderick) discovering that his longtime girlfriend, Linda (played by Kelly Preston), has left him for another man, a French chef named Anton (played by Tchéky Karyo). Devastated and heartbroken, Sam moves into an abandoned building across the street from Linda's apartment in New York City.&lt;br&gt;&lt;br&gt;
+Meanwhile, Maggie (played by Meg Ryan), a tough and resourceful photographer, arrives in town seeking vengeance against her ex-boyfriend, Anton, who abandoned her without explanation. Maggie sets up surveillance equipment in Sam's building to spy on Anton and gather evidence of his infidelity.&lt;br&gt;&lt;br&gt;
+Initially at odds with each other, Sam and Maggie form an unlikely alliance as they bond over their shared experiences of betrayal and heartache. Their plan to sabotage Anton and Linda's relationship leads to comedic and unexpected situations, blurring the lines between revenge and romance.&lt;br&gt;&lt;br&gt;
+"Addicted to Love" explores themes of love, loss, and moving on from past relationships, while injecting humor and charm into its portrayal of two wounded souls finding solace and unexpected connection in each other's company. The film's blend of romantic comedy with elements of revenge and redemption has made it a memorable entry in the genre, buoyed by the chemistry between Meg Ryan and Matthew Broderick's characters.</t>
+  </si>
+  <si>
+    <t>"The Adventures of Tintin" is a 2011 animated action-adventure film directed by Steven Spielberg. It is based on the popular comic book series "The Adventures of Tintin" created by Belgian cartoonist Hergé. The film combines elements from three of Hergé's Tintin adventures: "The Crab with the Golden Claws," "The Secret of the Unicorn," and "Red Rackham's Treasure."&lt;br&gt;&lt;br&gt;
+The story follows Tintin, a young and intrepid reporter with a knack for solving mysteries, voiced by Jamie Bell. Alongside his loyal dog Snowy, Tintin becomes embroiled in a thrilling quest when he purchases a model ship called the Unicorn. This purchase sets off a chain of events that lead Tintin into a globe-trotting adventure filled with danger, intrigue, and treasure hunting.&lt;br&gt;&lt;br&gt;
+As Tintin unravels the mystery surrounding the Unicorn, he encounters the irascible Captain Haddock, voiced by Andy Serkis, who holds crucial information about the lost treasure of his ancestor, Sir Francis Haddock. Together with Captain Haddock and the bumbling detectives Thomson and Thompson (voiced by Simon Pegg and Nick Frost), Tintin races against time to uncover the truth and outwit the sinister Ivan Sakharine (voiced by Daniel Craig), who also seeks the treasure.&lt;br&gt;&lt;br&gt;
+"The Adventures of Tintin" is notable for its groundbreaking motion-capture animation technology, which brought Hergé's iconic characters and vibrant world to life with stunning visual fidelity. The film captures the spirit of the original comics with its fast-paced action sequences, intricate plot, and colorful characters, appealing both to fans of the comics and new audiences alike.&lt;br&gt;&lt;br&gt;
+Critically acclaimed for its animation, storytelling, and faithfulness to the source material, "The Adventures of Tintin" received praise for its adventurous spirit and Spielberg's direction. It successfully revived interest in Tintin's adventures on the big screen and left audiences eager for potential sequels to further explore the beloved character's escapades.</t>
+  </si>
+  <si>
+    <t>Directed by Guy Ritchie, the film brings the classic tale of "Aladdin and the Magic Lamp" to life with a mix of vibrant visuals, music, and new interpretations of familiar characters.&lt;br&gt;&lt;br&gt;
+The story follows Aladdin (played by Mena Massoud), a charming and resourceful street thief living in the fictional city of Agrabah. One day, Aladdin meets Princess Jasmine (played by Naomi Scott), who has disguised herself to experience life beyond the palace walls. They form a connection, but Aladdin's life changes when he is tasked by the villainous Grand Vizier Jafar (played by Marwan Kenzari) to retrieve a magical lamp from the Cave of Wonders.&lt;br&gt;&lt;br&gt;
+Inside the cave, Aladdin discovers the Genie (played by Will Smith), who grants him three wishes. With the Genie's help, Aladdin transforms into Prince Ali Ababwa to impress Jasmine and win her heart. However, Jafar's ambitions to usurp the Sultan's throne and control Agrabah threaten to disrupt Aladdin's newfound happiness.&lt;br&gt;&lt;br&gt;
+The 2019 adaptation of "Aladdin" stays faithful to the core elements of the original animated film while expanding on the characters' motivations and relationships. It features memorable musical numbers including classic songs like "A Whole New World" and introduces new compositions to enhance the story.&lt;br&gt;&lt;br&gt;
+Will Smith's portrayal of the Genie, while distinct from Robin Williams' iconic performance in the animated version, brings humor, charisma, and a contemporary twist to the character. The film's visual effects and elaborate set designs immerse audiences in the colorful and enchanting world of Agrabah.&lt;br&gt;&lt;br&gt;
+"Aladdin" (2019) received a mixed reception from critics but was generally praised for its entertaining spectacle, lively performances, and the nostalgic appeal of revisiting a beloved Disney classic. It achieved commercial success worldwide, appealing to both fans of the original animated film and new audiences looking for a magical and family-friendly adventure.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Marvin Mange, a hapless and somewhat socially awkward police evidence file clerk who dreams of becoming a real police officer.&lt;br&gt;&lt;br&gt;
+The plot takes a fantastical turn when Marvin is critically injured in a car accident while trying to respond to a burglary. He is saved by a mad scientist who uses experimental animal organs to rebuild Marvin's body, effectively turning him into a human-animal hybrid with enhanced physical abilities. Marvin soon discovers that he has acquired the traits and instincts of various animals, leading to a series of comedic and often absurd situations as he tries to navigate his new abilities and responsibilities.&lt;br&gt;&lt;br&gt;
+As Marvin begins to utilize his newfound powers to fight crime and impress his colleagues, he also faces challenges in balancing his personal life and relationships. The film explores themes of identity, acceptance, and the consequences of tampering with nature in a lighthearted and comedic manner.&lt;br&gt;&lt;br&gt;
+Critically, "The Animal" received mixed reviews. While some appreciated Rob Schneider's comedic performance and the film's slapstick humor, others found the premise and execution to be too outlandish and predictable. The film's humor often relies on physical comedy and Schneider's trademark comedic style, appealing primarily to fans of his work and those seeking light entertainment.&lt;br&gt;&lt;br&gt;
+Overall, "The Animal" is viewed as a typical entry in Rob Schneider's filmography, offering a blend of silly humor and exaggerated situations that may appeal to audiences looking for escapist comedy. However, it is not considered a standout in the genre or remembered for its profound storytelling or character development.</t>
+  </si>
+  <si>
+    <t>The story is set in ancient Gaul, where the indomitable Gauls, led by Asterix and his friend Obelix, resist Roman occupation. Julius Caesar devises a new plan to defeat the Gauls by building a luxury Roman estate called "The Mansion of the Gods" near their village. The Romans hope to entice the Gauls with Roman comforts and lure them into Roman ways, thus undermining their resistance.&lt;br&gt;&lt;br&gt;
+However, Asterix and Obelix are determined to thwart Caesar's plan and preserve their Gaulish way of life. They devise clever schemes and use their wit and strength to resist the allure of Romanization and protect their village from Caesar's influence.&lt;br&gt;&lt;br&gt;
+The film explores themes of cultural identity, resistance against oppression, and the clash of civilizations, all presented in a humorous and family-friendly manner typical of the Asterix comic series. The animation style stays true to the original comic's artwork, capturing its colorful characters and vibrant world.&lt;br&gt;&lt;br&gt;
+"Mansion of the Gods" received positive reviews for its fidelity to the source material, witty humor, and engaging storyline. It was praised for its clever satire on modern consumerism and cultural imperialism, while also delivering entertaining action sequences and memorable characters.&lt;br&gt;&lt;br&gt;
+Overall, "Mansion of the Gods" is celebrated as a successful adaptation of the beloved Asterix comics, appealing to both longtime fans and new audiences with its blend of adventure, humor, and social commentary.</t>
+  </si>
+  <si>
+    <t>"Avatar" is a 2009 epic science fiction film directed and produced by James Cameron. It stands out for its groundbreaking visual effects, particularly its use of 3D technology and motion capture to create a visually stunning world and creatures.&lt;br&gt;&lt;br&gt;
+The story is set in the mid-22nd century on the lush, inhabited moon of Pandora, which orbits a gas giant in the Alpha Centauri star system. The protagonist, Jake Sully (played by Sam Worthington), is a paralyzed former Marine who is recruited to take part in the Avatar Program, a project that allows humans to remotely control genetically engineered Na'vi bodies to interact with the native population.&lt;br&gt;&lt;br&gt;
+As Jake becomes immersed in the culture of the Na'vi, he forms a deep connection with Neytiri (played by Zoe Saldana), a Na'vi princess. However, tensions rise as the human mining corporation led by Colonel Miles Quaritch (played by Stephen Lang) threatens Pandora's indigenous population in their quest for valuable resources.&lt;br&gt;&lt;br&gt;
+The film explores themes of environmentalism, colonialism, and the clash between nature and technology. It delves into the ethical implications of exploiting resources and displacing indigenous cultures for profit, while also celebrating the interconnectedness of all living beings.&lt;br&gt;&lt;br&gt;
+"Avatar" received widespread critical acclaim for its visual effects, world-building, and immersive 3D experience. It became a cultural phenomenon and broke numerous box office records, becoming the highest-grossing film of all time (until it was surpassed by "Avengers: Endgame" in 2019).&lt;br&gt;&lt;br&gt;
+The success of "Avatar" led to plans for multiple sequels, with James Cameron aiming to further explore Pandora's world and its inhabitants. The film's impact on filmmaking technology and its influence on popular culture cemented its place as a landmark achievement in the history of cinema.</t>
+  </si>
+  <si>
+    <t>The plot of "Avvai Shanmugi" revolves around Pandyan (played by Kamal Haasan), a loving father who goes through a bitter divorce with his wife. To gain custody of his daughter, Pandyan disguises himself as Avvai Shanmugi, an elderly woman hired to care for his daughter. Avvai Shanmugi is portrayed with humor and warmth as she navigates the complexities of domestic life while concealing her true identity.&lt;br&gt;&lt;br&gt;
+As Avvai Shanmugi, Pandyan faces numerous comedic challenges and cultural adjustments. The film explores themes of family, love, and the lengths a parent will go to for their child's happiness. The narrative unfolds with entertaining situations and misunderstandings arising from Pandyan's dual identity.&lt;br&gt;&lt;br&gt;
+Kamal Haasan's performance in the titular role of Avvai Shanmugi garnered critical acclaim for his portrayal of both the sensitive father and the humorous elderly woman. The film's success was also attributed to its engaging storyline, lively music composed by Deva, and the chemistry between the cast members.&lt;br&gt;&lt;br&gt;
+"Avvai Shanmugi" was a box office hit and remains a beloved comedy classic in Tamil cinema. It is celebrated for its light-hearted humor, memorable dialogues, and its commentary on social issues through the lens of comedy. The film's success led to it being remade in several languages, showcasing its enduring popularity and influence in Indian cinema.</t>
+  </si>
+  <si>
+    <t>The plot revolves around Baankey (played by Rajpal Yadav), a simple and innocent man who gets embroiled in a series of chaotic events surrounding a wedding. Baankey becomes inadvertently involved in a "crazy baraat" (wedding procession) where unexpected and hilarious situations unfold due to misunderstandings, mistaken identities, and quirky characters.&lt;br&gt;&lt;br&gt;
+As Baankey navigates through the chaotic wedding preparations and ceremonies, he encounters eccentric relatives, nosy neighbors, and a range of mishaps that threaten to derail the wedding festivities. The film blends slapstick comedy with situational humor as Baankey and the ensemble cast find themselves in increasingly absurd and humorous predicaments.&lt;br&gt;&lt;br&gt;
+"Baankey Ki Crazy Baraat" is known for its light-hearted and entertaining portrayal of Indian wedding culture, emphasizing the colorful and eventful nature of traditional celebrations. The film's ensemble cast delivers spirited performances, with Rajpal Yadav's comedic timing and Sanjay Mishra's eccentric character adding to the film's comedic appeal.&lt;br&gt;&lt;br&gt;
+While the film received mixed reviews from critics, it found an audience among fans of Hindi comedy films for its energetic performances, humorous storyline, and lively music. "Baankey Ki Crazy Baraat" remains a popular choice for audiences looking for a fun-filled and light-hearted comedy experience centered around the chaos of weddings in Indian culture.</t>
+  </si>
+  <si>
+    <t>The film stars Joe Mantegna, Lara Flynn Boyle, Joe Pantoliano, and Brian Haley, with twins Adam and Jacob Worton playing the role of Baby Bink.&lt;br&gt;&lt;br&gt;
+The story revolves around Baby Bink, the wealthy infant son of a wealthy couple in Chicago. He becomes the target of three bumbling criminals: Eddie (played by Joe Mantegna), Norby (played by Joe Pantoliano), and Veeko (played by Brian Haley). The criminals kidnap Baby Bink with the intention of holding him for ransom, hoping to score a large sum of money from his wealthy parents.&lt;br&gt;&lt;br&gt;
+However, Baby Bink manages to escape from the criminals' clutches and embarks on an adventure through the streets of Chicago. The film humorously depicts Baby Bink's journey as he navigates various obstacles and encounters, unaware of the danger he's in. Throughout his escapade, Baby Bink's innocent curiosity leads him to unwittingly outwit the criminals at every turn.&lt;br&gt;&lt;br&gt;
+As Baby Bink's parents, the police, and the criminals all scramble to find him, the film unfolds with slapstick comedy and humorous situations. It celebrates the resilience and cleverness of the baby, contrasting sharply with the incompetence of the criminals.&lt;br&gt;&lt;br&gt;
+"Baby's Day Out" received mixed reviews from critics but found success with audiences, particularly for its charming portrayal of a baby's escapades and the comedic performances of the cast. The film's blend of adventure and humor, combined with its adorable central character, has made it a nostalgic favorite for many viewers who enjoy family-friendly comedies.</t>
+  </si>
+  <si>
+    <t>The story revolves around Raj Sharma (played by Ranbir Kapoor), a carefree and charming young man who believes in living life to the fullest without commitment. He meets and dates three different women at different stages of his life: Mahi (played by Minissha Lamba), Radhika (played by Bipasha Basu), and Gayatri (played by Deepika Padukone).&lt;br&gt;&lt;br&gt;
+As Raj's relationships with these women unfold, the film explores themes of love, heartbreak, and personal growth. Each relationship teaches Raj valuable lessons about life and love, transforming him from a carefree flirt into a more mature and understanding individual.&lt;br&gt;&lt;br&gt;
+The title "Bachna Ae Haseeno" translates to "Beware, oh beauties" in English, reflecting Raj's journey of reckoning with his past behavior and learning to value and respect the women in his life. The film's narrative structure moves between past and present, showcasing Raj's evolution as he reflects on his relationships and their impact on his life.&lt;br&gt;&lt;br&gt;
+"Bachna Ae Haseeno" was well-received for its engaging storyline, catchy music composed by Vishal-Shekhar, and the charismatic performances of its cast, particularly Ranbir Kapoor. The film's exploration of love and relationships resonated with audiences, making it a commercial success at the box office.&lt;br&gt;&lt;br&gt;
+Overall, "Bachna Ae Haseeno" is remembered as a contemporary romantic drama that blends humor, romance, and emotional depth, offering insights into the complexities of modern relationships and personal growth.</t>
+  </si>
+  <si>
+    <t>The story picks up immediately after the events of the first film, with Marty and Doc traveling from 1985 to the future—specifically, to October 21, 2015—to prevent a series of events that would negatively impact the future of Marty's family. In the future, Marty must prevent his son from being involved in a robbery orchestrated by Biff Tannen's grandson, Griff. Along the way, Marty purchases a sports almanac, which he later discovers will have catastrophic consequences if it falls into the wrong hands.&lt;br&gt;&lt;br&gt;
 After successfully thwarting the robbery, Marty accidentally interferes with events in 1955, creating an alternate timeline where Biff (now an elderly man) has used the sports almanac to become incredibly wealthy and powerful. Marty and Doc must now travel back to 1955 once again to retrieve the almanac and restore the original timeline, all while facing new challenges and encountering their younger selves from the first film.&lt;br&gt;&lt;br&gt;
 "Back to the Future Part II" is notable for its complex narrative involving multiple timelines, parallel events, and the consequences of altering history. The film showcases impressive visual effects for its time, including the depiction of a futuristic 2015 and the seamless integration of actors playing multiple roles.&lt;br&gt;&lt;br&gt;
 The sequel was well-received for its imaginative storytelling, humor, and action sequences, though its darker tone and more intricate plot were noted compared to the original. It successfully sets up the third and final installment of the trilogy, "Back to the Future Part III" (1990), which concludes Marty and Doc's time-traveling adventures.&lt;br&gt;&lt;br&gt;
-Overall, "Back to the Future Part II" remains a beloved continuation of the franchise, expanding on the themes of time travel, friendship, and the consequences of altering the past. It is considered a classic of 1980s cinema and a crucial part of the "Back to the Future" trilogy's enduring legacy.&lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The story continues directly from the cliffhanger ending of "Back to the Future Part II," where Marty receives a letter from Doc dated 1885, revealing that he is alive and living in the Old West. Marty discovers that Doc is trapped in the year 1885 after the DeLorean time machine was struck by lightning and sent back in time. Determined to rescue his friend, Marty travels back to 1885 using the repaired DeLorean.&lt;br&gt;&lt;br&gt;
+Overall, "Back to the Future Part II" remains a beloved continuation of the franchise, expanding on the themes of time travel, friendship, and the consequences of altering the past. It is considered a classic of 1980s cinema and a crucial part of the "Back to the Future" trilogy's enduring legacy.</t>
+  </si>
+  <si>
+    <t>The story continues directly from the cliffhanger ending of "Back to the Future Part II," where Marty receives a letter from Doc dated 1885, revealing that he is alive and living in the Old West. Marty discovers that Doc is trapped in the year 1885 after the DeLorean time machine was struck by lightning and sent back in time. Determined to rescue his friend, Marty travels back to 1885 using the repaired DeLorean.&lt;br&gt;&lt;br&gt;
 In the Old West, Marty reunites with Doc, who has integrated himself into the town of Hill Valley and fallen in love with schoolteacher Clara Clayton (played by Mary Steenburgen). However, their plans to return to 1985 are complicated by the discovery that the DeLorean lacks the necessary fuel for time travel. Marty and Doc must find a way to generate the 1.21 gigawatts of electricity needed to power the DeLorean and overcome various obstacles, including encounters with Buford "Mad Dog" Tannen (played by Thomas F. Wilson), the notorious outlaw ancestor of Biff Tannen.&lt;br&gt;&lt;br&gt;
 "Back to the Future Part III" blends elements of western film genre with the time-traveling adventure that defines the series. It explores themes of friendship, courage, and the importance of personal growth, as Marty and Doc confront challenges in the Wild West while trying to preserve the timeline and return to their own time.&lt;br&gt;&lt;br&gt;
 The film received positive reviews for its entertaining blend of action, humor, and heartfelt moments, marking a return to the lighter tone of the first film compared to the more complex narrative of the second installment. It successfully concludes the trilogy with satisfying resolutions for its characters and themes, solidifying its place as a beloved classic in cinema history.&lt;br&gt;&lt;br&gt;
-Overall, "Back to the Future Part III" is celebrated for its imaginative storytelling, impressive performances, and the enduring chemistry between Michael J. Fox and Christopher Lloyd. It remains a favorite among fans of the series and continues to entertain audiences with its timeless appeal.&lt;br&gt;&lt;br&gt;
-</t>
+Overall, "Back to the Future Part III" is celebrated for its imaginative storytelling, impressive performances, and the enduring chemistry between Michael J. Fox and Christopher Lloyd. It remains a favorite among fans of the series and continues to entertain audiences with its timeless appeal.</t>
+  </si>
+  <si>
+    <t>Mr. Bean wins a vacation trip to Cannes, France, after he inadvertently causes a lottery ball to reveal the winning number. Excited about his first trip abroad, Bean sets off on a journey from London to Cannes, encountering various mishaps and adventures along the way.&lt;br&gt;&lt;br&gt;
+During his travels, Bean unwittingly separates a young boy named Stepan from his father and becomes entangled in a series of comedic situations as he tries to help reunite them. Despite his well-meaning intentions, Bean's clumsiness and unusual behavior continue to disrupt the lives of those around him, including a filmmaker whose directorial debut is jeopardized by Bean's interference.&lt;br&gt;&lt;br&gt;
+As Bean navigates through the picturesque landscapes of France and encounters local customs and traditions, he inadvertently leaves a trail of chaos and laughter behind him. Despite the challenges he faces, Bean's innocence, perseverance, and simple joys ultimately bring unexpected joy and unity to those he encounters.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Axel Foley (played by Eddie Murphy), a street-smart and wisecracking Detroit cop who is known for his unorthodox methods. When his childhood friend Mikey Tandino is murdered in Detroit, Axel suspects foul play and begins investigating the case on his own. Despite warnings from his superiors, Axel's investigation leads him to Beverly Hills, California, where Mikey had recently moved.&lt;br&gt;&lt;br&gt;
+In Beverly Hills, Axel teams up with two local detectives, Billy Rosewood (played by Judge Reinhold) and John Taggart (played by John Ashton), who initially dismiss him due to his unconventional style and rough demeanor. However, Axel's street smarts and determination soon prove invaluable as they uncover a network of criminal activity involving drug trafficking and corruption.&lt;br&gt;&lt;br&gt;
+As Axel delves deeper into the case, he clashes with Beverly Hills' affluent and sophisticated culture while also charming and outsmarting his adversaries with his quick wit and resourcefulness. Along the way, he navigates through high-stakes car chases, shootouts, and comedic situations that highlight his ability to improvise and think on his feet.&lt;br&gt;&lt;br&gt;
+The film explores themes of friendship, loyalty, justice, and the clash between different social and cultural backgrounds. Axel Foley's character challenges the norms and expectations of law enforcement, emphasizing street smarts over formal training and bureaucracy.</t>
+  </si>
+  <si>
+    <t>The film revolves around a theater group called "The Great Indian Circus" owned by Champak Chaturvedi (played by Paresh Rawal) and his team of actors, including Bunty (played by Akshay Kumar) and Babla (played by Govinda). The group is struggling financially and decides to take their show to London to revive their fortunes.&lt;br&gt;&lt;br&gt;
+In London, Bunty and Babla accidentally become involved in a murder mystery when they witness the death of a woman. They find themselves caught between the police, led by Inspector JD (played by Sharat Saxena), and a deadly underworld figure named Vikram (played by Rajpal Yadav), who is determined to keep the truth hidden.&lt;br&gt;&lt;br&gt;
+As the chaos ensues, Bunty and Babla, along with their theater troupe, attempt to solve the murder mystery while navigating through hilarious misunderstandings, mistaken identities, and comedic situations. Their antics lead to a series of madcap adventures, including frantic chases, disguises, and slapstick humor.&lt;br&gt;&lt;br&gt;
+The film blends comedy and mystery, with themes of friendship, loyalty, and the unpredictability of life in the world of entertainment. It explores the lengths to which individuals go to protect their loved ones and the consequences of mistaken actions.</t>
+  </si>
+  <si>
+    <t>The film revolves around Bharat Bhushan (played by Vinay Pathak), a simple and naïve middle-aged man who works as a tax inspector but has a passion for singing. Bharat is invited by his colleague Rajat Kapoor (played by Ranvir Shorey) to a party at his home. Rajat, a wealthy and arrogant businessman, invites Bharat to the party as a joke, intending to mock his simplicity and lack of sophistication.&lt;br&gt;&lt;br&gt;
+At the party, Bharat unintentionally becomes the center of attention due to his earnestness and awkwardness. His interactions with the guests, including a famous singer named Ranjeet Thadani (played by Rajat Kapoor), lead to comical misunderstandings and humorous situations. Despite being ridiculed by some, Bharat's genuine personality begins to win over others at the party.&lt;br&gt;&lt;br&gt;
+As the evening progresses, Bharat's unexpected behavior and innocent remarks unintentionally expose the hypocrisy and pretensions of the sophisticated guests. His simplistic outlook on life contrasts sharply with the materialistic and superficial attitudes of those around him, leading to introspection and self-realization among the party attendees.&lt;br&gt;&lt;br&gt;
+The film explores themes of simplicity versus sophistication, authenticity versus pretense, and the transformative power of genuine human connections. It humorously critiques societal norms and values, showing how a straightforward and honest approach can challenge and change those around us.</t>
+  </si>
+  <si>
+    <t>The story continues with Bharat Bhushan (played by Vinay Pathak), the lovable and simple-minded character from the first film. In "Bheja Fry 2," Bharat is now a contestant on a reality TV show called "Bumper Lottery," where participants compete for a cash prize. Despite his lack of awareness and naivety, Bharat manages to win the competition, which leads to a series of comedic and unexpected situations.&lt;br&gt;&lt;br&gt;
+With his newfound wealth, Bharat decides to fulfill his dream of opening a music school in Switzerland. He embarks on a journey to Switzerland, where he encounters new challenges and cultural differences. His interactions with the people he meets along the way, including a Swiss woman named Parminder (played by Minissha Lamba), add to the humor and charm of the film.&lt;br&gt;&lt;br&gt;
+As Bharat navigates through his adventures in Switzerland, his simplicity and genuine nature continue to influence those around him, leading to humorous misunderstandings and heartfelt moments. The film explores themes of dreams, aspirations, and the importance of staying true to oneself despite societal expectations and pressures.&lt;br&gt;&lt;br&gt;
+The film retains the themes of simplicity versus complexity, authenticity versus pretense, and the transformative power of genuine connections that were explored in the first movie. It continues to use humor and satire to comment on societal norms and values, while also celebrating the quirks and idiosyncrasies of its protagonist.</t>
+  </si>
+  <si>
+    <t>The film revolves around the character of Billu (played by Irrfan Khan), a simple and humble barber living in a small village with his wife Bindiya (played by Lara Dutta) and two children. Billu runs a modest barber shop and struggles to make ends meet, often facing financial challenges.&lt;br&gt;&lt;br&gt;
+Billu's life takes a dramatic turn when a famous Bollywood superstar, Sahir Khan (played by Shah Rukh Khan), visits the village to shoot a film. Sahir Khan was Billu's childhood friend, known back then as Sahir (played by Irrfan Khan in flashback scenes). However, due to circumstances and time, Billu and Sahir have drifted apart, and Billu's fellow villagers are skeptical about his claims of friendship with the superstar.&lt;br&gt;&lt;br&gt;
+As the villagers become increasingly curious and skeptical, Billu finds himself torn between his desire to reconnect with Sahir Khan and his humility that prevents him from capitalizing on their past friendship. Meanwhile, Bindiya and the villagers start to believe that Billu might be lying about his relationship with the superstar.&lt;br&gt;&lt;br&gt;
+The film delves into themes of friendship, loyalty, and the impact of celebrity culture on ordinary lives. It explores the dynamics of small-town life and the aspirations and dreams of its residents, juxtaposed against the glamour and allure of the Bollywood film industry.&lt;br&gt;&lt;br&gt;
+The film explores themes of friendship, identity, integrity, and the impact of celebrity status on personal relationships and perceptions. It contrasts the simplicity and authenticity of rural life with the glamour and illusion of the film industry.</t>
+  </si>
+  <si>
+    <t>The story centers around Steve Walker (played by Dean Jones), a track coach at a small New England college called Godolphin College. The college is facing financial difficulties, and Steve is struggling to lead his lackluster track team to victory. To make matters worse, the college's financial future depends on winning a crucial track meet against a rival school.&lt;br&gt;&lt;br&gt;
+One night, while exploring a local inn, Steve accidentally awakens the ghost of Blackbeard the Pirate (played by Peter Ustinov), who has been cursed to roam the earth until he performs a good deed. Initially, Steve is terrified of Blackbeard's ghost, but he soon realizes that only he can see and communicate with Blackbeard.&lt;br&gt;&lt;br&gt;
+Blackbeard decides to help Steve and the college by using his ghostly powers to assist the track team in winning their meets. However, Blackbeard's methods often lead to chaotic and hilarious situations, causing trouble for Steve and attracting the attention of various characters, including the college's dean and a group of gangsters.&lt;br&gt;&lt;br&gt;
+As Steve and Blackbeard work together to overcome obstacles and win the crucial track meet, they form an unlikely friendship and learn valuable lessons about teamwork, loyalty, and the true meaning of success.&lt;br&gt;&lt;br&gt;
+The film blends comedy with fantasy elements, exploring themes of redemption, friendship, and the impact of legends on modern-day life. It juxtaposes the historical figure of Blackbeard with the challenges faced by contemporary characters, offering a lighthearted and whimsical take on the pirate's ghostly adventures</t>
+  </si>
+  <si>
+    <t>The story revolves around Jim Friedman (played by Adam Sandler), a widower, and Lauren Reynolds (played by Drew Barrymore), a divorced woman, both of whom have disastrous blind date experiences at a Hooters restaurant. Unbeknownst to each other, they both separately decide to treat their families to a luxurious African safari vacation. Due to a series of misunderstandings and mix-ups, Jim and Lauren end up sharing the same luxurious suite with their respective families.&lt;br&gt;&lt;br&gt;
+Initially, Jim and Lauren clash due to their contrasting parenting styles and personal quirks. However, as they navigate the challenges of the safari experience together, they gradually develop a mutual respect and understanding. Their children also bond and form friendships, bridging the gap between their two families.&lt;br&gt;&lt;br&gt;
+As the vacation progresses, Jim and Lauren find themselves drawn to each other despite their initial differences. They begin to realize that they might be able to find happiness again, both personally and as a blended family, despite their past heartbreaks and challenges.&lt;br&gt;&lt;br&gt;
+The film explores themes of family dynamics, second chances at love, and the challenges of blending families. It highlights the importance of communication, understanding, and compromise in forming meaningful relationships, both romantic and familial.</t>
+  </si>
+  <si>
+    <t>Miles Logan played by Martin Lawrence, a skilled jewel thief who steals a valuable diamond worth $17 million. After successfully hiding the diamond in a construction site, Miles is arrested before he can retrieve it. He is sentenced to two years in prison.&lt;br&gt;&lt;br&gt;
+Upon his release, Miles discovers that the construction site where he hid the diamond is now the location of a new police station. To recover the diamond, Miles poses as a detective and infiltrates the station. He assumes the identity of a newly transferred detective named Malone and partners with Detective Carlson (played by Luke Wilson), who is unaware of Miles's true identity.&lt;br&gt;&lt;br&gt;
+As Miles tries to navigate his new role and search for the diamond, he finds himself becoming a more effective and respected detective than he anticipated. His unconventional methods and street-smart instincts help solve cases, leading to humorous situations and unexpected alliances.&lt;br&gt;&lt;br&gt;
+However, as Miles gets closer to finding the diamond, he must also avoid suspicion from his fellow officers and confront the dangerous criminals who are after the stolen jewel. The film builds towards a climactic showdown where Miles must decide between his old life as a thief and his new identity as a detective.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, redemption, and the line between law and crime. It blends action and comedy, showcasing Martin Lawrence's comedic talents while also delivering suspenseful moments and a satisfying storyline.</t>
+  </si>
+  <si>
+    <t>Bolt voiced by John Travolta, a white German Shepherd who stars as the superhero in a fictional television show called "Bolt." In the show, Bolt believes he possesses superpowers, including super strength, heat vision, and a powerful bark, which he uses to protect his owner, Penny (voiced by Miley Cyrus), from the evil Dr. Calico (voiced by Malcolm McDowell).&lt;br&gt;&lt;br&gt;
+Unbeknownst to Bolt, everything in the TV show is staged, and he is kept isolated from the real world to maintain his belief in his superpowers. However, when Bolt accidentally gets shipped from his Hollywood soundstage to New York City, he embarks on a cross-country journey back to Hollywood to reunite with Penny.&lt;br&gt;&lt;br&gt;
+During his journey, Bolt teams up with a cynical and street-smart alley cat named Mittens (voiced by Susie Essman) and an enthusiastic, TV-obsessed hamster named Rhino (voiced by Mark Walton). Along the way, Bolt discovers that his superpowers are not real but learns valuable lessons about friendship, loyalty, and the true meaning of heroism.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, friendship, and the difference between perception and reality. It emphasizes the importance of being true to oneself and the power of genuine connections forged through shared experiences.</t>
+  </si>
+  <si>
+    <t>The story begins with a man (Matt Damon) found floating unconscious in the Mediterranean Sea by Italian fishermen. He has no memory of who he is or how he ended up in the sea. The only clues to his identity are a number of surgically implanted bullets and a small laser projector embedded in his hip that reveals a Swiss bank account number.&lt;br&gt;&lt;br&gt;
+Upon reaching land, the man discovers he possesses exceptional combat skills and the ability to speak multiple languages fluently, indicating a military or intelligence background. Using the clues from his body, he travels to Zurich, Switzerland, to access his bank account. Inside the safe deposit box, he finds a large sum of money in various currencies, multiple passports with different identities, and a handgun.&lt;br&gt;&lt;br&gt;
+As he begins to piece together his identity and background, he learns that he is Jason Bourne, a highly trained operative of a clandestine CIA program known as Operation Treadstone. Bourne soon realizes he is being hunted by his former employers, who believe he has gone rogue and pose a threat to national security.&lt;br&gt;&lt;br&gt;
+With the help of Marie Kreutz (played by Franka Potente), a German woman who becomes his ally and later romantic interest, Bourne travels across Europe to evade capture and uncover the truth about his past. Along the way, Bourne uses his skills to outwit CIA operatives sent to eliminate him, all while attempting to unravel the mystery of his identity and the reasons behind his amnesia.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, memory, betrayal, and redemption. It delves into the moral complexities of covert operations and the consequences of creating highly trained operatives who question their own actions and allegiances.</t>
+  </si>
+  <si>
+    <t>The story picks up several years after the events of "The Bourne Identity." Jason Bourne (Matt Damon) and his girlfriend Marie (Franka Potente) have been living off the grid, trying to evade the CIA and live a quiet life. However, their peaceful existence is shattered when a CIA mission in Berlin goes awry, and Bourne is framed for the murder of two agents.&lt;br&gt;&lt;br&gt;
+As Bourne becomes the prime suspect in the CIA's investigation, Pamela Landy (played by Joan Allen), a determined and skilled CIA officer, leads the hunt for him. Bourne, driven by a desire to uncover the truth behind the conspiracy that has ensnared him, travels to Europe to track down those responsible for framing him and endangering his life.&lt;br&gt;&lt;br&gt;
+During his quest for answers, Bourne uncovers shocking revelations about his past as a covert operative and the dark operations of a corrupt CIA program. He faces off against deadly assassins sent to eliminate him, using his unparalleled skills in combat and evasion to stay one step ahead of his pursuers.&lt;br&gt;&lt;br&gt;
+As Bourne navigates through Berlin, Moscow, and Goa, he must confront his own identity, the consequences of his actions, and the moral dilemmas inherent in his past life as a government assassin. Along the way, Bourne forms uneasy alliances and discovers unexpected allies who help him in his mission to uncover the truth and achieve justice.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, redemption, moral ambiguity, and the consequences of covert operations. It delves deeper into Bourne's psyche as he grapples with the morality of his past actions and seeks to uncover the truth behind the conspiracy that has targeted him.</t>
+  </si>
+  <si>
+    <t>The story continues where "The Bourne Supremacy" left off, with Jason Bourne (Matt Damon) still on the run from the CIA. Bourne is determined to uncover the truth about his past and the Treadstone program that turned him into a highly skilled assassin. As he travels across Europe and the United States, Bourne relentlessly pursues leads and confronts those responsible for his training and manipulation.&lt;br&gt;&lt;br&gt;
+Meanwhile, Pamela Landy (played by Joan Allen), a senior CIA officer, becomes increasingly suspicious of the agency's actions and begins to question the motives behind the operation to capture Bourne. She allies herself with Bourne, despite her colleagues viewing him as a dangerous threat.&lt;br&gt;&lt;br&gt;
+As Bourne unravels the conspiracy that has shaped his life, he discovers shocking truths about his identity and the extent of the CIA's involvement in covert operations. He confronts key figures from his past, including Noah Vosen (played by David Strathairn), the ruthless CIA deputy director who orchestrated the hunt for Bourne.&lt;br&gt;&lt;br&gt;
+Throughout his journey, Bourne relies on his exceptional combat skills, resourcefulness, and determination to evade capture and expose the dark secrets of the government agencies that manipulated him. The film culminates in a high-stakes showdown as Bourne confronts his past and seeks to reclaim his identity once and for all.&lt;br&gt;&lt;br&gt;
+The film explores themes of identity, betrayal, redemption, and the consequences of government secrecy and surveillance. It delves into Bourne's relentless pursuit of truth and justice, as well as the moral complexities of espionage and covert operations.</t>
+  </si>
+  <si>
+    <t>The story centers around Montgomery Brewster (Richard Pryor), a minor league baseball pitcher living in New York City. Brewster's life takes an unexpected turn when he learns that a long-lost relative has left him a vast fortune of $300 million. However, there's a catch: Brewster must spend $30 million within 30 days and have no assets to show for it at the end of the period in order to inherit an even larger fortune of $300 million.&lt;br&gt;&lt;br&gt;
+To claim the full inheritance, Brewster must adhere to specific rules outlined by his deceased relative's will, which include prohibitions on telling anyone about the challenge and not retaining any assets that can be resold. Initially excited by the prospect of unlimited spending, Brewster soon finds that spending such a large amount of money without leaving any trace of wealth is harder than expected.&lt;br&gt;&lt;br&gt;
+As Brewster embarks on his extravagant spending spree, he encounters numerous challenges and comedic situations. From hosting lavish parties to investing in unusual business ventures and supporting charitable causes, Brewster tries everything to deplete his fortune within the allotted time. Along the way, he is assisted by his best friend and teammate Spike Nolan (John Candy), who helps him navigate the complexities of spending large sums of money.&lt;br&gt;&lt;br&gt;
+However, Brewster's efforts are complicated by those who stand to benefit if he fails to complete the challenge, including scheming lawyers and business associates who have their own agendas. As the deadline approaches, Brewster must find creative ways to fulfill the terms of the will and prove himself worthy of the ultimate inheritance.&lt;br&gt;&lt;br&gt;
+The film explores themes of wealth, responsibility, friendship, and the allure of extravagance. It humorously examines the consequences of sudden wealth and the challenges of managing money wisely, even in the context of seemingly unlimited resources.</t>
+  </si>
+  <si>
+    <t>The story revolves around Bruce Nolan (Jim Carrey), a discontented television reporter in Buffalo, New York, who feels frustrated with his life and blames God for all his misfortunes. After a particularly bad day at work, Bruce lashes out at God and challenges Him, saying he could do a better job. In response, God (played by Morgan Freeman) appears to Bruce in human form and grants him divine powers to see if he can handle the responsibilities of being God.&lt;br&gt;&lt;br&gt;
+Initially, Bruce uses his newfound powers selfishly, indulging in personal desires such as altering his own life and gaining fame. He uses his abilities to manipulate events and people, including his rival at work and his girlfriend, Grace (played by Jennifer Aniston). However, Bruce soon realizes that with great power comes great responsibility, and he begins to understand the true meaning of compassion, love, and selflessness.&lt;br&gt;&lt;br&gt;
+As Bruce navigates the challenges of being God, he learns valuable lessons about humility, empathy, and the importance of using one's gifts for the greater good. Ultimately, Bruce must decide whether to continue wielding his powers for personal gain or to embrace his role as a force for positive change in the world.&lt;br&gt;&lt;br&gt;
+The film explores themes of faith, personal growth, responsibility, and the human desire for control over one's life. It poses philosophical questions about the nature of God and the consequences of one's actions when given extraordinary abilities.</t>
+  </si>
+  <si>
+    <t>The story follows two very different men, Edward Cole (Jack Nicholson) and Carter Chambers (Morgan Freeman), who meet in a hospital while undergoing treatment for terminal cancer. Despite their contrasting personalities and backgrounds, they strike up an unlikely friendship as they come to terms with their mortality.&lt;br&gt;&lt;br&gt;
+During their time together in the hospital, Carter writes a "bucket list" - a list of things he wants to do before he "kicks the bucket." Inspired by Carter's list, Edward suggests they embark on a journey to complete these experiences together. They leave the hospital against medical advice and set out on a series of adventures around the world, from skydiving over the desert to visiting the Taj Mahal.&lt;br&gt;&lt;br&gt;
+As they tick off items on the list, Edward and Carter confront their fears, reflect on their pasts, and come to appreciate the value of friendship and the importance of living life to the fullest. Along the way, they encounter challenges, laughter, and profound moments of self-discovery.&lt;br&gt;&lt;br&gt;
+Through their shared experiences, Edward and Carter learn valuable lessons about forgiveness, acceptance, and the true meaning of happiness. Their journey becomes not just about fulfilling a list of dreams but about finding peace and fulfillment in the time they have left.&lt;br&gt;&lt;br&gt;
+The film explores themes of mortality, friendship, redemption, and the pursuit of happiness. It examines how facing one's mortality can lead to personal growth and a reevaluation of life's priorities.</t>
+  </si>
+  <si>
+    <t>The story takes place in a world populated entirely by anthropomorphic cars and other vehicles. The protagonist, Lightning McQueen (voiced by Owen Wilson), is a rookie race car who dreams of winning the Piston Cup, the most prestigious racing competition in the United States. In the final race of the season, a tiebreaker race is scheduled in California to determine the champion between Lightning, Chick Hicks (voiced by Michael Keaton), and The King (voiced by Richard Petty).&lt;br&gt;&lt;br&gt;
+During transportation to California, Lightning accidentally gets separated from his transport truck and finds himself lost in the run-down town of Radiator Springs on Route 66. Here, Lightning meets a diverse group of cars, including Sally Carrera (voiced by Bonnie Hunt), Doc Hudson (voiced by Paul Newman), Mater (voiced by Larry the Cable Guy), and others, who teach him important lessons about life beyond racing.&lt;br&gt;&lt;br&gt;
+Initially, Lightning is focused solely on getting back to his racing career, but he gradually learns the value of friendship, community, and enjoying the journey rather than just the destination. He helps revitalize Radiator Springs, which has fallen into decline due to the construction of the nearby Interstate Highway, and forms deep bonds with its residents.&lt;br&gt;&lt;br&gt;
+As Lightning prepares for the final race against Chick Hicks and The King, he applies the lessons he's learned from his time in Radiator Springs, leading to a race where sportsmanship and integrity are put to the test.&lt;br&gt;&lt;br&gt;
+The film explores themes of friendship, humility, personal growth, and the balance between ambition and community. It emphasizes the importance of relationships and the lessons learned from unexpected detours in life.</t>
+  </si>
+  <si>
+    <t>The story revolves around Mihika Banerjee (played by Lara Dutta), a no-nonsense, high-strung investment banker based in Mumbai, and Manu Gupta (played by Vinay Pathak), a laid-back, middle-class man from Delhi. Due to unforeseen circumstances, Mihika and Manu find themselves traveling together from Mumbai to Delhi.&lt;br&gt;&lt;br&gt;
+Their journey is filled with comedic misadventures as they encounter various challenges and obstacles along the way. Despite their contrasting personalities and initial conflicts, Mihika and Manu gradually develop an unlikely friendship as they navigate through unexpected situations, cultural clashes, and personal revelations.&lt;br&gt;&lt;br&gt;
+As they journey through different cities and landscapes, Mihika and Manu learn valuable lessons about life, relationships, and the importance of understanding and accepting each other's perspectives. Their journey becomes a transformative experience that changes their outlook on life and helps them discover new aspects of themselves.&lt;br&gt;&lt;br&gt;
+The film explores themes of cultural differences, personal growth, friendship, and the unpredictability of life's journey. It highlights the transformative power of travel and the connections formed between people from different backgrounds and walks of life.</t>
+  </si>
+  <si>
+    <t>The film revolves around three brothers - Brijmohan Sharma (played by Ashok Kumar), Jagmohan Sharma (played by Kishore Kumar), and Manmohan Sharma (played by Anoop Kumar) - who run an auto repair shop. The trio has a deep distrust of women due to a past heartbreak involving their father (played by Sajjan).&lt;br&gt;&lt;br&gt;
+One day, the brothers encounter a runaway bride, Renu (played by Madhubala), who is fleeing from an arranged marriage. Jagmohan (Kishore Kumar), the most outgoing and romantic of the brothers, falls in love with Renu at first sight and decides to help her escape from her pursuers.&lt;br&gt;&lt;br&gt;
+To keep Renu safe, Jagmohan concocts a plan to keep her hidden in their auto repair shop. Meanwhile, Brijmohan (Ashok Kumar) and Manmohan (Anoop Kumar) remain skeptical of Renu's motives and question Jagmohan's decision to shelter her. However, as Renu spends more time with the brothers, she wins over their hearts with her innocence and sincerity.&lt;br&gt;&lt;br&gt;
+Amidst the comedy and chaos of their interactions with Renu, the brothers also deal with business challenges, rivalries, and their own personal struggles. The film features several entertaining musical sequences and comedic moments as the brothers navigate their feelings for Renu and their growing understanding of love and relationships.&lt;br&gt;&lt;br&gt;
+The film explores themes of love, family bonds, trust, and the comedic misunderstandings that arise in relationships. It portrays a lighthearted and humorous take on romance and the complexities of human emotions.</t>
+  </si>
+  <si>
+    <t>The story is set in the fictional town of Swallow Falls, which has fallen on hard times after its main industry, sardine fishing, collapses. Flint Lockwood, a young inventor with a penchant for creating unusual gadgets, hopes to help his hometown by inventing something that will change everyone's lives.&lt;br&gt;&lt;br&gt;
+After several failed inventions, Flint creates a machine called the FLDSMDFR (Flint Lockwood Diatonic Super Mutating Dynamic Food Replicator) that can convert water into food. However, when it's launched into the sky, the machine accidentally starts producing food storms, causing various types of food to rain down on the town.&lt;br&gt;&lt;br&gt;
+Initially, the townspeople rejoice in the abundance of food, but soon the machine goes haywire and starts producing dangerously oversized food items, threatening to engulf the town. Flint, along with his friends including weather intern Sam Sparks, must find a way to stop the machine and save the town from disaster.</t>
+  </si>
+  <si>
+    <t>The story takes place in Italy, where wealthy American businessman Robert Talbot (played by Rock Hudson) annually vacations at his lavish villa in September. Each year, he spends the month alone to pursue his hobbies and enjoy the solitude.&lt;br&gt;&lt;br&gt;
+However, this year, things take an unexpected turn when Robert's devoted butler, Maurice (played by Walter Slezak), decides to rent out the villa to a group of American tourists without informing Robert. The tourists include a young couple, Tony (played by Bobby Darin) and Sandy (played by Sandra Dee), who are unaware that the villa's owner is staying there.&lt;br&gt;&lt;br&gt;
+Complications arise when Tony falls for Lisa (played by Gina Lollobrigida), Robert's beautiful Italian girlfriend who visits him every September. Unaware of Robert's arrival, Lisa mistakes Tony for the villa's owner and starts to reciprocate his affection.&lt;br&gt;&lt;br&gt;
+As misunderstandings and romantic entanglements unfold, Robert finds himself competing with Tony for Lisa's attention while trying to keep his true identity a secret.&lt;br&gt;&lt;br&gt;
+"Come September" was well-received upon its release, praised for its picturesque Italian scenery, charming performances, and light-hearted humor. It became a popular romantic comedy of its time, showcasing the talents of its ensemble cast and capturing the allure of Mediterranean life.</t>
+  </si>
+  <si>
+    <t>The film follows Prince Akeem Joffer (played by Eddie Murphy), the wealthy and pampered heir to the throne of the fictional African nation of Zamunda. Akeem is discontented with his arranged life and seeks a bride who loves him for himself, not his royal status. With his loyal servant Semmi (Arsenio Hall), Akeem travels to Queens, New York, to find his queen.&lt;br&gt;&lt;br&gt;
+In Queens, Akeem and Semmi disguise themselves as foreign students and rent a rundown apartment in a neighborhood. Akeem takes on various jobs at a fast-food restaurant owned by Cleo McDowell (played by John Amos) to experience life as an ordinary person and find a woman who captures his heart.&lt;br&gt;&lt;br&gt;
+Akeem meets and falls for Lisa McDowell (played by Shari Headley), Cleo's beautiful and independent daughter who works at her father's restaurant. Akeem struggles to win Lisa's affection while navigating the challenges of adjusting to life in Queens and hiding his royal identity.&lt;br&gt;&lt;br&gt;
+"Coming to America" was well-received for its humor, memorable characters, and Eddie Murphy's versatile performances. It became a cultural phenomenon and remains a beloved classic in the romantic comedy genre. The film's success led to a sequel, "Coming 2 America," released in 2021, which revisits the characters and themes of the original while introducing new elements to the story.</t>
+  </si>
+  <si>
+    <t>The film centers around Jerry Fletcher (played by Mel Gibson), a New York City cab driver who is obsessed with conspiracy theories. Jerry believes in a wide range of conspiracies, from government cover-ups to alien encounters, which he shares with anyone who will listen, including his customers.&lt;br&gt;&lt;br&gt;
+One of Jerry's recurring theories involves a shadowy organization called "The Catcher in the Rye," which he believes is responsible for assassinations and other nefarious activities. He also harbors a crush on Alice Sutton (played by Julia Roberts), a government lawyer whose path he frequently crosses during his cab rides.&lt;br&gt;&lt;br&gt;
+As Jerry's conspiracy theories become increasingly elaborate, Alice initially dismisses him as paranoid. However, events take a dangerous turn when Jerry's seemingly far-fetched theories start to appear more credible. He becomes a target himself, pursued by mysterious agents and confronted with unsettling truths about his own past.&lt;br&gt;&lt;br&gt;
+As Alice gets drawn deeper into Jerry's world, she begins to question her own beliefs and motivations, ultimately teaming up with him to uncover the truth behind the conspiracies and protect themselves from powerful forces determined to silence them.&lt;br&gt;&lt;br&gt;
+"Conspiracy Theory" received mixed reviews upon its release but has gained a following over the years for its intense performances, particularly by Mel Gibson, and its suspenseful plot. The film's exploration of conspiracy theories and its examination of how paranoia can affect individuals resonates with audiences interested in thrillers and mysteries.</t>
+  </si>
+  <si>
+    <t>The film dramatizes Operation Chastise, a daring mission conducted by RAF 617 Squadron on the night of May 16-17, 1943. The objective of the raid was to disrupt German industrial production by attacking key dams in the Ruhr Valley using a new type of bomb developed by scientist Dr. Barnes Wallis (played by Michael Redgrave).&lt;br&gt;&lt;br&gt;
+The film focuses on Wing Commander Guy Gibson (played by Richard Todd), who is tasked with leading the mission. Gibson faces numerous challenges, including the development of new tactics for low-level flying and targeting the dams, as well as the selection and training of his squadron.&lt;br&gt;&lt;br&gt;
+As the mission progresses, the film portrays the intense preparations, setbacks, and eventual success of the raid. The squadron faces heavy anti-aircraft fire and navigational challenges, but ultimately manages to breach the Möhne and Eder dams, causing significant damage to German infrastructure and boosting morale in wartime Britain.&lt;br&gt;&lt;br&gt;
+"The Dam Busters" is regarded as a classic war film, celebrated for its realistic portrayal of the historic RAF mission and the technical achievements of the bouncing bomb. It received critical acclaim for its direction, performances, and special effects, particularly the sequences depicting the bombing raids.</t>
+  </si>
+  <si>
+    <t>The film begins with a failed assassination attempt on Charles de Gaulle by the French underground organization OAS (Organisation de l'armée secrète). Frustrated by their inability to eliminate de Gaulle, the OAS decides to hire a professional assassin known only as "The Jackal" (played by Edward Fox) to carry out the task.&lt;br&gt;&lt;br&gt;
+The Jackal is a meticulous and highly skilled British assassin who operates with utmost discretion and precision. He meticulously plans every detail of the assassination plot, including obtaining false identity papers, creating disguises, and acquiring weapons. He travels across Europe, carefully avoiding detection while planning his approach to carry out the mission.&lt;br&gt;&lt;br&gt;
+Meanwhile, French authorities become aware of the assassination plot and launch a desperate race against time to identify and apprehend the Jackal before he can strike. The film unfolds as a gripping cat-and-mouse game between the Jackal, who remains determined to complete his mission, and the French police, who use every resource at their disposal to track him down.&lt;br&gt;&lt;br&gt;
+As the tension mounts and the stakes escalate, the Jackal faces unexpected challenges and setbacks that threaten to derail his carefully laid plans. The film builds to a suspenseful climax as the Jackal's true identity and motivations are gradually revealed, leading to a gripping conclusion.&lt;br&gt;&lt;br&gt;
+"The Day of the Jackal" is widely regarded as a classic thriller film, praised for its taut direction, suspenseful storytelling, and Edward Fox's compelling performance as the eponymous assassin. It received critical acclaim for its realistic portrayal of espionage and political intrigue, as well as its attention to detail in depicting the meticulous planning involved in an assassination attempt.</t>
+  </si>
+  <si>
+    <t>The story is set in the 1930s and follows renowned Belgian detective Hercule Poirot (played by Kenneth Branagh). Poirot embarks on a vacation in Egypt aboard a luxurious river steamer, but his holiday is interrupted when a murder occurs on board. The victim is Linnet Ridgeway Doyle (played by Gal Gadot), a wealthy heiress who is newly married.&lt;br&gt;&lt;br&gt;
+As Poirot investigates, he uncovers a web of jealousy, revenge, and hidden motives among the passengers, each with their own secrets and connections to the victim. Among the suspects are Linnet's husband Simon Doyle (played by Armie Hammer), his ex-fiancée Jacqueline de Bellefort (played by Emma Mackey), Linnet's maid Louise Bourget (played by Jennifer Saunders), and others.&lt;br&gt;&lt;br&gt;
+As Poirot delves deeper into the case, he must unravel the truth behind the murder while navigating the complexities of relationships and alliances among the passengers. The investigation takes him through stunning Egyptian landscapes, ancient ruins, and the opulent settings of the riverboat, adding to the intrigue and suspense of the film.</t>
+  </si>
+  <si>
+    <t>The story revolves around a young man named Karan (played by Akshay Kumar), who falls in love with a beautiful woman, Tanya (played by Shahid Kapoor). However, Tanya is already in love with another man, Rocky (played by Suniel Shetty). Karan's attempts to win Tanya's heart lead to a series of comedic misunderstandings and chaotic situations.&lt;br&gt;&lt;br&gt;
+Things take a dramatic turn when Karan suffers from amnesia after a car accident. His behavior changes drastically, and he believes himself to be a different person altogether. This adds to the confusion and comedy, as both Tanya and Rocky try to cope with the altered Karan.&lt;br&gt;&lt;br&gt;
+The film features a blend of slapstick humor, situational comedy, and romantic elements, typical of Bollywood comedies of that era. It also includes lively dance sequences and popular music tracks.</t>
+  </si>
+  <si>
+    <t>The story revolves around Gru (voiced by Steve Carell), a criminal mastermind known for his heists involving cutting-edge technology and his army of Minions, small yellow creatures who assist him in his schemes. Gru's latest plan involves stealing the moon using a shrink ray, which he needs to steal from his rival, Vector (voiced by Jason Segel).&lt;br&gt;&lt;br&gt;
+To infiltrate Vector's fortress, Gru adopts three young orphan girls—Margo (voiced by Miranda Cosgrove), Edith (voiced by Dana Gaier), and Agnes (voiced by Elsie Fisher)—as part of his plan. Initially viewing them as mere pawns, Gru gradually forms a bond with the girls, especially Agnes, who melts his heart with her innocence and longing for a family.&lt;br&gt;&lt;br&gt;
+As Gru juggles his criminal ambitions with the challenges of parenthood, including attending ballet recitals and helping with school projects, he undergoes a change of heart. His interactions with the girls and their unconditional love gradually transform him from a selfish villain into a caring father figure.</t>
+  </si>
+  <si>
+    <t>After adopting Margo, Edith, and Agnes in the first film, Gru (voiced by Steve Carell) has retired from villainy to focus on being a good father. He now spends his time making jams and jellies with the help of his loyal Minions. However, Gru's peaceful life takes a turn when he is recruited by the Anti-Villain League (AVL), an organization dedicated to fighting crime, to track down a new villain who has stolen a dangerous mutagen known as PX-41.&lt;br&gt;&lt;br&gt;
+Reluctantly partnered with AVL agent Lucy Wilde (voiced by Kristen Wiig), Gru goes undercover at a mall where he suspects the villain is operating. As they investigate various suspects, including the owner of a Mexican restaurant named Eduardo Perez (voiced by Benjamin Bratt), Gru discovers that Eduardo may have a connection to his past.&lt;br&gt;&lt;br&gt;
+Meanwhile, Margo experiences her first crush on a boy named Antonio (voiced by Moisés Arias), which adds to Gru's concerns as a protective father. As the investigation progresses, Gru and Lucy uncover a plot involving the mutated creatures created by PX-41, leading to a thrilling showdown with the true villain.&lt;br&gt;&lt;br&gt;
+"Despicable Me 2" was a commercial success, grossing over $970 million worldwide, surpassing its predecessor in box office performance. Critics praised the film for its humor, animation quality, and heartwarming story, particularly the dynamic between Gru and his daughters.</t>
+  </si>
+  <si>
+    <t>In "Despicable Me 3," Gru (voiced by Steve Carell) faces a new challenge when he meets his long-lost twin brother, Dru (also voiced by Steve Carell), who is charming, wealthy, and still involved in the family's tradition of villainy. Dru invites Gru to join him in carrying on their father's legacy of being a supervillain. Initially reluctant, Gru eventually agrees, partly because he misses the thrill of his former life.&lt;br&gt;&lt;br&gt;
+Meanwhile, the Minions, feeling abandoned by Gru's decision to leave villainy behind, rebel and leave him. They embark on their own adventure, encountering various challenges and comedic situations along the way.&lt;br&gt;&lt;br&gt;
+Back in Gru's world, the brothers' efforts to outdo each other in villainy catch the attention of Balthazar Bratt (voiced by Trey Parker), a former child star turned supervillain who is obsessed with the character he played in the '80s. Bratt becomes the primary antagonist, using his skills and gadgets to carry out elaborate heists that threaten the world.&lt;br&gt;&lt;br&gt;
+As the story unfolds, Gru, Dru, Lucy Wilde (voiced by Kristen Wiig), and the Minions must work together to stop Bratt's plans and restore order to their lives.&lt;br&gt;&lt;br&gt;
+"Despicable Me 3" received mixed reviews from critics but was a box office success, grossing over $1 billion worldwide. Audiences appreciated the humor, animation quality, and the continued development of Gru's character and his relationships.</t>
+  </si>
+  <si>
+    <t>The story is set in the early 20th century and revolves around Devdas Mukherjee, the son of a wealthy Bengali zamindar (landowner). Devdas and Paro are childhood friends who develop a deep bond and eventually fall in love. However, due to societal norms and misunderstandings fueled by a manipulative woman named Kumud (played by Ananya Khare), Devdas is unable to marry Paro despite his love for her.&lt;br&gt;&lt;br&gt;
+Heartbroken and devastated, Devdas turns to alcohol to numb his pain and seeks solace in the company of Chandramukhi, a courtesan with a heart of gold who falls in love with him. The film explores the tragic consequences of unrequited love, pride, and societal pressures that drive the characters to their emotional breaking points.&lt;br&gt;&lt;br&gt;
+Overall, "Devdas" remains a landmark film in Bollywood history, known for its tragic love story, memorable performances, and cinematic spectacle that continues to captivate audiences worldwide.</t>
+  </si>
+  <si>
+    <t>The film follows Admiral General Aladeen, the eccentric and oppressive ruler of the fictional North African country of Wadiya. Aladeen lives a lavish and self-indulgent life, surrounded by sycophants and maintaining control through fear and tyranny. However, his regime faces international scrutiny and condemnation for its human rights abuses and nuclear ambitions.&lt;br&gt;&lt;br&gt;
+During a trip to the United Nations in New York City, Aladeen is betrayed by his uncle Tamir (played by Ben Kingsley), who seeks to replace him with a more moderate and compliant leader to appease Western powers. Aladeen is stripped of his power and left adrift in New York City, where he must navigate a world vastly different from his own.&lt;br&gt;&lt;br&gt;
+Aladeen encounters Zoey (played by Anna Faris), an idealistic and activist-minded owner of a health food store. Through their interactions, Aladeen begins to understand the consequences of his actions and the impact of his dictatorship on his people. Along the way, he plots his return to power and faces comedic challenges that force him to confront his beliefs and values.</t>
+  </si>
+  <si>
+    <t>The film revolves around three inseparable friends: Akash (played by Aamir Khan), Sameer (played by Saif Ali Khan), and Siddharth or Sid (played by Akshaye Khanna). They come from different backgrounds but share a deep bond forged over years of friendship.&lt;br&gt;&lt;br&gt;
+The story unfolds in two timelines: the present, where the friends are dealing with relationships, career choices, and personal growth; and flashbacks to their carefree college days. Akash is portrayed as a carefree and cynical artist who avoids commitment in relationships. Sameer is a romantic at heart, often falling in love quickly but experiencing heartbreak just as fast. Sid is the sensible and mature friend who becomes involved in a serious relationship with a divorced older woman, Tara (played by Dimple Kapadia).&lt;br&gt;&lt;br&gt;
+The central conflict arises when Akash falls for Shalini (played by Preity Zinta), who is engaged to Rohit (played by Ayub Khan). This unrequited love tests the dynamics of their friendship and forces them to confront their own insecurities and fears about love and relationships.&lt;br&gt;&lt;br&gt;
+"Dil Chahta Hai" is celebrated for its realistic portrayal of modern urban youth in India, addressing themes of friendship, love, heartbreak, and personal growth. It departed from traditional Bollywood tropes of melodrama and emphasized natural dialogue, contemporary settings, and relatable characters.</t>
+  </si>
+  <si>
+    <t>The film revolves around Rahul (played by Shah Rukh Khan), the director of a dance troupe in Mumbai, who believes in finding true love and soulmates through destiny. He dreams of creating a spectacular musical titled "Maya," inspired by his vision of a perfect woman named Maya.&lt;br&gt;&lt;br&gt;
+Rahul's best friend is Nisha (played by Karisma Kapoor), a talented dancer who secretly loves him but conceals her feelings to preserve their friendship. Meanwhile, Rahul meets Pooja (played by Madhuri Dixit), a cheerful and optimistic young woman who joins his dance troupe. Pooja believes in love and destiny and gradually falls in love with Rahul.&lt;br&gt;&lt;br&gt;
+The story explores the dynamics between Rahul, Nisha, and Pooja as they navigate their feelings, misunderstandings, and aspirations. Rahul remains conflicted between his idealized vision of Maya and the genuine love that Pooja offers him. The film unfolds with vibrant dance sequences, heartfelt moments, and dramatic turns as the characters strive to find their true paths to love and happiness.&lt;br&gt;&lt;br&gt;
+"Dil To Pagal Hai" is celebrated for its soulful music composed by Uttam Singh, with lyrics by Anand Bakshi. The soundtrack includes memorable songs such as "Dil To Pagal Hai," "Bholi Si Surat," "Are Re Are," and "Le Gayi."</t>
+  </si>
+  <si>
+    <t>Set during World War II, the story follows Major Reisman (played by Lee Marvin), who is tasked with a unique and dangerous mission by General Worden (played by Ernest Borgnine). Reisman is ordered to select and train a group of twelve convicted soldiers sentenced to death or long-term imprisonment for various crimes. These men are offered a chance at redemption by participating in a suicide mission behind enemy lines in Nazi-occupied France.&lt;br&gt;&lt;br&gt;
+The "Dirty Dozen" includes rebellious and tough individuals from different backgrounds, each with their own skills and specialties. Despite initial resistance and clashes within the group, they undergo rigorous training under Reisman's leadership to form a cohesive unit capable of carrying out their deadly mission.&lt;br&gt;&lt;br&gt;
+The mission objective is to infiltrate a chateau where high-ranking German officers are gathered for a meeting and eliminate them, causing significant disruption to the enemy's command structure. As the mission unfolds, the Dirty Dozen face intense combat situations, personal challenges, and moral dilemmas that test their loyalty and resolve.&lt;br&gt;&lt;br&gt;
+"The Dirty Dozen" explores themes of redemption, sacrifice, camaraderie, and the blurred lines between heroism and villainy during wartime. The film is notable for its gritty portrayal of soldiers who are not traditional heroes but instead flawed individuals thrust into extraordinary circumstances.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Don, an international crime lord and drug kingpin, who operates clandestinely across several countries. The authorities, led by Deputy Commissioner of Police D’Silva (played by Boman Irani), are determined to bring Don to justice but face challenges due to Don's cunning and resourcefulness.&lt;br&gt;&lt;br&gt;
+In a twist of fate, Don is captured by the police during a chase, but in a turn of events, he is killed while trying to escape. The authorities, desperate to uncover Don's criminal network, decide to use Vijay (also played by Shah Rukh Khan), a lookalike of Don, to infiltrate the gang and gather evidence.&lt;br&gt;&lt;br&gt;
+Vijay, a simple and innocent man, reluctantly agrees to impersonate Don and enters the criminal underworld. He encounters Jasjit (Jas) (played by Arjun Rampal), Don's right-hand man who initially suspects Vijay but eventually accepts him. Along the way, Vijay also crosses paths with Roma (played by Priyanka Chopra), a woman seeking revenge against Don for personal reasons.&lt;br&gt;&lt;br&gt;
+As Vijay navigates the dangerous world of crime and deception, he must maintain his disguise while attempting to bring down the real perpetrators behind Don's operations. The film builds towards a thrilling climax where identities are revealed, loyalties are tested, and justice is sought.</t>
+  </si>
+  <si>
+    <t>The story revolves around Robert Grant (played by Jason Alexander), the uptight and meticulous manager of the luxurious Majestic Hotel. Robert is dedicated to maintaining high standards and keeping the hotel in impeccable condition. However, his professional demeanor is challenged when Lord Rutledge (played by Rupert Everett), a wealthy and eccentric guest, checks in with his mischievous orangutan companion, Dunston.&lt;br&gt;&lt;br&gt;
+Dunston, being a playful and curious orangutan, begins wreaking havoc throughout the hotel, causing chaos and mayhem much to Robert's dismay. Despite Robert's efforts to maintain order, Dunston's antics lead to numerous comical situations and mishaps.&lt;br&gt;&lt;br&gt;
+Complicating matters further, Robert's son Kyle (played by Eric Lloyd) becomes enamored with Dunston and befriends the orangutan, which softens Robert's stern attitude towards both the animal and his son. As Robert tries to handle the chaotic situations caused by Dunston while dealing with the demands of the hotel guests, he also discovers Lord Rutledge's ulterior motives involving a jewel heist.&lt;br&gt;&lt;br&gt;
+The film builds towards a climactic sequence where Robert must thwart Lord Rutledge's plans and protect the hotel, all while trying to ensure Dunston's well-being.</t>
+  </si>
+  <si>
+    <t>The film is set in a future where Earth is under attack by an alien race known as Mimics, which have taken over most of Europe. Major William Cage (played by Tom Cruise), a public relations officer with no combat experience, is forced into frontline combat during a massive invasion operation. Unprepared and inexperienced, Cage dies within minutes of battling the Mimics but unexpectedly wakes up, finding himself reliving the previous day over and over again.&lt;br&gt;&lt;br&gt;
+Cage soon realizes he is caught in a time loop, repeating the same day every time he dies. With each iteration, he gains combat skills and knowledge about the aliens' strategies, eventually meeting Sergeant Rita Vrataski (played by Emily Blunt), a legendary soldier known as the "Angel of Verdun." Rita, who once experienced a similar time loop herself, helps Cage understand his ability and trains him to become a skilled warrior.&lt;br&gt;&lt;br&gt;
+Together, Cage and Rita embark on a mission to use the time loop to their advantage, finding ways to defeat the Mimics and alter the course of the war. As they face numerous challenges and setbacks, including personal sacrifices and moral dilemmas, they strive to find a way to break the cycle and achieve victory for humanity.</t>
+  </si>
+  <si>
+    <t>The story revolves around Virginia "Gin" Baker (played by Catherine Zeta-Jones), a talented and ambitious insurance investigator, and Robert "Mac" MacDougal (played by Sean Connery), a renowned and aging master thief. Gin initially suspects Mac of orchestrating a series of daring art heists across Europe and sets out to catch him in the act.&lt;br&gt;&lt;br&gt;
+However, as Gin delves deeper into the world of art theft and surveillance, she becomes captivated by Mac's charm and expertise. Mac, in turn, sees potential in Gin and begins to mentor her in the art of thievery. The two develop a complicated relationship of trust, deception, and mutual attraction as they collaborate on daring heists targeting priceless artworks and valuable artifacts.&lt;br&gt;&lt;br&gt;
+The film escalates with each heist becoming riskier and more elaborate, leading to a climactic plan to steal a valuable Chinese mask during a New Year's Eve celebration in Kuala Lumpur, Malaysia. As Gin and Mac navigate dangerous alliances and betrayals, they must confront their own motivations and loyalties while evading capture by both the authorities and rival criminals.</t>
+  </si>
+  <si>
+    <t>The film follows Robert McCall (played by Denzel Washington), a former black ops operative who has retired and now leads a quiet life working at a hardware store in Boston. Despite his attempt to leave his violent past behind, McCall is unable to ignore the injustices he witnesses around him.&lt;br&gt;&lt;br&gt;
+When McCall meets Teri (played by Chloë Grace Moretz), a young prostitute brutally beaten by her pimp, he decides to intervene and take matters into his own hands. McCall's actions inadvertently draw the attention of the Russian Mafia, led by a ruthless crime lord named Vladimir Pushkin (played by Vladimir Kulich). Pushkin dispatches his enforcers to deal with McCall, unaware of his formidable skills and determination.&lt;br&gt;&lt;br&gt;
+As McCall seeks justice for Teri and others who are victims of injustice, he employs his lethal skills to systematically dismantle Pushkin's criminal empire. With each confrontation, McCall uses his intelligence, resourcefulness, and combat expertise to outwit and eliminate his adversaries.</t>
+  </si>
+  <si>
+    <t>In "The Equalizer 2," Robert McCall has settled into a new life as a Lyft driver in Boston while continuing his covert operations to help people who are victims of injustice and violence. He maintains close relationships with Susan Plummer (played by Melissa Leo), his former colleague from the CIA, and her husband Brian (played by Bill Pullman).&lt;br&gt;&lt;br&gt;
+The story takes a personal turn for McCall when Susan is brutally murdered while investigating a murder-suicide case involving one of her CIA assets in Brussels. Fueled by a desire for justice and vengeance, McCall sets out to uncover the truth behind Susan's death and bring those responsible to justice.&lt;br&gt;&lt;br&gt;
+As McCall delves deeper into the investigation, he discovers a conspiracy involving high-level government officials and dangerous operatives who will stop at nothing to protect their secrets. McCall must use his expertise in combat, surveillance, and manipulation to navigate through a web of deceit and danger, risking everything to avenge Susan and protect those he cares about.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Elliott (played by Henry Thomas), a lonely young boy living in suburban California, who discovers an alien creature stranded on Earth. This creature, who comes to be known as E.T., is a friendly and gentle being from a distant planet. Despite initially being frightened, Elliott forms a deep and emotional bond with E.T.&lt;br&gt;&lt;br&gt;
+E.T. possesses extraordinary abilities, including telekinesis and healing powers, which Elliott and his siblings discover while trying to keep E.T. hidden from their mother (played by Dee Wallace) and the authorities. They eventually involve their friends in helping E.T. evade capture and find a way to communicate with his own kind to return home.&lt;br&gt;&lt;br&gt;
+As the bond between Elliott and E.T. grows stronger, they face challenges from both humans who are interested in capturing the alien for research and government agents who view E.T. as a potential threat. The film culminates in a heart-wrenching and thrilling race against time to help E.T. escape Earth before it's too late.&lt;br&gt;&lt;br&gt;
+"E.T. the Extra-Terrestrial" explores themes of friendship, empathy, and the power of human connection. The film resonated deeply with audiences worldwide for its heartwarming story, memorable characters, and Spielberg's masterful direction. It became a cultural phenomenon and a box office success, grossing over $700 million worldwide.</t>
+  </si>
+  <si>
+    <t>The story begins with Scott Thomas (played by Scott Mechlowicz), a high school graduate from Ohio, who is dumped by his longtime pen pal Mieke (played by Jessica Boehrs) just before graduation. Scott realizes that Mieke is a girl, not a boy as he had assumed, and she had expressed romantic interest in him. His best friend, Cooper Harris (played by Jacob Pitts), convinces Scott to take a spontaneous trip to Europe to find Mieke and resolve the misunderstanding.&lt;br&gt;&lt;br&gt;
+Accompanied by Cooper, twins Jenny (played by Michelle Trachtenberg) and Jamie (played by Travis Wester), and their nerdy friend, Jamie (played by Travis Wester), the group embarks on a chaotic journey across major European cities including London, Paris, Amsterdam, and Berlin. Along the way, they encounter a series of hilarious and bizarre adventures, cultural misunderstandings, and misadventures, often due to their own naivety and impulsiveness.&lt;br&gt;&lt;br&gt;
+As they navigate through unfamiliar territories, facing language barriers, eccentric locals, and unconventional transportation methods, Scott and his friends gradually come to appreciate the diversity and uniqueness of European culture. Ultimately, they learn valuable lessons about friendship, self-discovery, and the importance of embracing new experiences.</t>
+  </si>
+  <si>
+    <t>The story follows Evan Baxter (played by Steve Carell), a former television news anchorman who has recently been elected to Congress and moves with his family to a suburban neighborhood. Evan is tasked with building a modern ark by God (played by Morgan Freeman), who appears to him in response to Evan's casual prayer for guidance.&lt;br&gt;&lt;br&gt;
+Initially skeptical and reluctant, Evan soon realizes that he is inexplicably compelled to build the ark despite ridicule and disbelief from his family, neighbors, and colleagues. As Evan begins constructing the ark in his backyard, he faces a series of challenges, including environmental changes, chaotic animal behaviors, and public scrutiny.&lt;br&gt;&lt;br&gt;
+Throughout the process, Evan's faith and determination are tested, and he gradually learns important lessons about family, faith, and environmental stewardship. Meanwhile, his wife Joan (played by Lauren Graham) and their three sons struggle to understand and support Evan's unusual mission.&lt;br&gt;&lt;br&gt;
+As construction progresses, news of Evan's ark project attracts widespread attention, eventually culminating in a massive flood that threatens the entire community. In a race against time, Evan must rally his family and neighbors to take refuge in the completed ark, demonstrating his faith and proving that sometimes extraordinary challenges require extraordinary responses.</t>
+  </si>
+  <si>
+    <t>The story revolves around a complex heist orchestrated by a group of eccentric characters aiming to steal a cache of diamonds. The group includes George Thomason (played by Tom Georgeson), a bumbling London gangster; his seductive and manipulative American girlfriend, Wanda Gershwitz (played by Jamie Lee Curtis); Otto West (played by Kevin Kline), a dim-witted but violent American thug; and Ken Pile (played by Michael Palin), an animal lover with a stutter who specializes in killing witnesses.&lt;br&gt;&lt;br&gt;
+After successfully stealing the diamonds, the group's plans are complicated by infighting, betrayals, and unexpected romantic entanglements. Wanda, who is secretly manipulating both George and Otto, becomes romantically involved with George's lawyer, Archie Leach (played by John Cleese), who is unaware of her true intentions.&lt;br&gt;&lt;br&gt;
+As tensions escalate and misunderstandings abound, each character pursues their own agenda while attempting to outsmart the others. The plot unfolds with comedic mishaps, misunderstandings, and clever schemes, leading to a series of hilarious and unexpected twists as the characters vie for control of the stolen diamonds.</t>
+  </si>
+  <si>
+    <t>The story revolves around a strained relationship between a mother and her teenage daughter who magically switch bodies, leading to a series of comedic and heartfelt situations. Dr. Tess Coleman (played by Jamie Lee Curtis) is a widowed psychologist raising her teenage daughter Anna (played by Lindsay Lohan). They constantly clash due to their different personalities and perspectives on life.&lt;br&gt;&lt;br&gt;
+One fateful Friday, Tess and Anna receive magical fortune cookies during a dinner at a Chinese restaurant. The next morning, they wake up in each other's bodies and initially struggle to adapt to their new lives. Tess, now in Anna's body, must navigate the challenges of high school, teenage drama, and fitting in with Anna's friends. Meanwhile, Anna, in Tess's body, faces the responsibilities of managing her mother's career and personal life.&lt;br&gt;&lt;br&gt;
+As they experience life from each other's perspective, Tess and Anna gain a deeper understanding of their relationship and the challenges they each face. They must find a way to reverse the spell before it becomes permanent, leading to a climactic and emotionally resonant resolution.</t>
+  </si>
+  <si>
+    <t>The story follows Kate (played by Meg Ryan), a neurotic and insecure American woman who flies to France to confront her fiancé Charlie (played by Timothy Hutton), who is having an affair with a French woman named Juliette (played by Susan Anbeh). During the flight, Kate meets Luc Teyssier (played by Kevin Kline), a charming and flirtatious Frenchman who turns out to be a petty thief.&lt;br&gt;&lt;br&gt;
+When Kate arrives in France, she finds herself embroiled in a series of misadventures, including losing her luggage and being stranded without money or a place to stay. Reluctantly, she teams up with Luc, who offers to help her track down Charlie and win him back.&lt;br&gt;&lt;br&gt;
+As Kate and Luc travel across France together, their initially contentious relationship gradually evolves into an unexpected romance. Along the way, Kate discovers her own inner strength and begins to question her feelings for Charlie as she falls for Luc's charismatic charm and genuine affection.</t>
+  </si>
+  <si>
+    <t>The story is set in the kingdom of Arendelle and centers around two sisters, Princess Elsa (voiced by Idina Menzel) and Princess Anna (voiced by Kristen Bell). Elsa possesses magical ice powers, which she struggles to control after accidentally revealing them to the public during her coronation ceremony. Fearing her powers are dangerous, Elsa isolates herself from Anna and the rest of the kingdom.&lt;br&gt;&lt;br&gt;
+However, when Elsa accidentally plunges Arendelle into eternal winter with her powers, Anna embarks on a journey to find her sister and bring her back to undo the icy spell. Along the way, Anna is joined by an ice harvester named Kristoff (voiced by Jonathan Groff), his loyal reindeer Sven, and a comedic snowman named Olaf (voiced by Josh Gad) who dreams of experiencing summer.&lt;br&gt;&lt;br&gt;
+As Anna and her companions encounter magical creatures and face dangerous obstacles, they navigate themes of love, sacrifice, and self-acceptance. Anna's determination to mend her relationship with Elsa and save their kingdom forms the emotional core of the film, leading to a climactic confrontation and resolution that challenges traditional fairy tale conventions.</t>
+  </si>
+  <si>
+    <t>The film begins with Dr. Richard Kimble (played by Harrison Ford), a prominent Chicago vascular surgeon, wrongfully convicted of murdering his wife Helen (played by Sela Ward). On his way to death row, the prison bus transporting Kimble crashes after a spectacular train derailment orchestrated by a fellow inmate, allowing Kimble to escape custody.&lt;br&gt;&lt;br&gt;
+Now a fugitive, Kimble embarks on a desperate quest to prove his innocence while evading capture by the relentless U.S. Marshal Samuel Gerard (played by Tommy Lee Jones) and his team. Kimble believes that the real killer, a one-armed man (played by Andreas Katsulas), is responsible for his wife's murder and seeks to uncover the truth.&lt;br&gt;&lt;br&gt;
+As Kimble follows leads and investigates Helen's background, he encounters various challenges and dangerous situations, often narrowly escaping capture. Meanwhile, Gerard methodically pursues Kimble, using his sharp intellect and team of skilled agents to track down the fugitive.&lt;br&gt;&lt;br&gt;
+The film builds tension as Kimble races against time to find the one-armed man and clear his name, leading to a gripping climax that involves a final confrontation and the revelation of the true culprit behind Helen's murder.</t>
+  </si>
+  <si>
+    <t>The film begins with Gandhi's early years in South Africa, where he experiences racial discrimination and develops his philosophy of non-violent resistance (Satyagraha). Gandhi (played by Ben Kingsley) returns to India in 1915 and becomes a key figure in the Indian independence movement, advocating for non-violent civil disobedience to achieve freedom from British colonial rule.&lt;br&gt;&lt;br&gt;
+As Gandhi leads various peaceful protests and campaigns, such as the Salt March in 1930 and the Quit India Movement in 1942, he becomes a symbol of hope and inspiration for millions of Indians seeking independence. The film also explores Gandhi's personal struggles and sacrifices, including his commitment to living a simple life and his efforts to unite India's diverse religious and cultural communities.&lt;br&gt;&lt;br&gt;
+Despite facing imprisonment and opposition from both British authorities and factions within India, Gandhi perseveres in his pursuit of justice and equality. His unwavering dedication to non-violence ultimately leads to India gaining independence in 1947, although it is accompanied by the partition of India and Pakistan, which Gandhi vehemently opposed.</t>
+  </si>
+  <si>
+    <t>The story follows Sam Wheat (played by Patrick Swayze) and Molly Jensen (played by Demi Moore), a young couple deeply in love. Sam is tragically murdered during a mugging, but his spirit remains on Earth as a ghost. He soon discovers that his death was not random but part of a larger conspiracy involving his friend and colleague, Carl Bruner (played by Tony Goldwyn).&lt;br&gt;&lt;br&gt;
+Unable to communicate directly with Molly, Sam seeks the help of a reluctant psychic, Oda Mae Brown (played by Whoopi Goldberg), who has the ability to hear and see ghosts. Through Oda Mae, Sam tries to warn Molly about the danger she is in and uncover the truth behind his murder.&lt;br&gt;&lt;br&gt;
+As Sam learns to manipulate objects in the physical world and interact with Oda Mae, he becomes determined to protect Molly and bring justice to his killers. The film explores themes of love, loss, redemption, and the afterlife, as Sam navigates his new existence as a ghost while fighting to protect those he cares about.</t>
+  </si>
+  <si>
+    <t>The story centers around Bertram Pincus (played by Ricky Gervais), a misanthropic dentist in New York City who undergoes a near-death experience during a routine colonoscopy. After briefly dying for seven minutes, Pincus gains the ability to see and communicate with ghosts who are haunting the living.&lt;br&gt;&lt;br&gt;
+One persistent ghost is Frank Herlihy (played by Greg Kinnear), a recently deceased businessman who asks Pincus to prevent his widow, Gwen (played by Tea Leoni), from marrying a new man whom Frank believes is not right for her. Reluctantly agreeing to help, Pincus finds himself reluctantly drawn into Gwen's life and begins to develop feelings for her.&lt;br&gt;&lt;br&gt;
+As Pincus navigates his newfound ability to interact with ghosts and help them resolve their unfinished business, he discovers unexpected truths about himself and starts to reconsider his cynical outlook on life and relationships. Along the way, humorous and touching moments ensue as Pincus becomes entangled in the lives of both the living and the dead.</t>
+  </si>
+  <si>
+    <t>The story revolves around Xi (played by N!xau), a member of the San people (or Bushmen) in the Kalahari Desert who lives a peaceful and harmonious life with his tribe. Their tranquil existence is disrupted when a pilot flying over the desert throws a glass Coca-Cola bottle out of his plane, which lands among the tribe and causes confusion and conflict.&lt;br&gt;&lt;br&gt;
+Believing the bottle to be a gift from the gods, the tribe initially finds uses for it, but soon it becomes a source of jealousy and division among them. Concerned for the well-being of his people and fearing further discord, Xi decides to undertake a journey to the edge of the world to return the bottle to the gods and restore peace to his community.&lt;br&gt;&lt;br&gt;
+During his journey, Xi encounters various characters and experiences, including a schoolteacher (played by Sandra Prinsloo) and a clumsy biologist (played by Marius Weyers), who are unaware of his mission but become unintentionally involved in his quest.&lt;br&gt;&lt;br&gt;
+The film alternates between Xi's adventures and a subplot involving a group of guerrilla fighters and a bumbling revolutionary leader, adding comedic elements and satirical commentary on contemporary society's absurdities.</t>
+  </si>
+  <si>
+    <t>The sequel continues the adventures of Xi (played by N!xau), the protagonist from the first film, and his tribe of San people living in the Kalahari Desert. This time, the narrative intertwines two distinct storylines that eventually converge.&lt;br&gt;&lt;br&gt;
+In one storyline, Xi's tranquil life is disrupted again when a pilot flying over the desert drops a glass bottle from his plane, which lands among the tribe. This time, the tribe faces the challenge of handling a more complex modern object—a video cassette recorder (VCR)—which they mistake for a deity's gift.&lt;br&gt;&lt;br&gt;
+In the other storyline, a group of bumbling guerrilla fighters inadvertently kidnap a biologist named Dr. Ann Taylor (played by Lena Farugia), who was conducting research in the desert. Xi, coming to her aid, teams up with Dr. Taylor to navigate through various comedic misadventures and attempts to rescue her.&lt;br&gt;&lt;br&gt;
+As the film progresses, both storylines converge, leading to humorous encounters, cultural clashes, and misunderstandings, all set against the backdrop of the Kalahari Desert.</t>
+  </si>
+  <si>
+    <t>The story kicks off with Doug (played by Justin Bartha) getting married soon, so his friends Phil (Bradley Cooper), Stu (Ed Helms), and soon-to-be brother-in-law Alan (Zach Galifianakis) decide to throw him a bachelor party in Las Vegas. They check into a luxury suite at Caesar's Palace and start the night with a toast on the roof.&lt;br&gt;&lt;br&gt;
+The next morning, they wake up to find their hotel suite in a disastrous state, with no memory of the previous night’s events. Doug is missing, and in their frantic search to find him, they encounter a series of bizarre and hilarious clues that lead them to unexpected places around the city.&lt;br&gt;&lt;br&gt;
+Throughout their quest, the trio encounters a variety of eccentric characters, including Mike Tyson, a tiger in their bathroom, and a baby they have no recollection of how they acquired. As they piece together the events of the night before, they unravel a night filled with debauchery, unexpected twists, and plenty of laughs.</t>
+  </si>
+  <si>
+    <t>The story begins with Phil (Bradley Cooper), Stu (Ed Helms), Alan (Zach Galifianakis), and Doug (Justin Bartha) traveling to Thailand for Stu’s wedding. Determined to avoid the chaos of their previous bachelor party in Las Vegas, Stu opts for a calm brunch before the wedding. However, things take a familiar turn when the group wakes up in a seedy Bangkok hotel room with no memory of the night before and Teddy, Stu’s soon-to-be brother-in-law, missing.
+Similar to the first film, the trio must retrace their steps through the city to piece together the events of the wild night and find Teddy before the wedding. Along the way, they encounter various eccentric characters, including a drug-dealing monkey, a tattooed monk, and a Russian gangster, all while navigating through the seedy underbelly of Bangkok.</t>
+  </si>
+  <si>
+    <t>"The Hangover Part III" begins with Alan (Zach Galifianakis) off his medication and causing a giraffe to be decapitated on a freeway, prompting concern from his family and friends. Concerned for Alan's well-being, Phil (Bradley Cooper), Stu (Ed Helms), and Doug (Justin Bartha) stage an intervention and agree to take him to a rehab facility in Arizona.&lt;br&gt;&lt;br&gt;
+However, their road trip is interrupted when they are ambushed by a crime boss named Marshall (John Goodman), who is seeking revenge against their friend, Leslie Chow (Ken Jeong). Marshall believes the Wolfpack can help him locate Chow, who has stolen millions of dollars in gold bars from him. To ensure the Wolfpack's compliance, Marshall kidnaps Doug.&lt;br&gt;&lt;br&gt;
+The group sets off on a mission to track down Chow in Tijuana, Mexico, and later in Las Vegas, where they must confront their past encounters with him. Along the way, they encounter various obstacles and hilarious situations, including a prison break, a heist, and unexpected alliances.</t>
+  </si>
+  <si>
+    <t>Similar to the animated version, the film follows Mowgli (played by Neel Sethi), a young boy raised by wolves in the jungle. He must leave the only home he's ever known when the fearsome tiger Shere Khan (voiced by Idris Elba) threatens his life. Guided by Bagheera (voiced by Ben Kingsley) and Baloo (voiced by Bill Murray), Mowgli embarks on a journey of self-discovery, encountering various jungle creatures along the way.</t>
+  </si>
+  <si>
+    <t>The story begins with Rahul Khanna (played by Shah Rukh Khan), a college student who is popular among his peers and admired by everyone. He is best friends with Anjali Sharma (played by Kajol), who harbors feelings for him but is unaware of his affection for her. When Tina Malhotra (played by Rani Mukerji), a new student, joins their college, Rahul is immediately drawn to her charm and beauty.&lt;br&gt;&lt;br&gt;
+Tina and Rahul soon fall in love and begin dating, which leaves Anjali heartbroken. To avoid further pain, Anjali decides to distance herself from Rahul and quietly leaves college. Before leaving, she writes letters to Tina and Rahul expressing her love for Rahul but never sends them.&lt;br&gt;&lt;br&gt;
+Years later, Rahul and Tina are married and expecting their first child. Tragically, Tina passes away due to complications during childbirth, leaving behind letters for her daughter to read as she grows up. These letters reveal Tina's awareness of Anjali's love for Rahul and encourage their daughter to reunite Rahul with Anjali.&lt;br&gt;&lt;br&gt;
+Rahul, now a single father, is devastated by Tina's death and is surprised to discover the letters. He decides to honor Tina's wishes and sets out to find Anjali, who has since become a successful sportswoman. Rahul and Anjali reconnect, and Rahul realizes that he has always loved Anjali but didn’t realize it until now.</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>The story is set in ancient China in the Valley of Peace, where the revered kung fu master, Master Oogway (voiced by Randall Duk Kim), selects the Dragon Warrior, who is destined to save the valley from the evil snow leopard Tai Lung (voiced by Ian McShane). Everyone expects Master Tigress (voiced by Angelina Jolie) to be chosen, but to everyone's surprise, Po (voiced by Jack Black), a panda working in his father's noodle restaurant, is accidentally chosen as the Dragon Warrior.&lt;br&gt;&lt;br&gt;
+Initially, Po struggles with his training under Master Shifu (voiced by Dustin Hoffman), who doubts Po's potential. However, Po’s determination and unorthodox methods begin to win over Shifu and the Furious Five — Tigress, Monkey (voiced by Jackie Chan), Mantis (voiced by Seth Rogen), Viper (voiced by Lucy Liu), and Crane (voiced by David Cross).&lt;br&gt;&lt;br&gt;
+As Po trains, Tai Lung escapes from prison and threatens the Valley of Peace, seeking the Dragon Scroll, which is believed to grant unlimited power to the one who reads it. Po ultimately learns that the true power of the Dragon Scroll lies within oneself, and he must believe in himself to defeat Tai Lung and protect his home.</t>
+  </si>
+  <si>
+    <t>The story takes place after the events of the first film, where Po (voiced by Jack Black) has become a skilled kung fu master and is now living his dream as the Dragon Warrior. Alongside his friends and fellow kung fu masters, the Furious Five, Po protects the Valley of Peace from threats.&lt;br&gt;&lt;br&gt;
+However, a new danger emerges in the form of Lord Shen (voiced by Gary Oldman), a peacock with a diabolical plan to conquer China using a powerful weapon forged from fireworks. Po learns that Shen was responsible for the massacre of his fellow pandas and seeks to confront him, hoping to uncover the truth about his origins and find inner peace.&lt;br&gt;&lt;br&gt;
+As Po and the Furious Five journey to stop Lord Shen, Po grapples with his identity and struggles to understand his past. With guidance from Master Shifu (voiced by Dustin Hoffman) and the Soothsayer (voiced by Michelle Yeoh), Po must confront his fears and harness his inner strength to defeat Lord Shen and save China.</t>
+  </si>
+  <si>
+    <t>The film is set in the late 19th century during the British Raj in India, in a small village called Champaner. The villagers, led by Bhuvan (played by Aamir Khan), are oppressed by high taxes (lagaan) imposed by Captain Russell (played by Paul Blackthorne), the ruthless British officer. When the villagers are unable to pay the lagaan due to a drought, Russell challenges them to a game of cricket: if they win, they will be exempt from paying lagaan for three years; if they lose, they will have to pay triple the amount.&lt;br&gt;&lt;br&gt;
+Bhuvan, a skilled and determined young man, accepts the challenge despite the villagers' initial reluctance and lack of knowledge about cricket. With the help of Elizabeth Russell (played by Rachel Shelley), Captain Russell's sister-in-law who sympathizes with the villagers, Bhuvan begins training the villagers for the cricket match. The villagers unite across caste and religious divides, overcoming their differences to prepare for the daunting task ahead.&lt;br&gt;&lt;br&gt;
+As the match day approaches, tensions rise between the villagers and the British officers. The outcome of the match becomes a symbol of pride, freedom, and resistance against colonial oppression. The film culminates in a thrilling and emotional cricket match that captivates both the characters and the audience.</t>
+  </si>
+  <si>
+    <t>The film centers around Fletcher Reede (Jim Carrey), a successful but dishonest lawyer in Los Angeles who often prioritizes work over spending time with his young son, Max (Justin Cooper). Fletcher has a reputation for bending the truth to win cases, which strains his relationships, particularly with his ex-wife, Audrey (Maura Tierney), whom he still cares deeply for despite their divorce.&lt;br&gt;&lt;br&gt;
+On Max's birthday, Fletcher disappoints him once again by missing an important event due to work commitments. Feeling hurt, Max makes a wish that for just one day, his dad would be unable to lie. Miraculously, the wish comes true, and Fletcher finds himself compelled to tell the truth, no matter how embarrassing or inconvenient it may be.&lt;br&gt;&lt;br&gt;
+As Fletcher navigates through the day without the ability to lie, he faces numerous challenges in both his personal and professional life. He tries to win back Audrey's trust, handle difficult legal cases honestly, and cope with the repercussions of his newfound honesty, which often leads to humorous and awkward situations.</t>
+  </si>
+  <si>
+    <t>The story centers around Jim Douglas (played by Dean Jones), a struggling race car driver who discovers a dilapidated Volkswagen Beetle in a junkyard. To his surprise, the car, named Herbie, has a mind of its own and a knack for racing. Jim, initially skeptical of Herbie's abilities, soon realizes the car's potential when he wins a race against a more powerful competitor.&lt;br&gt;&lt;br&gt;
+With the help of his friend Tennessee Steinmetz (played by Buddy Hackett), Jim decides to enter Herbie in more races, leading to a series of comedic and heartwarming adventures. Along the way, Jim develops a bond with Herbie, who becomes not just his racing partner but also a beloved friend.&lt;br&gt;&lt;br&gt;
+Complications arise when a rival race car driver, Thorndyke (played by David Tomlinson), and his conniving assistant, Havershaw (played by Joe Flynn), try to undermine Jim and Herbie's success. However, Herbie's determination and unique abilities prove invaluable in overcoming obstacles and achieving victories on the racing circuit.</t>
+  </si>
+  <si>
+    <t>The film centers around Alex the Lion (voiced by Ben Stiller), Marty the Zebra (voiced by Chris Rock), Melman the Giraffe (voiced by David Schwimmer), and Gloria the Hippopotamus (voiced by Jada Pinkett Smith). They live happily in the Central Park Zoo in New York City, but Marty begins to feel restless and curious about life outside the zoo.&lt;br&gt;&lt;br&gt;
+On Marty’s tenth birthday, he decides to explore the world beyond the zoo. His friends Alex, Melman, and Gloria pursue him and they all end up being shipped off to the island of Madagascar in crates. Upon arriving, they encounter a variety of colorful and eccentric animals, including lemurs led by King Julien XIII (voiced by Sacha Baron Cohen).&lt;br&gt;&lt;br&gt;
+While initially enjoying the freedom of the wild, the zoo animals soon realize they miss the comforts of their home in New York City. Alex struggles with his carnivorous instincts as he starts craving meat, which leads to tension among the group. Meanwhile, Marty befriends a group of mischievous penguins who have their own plans to escape the island.&lt;br&gt;&lt;br&gt;
+As the story unfolds, the zoo animals must confront their fears, adapt to their new environment, and find a way to survive and eventually return home to New York City.</t>
+  </si>
+  <si>
+    <t>The story picks up where the second film, "Madagascar: Escape 2 Africa," left off. Alex the Lion (voiced by Ben Stiller), Marty the Zebra (voiced by Chris Rock), Melman the Giraffe (voiced by David Schwimmer), and Gloria the Hippopotamus (voiced by Jada Pinkett Smith) are still trying to find a way back to their beloved Central Park Zoo in New York City.&lt;br&gt;&lt;br&gt;
+The group, along with the mischievous penguins and the eccentric lemur King Julien XIII (voiced by Sacha Baron Cohen), find themselves pursued by the relentless Captain Chantel DuBois (voiced by Frances McDormand), an animal control officer determined to capture them for her collection.&lt;br&gt;&lt;br&gt;
+To evade capture, the zoo animals join a traveling circus, where they meet new friends and embark on a journey across Europe. Along the way, they encounter various challenges and adventures as they strive to impress the circus owner, Vitaly the Tiger (voiced by Bryan Cranston), and gain acceptance into the troupe.&lt;br&gt;&lt;br&gt;
+As they perform daring acts and navigate the complexities of circus life, Alex, Marty, Melman, and Gloria discover new strengths and talents within themselves. They also face the dilemma of whether to continue their journey with the circus or find a way back home to New York City.</t>
+  </si>
+  <si>
+    <t>The story begins with Alex the Lion (voiced by Ben Stiller), Marty the Zebra (voiced by Chris Rock), Melman the Giraffe (voiced by David Schwimmer), and Gloria the Hippopotamus (voiced by Jada Pinkett Smith) attempting to return to New York City using a repaired airplane piloted by the mischievous penguins.&lt;br&gt;&lt;br&gt;
+However, their journey takes an unexpected turn when the plane crash-lands in the wilderness of Africa. To their surprise, the animals discover that they are not alone — they encounter other animals of their own species, including Alex’s long-lost parents, Zuba (voiced by Bernie Mac) and Florrie (voiced by Sherri Shepherd), who are the king and queen of a lion pride.&lt;br&gt;&lt;br&gt;
+While Alex is overjoyed to reunite with his family, he struggles with his own identity and whether he truly belongs in the wild. Marty encounters a herd of zebras led by the charismatic Moto Moto (voiced by will.i.am), and Melman becomes romantically involved with a female giraffe named Gloria (voiced by Elisa Gabrielli).&lt;br&gt;&lt;br&gt;
+As the story unfolds, the zoo animals and their newfound friends face various challenges and adventures in the African wilderness. They must navigate relationships, confront their fears, and ultimately decide where their true home lies — whether it's in the wilds of Africa or back in the familiar surroundings of the Central Park Zoo in New York City.</t>
+  </si>
+  <si>
+    <t>Marisa Ventura (Jennifer Lopez) is a single mother living in the Bronx and working as a maid at a luxurious hotel in Manhattan, the Beresford Hotel. Despite her humble job, Marisa dreams of a better life for herself and her young son, Ty (Tyler Posey). One day, while cleaning the room of a wealthy guest, Marisa tries on a guest's expensive clothes and inadvertently meets Christopher Marshall (Ralph Fiennes), a charming and wealthy politician running for Senate.&lt;br&gt;&lt;br&gt;
+Thinking Marisa is also a guest at the hotel, Christopher is immediately captivated by her, and they spend an enchanting day together in Manhattan, culminating in a romantic evening. However, Christopher is unaware of Marisa's true identity as a maid, believing her to be a socialite named Caroline Lane.&lt;br&gt;&lt;br&gt;
+As their romance blossoms, Marisa struggles with the deception and the class divide between them. Meanwhile, Christopher faces pressures from his political campaign and the expectations of his social circle, including his overbearing mother (played by Natasha Richardson).&lt;br&gt;&lt;br&gt;
+When Christopher eventually learns the truth about Marisa's background, he must confront his own prejudices and decide whether their love can overcome the obstacles of their different worlds.</t>
+  </si>
+  <si>
+    <t>The story is set in the fictional village of Laholi, where every week the residents eagerly await the announcement of the winning lottery numbers. The central character, Lilaram (played by Paresh Rawal), is a small-time lottery ticket seller who dreams of striking it rich someday. One day, one of Lilaram's customers, Anthony (played by Rajpal Yadav), dies in a car accident after purchasing a lottery ticket from him.&lt;br&gt;&lt;br&gt;
+Upon discovering that the ticket Anthony purchased is the winning ticket worth 1 crore rupees, Lilaram hatches a plan to claim the prize money for himself. He convinces the villagers to share the lottery winnings with him under the pretext of Anthony having left the winning ticket with him before his death. The villagers agree, and they all celebrate their newfound wealth.&lt;br&gt;&lt;br&gt;
+However, chaos ensues when Lilaram's wife, Bharti (played by Om Puri), finds out about the winning ticket and tries to claim it for herself. The situation becomes even more complicated when the lottery officials arrive in Laholi to investigate the legitimacy of the winning ticket.&lt;br&gt;&lt;br&gt;
+As misunderstandings and comedic situations unfold, Lilaram and the villagers must navigate through various twists and turns to keep their secret and prevent their plans from unraveling. The film builds towards a humorous and unpredictable climax as the characters try to outwit each other and secure the lottery prize.</t>
+  </si>
+  <si>
+    <t>The story is set on the fictional Greek island of Kalokairi and revolves around Sophie Sheridan (played by Amanda Seyfried), a young woman who is about to marry her fiancé, Sky (played by Dominic Cooper). Sophie has grown up with her single mother, Donna Sheridan (played by Meryl Streep), who runs a small hotel on the island.&lt;br&gt;&lt;br&gt;
+As Sophie prepares for her wedding, she discovers her mother's old diary and learns that she has three potential fathers: Sam Carmichael (played by Pierce Brosnan), Bill Anderson (played by Stellan Skarsgård), and Harry Bright (played by Colin Firth). Believing that one of them is her father, Sophie invites all three men to the wedding without telling her mother, hoping to discover the truth and have her father walk her down the aisle.&lt;br&gt;&lt;br&gt;
+The arrival of the three men causes unexpected chaos and comedy as Donna confronts her past loves and Sophie navigates the complexities of her relationships. Meanwhile, Donna's best friends and former bandmates, Tanya (played by Christine Baranski) and Rosie (played by Julie Walters), also arrive for the wedding festivities, adding to the lively atmosphere.&lt;br&gt;&lt;br&gt;
+Throughout the film, ABBA's iconic songs are used to narrate and accentuate the emotions and events, including "Dancing Queen," "Mamma Mia," "The Winner Takes It All," and many more. The music serves as a backdrop for the characters' stories, adding to the film's joyful and nostalgic appeal.</t>
+  </si>
+  <si>
+    <t>Set over a 24-hour period, the film takes place at an unnamed large investment bank in New York City. The story begins with Eric Dale (played by Stanley Tucci), a senior risk analyst, being abruptly dismissed from his job along with many of his colleagues due to a mass layoff.&lt;br&gt;&lt;br&gt;
+Before leaving, Eric hands over a USB drive to his protege, Peter Sullivan (played by Zachary Quinto), advising him to "be careful" and look into the data on the drive. Peter, a young and talented analyst, discovers that the data contains a complex financial model that reveals the firm's exposure to high-risk mortgage-backed securities.&lt;br&gt;&lt;br&gt;
+As Peter and his team delve deeper into the numbers, they uncover a looming financial catastrophe: the firm's assets are significantly overleveraged, and they are on the brink of a catastrophic collapse if the market continues to deteriorate. The discovery sets off a chain reaction within the firm as senior executives, including Sam Rogers (played by Kevin Spacey), Will Emerson (played by Paul Bettany), and Jared Cohen (played by Simon Baker), grapple with the ethical and moral implications of their actions.&lt;br&gt;&lt;br&gt;
+Over the course of the night, decisions are made that will have profound consequences not only for the firm but also for the global financial system. The characters face moral dilemmas, personal conflicts, and the harsh realities of corporate greed and ambition in the face of impending disaster.</t>
+  </si>
+  <si>
+    <t>The story is set in Edge City and follows Stanley Ipkiss (played by Jim Carrey), a timid and unlucky bank clerk who discovers a mysterious wooden mask. When Stanley puts on the mask, he is transformed into a zoot-suited, green-faced alter ego known as The Mask. As The Mask, Stanley gains superpowers, including cartoonish elasticity, invulnerability, and an irrepressible personality.&lt;br&gt;&lt;br&gt;
+Embracing his newfound persona, The Mask becomes a mischievous and charismatic trickster who entertains crowds and confronts criminals while pursuing his own desires, including wooing Tina Carlyle (played by Cameron Diaz), a singer at the Coco Bongo nightclub. However, Stanley must also contend with the consequences of his alter ego's actions, which attract the attention of both the police and local mobsters.&lt;br&gt;&lt;br&gt;
+As Stanley navigates between his ordinary life and the antics of The Mask, he discovers the mask's ancient origins and its malevolent nature. The film culminates in a showdown between The Mask and the mob boss Dorian Tyrell (played by Peter Greene), who seeks to wield the mask's powers for his own gain.</t>
+  </si>
+  <si>
+    <t>The story revolves around Janaradhan Wishvanbhar Rane a.k.a. Janaradhan (played by Paresh Rawal), a widower who has spent his life taking care of his two children, a son, and a daughter. He dreams of seeing his children settled in their respective lives.&lt;br&gt;&lt;br&gt;
+Janaradhan's son, Harishchandra (played by Akshaye Khanna), works as a manager in a firm and is engaged to Anjali Khurana (played by Genelia D'Souza). However, he hides the truth about his father's occupation, portraying him as a retired army officer rather than a simple pensioner.&lt;br&gt;&lt;br&gt;
+Complications arise when Janaradhan's old friend and love interest, Shikha (played by Om Puri), returns after years, creating a love triangle. Janaradhan tries to navigate these relationships and ensure his children's happiness while dealing with his own feelings for Shikha.&lt;br&gt;&lt;br&gt;
+As the story unfolds, misunderstandings, humorous situations, and family dynamics come to the fore, leading to a series of comedic and heartfelt moments. The film explores themes of love, family values, and the generational gap with a blend of humor and emotional depth.</t>
+  </si>
+  <si>
+    <t>The film revolves around quadruplets who were separated at birth due to circumstances and raised in different cultural backgrounds.&lt;br&gt;&lt;br&gt;
+Each of the brothers has distinct personalities and skills. Due to their upbringing, they are unaware of each other's existence until circumstances bring them together in a series of comedic and chaotic events. The plot involves mistaken identities, hilarious misunderstandings, and the brothers' attempts to navigate their newfound relationships and connections.&lt;br&gt;&lt;br&gt;
+The film also features other prominent actors such as Urvashi, Khushbu, Nassar, Delhi Ganesh, and SN Lakshmi in supporting roles. The performances of Kamal Haasan in multiple roles, along with the witty dialogue and situational comedy, are highlights of the film.</t>
+  </si>
+  <si>
+    <t>The film begins with the Minions evolving from single-celled organisms into their current form and finding themselves in search of a master to serve. Over the centuries, the Minions serve a series of masters, including a T-Rex, an Egyptian pharaoh, Dracula, and Napoleon, but unintentionally cause the demise of each of them due to their clumsiness and well-meaning but disastrous antics.&lt;br&gt;&lt;br&gt;
+Eventually, the Minions find themselves in a deep depression after being isolated from their kind in Antarctica. Three brave Minions — Kevin, Stuart, and Bob — embark on a journey to find a new master for their tribe. Their quest leads them to New York City in the 1960s, where they discover Villain-Con, a convention for villains, and become enchanted by the ambitious Scarlet Overkill (voiced by Sandra Bullock), who plans to steal the Queen of England's crown.&lt;br&gt;&lt;br&gt;
+Scarlet recruits the Minions to help her achieve her goal, promising them riches and the chance to become her first henchmen. As they assist Scarlet in her heist, the Minions face numerous challenges and humorous mishaps, including encounters with Scarlet's inventor husband, Herb (voiced by Jon Hamm).</t>
+  </si>
+  <si>
+    <t>The story is set in Gurukul, an elite all-boys university led by Narayan Shankar (played by Amitabh Bachchan), a strict and traditional headmaster who strongly believes in discipline and opposes love and romance among his students. He imposes strict rules forbidding any form of attachment or emotional expression.&lt;br&gt;&lt;br&gt;
+Enter Raj Aryan Malhotra (played by Shah Rukh Khan), a music teacher who arrives at Gurukul with a mission to change the rigid beliefs of Narayan Shankar. Raj believes in the power of love and encourages the students to follow their hearts. He challenges the authority of Narayan Shankar and encourages the boys to pursue their dreams and express their feelings.&lt;br&gt;&lt;br&gt;
+Three young students at Gurukul become central to the plot.&lt;br&gt;&lt;br&gt;
+As Raj's influence spreads, the students begin to question Narayan Shankar's authority and traditions. This sets up a clash of ideologies between Raj and Narayan Shankar, leading to a dramatic and emotional confrontation.</t>
+  </si>
+  <si>
+    <t>In the city of Monstropolis, power is generated through the screams of human children, which are collected by monsters working at Monster's Inc., the city's largest energy-producing company. The monsters venture into the human world through closet doors to scare children while they sleep. The screams are then converted into energy that powers the monster world.&lt;br&gt;&lt;br&gt;
+The top scarer at Monster's Inc. is James P. "Sulley" Sullivan (voiced by John Goodman), a large, furry blue monster, with his best friend and assistant, Mike Wazowski (voiced by Billy Crystal), a small, green, one-eyed monster. They work under the supervision of their boss, Mr. Waternoose (voiced by James Coburn).&lt;br&gt;&lt;br&gt;
+One day, a young girl named Boo (voiced by Mary Gibbs) accidentally enters the monster world through her closet door, causing chaos and intrigue among the monsters. Sulley and Mike find themselves in the precarious position of trying to return Boo to her world while avoiding detection from their colleagues and the authorities. Along the way, they discover a sinister plot that threatens the future of both the monster and human worlds.</t>
+  </si>
+  <si>
+    <t>The film takes place before the events of "Monsters, Inc." and follows Mike Wazowski (voiced by Billy Crystal) and James P. "Sulley" Sullivan (voiced by John Goodman) during their college years at Monsters University. Mike has dreamed of becoming a scarer since he was a young monster, and he enrolls in the prestigious scare program at MU to achieve his goal.&lt;br&gt;&lt;br&gt;
+At Monsters University, Mike is dedicated and hardworking but lacks natural scariness. Sulley, on the other hand, comes from a family of famous scarers and relies on his natural talent and family name. They initially clash due to their contrasting approaches and personalities but eventually form a competitive friendship.&lt;br&gt;&lt;br&gt;
+During an important scare competition, both Mike and Sulley's rivalry escalates to the point where they accidentally destroy Dean Hardscrabble's (voiced by Helen Mirren) prized scream canister. As a consequence, they are expelled from the scare program.&lt;br&gt;&lt;br&gt;
+Desperate to prove themselves, Mike and Sulley join a fraternity of misfit monsters, including Don Carlton (voiced by Joel Murray), Terri and Terry Perry (voiced by Dave Foley and Sean Hayes), Art (voiced by Charlie Day), and Squishy (voiced by Peter Sohn). Together, they participate in the university's annual Scare Games, a series of challenges that test their scare abilities.&lt;br&gt;&lt;br&gt;
+As they face various challenges and setbacks, Mike and Sulley learn valuable lessons about teamwork, friendship, and embracing their individual strengths. Their journey at Monsters University ultimately shapes their futures and lays the foundation for their partnership at Monsters, Inc.</t>
+  </si>
+  <si>
+    <t>The story follows Grace Bennett (played by Selena Gomez), a high school graduate from Texas who plans a trip to Paris with her best friend Emma Perkins (played by Katie Cassidy) after saving up for years. However, their vacation turns out to be less glamorous than expected, filled with disappointments and mishaps.&lt;br&gt;&lt;br&gt;
+During their stay in Paris, Grace is mistaken for Cordelia Winthrop Scott, a wealthy British heiress, by a group of paparazzi. Seeing an opportunity for adventure, Grace and Emma decide to impersonate Cordelia and her uptight friend Meg (played by Leighton Meester) and join a luxury tour to Monte Carlo. Along with Grace's stepsister, Emma, the trio embark on a journey across Europe.&lt;br&gt;&lt;br&gt;
+In Monte Carlo, Grace begins to enjoy the perks of being mistaken for Cordelia, including luxury accommodations and fancy social events. Along the way, she meets Theo Marchand (played by Pierre Boulanger), a charming Frenchman who believes she is Cordelia. As the deception continues, Grace and her friends navigate through romantic entanglements and learn valuable lessons about identity, friendship, and the importance of being true to oneself.</t>
+  </si>
+  <si>
+    <t>The story revolves around the adventures of a young man named Shiva (played by Kamal Haasan), who embarks on a journey from Chennai to Mumbai aboard the Mumbai Express train. Shiva's father, Ramanathan (played by Nassar), is a highly respected scientist who has developed a formula for a revolutionary new rocket fuel.&lt;br&gt;&lt;br&gt;
+Unbeknownst to Shiva, his father’s formula is highly sought after by various parties, including a notorious international terrorist group led by Bulla (played by Vaiyapuri). Bulla and his gang are determined to obtain the formula by any means necessary.&lt;br&gt;&lt;br&gt;
+During the train journey, Shiva encounters a diverse group of passengers, each with their own quirks and agendas. He also meets Maya (played by Manisha Koirala), a mysterious woman who is connected to the events surrounding the rocket fuel formula.&lt;br&gt;&lt;br&gt;
+As the journey progresses, Shiva finds himself caught in a series of comedic and suspenseful situations involving mistaken identities, secret agendas, and narrow escapes. With the help of his wits and resourcefulness, Shiva navigates through the chaos to protect his father’s formula and ensure the safety of himself and his fellow passengers.</t>
+  </si>
+  <si>
+    <t>"Mungaru Male" is a highly acclaimed Kannada romantic drama film released in 2006, directed by Yogaraj Bhat. It became a landmark film in Kannada cinema for its story, music, and performances.&lt;br&gt;&lt;br&gt;
+The story revolves around the lives of two characters: Preetham (played by Ganesh), a young man who is carefree and loves to enjoy life, and Nandini (played by Pooja Gandhi), a college student who is introspective and reserved. They meet during a journey to their hometown and gradually develop feelings for each other.&lt;br&gt;&lt;br&gt;
+Preetham, an aspiring singer, falls in love with Nandini but faces challenges due to their different personalities and backgrounds. Nandini, who initially resists Preetham's advances, begins to reciprocate his feelings as they spend more time together. Their romance blossoms against the backdrop of beautiful landscapes and rainy weather, which becomes a symbolic motif throughout the film.&lt;br&gt;&lt;br&gt;
+However, their love story encounters obstacles, including misunderstandings, societal expectations, and personal ambitions. The film explores themes of love, sacrifice, and the complexities of relationships in a realistic and heartfelt manner.</t>
+  </si>
+  <si>
+    <t>The story revolves around Sathyam (played by Sathyaraj), a carefree and street-smart con artist who makes a living by duping people with his quick wit and charm. He operates under various disguises and aliases to execute his schemes, earning him the nickname "Nadigan," which means actor in Tamil.&lt;br&gt;&lt;br&gt;
+Despite his deceptive nature, Sathyam has a good heart and helps those in need, often using his cunning ways to outsmart villains and protect the innocent. His life takes a turn when he meets and falls in love with Kaveri (played by Kushboo), a kind-hearted young woman who runs a charitable trust.&lt;br&gt;&lt;br&gt;
+As Sathyam gets involved with Kaveri and her philanthropic endeavors, he begins to reconsider his lifestyle and desires to change for the better. However, his past catches up with him when he faces challenges from adversaries who threaten his newfound happiness and relationships.</t>
+  </si>
+  <si>
+    <t>The story follows Hutch Mansell (played by Bob Odenkirk), a seemingly ordinary family man and underestimated suburban dad who lives a monotonous life. Hutch works at his mundane job and faces tensions with his wife, Becca (played by Connie Nielsen), and son, Blake (played by Gage Munroe), due to his apparent lack of courage and assertiveness.&lt;br&gt;&lt;br&gt;
+One night, burglars break into Hutch's home, triggering a series of events that awaken his dormant skills and violent instincts. When Hutch chooses not to defend his family from the burglars out of fear of escalating violence, he becomes disillusioned with his life and decides to confront his own identity and past.&lt;br&gt;&lt;br&gt;
+As Hutch delves deeper into his past, it is revealed that he has a mysterious background involving lethal skills and connections to dangerous individuals. With his skills reawakened, Hutch embarks on a path of vengeance against a Russian mafia that threatens his family, leading to intense and action-packed confrontations.</t>
+  </si>
+  <si>
+    <t>The story is set in the charming neighborhood of Notting Hill in London and revolves around the unlikely romance between William "Will" Thacker (played by Hugh Grant), a bookstore owner, and Anna Scott (played by Julia Roberts), a famous American actress.&lt;br&gt;&lt;br&gt;
+Will Thacker leads a quiet and uneventful life, running a small bookstore with his quirky group of friends. One day, Anna Scott, a glamorous Hollywood actress, walks into his bookstore. Despite the stark differences in their lifestyles and backgrounds, Will and Anna strike up an awkward yet endearing conversation. They unexpectedly find themselves drawn to each other, and a romantic spark begins to ignite.&lt;br&gt;&lt;br&gt;
+As Will and Anna navigate the complexities of their burgeoning relationship, they face challenges stemming from Anna’s celebrity status and the intrusive nature of the paparazzi. Their love story unfolds against the backdrop of humorous and heartfelt moments, including encounters with Will's eccentric friends and family.</t>
+  </si>
+  <si>
+    <t>The film begins with James Bond investigating the murder of 009, a fellow MI6 agent, in East Berlin. Bond discovers that 009 was carrying a fake Fabergé egg, leading him to uncover a plot involving a wealthy Afghan prince, Kamal Khan (played by Louis Jourdan), and a Soviet general, Orlov (played by Steven Berkoff). They plan to detonate a nuclear bomb on a U.S. Air Force base in West Germany, intending to trigger NATO disarmament and allow Orlov to invade Western Europe.&lt;br&gt;&lt;br&gt;
+Bond travels to India and teams up with the enigmatic and wealthy Octopussy (played by Maud Adams), who runs a traveling circus as a front for her smuggling operation. Octopussy is also revealed to be a victim of Khan's manipulations. Together, Bond and Octopussy unravel the conspiracy while evading Khan's henchmen and the Soviet forces.&lt;br&gt;&lt;br&gt;
+The climax of the film takes place at Octopussy's secluded palace in India, where Bond confronts Khan and his allies in a thrilling showdown involving a circus train and a ticking nuclear bomb.</t>
+  </si>
+  <si>
+    <t>The story unfolds in two distinct time periods: the 1970s and the 2000s. In the 1970s, Om Prakash Makhija (played by Shah Rukh Khan) is a junior artist (extra) in the Hindi film industry who dreams of becoming a famous actor like his idol, Shantipriya (played by Deepika Padukone), a leading actress known for her beauty and talent.&lt;br&gt;&lt;br&gt;
+Om secretly loves Shantipriya but is unable to express his feelings due to their contrasting social statuses. Tragically, Shantipriya becomes a victim of a conspiracy orchestrated by the villainous producer Mukesh Mehra (played by Arjun Rampal), who frames her for a crime and kills her to cover up his misdeeds.&lt;br&gt;&lt;br&gt;
+In a twist of fate, Om dies trying to save Shantipriya from a fire ignited by Mukesh Mehra. In the 2000s, Om reincarnates as Om Kapoor, a successful Bollywood actor who begins to experience flashbacks and memories of his past life as Om Prakash Makhija. With the help of a friend and a Bollywood insider, Om Kapoor sets out to unravel the mysteries of his past life and seek justice for Shantipriya.</t>
+  </si>
+  <si>
+    <t>The story begins in Darkest Peru, where a young bear named Paddington (voiced by Ben Whishaw) lives with his Aunt Lucy. When an earthquake destroys their home, Aunt Lucy sends Paddington to London, England, with hopes of finding a new home and a family to take care of him. In London, Paddington is discovered at Paddington Station by the Brown family — Mr. Henry Brown (played by Hugh Bonneville), Mrs. Mary Brown (played by Sally Hawkins), and their children Judy (played by Madeleine Harris) and Jonathan (played by Samuel Joslin).
+Initially unsure of what to do with Paddington, the Brown family takes him in temporarily. As Paddington settles into his new life, he unwittingly causes chaos and mishaps with his curious nature and penchant for getting into sticky situations. Despite the challenges, Paddington wins over the hearts of the Brown family and the local community with his kindness, politeness, and marmalade sandwiches.
+However, Paddington's presence catches the attention of a sinister taxidermist, Millicent Clyde (played by Nicole Kidman), who has sinister plans to capture and stuff Paddington for her collection. With the help of the Brown family and their housekeeper, Mrs. Bird (played by Julie Walters), Paddington must evade Millicent's schemes and prove that a bear can find a place in London and be part of a family.</t>
+  </si>
+  <si>
+    <t>The film revolves around the humorous misadventures of Bhola (played by Sunil Dutt), a simple and naive man who falls in love with his beautiful neighbor Bindu (played by Saira Banu). Bhola lives with his scheming friend Vidyapati (played by Kishore Kumar), who is determined to help Bhola win Bindu's heart.&lt;br&gt;&lt;br&gt;
+However, Bhola faces stiff competition for Bindu’s affection from her music teacher, Master Pillai (played by Mehmood), who is more sophisticated and charming. Vidyapati decides to impersonate a suave singer named Ravi to teach Bhola how to woo Bindu and compete with Master Pillai.&lt;br&gt;&lt;br&gt;
+Through a series of comedic situations and musical numbers, Bhola attempts to impress Bindu while Vidyapati's schemes often backfire hilariously. The film is noted for its witty dialogues, entertaining performances, and memorable songs, including the iconic "Ek Chatur Naar" sequence featuring Kishore Kumar and Mehmood.</t>
+  </si>
+  <si>
+    <t>The film revolves around Ramachandra "Ram" (played by Kamal Haasan), a carefree and mischievous man who lives with his wife Mythili (played by Simran) and his close friends. Ram and his friends face a series of comedic situations when Ram accidentally witnesses a murder committed by a notorious gangster, Anandraj (played by Nagesh).&lt;br&gt;&lt;br&gt;
+To escape the gangster's wrath and protect themselves, Ram and his friends embark on a hilarious journey filled with misunderstandings, disguises, and unexpected encounters. They find themselves entangled in a web of confusion and chaos as they try to evade Anandraj and his henchmen.&lt;br&gt;&lt;br&gt;
+As the story unfolds, Ram and his friends must use their wit and ingenuity to outsmart their adversaries and clear their names. The film combines elements of slapstick comedy, witty dialogues, and situational humor to deliver an entertaining and memorable cinematic experience.</t>
+  </si>
+  <si>
+    <t>The film tells the story of Arjun (played by Shah Rukh Khan), a young man living in India who travels to the United States to pursue higher education. In the U.S., he stays with his uncle and aunt, who live a prosperous life in Los Angeles. Arjun befriends their daughter-in-law, Ganga (played by Mahima Chaudhry), who is initially apprehensive about his traditional Indian values but eventually warms up to his sincerity and charm.&lt;br&gt;&lt;br&gt;
+As Arjun settles into life in America, he becomes deeply involved in the local Indian community and develops a strong bond with Ganga. However, their budding romance faces obstacles when Ganga's father, Suraj Dev (played by Amrish Puri), arranges her marriage to Rajiv (played by Apurva Agnihotri), a wealthy and sophisticated Indian-American.&lt;br&gt;&lt;br&gt;
+The film explores themes of cultural identity, tradition versus modernity, and the complexities of love and relationships across different cultural backgrounds. Arjun's determination to win Ganga's heart and his clash with Suraj Dev's values form the core of the emotional narrative.</t>
+  </si>
+  <si>
+    <t>The film revolves around identical twin sisters, Annie James and Hallie Parker, who are separated shortly after birth when their parents, Elizabeth James (played by Natasha Richardson) and Nicholas Parker (played by Dennis Quaid), divorce. Each parent takes custody of one twin, with Annie growing up in London with her mother and Hallie living in Napa Valley with her father.&lt;br&gt;&lt;br&gt;
+By a stroke of fate, the twins coincidentally meet for the first time at a summer camp in Maine. Initially unaware of their relation, they discover their shared history and devise a plan to switch places. Their goal is to reunite their estranged parents by allowing each twin to spend time with the other parent under the guise of getting to know their 'long-lost' sibling.&lt;br&gt;&lt;br&gt;
+As the twins execute their plan, they face comedic challenges and emotional revelations about their family dynamics. Along the way, they also form bonds with their unsuspecting parent's significant others: Annie with her father's girlfriend Meredith Blake (played by Elaine Hendrix) and Hallie with her mother's friend Martin (played by Simon Kunz).</t>
+  </si>
+  <si>
+    <t>The film follows the adventures of Skipper, Kowalski, Rico, and Private, four daring and witty penguins who are elite operatives of a covert spy organization known as the North Wind. Led by the charismatic and arrogant wolf, Agent Classified (voiced by Benedict Cumberbatch), the North Wind is dedicated to protecting animal welfare worldwide.&lt;br&gt;&lt;br&gt;
+When the villainous octopus, Dr. Octavius Brine (voiced by John Malkovich), devises a sinister plan to eliminate all penguins worldwide, Skipper (voiced by Tom McGrath), Kowalski (voiced by Chris Miller), Rico (voiced by Conrad Vernon), and Private (voiced by Christopher Knights) must team up with the North Wind to thwart his evil scheme.&lt;br&gt;&lt;br&gt;
+The penguins embark on a globetrotting adventure, from the frigid landscapes of Antarctica to the bustling streets of Shanghai, as they battle Dr. Octavius Brine and his army of octopus minions. Along the way, they uncover surprising revelations about themselves and forge new friendships with their North Wind counterparts.</t>
+  </si>
+  <si>
+    <t>The film picks up where "Hera Pheri" left off, with Raju, Shyam, and Baburao struggling to make a living despite their newfound wealth from the previous film's events. They have invested their money unwisely and are now facing financial ruin. Desperate for a way out of their dire situation, they decide to invest in a scheme proposed by a fraudulent businessman, Anuradha (played by Bipasha Basu), who promises them quick returns.&lt;br&gt;&lt;br&gt;
+However, their investment turns out to be a scam, and they lose all their money, including Baburao's bungalow. To recover their losses, Raju, Shyam, and Baburao find themselves embroiled in a series of comedic misunderstandings and schemes, including kidnapping and ransom demands, as they try to navigate their way out of trouble.&lt;br&gt;&lt;br&gt;
+Throughout the film, the trio encounters various quirky characters and comedic situations, including encounters with the underworld, mistaken identities, and hilarious dialogues. Their antics lead to uproarious situations as they try to outsmart each other and the people around them.</t>
+  </si>
+  <si>
+    <t>In "The Pink Panther 2," Inspector Jacques Clouseau (played by Steve Martin) is called upon once again to solve a high-profile crime. This time, the elusive Pink Panther diamond has been stolen from the Museum of Natural History in Paris. Clouseau's bumbling investigative methods and comedic antics are put to the test as he leads an international team of detectives known as the "Dream Team."&lt;br&gt;&lt;br&gt;
+The Dream Team comprises skilled detectives from around the world, each with their own unique expertise and quirks. The team includes Chief Inspector Dreyfus (played by John Cleese), Vicenzo (played by Andy Garcia), Pepperidge (played by Alfred Molina), and Sonia (played by Aishwarya Rai Bachchan). Together, they embark on a globe-trotting adventure to recover the stolen diamond and apprehend the thief.&lt;br&gt;&lt;br&gt;
+As Clouseau and the Dream Team follow clues and interrogate suspects, they encounter various comedic situations and misunderstandings. Along the way, Clouseau's unconventional methods and obliviousness often lead to chaotic and humorous outcomes, much to the frustration of his colleagues.</t>
+  </si>
+  <si>
+    <t>The film revolves around the theft of the valuable Pink Panther diamond, which is stolen from the fictional country of Lugash. The jewel is of great importance to the country, and its theft sparks an international investigation. Inspector Jacques Clouseau, known for his comedic ineptitude and exaggerated French accent, is assigned to the case by Chief Inspector Charles Dreyfus (played by Herbert Lom).&lt;br&gt;&lt;br&gt;
+Clouseau sets out to catch the elusive thief, a notorious jewel thief known as The Phantom. His investigation takes him to glamorous locations across Europe, where he encounters a colorful cast of characters, including Sir Charles Lytton (played by David Niven), an English playboy who is secretly The Phantom, and his wife, Simone (played by Capucine).&lt;br&gt;&lt;br&gt;
+As Clouseau clumsily attempts to solve the case, his antics and misunderstandings lead to hilarious situations and comic relief. Along the way, he is aided by his loyal but exasperated assistant, Sergeant François Chevalier (played by André Maranne).</t>
+  </si>
+  <si>
+    <t>The film follows the story of Edward Lewis (played by Richard Gere), a wealthy and successful businessman who is visiting Los Angeles for business purposes. While lost and looking for directions, he meets Vivian Ward (played by Julia Roberts), a charismatic and streetwise prostitute who is willing to guide him to his destination.&lt;br&gt;&lt;br&gt;
+Impressed by Vivian’s bold personality and quick wit, Edward hires her to accompany him for the week as his escort to various social and business events. As they spend more time together, Edward and Vivian develop an unexpected connection and begin to understand each other's vastly different worlds.&lt;br&gt;&lt;br&gt;
+As their relationship evolves, Edward starts to see Vivian not just as an escort but as a person with dreams and aspirations. He helps her gain confidence and independence, while Vivian shows Edward a different perspective on life and relationships.</t>
+  </si>
+  <si>
+    <t>The film tells the story of young lovers Raj (played by Aamir Khan) and Rashmi (played by Juhi Chawla), who come from rival families with a long-standing feud. Despite their families' opposition, Raj and Rashmi fall deeply in love and decide to elope.&lt;br&gt;&lt;br&gt;
+As they struggle to build a life together away from their families, they face numerous challenges and obstacles. Their journey is marked by moments of joy and hardship, as they navigate the complexities of their forbidden love and the consequences of defying societal norms.&lt;br&gt;&lt;br&gt;
+However, their happiness is short-lived as the feud between their families escalates, leading to a tragic and heart-wrenching climax that tests their love and resolve.</t>
+  </si>
+  <si>
+    <t>The film revolves around Surinder Sahni (played by Shah Rukh Khan), a mild-mannered and ordinary man working for Punjab Power, who leads a simple life in Amritsar. Surinder’s life takes an unexpected turn when he marries Taani (played by Anushka Sharma), a vivacious young woman who dreams of a romantic and exciting life.&lt;br&gt;&lt;br&gt;
+However, after a tragic accident on their wedding day, Taani is devastated and withdraws into herself. To fulfill her father's dying wish and ensure her happiness, Surinder decides to transform himself into Raj, a fun-loving and lively alter ego. Raj introduces himself to Taani as a participant in a local dance competition and gradually wins her heart with his carefree charm.&lt;br&gt;&lt;br&gt;
+As Raj, Surinder becomes Taani's dance partner and guides her through the competition. Meanwhile, Taani starts to develop feelings for Raj, unaware that he is actually Surinder in disguise. The film explores themes of love, self-discovery, and the importance of inner beauty over external appearances.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Mili (played by Urmila Matondkar), a spirited and ambitious young woman who dreams of becoming a successful actress in the film industry. She works as an extra and dancer in Bollywood films while harboring aspirations of stardom.&lt;br&gt;&lt;br&gt;
+Mili’s life takes a turn when she meets Munna (played by Aamir Khan), a streetwise and charismatic tapori (local goon) who works as a film set background dancer. Munna is infatuated with Mili but initially hides his feelings due to their contrasting backgrounds.&lt;br&gt;&lt;br&gt;
+As Mili rises to fame after being noticed by a famous actor, Raj Kamal (played by Jackie Shroff), Munna realizes his love for her. However, he struggles to express his feelings and faces the challenge of winning Mili's heart against the backdrop of the glamorous and competitive film industry.</t>
+  </si>
+  <si>
+    <t>The film follows the story of a rat named Remy (voiced by Patton Oswalt), who dreams of becoming a renowned French chef despite his family's wishes for him to scavenge for food like other rats. Remy possesses a sophisticated palate and a passion for cooking, inspired by the culinary skills of the late chef Auguste Gusteau (voiced by Brad Garrett), whose motto is "Anyone can cook."&lt;br&gt;&lt;br&gt;
+After a series of events, Remy finds himself in the heart of Paris, beneath Gusteau's restaurant. There, he forms an unlikely partnership with Linguini (voiced by Lou Romano), a young kitchen worker with no cooking skills but a desire to succeed. Using Remy's culinary expertise hidden under Linguini's chef hat, the duo begins to create innovative and delicious dishes that captivate the restaurant's patrons and impress the skeptical staff.&lt;br&gt;&lt;br&gt;
+As Remy and Linguini navigate the challenges of running a successful kitchen while concealing Remy's identity as a rat, they face opposition from the restaurant's egotistical head chef, Skinner (voiced by Ian Holm), and the intimidating food critic, Anton Ego (voiced by Peter O'Toole). With the help of their friends, including the loyal staff and Remy’s family, they strive to prove that anyone, no matter their background, can achieve greatness in the culinary world.</t>
+  </si>
+  <si>
+    <t>In "The Return of the Pink Panther," Inspector Jacques Clouseau (played by Peter Sellers) returns to solve another case involving the infamous Pink Panther diamond, which has been stolen once again. The diamond's theft is attributed to the Phantom, a mysterious thief known for his cunning and elusive nature.&lt;br&gt;&lt;br&gt;
+As Clouseau embarks on the investigation, his bumbling and comical methods once again lead to a series of mishaps and misunderstandings. Along the way, he encounters various eccentric characters, including Sir Charles Litton (played by Christopher Plummer), who becomes a suspect in the case due to his history with the Pink Panther diamond.&lt;br&gt;&lt;br&gt;
+Despite his clumsiness and the skepticism of his colleagues, Clouseau's unorthodox approach eventually leads him closer to uncovering the truth behind the theft and the identity of the Phantom. His adventures take him across picturesque European locations, adding to the film’s charm and humor.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Blu (voiced by Jesse Eisenberg), a rare blue macaw who is domesticated and lives in Minnesota with his owner Linda (voiced by Leslie Mann). Blu is believed to be the last male of his species until it is discovered that there is another blue macaw named Jewel (voiced by Anne Hathaway) living in Rio de Janeiro, Brazil.&lt;br&gt;&lt;br&gt;
+Linda and Blu travel to Rio so that Blu can mate with Jewel to save their species. However, Blu and Jewel are kidnapped by animal smugglers. During their escape, they are chained together and must work together despite their differences to avoid capture and return to the wild.&lt;br&gt;&lt;br&gt;
+Along the way, Blu encounters a host of colorful characters including Nico (voiced by Jamie Foxx), Pedro (voiced by will.i.am), and Rafael (voiced by George Lopez), who help him navigate the vibrant and bustling streets of Rio de Janeiro. Together, they embark on an adventurous journey through the Brazilian rainforest, encountering dangers and discovering the true meaning of friendship and freedom.</t>
+  </si>
+  <si>
+    <t>The film stars Audrey Hepburn as Princess Ann, a young European princess who is tired of her tightly scheduled life of official duties and public appearances during her goodwill tour of European capitals. One night in Rome, feeling overwhelmed and suffocated by her responsibilities, Princess Ann decides to escape her guardians and explore the city on her own.&lt;br&gt;&lt;br&gt;
+During her solo adventure, Princess Ann meets Joe Bradley (played by Gregory Peck), an American newspaper reporter who initially does not recognize her. Joe, seeing an opportunity for a big story, offers to show her around Rome while secretly planning to write an exclusive expose about the princess's incognito escapades.&lt;br&gt;&lt;br&gt;
+As Joe and Princess Ann spend time together, they develop a genuine connection and a budding romance begins to blossom. However, complications arise as Joe grapples with his growing feelings for Ann and his ethical dilemma about revealing her true identity for the sake of his career.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Joan Wilder (played by Kathleen Turner), a successful romance novelist who leads a solitary life in New York City. Joan’s world is turned upside down when her sister is kidnapped by thugs seeking a treasure map that Joan's late husband had sent to her.&lt;br&gt;&lt;br&gt;
+In a desperate attempt to save her sister, Joan travels to Colombia with the map in hand, where she encounters Jack T. Colton (played by Michael Douglas), an American adventurer with a dubious reputation. Together, Joan and Jack embark on a perilous journey through the Colombian jungle to find the hidden treasure and rescue Joan's sister.&lt;br&gt;&lt;br&gt;
+As they navigate dangerous terrain and evade various obstacles, Joan and Jack find themselves developing a romantic bond amidst the adventure and danger. Along the way, they encounter treacherous rivals, including the ruthless and charming villain, Zolo (played by Manuel Ojeda), who is also after the treasure.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Kate Gleason (played by Joy Lenz), a talented matchmaker who works at a matchmaking agency in New York City. Kate is known for her knack for finding perfect matches for her clients based on their personalities and preferences.&lt;br&gt;&lt;br&gt;
+One day, Kate is given a unique opportunity when she is hired to find a suitable match for Prince Sebastian of Voldavia (played by Will Kemp), a European prince who is under pressure to marry for the good of his country. Kate travels to Voldavia to meet the prince and assess potential candidates from the local aristocracy.&lt;br&gt;&lt;br&gt;
+As Kate delves into her matchmaking duties, she discovers that Prince Sebastian is not what she expected. He is charming and kind-hearted but has reservations about the arranged marriage. Meanwhile, Kate finds herself drawn to Prince Sebastian's genuine personality and begins to question her own views on love and relationships.&lt;br&gt;&lt;br&gt;
+As Kate and Prince Sebastian spend more time together, they develop a mutual admiration and understanding. Together, they navigate the complexities of royal expectations, family pressures, and the possibility of true love.</t>
+  </si>
+  <si>
+    <t>"Sholay" is a legendary Bollywood action-adventure film released in 1975.&lt;br&gt;&lt;br&gt;
+The film is set in the fictional village of Ramgarh, where a retired police officer, Thakur Baldev Singh (played by Sanjeev Kumar), seeks to avenge the brutal massacre of his family by the notorious dacoit Gabbar Singh (played by Amjad Khan). Thakur hires two small-time crooks, Veeru (played by Dharmendra) and Jai (played by Amitabh Bachchan), to help him capture Gabbar Singh alive and bring him to justice.&lt;br&gt;&lt;br&gt;
+Veeru and Jai initially clash but soon become close friends and agree to help Thakur. Together, they confront numerous challenges posed by Gabbar Singh and his gang, including action-packed battles and thrilling chase sequences. The film explores themes of friendship, loyalty, revenge, and justice against the backdrop of the rugged and lawless terrain.</t>
+  </si>
+  <si>
+    <t>The film stars Peter Sellers as Inspector Jacques Clouseau, a bumbling and incompetent French detective who becomes embroiled in a murder investigation at a wealthy mansion. Clouseau arrives at the mansion to investigate the murder of the chauffeur, Miguel Ostos, who was found dead with a revolver in his hand and the maid, Maria Gambrelli (played by Elke Sommer), standing nearby. Despite the seemingly incriminating evidence against her, Clouseau is convinced of Maria's innocence and sets out to uncover the true culprit.&lt;br&gt;&lt;br&gt;
+As Clouseau clumsily investigates the case, he encounters a series of mishaps and misunderstandings that complicate the investigation further. His unconventional methods and obliviousness to his surroundings lead to comedic situations and chaotic outcomes. Along the way, Clouseau's interactions with various eccentric characters, including his loyal but exasperated boss Commissioner Dreyfus (played by Herbert Lom), add to the film's humor and charm.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Deloris Van Cartier (played by Whoopi Goldberg), a lounge singer in Reno, Nevada, who witnesses a murder committed by her boyfriend, Vince LaRocca (played by Harvey Keitel), a mobster. Fearing for her life, Deloris goes into hiding and is placed in a convent under a witness protection program by Detective Eddie Souther (played by Bill Nunn).&lt;br&gt;&lt;br&gt;
+At the convent, Deloris assumes the identity of Sister Mary Clarence and reluctantly adapts to the strict rules and lifestyle of the nuns, led by Reverend Mother (played by Maggie Smith). Deloris initially struggles to fit in and clashes with the traditional ways of the convent. However, her vibrant personality and musical talents gradually inspire the choir, comprised of the convent’s nuns, to transform from a lackluster group into a spirited and harmonious choir.&lt;br&gt;&lt;br&gt;
+As Sister Mary Clarence leads the choir in revitalizing their musical performances with contemporary flair, they gain attention and popularity within the community. Their newfound success also attracts the attention of Vince LaRocca, who discovers Deloris’ whereabouts and sets out to silence her before she can testify against him.</t>
+  </si>
+  <si>
+    <t>The film follows the story of Robin Monroe (played by Anne Heche), a New York City magazine editor who reluctantly embarks on a tropical vacation with her boyfriend, Frank Martin (played by David Schwimmer). While on the remote Pacific island of Makatea, Robin is tasked with covering a work assignment.&lt;br&gt;&lt;br&gt;
+Their plans take an unexpected turn when Quinn Harris (played by Harrison Ford), a rugged and adventurous pilot, is hired to fly Robin to nearby Tahiti for an urgent assignment. However, their journey is disrupted by a severe storm that forces Quinn to crash-land on a deserted island.&lt;br&gt;&lt;br&gt;
+Stranded together, Robin and Quinn must overcome their initial animosity and work together to survive the challenges of the island. As they navigate the dangers of the wilderness and face various obstacles, including pirates who are after Quinn’s plane, they develop a mutual respect and growing attraction.</t>
+  </si>
+  <si>
+    <t>Set in Austria on the brink of World War II, the film tells the story of Maria (played by Julie Andrews), a free-spirited and aspiring nun who is sent to be the governess for seven motherless children of Captain Georg von Trapp (played by Christopher Plummer), a strict naval officer and widower.&lt;br&gt;&lt;br&gt;
+Initially encountering resistance from the disciplined Captain and his regimented household, Maria gradually wins over the children with her warmth, kindness, and love for music. She introduces them to the joy of singing and encourages them to express themselves creatively.&lt;br&gt;&lt;br&gt;
+As Maria bonds with the children and earns the respect of the stern Captain, she also finds herself falling in love with him. However, their burgeoning romance is complicated by the looming threat of the Nazi regime, which impacts the family’s safety and future.</t>
+  </si>
+  <si>
+    <t>The film follows the origin story of Peter Parker (played by Tobey Maguire), a high school student living in New York City. Peter is bitten by a genetically modified spider during a school field trip, granting him spider-like abilities such as super strength, agility, and the ability to cling to walls.&lt;br&gt;&lt;br&gt;
+After the tragic death of his beloved Uncle Ben (played by Cliff Robertson) at the hands of a criminal Peter could have stopped earlier, Peter embraces his newfound powers and decides to use them to fight crime as the masked vigilante known as Spider-Man. He designs a costume and develops web-shooters that allow him to swing through the city and apprehend criminals.&lt;br&gt;&lt;br&gt;
+Meanwhile, Peter must navigate the challenges of high school life, including his unrequited love for his neighbor Mary Jane Watson (played by Kirsten Dunst) and his strained relationship with his best friend Harry Osborn (played by James Franco), whose father Norman Osborn (played by Willem Dafoe) becomes the villainous Green Goblin after a failed scientific experiment.&lt;br&gt;&lt;br&gt;
+As Spider-Man, Peter faces off against the Green Goblin in epic battles across New York City, leading to a climactic showdown that tests Peter’s strength, courage, and determination to protect those he loves.</t>
+  </si>
+  <si>
+    <t>The film continues the story of Peter Parker (played by Tobey Maguire), who struggles to balance his life as a college student with his responsibilities as the masked superhero Spider-Man. Peter faces personal challenges as he grapples with the pressures of academic life, financial hardships, and his unrequited love for Mary Jane Watson (played by Kirsten Dunst), who is now pursuing a career in acting.&lt;br&gt;&lt;br&gt;
+Meanwhile, Peter’s alter ego, Spider-Man, faces a new formidable adversary in the form of Dr. Otto Octavius (played by Alfred Molina), a brilliant scientist who becomes the villainous Doctor Octopus after a failed fusion experiment. Doctor Octopus, armed with mechanical tentacles fused to his body, poses a significant threat to New York City as he embarks on a mission to complete his experiment at any cost.&lt;br&gt;&lt;br&gt;
+As Spider-Man, Peter must confront Doctor Octopus while also coming to terms with his own identity and the sacrifices he must make to protect the city he loves. Throughout the film, Peter grapples with the consequences of being a hero, including the strain it places on his relationships and his own well-being.</t>
+  </si>
+  <si>
+    <t>The film follows Darren McCord (played by Jean-Claude Van Damme), a former firefighter and now a fire marshal for the Pittsburgh Civic Arena. During Game 7 of the Stanley Cup Finals between the Pittsburgh Penguins and the Chicago Blackhawks, a group of terrorists led by Joshua Foss (played by Powers Boothe) takes the arena hostage.&lt;br&gt;&lt;br&gt;
+Foss demands a large ransom and threatens to detonate explosives planted throughout the arena if his demands are not met. Amidst the chaos, McCord's daughter Emily (played by Whitney Coleman) is also taken hostage by the terrorists. McCord becomes the reluctant hero as he navigates the treacherous arena, battling terrorists and trying to rescue his daughter and the other hostages.&lt;br&gt;&lt;br&gt;
+As tensions escalate and the countdown to disaster begins, McCord uses his firefighting skills and resourcefulness to outwit the terrorists and foil their plans. Along the way, he engages in intense hand-to-hand combat and thrilling action sequences to save the day and prevent a catastrophic tragedy during the high-stakes hockey game.</t>
+  </si>
+  <si>
+    <t>The film tells the story of Mohan Bhargava (played by Shah Rukh Khan), a successful NASA scientist of Indian origin who works as a project manager at NASA in the United States. Despite his professional success, Mohan feels disconnected from his roots and homeland, India.&lt;br&gt;&lt;br&gt;
+Mohan decides to return to India to bring his childhood nanny Kaveriamma (played by Kishori Ballal) back with him to the United States. However, during his visit to his village in Uttar Pradesh, Mohan becomes deeply affected by the plight of the villagers, who face challenges such as lack of access to electricity, clean water, and education.&lt;br&gt;&lt;br&gt;
+Inspired by the spirit and resilience of the villagers, Mohan decides to stay back and work towards improving their lives. He initiates several development projects, including harnessing wind energy to provide electricity to the village, constructing a school, and advocating for better healthcare facilities.&lt;br&gt;&lt;br&gt;
+As Mohan becomes more involved in the village's progress, he also develops a deep bond with Gita (played by Gayatri Joshi), a young woman who shares his passion for social change. Together, they confront societal norms and bureaucratic challenges to bring about meaningful transformation in the lives of the villagers.</t>
+  </si>
+  <si>
+    <t>Terminator, The</t>
+  </si>
+  <si>
+    <t>Set in a dystopian future, the film follows the story of a cyborg assassin known as the Terminator (played by Arnold Schwarzenegger), sent back in time from the year 2029 to 1984. The mission of the Terminator is to kill Sarah Connor (played by Linda Hamilton), a young woman who is destined to give birth to John Connor, the future leader of the human resistance against an artificial intelligence system called Skynet.&lt;br&gt;&lt;br&gt;
+Kyle Reese (played by Michael Biehn), a soldier also sent from the future, arrives in 1984 to protect Sarah Connor from the Terminator. Kyle reveals to Sarah the apocalyptic future where machines have taken over, and she learns about her importance in the survival of humanity.&lt;br&gt;&lt;br&gt;
+As the Terminator relentlessly pursues Sarah across Los Angeles, a deadly game of cat and mouse ensues, leading to intense action sequences and thrilling chases. Sarah and Kyle form a bond as they fight to survive against the seemingly indestructible Terminator and prevent a future where machines dominate and humanity faces extinction.</t>
+  </si>
+  <si>
+    <t>The film is set in a dystopian future where artificial intelligence system Skynet, after its initial defeat, sends a new, more advanced Terminator, the T-1000 (played by Robert Patrick), back in time to 1995. Its mission is to kill John Connor (played by Edward Furlong), the future leader of the human resistance against Skynet.&lt;br&gt;&lt;br&gt;
+To protect John, the resistance sends back a reprogrammed Terminator, the T-800 (played by Arnold Schwarzenegger), to act as John’s guardian. Sarah Connor (played by Linda Hamilton), John’s mother, is institutionalized due to her warnings about the future and the impending Judgment Day—a nuclear apocalypse caused by Skynet.&lt;br&gt;&lt;br&gt;
+As the T-1000 relentlessly pursues John and the T-800 across Los Angeles, Sarah Connor is freed and joins them in their mission to prevent Judgment Day by stopping the creation of Skynet. Together, they face intense action sequences, thrilling chases, and confrontations with the shape-shifting T-1000, a liquid metal assassin.</t>
+  </si>
+  <si>
+    <t>The film is set a decade after the events of "Terminator 2: Judgment Day." John Connor (played by Nick Stahl), now in his twenties, lives off the grid as a drifter to avoid detection by Skynet, the artificial intelligence system that seeks to eliminate him. Sarah Connor has passed away from cancer, and John lives with the knowledge of the impending Judgment Day—a global nuclear apocalypse initiated by Skynet.&lt;br&gt;&lt;br&gt;
+Skynet sends a new Terminator, the T-X (played by Kristanna Loken), back in time to 2004 with the mission to kill key members of the future resistance against Skynet, including John Connor and his future lieutenants. To protect John, a reprogrammed T-800 Terminator (played by Arnold Schwarzenegger) is also sent back in time to ensure his survival.&lt;br&gt;&lt;br&gt;
+As the T-X relentlessly pursues John and his future associates, including veterinarian Kate Brewster (played by Claire Danes), they must evade capture while uncovering Skynet's plans and preventing Judgment Day from being initiated. The chase leads to intense action sequences, confrontations with the relentless T-X, and a race against time to alter the future.</t>
+  </si>
+  <si>
+    <t>The film follows Dr. Blake (played by David Gale), a charismatic and sinister psychologist who hosts a popular self-help TV show called "Independent Thinking." Unbeknownst to his audience, Dr. Blake uses his program to hypnotize viewers and control their minds, turning them into obedient zombies.&lt;br&gt;&lt;br&gt;
+When a rebellious teenager named Jim Majelewski (played by Tom Bresnahan) discovers Dr. Blake’s nefarious plot, he becomes a target of the doctor’s mind-control experiments. Jim teams up with a young woman named Janet (played by Cynthia Preston) to uncover the truth behind Dr. Blake’s mind-control scheme and stop him from achieving his dark ambitions.&lt;br&gt;&lt;br&gt;
+As Jim and Janet dig deeper into Dr. Blake’s operations, they encounter various obstacles and dangers, including brainwashed individuals who are willing to protect Dr. Blake at any cost. The film culminates in a suspenseful showdown between Jim, Janet, and Dr. Blake, leading to a battle of wills and a fight for survival against the powerful forces of mind control.</t>
+  </si>
+  <si>
+    <t>The film revolves around the protagonist, Thenali (played by Kamal Haasan), who suffers from a phobia of anything related to danger or fear, known as panophobia. His condition, exacerbated by childhood trauma, causes him to live in constant fear and anxiety. Despite his phobia, Thenali is a brilliant neurologist who excels in his profession.&lt;br&gt;&lt;br&gt;
+Seeking treatment for his condition, Thenali consults Dr. Kailash (played by Jayaram), a psychiatrist known for his unorthodox methods. Dr. Kailash takes Thenali into his care and introduces him to Janaki (played by Jyothika), a vivacious young woman who becomes an integral part of Thenali’s treatment and journey towards overcoming his fears.&lt;br&gt;&lt;br&gt;
+As Thenali undergoes therapy and faces his phobias with Janaki’s support, comedic situations ensue, leading to humorous misunderstandings and light-hearted moments. However, their lives take a turn when a dangerous criminal named Panchabhootham (played by Devan) mistakenly believes Thenali possesses incriminating evidence against him. This misunderstanding puts Thenali and Janaki in perilous situations, challenging Thenali to confront his fears and protect himself and Janaki.</t>
+  </si>
+  <si>
+    <t>The film revolves around Chandran (played by Rajinikanth), a straightforward and honest man who struggles to find employment due to his principled nature. Desperate for a job, Chandran pretends to be a highly disciplined and serious individual during a job interview with his potential employer, Rangasamy (played by Thengai Srinivasan), who is strict and stern.&lt;br&gt;&lt;br&gt;
+Impressed by Chandran’s facade, Rangasamy hires him as his personal secretary. However, Chandran’s real personality is the opposite of what he portrayed during the interview—he is fun-loving, mischievous, and enjoys pulling pranks. To keep up his job and avoid detection, Chandran navigates a series of comedic situations where he must maintain his double life while balancing work and personal relationships.&lt;br&gt;&lt;br&gt;
+As Chandran tries to uphold his charade, his interactions with Rangasamy, his daughter, and other characters in the office lead to humorous misunderstandings and comedic sequences. The film explores themes of identity, honesty, and the consequences of pretending to be someone you’re not.</t>
+  </si>
+  <si>
+    <t>The film revolves around Oscar Novak (played by Matthew Perry), an architect who is mistakenly believed to be gay by his wealthy and eccentric client, Charles Newman (played by Dylan McDermott). Charles hires Oscar to keep an eye on his mistress, Amy Post (played by Neve Campbell), assuming Oscar won’t be attracted to her because he’s gay.&lt;br&gt;&lt;br&gt;
+Caught in a series of misunderstandings, Oscar reluctantly agrees to spy on Amy and report back to Charles. However, Oscar soon finds himself developing genuine feelings for Amy, who is an artist working on a project for Charles. As Oscar tries to navigate his complicated situation and keep up the charade of being gay, he becomes entangled in a love triangle involving Amy and Charles.&lt;br&gt;&lt;br&gt;
+Complications arise when Oscar’s best friend and business partner, Peter Steinberg (played by Oliver Platt), discovers the truth about Oscar’s assignment and also develops romantic feelings for Amy. The film explores themes of love, deception, and the consequences of assumptions and misunderstandings in relationships.</t>
+  </si>
+  <si>
+    <t>Mark Thackeray is an engineer by profession but takes up a teaching job due to lack of opportunities in his field. He is assigned to teach a class of troubled and unruly adolescents in an East End school. Initially, the students are disrespectful and defiant towards him, but Thackeray gradually earns their respect through his unconventional teaching methods, firm discipline, and genuine care for their well-being.&lt;br&gt;&lt;br&gt;
+As he spends more time with his students, he learns about their difficult backgrounds, aspirations, and struggles. Thackeray focuses not only on academics but also on teaching them life lessons and preparing them for the challenges they will face outside of school. He encourages them to respect themselves and others, and to strive for better futures.&lt;br&gt;&lt;br&gt;
+Throughout the film, Thackeray faces various challenges, including resistance from the school administration and societal prejudices. Despite these obstacles, he remains dedicated to his students' success and well-being.</t>
+  </si>
+  <si>
+    <t>The film follows the iconic rivalry between Tom the cat and Jerry the mouse, who find themselves in New York City. Jerry moves into a prestigious hotel on the eve of a high-profile wedding, causing havoc with his antics. In response, the hotel's event planner, Kayla Forester (played by Chloë Grace Moretz), hires Tom to get rid of Jerry before the wedding day.&lt;br&gt;&lt;br&gt;
+As Tom and Jerry engage in their usual chaotic battles, their antics threaten to jeopardize the wedding and Kayla's career. However, they must put aside their differences when they discover a scheming employee's plot to sabotage the event.</t>
+  </si>
+  <si>
+    <t>The film follows James Bond (played by Pierce Brosnan) as he investigates a media mogul named Elliot Carver (played by Jonathan Pryce), who is using his global media empire to manipulate world events to boost ratings and drive profits. Carver plans to provoke a war between the UK and China by creating a conflict over British sovereignty in Hong Kong, which he intends to replace with his own satellite network.&lt;br&gt;&lt;br&gt;
+Bond teams up with Chinese agent Wai Lin (played by Michelle Yeoh) to uncover Carver's scheme. As they delve deeper, Bond discovers a complex web of deception, intrigue, and betrayal, leading to high-stakes action sequences across various international locations.</t>
+  </si>
+  <si>
+    <t>The film follows Frank Tupelo (played by Johnny Depp), an American tourist visiting Venice, Italy. While on a train to Venice, he meets Elise Clifton-Ward (played by Angelina Jolie), a mysterious and elegant woman who seems to take an interest in him. Unbeknownst to Frank, Elise is being pursued by both the British and Russian intelligence agencies because she is believed to have information about her boyfriend, Alexander Pearce, who embezzled billions from a criminal organization.&lt;br&gt;&lt;br&gt;
+As Frank becomes increasingly entangled in Elise's dangerous world, he is mistaken for Pearce by the authorities and targeted by both the police and the criminals. Elise, torn between her feelings for Frank and her loyalty to Pearce, must navigate a web of deceit and danger to protect herself and the man she has come to care for.</t>
+  </si>
+  <si>
+    <t>The film revolves around a group of employees working at The Tower, a luxurious high-rise apartment building in New York City. Led by building manager Josh Kovaks (played by Ben Stiller), the staff members discover that Arthur Shaw (played by Alan Alda), a wealthy resident who owns the penthouse, has swindled their pension funds in a Ponzi scheme. Determined to get their money back, Josh recruits a ragtag team that includes a recently fired concierge Charlie (played by Casey Affleck), a down-on-his-luck former Wall Street banker Mr. Fitzhugh (played by Matthew Broderick), and a petty criminal Slide (played by Eddie Murphy).&lt;br&gt;&lt;br&gt;
+Together, they devise a plan to break into Shaw's penthouse and steal back the stolen money. Their heist is complicated by Shaw's tight security and the involvement of FBI agent Claire Denham (played by Téa Leoni), who is investigating Shaw's financial crimes.</t>
+  </si>
+  <si>
+    <t>The film centers around two wealthy brothers, Randolph (played by Ralph Bellamy) and Mortimer Duke (played by Don Ameche), who own a commodities brokerage firm in Philadelphia. They make a bet on whether nature (inherited traits) or nurture (environmental influences) determines a person's success. To settle their wager, they orchestrate a social experiment involving two individuals from different backgrounds.&lt;br&gt;&lt;br&gt;
+Louis Winthorpe III (played by Dan Aykroyd) is a successful and wealthy commodities broker working for the Dukes. Billy Ray Valentine (played by Eddie Murphy) is a streetwise hustler who is initially living as a homeless man in Philadelphia. The Dukes arrange for Winthorpe to be framed for a crime and lose his job, while simultaneously elevating Valentine to Winthorpe's former position.&lt;br&gt;&lt;br&gt;
+As Winthorpe and Valentine navigate their new circumstances, they realize they have been manipulated by the Dukes. Together with Winthorpe's former fiancée, Ophelia (played by Jamie Lee Curtis), they plot to turn the tables on the Dukes and expose their manipulation.</t>
+  </si>
+  <si>
+    <t>The film revolves around Truman Burbank (played by Jim Carrey), who lives in the picturesque seaside town of Seahaven. Unbeknownst to Truman, his entire life is actually a meticulously crafted reality TV show, broadcast live to millions of viewers around the world. Every aspect of Truman's life, from his birth to his daily routines, has been scripted and controlled by the show's creator and director, Christof (played by Ed Harris).&lt;br&gt;&lt;br&gt;
+As Truman starts to notice strange occurrences and inconsistencies in his surroundings, he becomes increasingly suspicious of his seemingly perfect life. His curiosity leads him to discover the truth—that he is the unwitting star of a 24/7 reality TV show. Determined to escape Seahaven and find true freedom, Truman embarks on a journey to uncover the reality behind his existence and confront the omnipotent Christof.</t>
+  </si>
+  <si>
+    <t>"Up" tells the story of Carl Fredricksen, a 78-year-old widower who fulfills his lifelong dream of going on a grand adventure. To honor his late wife Ellie's memory and their shared dream of visiting Paradise Falls in South America, Carl attaches thousands of balloons to his house and flies away, inadvertently taking along a young Wilderness Explorer named Russell.&lt;br&gt;&lt;br&gt;
+Their journey takes them to a remote and dangerous wilderness filled with exotic creatures. Along the way, Carl and Russell encounter a talking dog named Dug and a rare, gigantic bird named Kevin. They also face challenges from an old adventurer named Charles Muntz, who is obsessed with capturing Kevin for fame and glory.</t>
+  </si>
+  <si>
+    <t>Bobby Boucher (played by Adam Sandler) is a socially inept, water-obsessed man who serves as the waterboy for a college football team, the South Central Louisiana State University (SCLSU) Mud Dogs. Despite his dedication to providing water, Bobby is constantly bullied and mistreated by the players and coaches.&lt;br&gt;&lt;br&gt;
+One day, Bobby’s frustration reaches a boiling point, and he unleashes his hidden talent for tackling when provoked. Coach Klein (played by Henry Winkler), impressed by Bobby's tackling ability, recruits him as a linebacker for the team. Bobby’s overprotective mother (played by Kathy Bates), who has kept him sheltered from the world, disapproves but eventually comes around to support him.&lt;br&gt;&lt;br&gt;
+As Bobby becomes a key player for the Mud Dogs, his newfound success brings him confidence and popularity. However, he must confront his past insecurities and challenges on and off the field, including standing up to his domineering mother.</t>
+  </si>
+  <si>
+    <t>The film is set in Mumbai and unfolds over the course of a single Wednesday. It begins with a police commissioner, Prakash Rathod (played by Anupam Kher), receiving a call from a man (played by Naseeruddin Shah) who claims to have planted bombs across the city. The man demands the release of four militants in exchange for defusing the bombs.&lt;br&gt;&lt;br&gt;
+As the tension escalates, Rathod and his team scramble to trace the caller's location and negotiate with him while trying to prevent potential disaster. The film follows the cat-and-mouse game between the unidentified caller and the police, revealing the caller's motivations and the reasons behind his drastic actions.</t>
+  </si>
+  <si>
+    <t>The film revolves around two rival families, the Kapoors and the Khannas, who are involved in various comedic and chaotic situations. The story primarily focuses on Uday Shetty (played by Nana Patekar) and Majnu Bhai (played by Anil Kapoor), two gangsters who are also best friends. They decide to mend their ways and become respectable businessmen to please Uday's father, Dr. Ghunghroo (played by Paresh Rawal).&lt;br&gt;&lt;br&gt;
+However, their attempts at legitimacy are complicated when Dr. Ghunghroo's estranged twin sister, Ranjana (played by Dimple Kapadia), returns with her son Rajiv (played by Akshay Kumar), who pretends to be a software engineer but is actually a gangster. Rajiv falls in love with Uday's sister, Sanjana (played by Shruti Haasan), leading to further comedic misunderstandings and conflicts between the two families.&lt;br&gt;&lt;br&gt;
+The film follows a series of humorous incidents involving mistaken identities, romantic entanglements, and the comical efforts of Uday and Majnu to navigate their newfound respectability while dealing with their family dynamics.</t>
+  </si>
+  <si>
+    <t>The film follows David Clark (played by Jason Sudeikis), a small-time drug dealer in Denver who is robbed of his stash and money. To clear his debt with his supplier, Brad Gurdlinger (played by Ed Helms), David agrees to smuggle a large shipment of marijuana from Mexico into the United States.&lt;br&gt;&lt;br&gt;
+In order to avoid suspicion at the border, David devises a plan to pose as a family man on vacation. He recruits a makeshift "family" consisting of his cynical stripper neighbor Rose O'Reilly (played by Jennifer Aniston), a lonely and awkward teenager Kenny Rossmore (played by Will Poulter), and a streetwise runaway Casey Mathis (played by Emma Roberts). Together, they form the Miller family.&lt;br&gt;&lt;br&gt;
+As the Millers journey to Mexico and attempt to retrieve the drugs, they encounter a series of hilarious and awkward situations, including misunderstandings with a Mexican drug lord and encounters with law enforcement. Along the way, the makeshift family members bond and learn valuable lessons about trust, loyalty, and the true meaning of family.</t>
+  </si>
+  <si>
+    <t>Nick Marshall (played by Mel Gibson) is a chauvinistic advertising executive who, after a freak accident involving a hairdryer and bathtub, gains the ability to hear women's thoughts. Initially, Nick sees this newfound ability as a curse, but he soon realizes it could be a powerful tool to understand and manipulate women, both personally and professionally.&lt;br&gt;&lt;br&gt;
+As Nick navigates his new ability, he begins to hear the inner thoughts of his co-worker Darcy McGuire (played by Helen Hunt), with whom he competes for a big promotion. Initially using his ability for selfish gain, Nick starts to empathize with women's experiences and feelings, leading him to reassess his attitudes towards relationships and personal growth.</t>
+  </si>
+  <si>
+    <t>The film follows FBI agents Kevin and Marcus Copeland (played by Shawn Wayans and Marlon Wayans, respectively), who are assigned to protect the heiresses Brittany and Tiffany Wilson (played by Anne Dudek and Maitland Ward) from a kidnapping plot. However, during a mishap involving an automobile accident, the Wilson sisters sustain minor facial injuries, rendering them unable to attend a high-profile event in the Hamptons.&lt;br&gt;&lt;br&gt;
+In a desperate move to salvage the operation and maintain their cover, Kevin and Marcus decide to disguise themselves as the Wilson sisters using heavy makeup and prosthetics. They infiltrate the event posing as Brittany and Tiffany, navigating through high society and dealing with the challenges of maintaining their disguise while investigating the kidnapping threat.&lt;br&gt;&lt;br&gt;
+As Kevin and Marcus immerse themselves deeper into the world of the Wilson sisters, they encounter humorous situations, romantic entanglements, and unexpected challenges that test their skills as undercover agents.</t>
+  </si>
+  <si>
+    <t>In this action-packed spy thriller, James Bond (played by Pierce Brosnan) is assigned to protect Elektra King (played by Sophie Marceau), the daughter of an oil tycoon who was recently assassinated. As Bond investigates, he uncovers a complex web of intrigue involving international oil conspiracies, betrayal, and a vengeful terrorist named Renard (played by Robert Carlyle), who cannot feel physical pain due to a bullet lodged in his brain.&lt;br&gt;&lt;br&gt;
+Bond teams up with Dr. Christmas Jones (played by Denise Richards), a nuclear physicist, as they race against time to stop Renard's plan to sabotage a crucial oil pipeline. Along the way, Bond faces deadly traps, high-speed chases, and confrontations that test his skills and resolve.</t>
+  </si>
+  <si>
+    <t>The film tells the story of Joe Fox (played by Tom Hanks) and Kathleen Kelly (played by Meg Ryan), two individuals who unknowingly become pen pals through anonymous email exchanges. Joe is the owner of a large bookstore chain called Fox Books, while Kathleen runs a small, independent children's bookstore called The Shop Around the Corner in New York City.&lt;br&gt;&lt;br&gt;
+As Joe and Kathleen exchange emails under pseudonyms, they develop a warm and witty correspondence, sharing their thoughts on life, books, and their personal challenges. However, in their real lives, they become rivals when Joe opens a new Fox Books store near Kathleen's struggling bookstore, threatening its existence.&lt;br&gt;&lt;br&gt;
+As their online and offline lives intertwine, Joe and Kathleen find themselves drawn to each other despite their initial animosity. Eventually, they discover each other's true identities, leading to a dilemma about whether they can reconcile their personal connection with their professional rivalry.</t>
+  </si>
+  <si>
+    <t>Set in a world where anthropomorphic animals live in a modern, civilized society, "Zootopia" follows Judy Hopps (voiced by Ginnifer Goodwin), a young and optimistic rabbit who dreams of becoming the first rabbit police officer in the city of Zootopia. Despite skepticism from her peers and superiors, Judy graduates at the top of her class and joins the Zootopia Police Department.&lt;br&gt;&lt;br&gt;
+Assigned to parking duty initially, Judy is determined to prove herself and becomes involved in solving a mysterious case of missing predators alongside a sly and cynical fox named Nick Wilde (voiced by Jason Bateman). Together, they uncover a conspiracy that threatens the harmony of Zootopia, revealing deep-seated prejudices and challenges the city's diverse inhabitants face.&lt;br&gt;&lt;br&gt;
+As Judy and Nick navigate through different districts of Zootopia, from Sahara Square to Tundratown, they confront their own biases and learn valuable lessons about acceptance, tolerance, and the importance of understanding each other's differences.</t>
+  </si>
+  <si>
+    <t>2009-05-29</t>
+  </si>
+  <si>
+    <t>Akshay Kumar, Sunil Shetty, Paresh Rawal, Tabu</t>
+  </si>
+  <si>
+    <t>Will Smith, Eva Mendes, Kevin James, Amber Valletta, Michael Rapaport, Adam Arkin</t>
+  </si>
+  <si>
+    <t>Cameron Diaz, Kate Winslet, Jude Law, Jack Black, Eli Wallach, Edward Burns, Rufus Sewell</t>
+  </si>
+  <si>
+    <t>Macaulay Culkin, Joe Pesci, Daniel Stern, John Heard, Catherine O'Hara</t>
+  </si>
+  <si>
+    <t>Macaulay Culkin, Joe Pesci, Daniel Stern, John Heard, Tim Curry, Brenda Fricker, Catherine O'Hara</t>
+  </si>
+  <si>
+    <t>Alex D. Linz, Haviland Morris</t>
+  </si>
+  <si>
+    <t>Mike Weinberg, French Stewart, Missi Pyle, Jason Beghe, Erick Avari, Barbara Babcock, Joanna Going, Clare Carey</t>
+  </si>
+  <si>
+    <t>Reese Witherspoon, Sofía Vergara, Robert Kazinsky, John Carroll Lynch</t>
+  </si>
+  <si>
+    <t>Rob Schneider, Anna Faris, Matthew Lawrence, Eric Christian Olsen, Rachel McAdams, Michael O'Keefe</t>
+  </si>
+  <si>
+    <t>Kate Hudson, Matthew McConaughey, Adam Goldberg, Michael Michele, Shalom Harlow</t>
+  </si>
+  <si>
+    <t>Jay Baruchel, Gerard Butler, Craig Ferguson, America Ferrera</t>
+  </si>
+  <si>
+    <t>Ray Romano, John Leguizamo, Denis Lear</t>
+  </si>
+  <si>
+    <t>Will Smith, Bill Pullman, Jeff Goldblum, Mary McDonnell, Judd Hirsch</t>
+  </si>
+  <si>
+    <t>Harrison Ford, Denholm Elliott, Alison Doody, John Rhys-Davies, Julian Glover, Sean Connery</t>
+  </si>
+  <si>
+    <t>Harrison Ford, Kate Capshaw, Amrish Puri, Roshan Seth, Philip Stone, Ke Huy Quan</t>
+  </si>
+  <si>
+    <t>Denzel Washington, Clive Owen, Jodie Foster, Christopher Plummer, Willem Dafoe, Chiwetel Ejiofor</t>
+  </si>
+  <si>
+    <t>Robert De Niro, Anne Hathaway, Rene Russo</t>
+  </si>
+  <si>
+    <t>Ricky Gervais, Jennifer Garner, Jonah Hill, Louis C.K.</t>
+  </si>
+  <si>
+    <t>Clark Gable, Claudette Colbert</t>
+  </si>
+  <si>
+    <t>Michael Caine, Noël Coward, Benny Hill, Raf Vallone</t>
+  </si>
+  <si>
+    <t>Mark Wahlberg, Charlize Theron, Edward Norton, Seth Green</t>
+  </si>
+  <si>
+    <t>Naseeruddin Shah, Ravi Baswani, Bhakti Barve, Satish Shah, Om Puri, Pankaj Kapur, Satish Kaushik, Neena Gupta, Ashok Banthia</t>
   </si>
 </sst>
 </file>
@@ -3228,15 +3704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
@@ -3251,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>729</v>
+        <v>557</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>756</v>
+        <v>576</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3265,7 +3741,7 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3277,22 +3753,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>577</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>899</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3303,10 +3779,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>758</v>
+        <v>578</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -3318,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>900</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3329,10 +3805,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D4" t="s">
-        <v>759</v>
+        <v>579</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -3344,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>901</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3355,10 +3831,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>580</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -3370,7 +3846,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>902</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3381,48 +3857,48 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
-        <v>761</v>
+        <v>581</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>903</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>890</v>
+        <v>703</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D7" t="s">
-        <v>893</v>
+        <v>706</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>891</v>
+        <v>704</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>892</v>
+        <v>705</v>
       </c>
       <c r="H7" t="s">
-        <v>904</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3433,10 +3909,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D8" t="s">
-        <v>762</v>
+        <v>582</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -3448,7 +3924,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>905</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3459,10 +3935,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>763</v>
+        <v>583</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -3485,10 +3961,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D10" t="s">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -3500,7 +3976,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>906</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3511,10 +3987,10 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D11" t="s">
-        <v>765</v>
+        <v>585</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
@@ -3526,7 +4002,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>907</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3537,10 +4013,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D12" t="s">
-        <v>766</v>
+        <v>586</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
@@ -3552,21 +4028,21 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>908</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>746</v>
+        <v>571</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D13" t="s">
-        <v>775</v>
+        <v>595</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
@@ -3578,7 +4054,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>909</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3589,10 +4065,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D14" t="s">
-        <v>773</v>
+        <v>593</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>39</v>
@@ -3604,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>910</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3615,10 +4091,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D15" t="s">
-        <v>774</v>
+        <v>594</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>41</v>
@@ -3630,7 +4106,7 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>911</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3641,10 +4117,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D16" t="s">
-        <v>768</v>
+        <v>588</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
@@ -3656,7 +4132,7 @@
         <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>912</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3667,10 +4143,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D17" t="s">
-        <v>769</v>
+        <v>589</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>47</v>
@@ -3682,7 +4158,7 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>913</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3693,10 +4169,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D18" t="s">
-        <v>770</v>
+        <v>590</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>50</v>
@@ -3708,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>914</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3719,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D19" t="s">
-        <v>771</v>
+        <v>591</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>53</v>
@@ -3734,7 +4210,7 @@
         <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>915</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3745,10 +4221,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D20" t="s">
-        <v>772</v>
+        <v>592</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>56</v>
@@ -3760,7 +4236,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>916</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3771,10 +4247,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D21" t="s">
-        <v>776</v>
+        <v>596</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>59</v>
@@ -3786,7 +4262,7 @@
         <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>917</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3797,10 +4273,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D22" t="s">
-        <v>777</v>
+        <v>597</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>62</v>
@@ -3812,4656 +4288,4722 @@
         <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>561</v>
+      </c>
+      <c r="D23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>733</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
         <v>778</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>562</v>
+      </c>
+      <c r="D24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>734</v>
-      </c>
-      <c r="D24" t="s">
-        <v>779</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="H24" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>733</v>
-      </c>
-      <c r="D25" t="s">
-        <v>780</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D26" t="s">
-        <v>781</v>
+        <v>601</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D27" t="s">
-        <v>782</v>
+        <v>602</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>884</v>
+        <v>698</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D28" t="s">
-        <v>887</v>
+        <v>701</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>886</v>
+        <v>700</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>885</v>
+        <v>699</v>
       </c>
       <c r="H28" t="s">
-        <v>883</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D29" t="s">
+        <v>603</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
         <v>783</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
         <v>784</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
         <v>785</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D32" t="s">
+        <v>606</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
         <v>786</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D33" t="s">
+        <v>607</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
         <v>787</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D34" t="s">
+        <v>608</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
         <v>788</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D35" t="s">
+        <v>609</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s">
         <v>789</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D36" t="s">
+        <v>610</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
         <v>790</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D37" t="s">
+        <v>611</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
         <v>791</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D38" t="s">
+        <v>612</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
         <v>792</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
+        <v>613</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s">
         <v>793</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>794</v>
+        <v>614</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>889</v>
+        <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D41" t="s">
-        <v>795</v>
+        <v>615</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D42" t="s">
-        <v>796</v>
+        <v>616</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>741</v>
+        <v>568</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D43" t="s">
-        <v>797</v>
+        <v>617</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>855</v>
+        <v>674</v>
       </c>
       <c r="F43" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G43" t="s">
-        <v>743</v>
+        <v>569</v>
       </c>
       <c r="H43" t="s">
-        <v>742</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D44" t="s">
-        <v>798</v>
+        <v>618</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>139</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D45" t="s">
-        <v>799</v>
+        <v>619</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D46" t="s">
-        <v>800</v>
+        <v>620</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D47" t="s">
-        <v>801</v>
+        <v>621</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>798</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D48" t="s">
-        <v>802</v>
+        <v>622</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D49" t="s">
-        <v>803</v>
+        <v>623</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D50" t="s">
-        <v>805</v>
+        <v>625</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D51" t="s">
-        <v>806</v>
+        <v>626</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F51" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D52" t="s">
-        <v>807</v>
+        <v>627</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>802</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D53" t="s">
-        <v>808</v>
+        <v>628</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>173</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D54" t="s">
-        <v>809</v>
+        <v>629</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>803</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D55" t="s">
-        <v>810</v>
+        <v>630</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="H55" t="s">
-        <v>181</v>
+        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>727</v>
+        <v>555</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D56" t="s">
-        <v>811</v>
+        <v>631</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D57" t="s">
-        <v>812</v>
+        <v>632</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
-        <v>188</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>724</v>
+        <v>553</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D58" t="s">
-        <v>813</v>
+        <v>633</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>856</v>
+        <v>675</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>737</v>
+        <v>565</v>
       </c>
       <c r="H58" t="s">
-        <v>726</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>850</v>
+        <v>669</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D59" t="s">
-        <v>849</v>
+        <v>668</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>857</v>
+        <v>676</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>850</v>
+        <v>669</v>
       </c>
       <c r="H59" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D60" t="s">
-        <v>814</v>
+        <v>634</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D61" t="s">
-        <v>815</v>
+        <v>635</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D62" t="s">
-        <v>816</v>
+        <v>636</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D63" t="s">
-        <v>817</v>
+        <v>637</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
-        <v>204</v>
+        <v>717</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D64" t="s">
-        <v>818</v>
+        <v>638</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H64" t="s">
-        <v>208</v>
+        <v>812</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D65" t="s">
-        <v>819</v>
+        <v>639</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="H65" t="s">
-        <v>211</v>
+        <v>813</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D66" t="s">
-        <v>820</v>
+        <v>640</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="H66" t="s">
-        <v>215</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D67" t="s">
-        <v>821</v>
+        <v>641</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="H67" t="s">
-        <v>219</v>
+        <v>815</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D68" t="s">
-        <v>822</v>
+        <v>642</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H68" t="s">
-        <v>222</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>718</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D69" t="s">
-        <v>823</v>
+        <v>643</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>817</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D70" t="s">
-        <v>824</v>
+        <v>644</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="H70" t="s">
-        <v>230</v>
+        <v>818</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>719</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D71" t="s">
-        <v>825</v>
+        <v>645</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D72" t="s">
-        <v>826</v>
+        <v>646</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>236</v>
+        <v>820</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D73" t="s">
-        <v>827</v>
+        <v>647</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="H73" t="s">
-        <v>240</v>
+        <v>821</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D74" t="s">
-        <v>828</v>
+        <v>648</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>720</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D75" t="s">
-        <v>829</v>
+        <v>649</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>822</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D76" t="s">
-        <v>830</v>
+        <v>650</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>823</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D77" t="s">
-        <v>831</v>
+        <v>651</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="D78" t="s">
-        <v>832</v>
+        <v>652</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="H78" t="s">
-        <v>753</v>
+        <v>825</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D79" t="s">
-        <v>833</v>
+        <v>653</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="H79" t="s">
-        <v>261</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D80" t="s">
-        <v>834</v>
+        <v>654</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="H80" t="s">
-        <v>264</v>
+        <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D81" t="s">
-        <v>835</v>
+        <v>655</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>828</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D82" t="s">
-        <v>836</v>
+        <v>656</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
-        <v>271</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D83" t="s">
-        <v>837</v>
+        <v>657</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>830</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D84" t="s">
-        <v>838</v>
+        <v>658</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="H84" t="s">
-        <v>279</v>
+        <v>831</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D85" t="s">
-        <v>839</v>
+        <v>659</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="H85" t="s">
-        <v>283</v>
+        <v>721</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>735</v>
+        <v>563</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="H86" t="s">
-        <v>286</v>
+        <v>722</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D87" t="s">
-        <v>841</v>
+        <v>661</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>289</v>
+        <v>723</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D88" t="s">
-        <v>842</v>
+        <v>662</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="H88" t="s">
-        <v>293</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D89" t="s">
-        <v>843</v>
+        <v>663</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="H89" t="s">
-        <v>297</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>726</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D90" t="s">
-        <v>844</v>
+        <v>664</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
-        <v>301</v>
+        <v>832</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D91" t="s">
-        <v>845</v>
+        <v>665</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>305</v>
+        <v>833</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D92" t="s">
-        <v>846</v>
+        <v>666</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>309</v>
+        <v>834</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D93" t="s">
-        <v>847</v>
+        <v>667</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="H93" t="s">
-        <v>313</v>
+        <v>727</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D94" t="s">
+        <v>919</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>317</v>
+        <v>728</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>559</v>
+      </c>
+      <c r="D95" t="s">
+        <v>920</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>320</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>559</v>
+      </c>
+      <c r="D96" t="s">
+        <v>921</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="H96" t="s">
-        <v>324</v>
+        <v>730</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D97" t="s">
+        <v>922</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>328</v>
+        <v>731</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D98" t="s">
+        <v>923</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="H98" t="s">
-        <v>332</v>
+        <v>732</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
+        <v>561</v>
+      </c>
+      <c r="D99" t="s">
+        <v>924</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>264</v>
+      </c>
+      <c r="H99" t="s">
         <v>733</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F99" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" t="s">
-        <v>335</v>
-      </c>
-      <c r="H99" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D100" t="s">
+        <v>925</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="H100" t="s">
-        <v>340</v>
+        <v>734</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D101" t="s">
+        <v>927</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="H101" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D102" t="s">
+        <v>926</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>866</v>
+        <v>685</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>559</v>
+      </c>
+      <c r="D103" t="s">
+        <v>928</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="H103" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>734</v>
+        <v>562</v>
+      </c>
+      <c r="D104" t="s">
+        <v>929</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="H104" t="s">
-        <v>355</v>
+        <v>737</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>728</v>
+        <v>556</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>734</v>
+        <v>562</v>
+      </c>
+      <c r="D105" t="s">
+        <v>930</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="H105" t="s">
-        <v>358</v>
+        <v>738</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D106" t="s">
+        <v>931</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H106" t="s">
-        <v>362</v>
+        <v>739</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D107" t="s">
+        <v>932</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="H107" t="s">
-        <v>366</v>
+        <v>740</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>760</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D108" t="s">
+        <v>933</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="H108" t="s">
-        <v>370</v>
+        <v>741</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D109" t="s">
+        <v>934</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="H109" t="s">
-        <v>374</v>
+        <v>742</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>730</v>
+        <v>558</v>
+      </c>
+      <c r="D110" t="s">
+        <v>935</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="H110" t="s">
-        <v>378</v>
+        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D111" t="s">
+        <v>936</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="H111" t="s">
-        <v>382</v>
+        <v>744</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>383</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>559</v>
+      </c>
+      <c r="D112" t="s">
+        <v>937</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>384</v>
+        <v>300</v>
       </c>
       <c r="F112" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G112" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D113" t="s">
+        <v>938</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="H113" t="s">
-        <v>390</v>
+        <v>747</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>732</v>
+        <v>560</v>
+      </c>
+      <c r="D114" t="s">
+        <v>939</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="H114" t="s">
-        <v>394</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="B115" t="s">
         <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>733</v>
+        <v>561</v>
+      </c>
+      <c r="D115" t="s">
+        <v>940</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="H115" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="B116" t="s">
         <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="H116" t="s">
-        <v>401</v>
+        <v>749</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="H117" t="s">
-        <v>405</v>
+        <v>750</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>875</v>
+        <v>692</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>877</v>
+        <v>694</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>876</v>
+        <v>693</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>875</v>
+        <v>692</v>
       </c>
       <c r="H118" t="s">
-        <v>878</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="3" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="H119" t="s">
-        <v>409</v>
+        <v>752</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="H120" t="s">
-        <v>413</v>
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>414</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
       <c r="H121" t="s">
-        <v>417</v>
+        <v>835</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="H122" t="s">
-        <v>754</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>749</v>
+        <v>573</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="3" t="s">
-        <v>858</v>
+        <v>677</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>750</v>
+        <v>574</v>
       </c>
       <c r="H123" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>880</v>
+        <v>695</v>
       </c>
       <c r="B124" t="s">
         <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D124" t="s">
-        <v>888</v>
+        <v>702</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>881</v>
+        <v>696</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>882</v>
+        <v>697</v>
       </c>
       <c r="H124" t="s">
-        <v>879</v>
+        <v>755</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="B125" t="s">
         <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="H125" t="s">
-        <v>423</v>
+        <v>756</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="H126" t="s">
-        <v>427</v>
+        <v>757</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="H127" t="s">
-        <v>431</v>
+        <v>758</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="H128" t="s">
-        <v>435</v>
+        <v>759</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="B129" t="s">
         <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>438</v>
+        <v>342</v>
       </c>
       <c r="H129" t="s">
-        <v>439</v>
+        <v>836</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>440</v>
+        <v>837</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>442</v>
+        <v>344</v>
       </c>
       <c r="H130" t="s">
-        <v>443</v>
+        <v>838</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="H131" t="s">
-        <v>447</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
       </c>
       <c r="G132" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="H132" t="s">
-        <v>450</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>451</v>
+        <v>350</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
       <c r="H133" t="s">
-        <v>454</v>
+        <v>841</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="F134" t="s">
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="H134" t="s">
-        <v>457</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="F135" t="s">
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="H135" t="s">
-        <v>747</v>
+        <v>842</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="H136" t="s">
-        <v>464</v>
+        <v>843</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="H137" t="s">
-        <v>468</v>
+        <v>844</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
       <c r="H138" t="s">
-        <v>472</v>
+        <v>845</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="B139" t="s">
         <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="F139" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G139" t="s">
-        <v>475</v>
+        <v>370</v>
       </c>
       <c r="H139" t="s">
-        <v>476</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>479</v>
+        <v>374</v>
       </c>
       <c r="H140" t="s">
-        <v>480</v>
+        <v>846</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="B141" t="s">
         <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>482</v>
+        <v>376</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="H141" t="s">
-        <v>484</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>485</v>
+        <v>378</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>487</v>
+        <v>380</v>
       </c>
       <c r="H142" t="s">
-        <v>488</v>
+        <v>848</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>490</v>
+        <v>382</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="H143" t="s">
-        <v>492</v>
+        <v>849</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="H144" t="s">
-        <v>495</v>
+        <v>850</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>496</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s">
         <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>497</v>
+        <v>387</v>
       </c>
       <c r="F145" t="s">
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s">
-        <v>499</v>
+        <v>851</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s">
         <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
       <c r="H146" t="s">
-        <v>503</v>
+        <v>852</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>504</v>
+        <v>392</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>504</v>
+        <v>392</v>
       </c>
       <c r="H147" t="s">
-        <v>506</v>
+        <v>853</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>507</v>
+        <v>394</v>
       </c>
       <c r="B148" t="s">
         <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>508</v>
+        <v>395</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>507</v>
+        <v>394</v>
       </c>
       <c r="H148" t="s">
-        <v>509</v>
+        <v>854</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>510</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>512</v>
+        <v>398</v>
       </c>
       <c r="H149" t="s">
-        <v>513</v>
+        <v>855</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="H150" t="s">
-        <v>516</v>
+        <v>856</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>517</v>
+        <v>401</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>518</v>
+        <v>402</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>519</v>
+        <v>403</v>
       </c>
       <c r="H151" t="s">
-        <v>520</v>
+        <v>857</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>522</v>
+        <v>405</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>523</v>
+        <v>406</v>
       </c>
       <c r="H152" t="s">
-        <v>524</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>525</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s">
         <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>527</v>
+        <v>409</v>
       </c>
       <c r="H153" t="s">
-        <v>528</v>
+        <v>859</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>530</v>
+        <v>411</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>531</v>
+        <v>412</v>
       </c>
       <c r="H154" t="s">
-        <v>532</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>414</v>
       </c>
       <c r="B155" t="s">
         <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>534</v>
+        <v>415</v>
       </c>
       <c r="F155" t="s">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>533</v>
+        <v>414</v>
       </c>
       <c r="H155" t="s">
-        <v>535</v>
+        <v>860</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>894</v>
+        <v>707</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="D156" t="s">
-        <v>896</v>
+        <v>709</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>895</v>
+        <v>708</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>894</v>
+        <v>707</v>
       </c>
       <c r="H156" t="s">
-        <v>897</v>
+        <v>861</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="H157" t="s">
-        <v>539</v>
+        <v>862</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>541</v>
+        <v>420</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="H158" t="s">
-        <v>542</v>
+        <v>863</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>543</v>
+        <v>421</v>
       </c>
       <c r="B159" t="s">
         <v>31</v>
       </c>
       <c r="C159" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>544</v>
+        <v>422</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="H159" t="s">
-        <v>546</v>
+        <v>864</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>548</v>
+        <v>425</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="H160" t="s">
-        <v>549</v>
+        <v>865</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>744</v>
+        <v>570</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
       </c>
       <c r="C161" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>859</v>
+        <v>678</v>
       </c>
       <c r="F161" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G161" t="s">
-        <v>744</v>
+        <v>570</v>
       </c>
       <c r="H161" t="s">
-        <v>745</v>
+        <v>866</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>550</v>
+        <v>426</v>
       </c>
       <c r="B162" t="s">
         <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="F162" t="s">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>552</v>
+        <v>428</v>
       </c>
       <c r="H162" t="s">
-        <v>553</v>
+        <v>429</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="B163" t="s">
         <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>555</v>
+        <v>431</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="H163" t="s">
-        <v>556</v>
+        <v>867</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>557</v>
+        <v>432</v>
       </c>
       <c r="B164" t="s">
         <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>558</v>
+        <v>433</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>557</v>
+        <v>432</v>
       </c>
       <c r="H164" t="s">
-        <v>559</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="H165" t="s">
-        <v>563</v>
+        <v>869</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>564</v>
+        <v>437</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
       <c r="H166" t="s">
-        <v>567</v>
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>568</v>
+        <v>440</v>
       </c>
       <c r="B167" t="s">
         <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>569</v>
+        <v>441</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>570</v>
+        <v>442</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>871</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>572</v>
+        <v>443</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>573</v>
+        <v>444</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>574</v>
+        <v>445</v>
       </c>
       <c r="H168" t="s">
-        <v>575</v>
+        <v>872</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>576</v>
+        <v>446</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>577</v>
+        <v>447</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>578</v>
+        <v>448</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>873</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>580</v>
+        <v>449</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="H170" t="s">
-        <v>583</v>
+        <v>874</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>870</v>
+        <v>688</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
       </c>
       <c r="C171" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="D171" t="s">
-        <v>874</v>
+        <v>691</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>871</v>
+        <v>689</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>872</v>
+        <v>690</v>
       </c>
       <c r="H171" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>584</v>
+        <v>452</v>
       </c>
       <c r="B172" t="s">
         <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>585</v>
+        <v>453</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>586</v>
+        <v>454</v>
       </c>
       <c r="H172" t="s">
-        <v>752</v>
+        <v>876</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>867</v>
+        <v>686</v>
       </c>
       <c r="B173" t="s">
         <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>868</v>
+        <v>687</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>867</v>
+        <v>686</v>
       </c>
       <c r="H173" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>588</v>
+        <v>456</v>
       </c>
       <c r="F174" t="s">
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="H174" t="s">
-        <v>589</v>
+        <v>878</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>591</v>
+        <v>458</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>592</v>
+        <v>459</v>
       </c>
       <c r="H175" t="s">
-        <v>593</v>
+        <v>879</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>594</v>
+        <v>460</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>595</v>
+        <v>461</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>594</v>
+        <v>460</v>
       </c>
       <c r="H176" t="s">
-        <v>596</v>
+        <v>880</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>597</v>
+        <v>462</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D177" t="s">
-        <v>767</v>
+        <v>587</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>598</v>
+        <v>463</v>
       </c>
       <c r="F177" t="s">
-        <v>725</v>
+        <v>554</v>
       </c>
       <c r="G177" t="s">
-        <v>599</v>
+        <v>464</v>
       </c>
       <c r="H177" t="s">
-        <v>600</v>
+        <v>881</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>602</v>
+        <v>466</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="H178" t="s">
-        <v>604</v>
+        <v>882</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>605</v>
+        <v>468</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>606</v>
+        <v>469</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>607</v>
+        <v>470</v>
       </c>
       <c r="H179" t="s">
-        <v>608</v>
+        <v>883</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>609</v>
+        <v>471</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>610</v>
+        <v>472</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>609</v>
+        <v>471</v>
       </c>
       <c r="H180" t="s">
-        <v>611</v>
+        <v>884</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>612</v>
+        <v>473</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>613</v>
+        <v>474</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>614</v>
+        <v>475</v>
       </c>
       <c r="H181" t="s">
-        <v>615</v>
+        <v>885</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>616</v>
+        <v>476</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>617</v>
+        <v>477</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>618</v>
+        <v>478</v>
       </c>
       <c r="H182" t="s">
-        <v>619</v>
+        <v>886</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>620</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>621</v>
+        <v>480</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>622</v>
+        <v>481</v>
       </c>
       <c r="H183" t="s">
-        <v>623</v>
+        <v>887</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>624</v>
+        <v>482</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="H184" t="s">
-        <v>627</v>
+        <v>888</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>628</v>
+        <v>485</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>629</v>
+        <v>486</v>
       </c>
       <c r="H185" t="s">
-        <v>630</v>
+        <v>889</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>631</v>
+        <v>487</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>632</v>
+        <v>488</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>633</v>
+        <v>489</v>
       </c>
       <c r="H186" t="s">
-        <v>634</v>
+        <v>890</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>635</v>
+        <v>490</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>636</v>
+        <v>491</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>637</v>
+        <v>492</v>
       </c>
       <c r="H187" t="s">
-        <v>638</v>
+        <v>891</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>639</v>
+        <v>493</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>640</v>
+        <v>494</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>639</v>
+        <v>493</v>
       </c>
       <c r="H188" t="s">
-        <v>641</v>
+        <v>892</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>642</v>
+        <v>893</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>643</v>
+        <v>495</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>865</v>
+        <v>684</v>
       </c>
       <c r="H189" t="s">
-        <v>644</v>
+        <v>894</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>645</v>
+        <v>496</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>646</v>
+        <v>497</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>863</v>
+        <v>682</v>
       </c>
       <c r="H190" t="s">
-        <v>647</v>
+        <v>895</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>648</v>
+        <v>498</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>864</v>
+        <v>683</v>
       </c>
       <c r="H191" t="s">
-        <v>650</v>
+        <v>896</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>739</v>
+        <v>566</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>860</v>
+        <v>679</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>740</v>
+        <v>567</v>
       </c>
       <c r="H192" t="s">
-        <v>738</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>651</v>
+        <v>500</v>
       </c>
       <c r="B193" t="s">
         <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>508</v>
+        <v>395</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>651</v>
+        <v>500</v>
       </c>
       <c r="H193" t="s">
-        <v>652</v>
+        <v>898</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>653</v>
+        <v>501</v>
       </c>
       <c r="B194" t="s">
         <v>26</v>
       </c>
       <c r="C194" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>654</v>
+        <v>502</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>655</v>
+        <v>503</v>
       </c>
       <c r="H194" t="s">
-        <v>656</v>
+        <v>899</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>657</v>
+        <v>504</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>658</v>
+        <v>505</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>659</v>
+        <v>506</v>
       </c>
       <c r="H195" t="s">
-        <v>660</v>
+        <v>900</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>661</v>
+        <v>507</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>662</v>
+        <v>508</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>663</v>
+        <v>509</v>
       </c>
       <c r="H196" t="s">
-        <v>664</v>
+        <v>901</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>736</v>
+        <v>564</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>665</v>
+        <v>510</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>748</v>
+        <v>572</v>
       </c>
       <c r="H197" t="s">
-        <v>666</v>
+        <v>902</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>668</v>
+        <v>512</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>669</v>
+        <v>513</v>
       </c>
       <c r="H198" t="s">
-        <v>670</v>
+        <v>903</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>671</v>
+        <v>514</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>672</v>
+        <v>515</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>673</v>
+        <v>516</v>
       </c>
       <c r="H199" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>674</v>
+        <v>517</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>675</v>
+        <v>518</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>676</v>
+        <v>519</v>
       </c>
       <c r="H200" t="s">
-        <v>677</v>
+        <v>905</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>678</v>
+        <v>520</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>679</v>
+        <v>521</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>680</v>
+        <v>522</v>
       </c>
       <c r="H201" t="s">
-        <v>681</v>
+        <v>906</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>682</v>
+        <v>523</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>683</v>
+        <v>524</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>684</v>
+        <v>525</v>
       </c>
       <c r="H202" t="s">
-        <v>685</v>
+        <v>907</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>851</v>
+        <v>670</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
       </c>
       <c r="C203" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="D203" t="s">
-        <v>854</v>
+        <v>673</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>862</v>
+        <v>681</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>852</v>
+        <v>671</v>
       </c>
       <c r="H203" t="s">
-        <v>853</v>
+        <v>672</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>686</v>
+        <v>526</v>
       </c>
       <c r="B204" t="s">
         <v>26</v>
       </c>
       <c r="C204" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>687</v>
+        <v>527</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>688</v>
+        <v>528</v>
       </c>
       <c r="H204" t="s">
-        <v>689</v>
+        <v>529</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>690</v>
+        <v>530</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>691</v>
+        <v>918</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>690</v>
+        <v>530</v>
       </c>
       <c r="H205" t="s">
-        <v>692</v>
+        <v>908</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>693</v>
+        <v>531</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>694</v>
+        <v>532</v>
       </c>
       <c r="F206" t="s">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>695</v>
+        <v>533</v>
       </c>
       <c r="H206" t="s">
-        <v>696</v>
+        <v>909</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>697</v>
+        <v>534</v>
       </c>
       <c r="B207" t="s">
         <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>558</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>698</v>
+        <v>535</v>
       </c>
       <c r="F207" t="s">
         <v>3</v>
       </c>
       <c r="G207" t="s">
-        <v>699</v>
+        <v>536</v>
       </c>
       <c r="H207" t="s">
-        <v>700</v>
+        <v>910</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>701</v>
+        <v>537</v>
       </c>
       <c r="B208" t="s">
         <v>31</v>
       </c>
       <c r="C208" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>702</v>
+        <v>538</v>
       </c>
       <c r="F208" t="s">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>701</v>
+        <v>537</v>
       </c>
       <c r="H208" t="s">
-        <v>703</v>
+        <v>911</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>704</v>
+        <v>539</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>705</v>
+        <v>540</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>706</v>
+        <v>541</v>
       </c>
       <c r="H209" t="s">
-        <v>707</v>
+        <v>912</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>709</v>
+        <v>543</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>710</v>
+        <v>544</v>
       </c>
       <c r="H210" t="s">
-        <v>711</v>
+        <v>913</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>712</v>
+        <v>545</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>713</v>
+        <v>546</v>
       </c>
       <c r="F211" t="s">
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>714</v>
+        <v>547</v>
       </c>
       <c r="H211" t="s">
-        <v>715</v>
+        <v>914</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>716</v>
+        <v>548</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>732</v>
+        <v>560</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>713</v>
+        <v>546</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>717</v>
+        <v>549</v>
       </c>
       <c r="H212" t="s">
-        <v>718</v>
+        <v>915</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>719</v>
+        <v>550</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>861</v>
+        <v>680</v>
       </c>
       <c r="F213" t="s">
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>720</v>
+        <v>551</v>
       </c>
       <c r="H213" t="s">
-        <v>721</v>
+        <v>916</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>722</v>
+        <v>552</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F214" t="s">
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>722</v>
+        <v>552</v>
       </c>
       <c r="H214" t="s">
-        <v>723</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
